--- a/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="56">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -873,6 +873,12 @@
   </si>
   <si>
     <t xml:space="preserve">Nhập kho K gộp đơn 567 c.Phương </t>
+  </si>
+  <si>
+    <t>gộpp đơn linna</t>
+  </si>
+  <si>
+    <t>Nhập từ kho kín</t>
   </si>
 </sst>
 </file>
@@ -1329,15 +1335,81 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1358,72 +1430,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1753,11 +1759,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
+      <c r="A1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
       <c r="D1" s="75"/>
       <c r="E1" s="75"/>
       <c r="F1" s="75"/>
@@ -1793,11 +1799,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
       <c r="D2" s="76"/>
       <c r="E2" s="76"/>
       <c r="F2" s="76"/>
@@ -1833,235 +1839,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105"/>
-      <c r="W3" s="105"/>
-      <c r="X3" s="105"/>
-      <c r="Y3" s="105"/>
-      <c r="Z3" s="105"/>
-      <c r="AA3" s="105"/>
-      <c r="AB3" s="105"/>
-      <c r="AC3" s="105"/>
-      <c r="AD3" s="105"/>
-      <c r="AE3" s="105"/>
-      <c r="AF3" s="105"/>
-      <c r="AG3" s="105"/>
-      <c r="AH3" s="105"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
-      <c r="V4" s="105"/>
-      <c r="W4" s="105"/>
-      <c r="X4" s="105"/>
-      <c r="Y4" s="105"/>
-      <c r="Z4" s="105"/>
-      <c r="AA4" s="105"/>
-      <c r="AB4" s="105"/>
-      <c r="AC4" s="105"/>
-      <c r="AD4" s="105"/>
-      <c r="AE4" s="105"/>
-      <c r="AF4" s="105"/>
-      <c r="AG4" s="105"/>
-      <c r="AH4" s="105"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="84"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="84"/>
+      <c r="AE4" s="84"/>
+      <c r="AF4" s="84"/>
+      <c r="AG4" s="84"/>
+      <c r="AH4" s="84"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
-      <c r="U5" s="105"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="105"/>
-      <c r="X5" s="105"/>
-      <c r="Y5" s="105"/>
-      <c r="Z5" s="105"/>
-      <c r="AA5" s="105"/>
-      <c r="AB5" s="105"/>
-      <c r="AC5" s="105"/>
-      <c r="AD5" s="105"/>
-      <c r="AE5" s="105"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="84"/>
+      <c r="Y5" s="84"/>
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="84"/>
+      <c r="AB5" s="84"/>
+      <c r="AC5" s="84"/>
+      <c r="AD5" s="84"/>
+      <c r="AE5" s="84"/>
       <c r="AF5" s="77"/>
       <c r="AG5" s="77"/>
       <c r="AH5" s="77"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="108"/>
-      <c r="Z6" s="108"/>
-      <c r="AA6" s="108"/>
-      <c r="AB6" s="108"/>
-      <c r="AC6" s="108"/>
-      <c r="AD6" s="108"/>
-      <c r="AE6" s="108"/>
-      <c r="AF6" s="108"/>
-      <c r="AG6" s="109"/>
-      <c r="AH6" s="92" t="s">
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="87"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="87"/>
+      <c r="W6" s="87"/>
+      <c r="X6" s="87"/>
+      <c r="Y6" s="87"/>
+      <c r="Z6" s="87"/>
+      <c r="AA6" s="87"/>
+      <c r="AB6" s="87"/>
+      <c r="AC6" s="87"/>
+      <c r="AD6" s="87"/>
+      <c r="AE6" s="87"/>
+      <c r="AF6" s="87"/>
+      <c r="AG6" s="88"/>
+      <c r="AH6" s="81" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="92"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="110" t="s">
+      <c r="A7" s="81"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="110"/>
-      <c r="F7" s="92" t="s">
+      <c r="E7" s="89"/>
+      <c r="F7" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="111" t="s">
+      <c r="G7" s="81"/>
+      <c r="H7" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="111"/>
-      <c r="J7" s="92" t="s">
+      <c r="I7" s="90"/>
+      <c r="J7" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="92"/>
-      <c r="L7" s="112" t="s">
+      <c r="K7" s="81"/>
+      <c r="L7" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="112"/>
-      <c r="N7" s="92" t="s">
+      <c r="M7" s="91"/>
+      <c r="N7" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="92"/>
-      <c r="P7" s="100" t="s">
+      <c r="O7" s="81"/>
+      <c r="P7" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="92" t="s">
+      <c r="Q7" s="101"/>
+      <c r="R7" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="92"/>
-      <c r="T7" s="101" t="s">
+      <c r="S7" s="81"/>
+      <c r="T7" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="101"/>
-      <c r="V7" s="92" t="s">
+      <c r="U7" s="102"/>
+      <c r="V7" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="92"/>
-      <c r="X7" s="102" t="s">
+      <c r="W7" s="81"/>
+      <c r="X7" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="102"/>
-      <c r="Z7" s="92" t="s">
+      <c r="Y7" s="103"/>
+      <c r="Z7" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="91" t="s">
+      <c r="AA7" s="81"/>
+      <c r="AB7" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="91"/>
-      <c r="AD7" s="92" t="s">
+      <c r="AC7" s="92"/>
+      <c r="AD7" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="92"/>
+      <c r="AE7" s="81"/>
       <c r="AF7" s="93" t="s">
         <v>24</v>
       </c>
       <c r="AG7" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="92"/>
+      <c r="AH7" s="81"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="92"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="92"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="78" t="s">
         <v>26</v>
       </c>
@@ -2148,7 +2154,7 @@
       </c>
       <c r="AF8" s="94"/>
       <c r="AG8" s="94"/>
-      <c r="AH8" s="92"/>
+      <c r="AH8" s="81"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -3237,71 +3243,71 @@
         <v>0</v>
       </c>
       <c r="E30" s="97"/>
-      <c r="F30" s="83">
+      <c r="F30" s="98">
         <f>SUM(F9:F28)-SUM(G9:G28)</f>
         <v>4</v>
       </c>
-      <c r="G30" s="83"/>
-      <c r="H30" s="98">
+      <c r="G30" s="98"/>
+      <c r="H30" s="99">
         <f>SUM(H9:H28)-SUM(I9:I28)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="98"/>
-      <c r="J30" s="83">
+      <c r="I30" s="99"/>
+      <c r="J30" s="98">
         <f>SUM(J9:J28)-SUM(K9:K28)</f>
         <v>1</v>
       </c>
-      <c r="K30" s="83"/>
-      <c r="L30" s="99">
+      <c r="K30" s="98"/>
+      <c r="L30" s="100">
         <f>SUM(L9:L28)-SUM(M9:M28)</f>
         <v>0</v>
       </c>
-      <c r="M30" s="99"/>
-      <c r="N30" s="83">
+      <c r="M30" s="100"/>
+      <c r="N30" s="98">
         <f>SUM(N9:N28)-SUM(O9:O28)</f>
         <v>2</v>
       </c>
-      <c r="O30" s="83"/>
-      <c r="P30" s="84">
+      <c r="O30" s="98"/>
+      <c r="P30" s="106">
         <f>SUM(P9:P28)-SUM(Q9:Q28)</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="83">
+      <c r="Q30" s="106"/>
+      <c r="R30" s="98">
         <f>SUM(R9:R28)-SUM(S9:S28)</f>
         <v>2</v>
       </c>
-      <c r="S30" s="83"/>
-      <c r="T30" s="85">
+      <c r="S30" s="98"/>
+      <c r="T30" s="107">
         <f>SUM(T9:T28)-SUM(U9:U28)</f>
         <v>0</v>
       </c>
-      <c r="U30" s="85"/>
-      <c r="V30" s="83">
+      <c r="U30" s="107"/>
+      <c r="V30" s="98">
         <f>SUM(V9:V28)-SUM(W9:W28)</f>
         <v>0</v>
       </c>
-      <c r="W30" s="83"/>
-      <c r="X30" s="86">
+      <c r="W30" s="98"/>
+      <c r="X30" s="108">
         <f>SUM(X9:X28)-SUM(Y9:Y28)</f>
         <v>5</v>
       </c>
-      <c r="Y30" s="86"/>
-      <c r="Z30" s="83">
+      <c r="Y30" s="108"/>
+      <c r="Z30" s="98">
         <f>SUM(Z9:Z28)-SUM(AA9:AA28)</f>
         <v>0</v>
       </c>
-      <c r="AA30" s="83"/>
-      <c r="AB30" s="87">
+      <c r="AA30" s="98"/>
+      <c r="AB30" s="109">
         <f>SUM(AB9:AB28)-SUM(AC9:AC28)</f>
         <v>3</v>
       </c>
-      <c r="AC30" s="87"/>
-      <c r="AD30" s="83">
+      <c r="AC30" s="109"/>
+      <c r="AD30" s="98">
         <f>SUM(AD9:AD28)-SUM(AE9:AE28)</f>
         <v>0</v>
       </c>
-      <c r="AE30" s="83"/>
+      <c r="AE30" s="98"/>
       <c r="AF30" s="20"/>
       <c r="AG30" s="9">
         <f t="shared" si="1"/>
@@ -3310,39 +3316,39 @@
       <c r="AH30" s="21"/>
     </row>
     <row r="31" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="88" t="s">
+      <c r="A31" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="89"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="89"/>
-      <c r="O31" s="89"/>
-      <c r="P31" s="89"/>
-      <c r="Q31" s="89"/>
-      <c r="R31" s="89"/>
-      <c r="S31" s="89"/>
-      <c r="T31" s="89"/>
-      <c r="U31" s="89"/>
-      <c r="V31" s="89"/>
-      <c r="W31" s="89"/>
-      <c r="X31" s="89"/>
-      <c r="Y31" s="89"/>
-      <c r="Z31" s="89"/>
-      <c r="AA31" s="89"/>
-      <c r="AB31" s="89"/>
-      <c r="AC31" s="89"/>
-      <c r="AD31" s="89"/>
-      <c r="AE31" s="90"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="111"/>
+      <c r="O31" s="111"/>
+      <c r="P31" s="111"/>
+      <c r="Q31" s="111"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="111"/>
+      <c r="T31" s="111"/>
+      <c r="U31" s="111"/>
+      <c r="V31" s="111"/>
+      <c r="W31" s="111"/>
+      <c r="X31" s="111"/>
+      <c r="Y31" s="111"/>
+      <c r="Z31" s="111"/>
+      <c r="AA31" s="111"/>
+      <c r="AB31" s="111"/>
+      <c r="AC31" s="111"/>
+      <c r="AD31" s="111"/>
+      <c r="AE31" s="112"/>
       <c r="AF31" s="22">
         <f>SUM(AF9:AF28)</f>
         <v>79</v>
@@ -3354,48 +3360,76 @@
       <c r="AH31" s="23"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="88" t="s">
+      <c r="A32" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="89"/>
-      <c r="O32" s="89"/>
-      <c r="P32" s="89"/>
-      <c r="Q32" s="89"/>
-      <c r="R32" s="89"/>
-      <c r="S32" s="89"/>
-      <c r="T32" s="89"/>
-      <c r="U32" s="89"/>
-      <c r="V32" s="89"/>
-      <c r="W32" s="89"/>
-      <c r="X32" s="89"/>
-      <c r="Y32" s="89"/>
-      <c r="Z32" s="89"/>
-      <c r="AA32" s="89"/>
-      <c r="AB32" s="89"/>
-      <c r="AC32" s="89"/>
-      <c r="AD32" s="89"/>
-      <c r="AE32" s="90"/>
-      <c r="AF32" s="81">
+      <c r="B32" s="111"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="111"/>
+      <c r="M32" s="111"/>
+      <c r="N32" s="111"/>
+      <c r="O32" s="111"/>
+      <c r="P32" s="111"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="111"/>
+      <c r="S32" s="111"/>
+      <c r="T32" s="111"/>
+      <c r="U32" s="111"/>
+      <c r="V32" s="111"/>
+      <c r="W32" s="111"/>
+      <c r="X32" s="111"/>
+      <c r="Y32" s="111"/>
+      <c r="Z32" s="111"/>
+      <c r="AA32" s="111"/>
+      <c r="AB32" s="111"/>
+      <c r="AC32" s="111"/>
+      <c r="AD32" s="111"/>
+      <c r="AE32" s="112"/>
+      <c r="AF32" s="104">
         <f>AG31-AF31</f>
         <v>17</v>
       </c>
-      <c r="AG32" s="82"/>
+      <c r="AG32" s="105"/>
       <c r="AH32" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="A31:AE31"/>
+    <mergeCell ref="A32:AE32"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -3412,34 +3446,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="A31:AE31"/>
-    <mergeCell ref="A32:AE32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3449,11 +3455,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH45"/>
+  <dimension ref="A1:AH47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L49" sqref="L49"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3469,11 +3475,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
+      <c r="A1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
       <c r="D1" s="54"/>
       <c r="E1" s="54"/>
       <c r="F1" s="54"/>
@@ -3509,11 +3515,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
       <c r="F2" s="55"/>
@@ -3549,235 +3555,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105"/>
-      <c r="W3" s="105"/>
-      <c r="X3" s="105"/>
-      <c r="Y3" s="105"/>
-      <c r="Z3" s="105"/>
-      <c r="AA3" s="105"/>
-      <c r="AB3" s="105"/>
-      <c r="AC3" s="105"/>
-      <c r="AD3" s="105"/>
-      <c r="AE3" s="105"/>
-      <c r="AF3" s="105"/>
-      <c r="AG3" s="105"/>
-      <c r="AH3" s="105"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
-      <c r="V4" s="105"/>
-      <c r="W4" s="105"/>
-      <c r="X4" s="105"/>
-      <c r="Y4" s="105"/>
-      <c r="Z4" s="105"/>
-      <c r="AA4" s="105"/>
-      <c r="AB4" s="105"/>
-      <c r="AC4" s="105"/>
-      <c r="AD4" s="105"/>
-      <c r="AE4" s="105"/>
-      <c r="AF4" s="105"/>
-      <c r="AG4" s="105"/>
-      <c r="AH4" s="105"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="84"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="84"/>
+      <c r="AE4" s="84"/>
+      <c r="AF4" s="84"/>
+      <c r="AG4" s="84"/>
+      <c r="AH4" s="84"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
-      <c r="U5" s="105"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="105"/>
-      <c r="X5" s="105"/>
-      <c r="Y5" s="105"/>
-      <c r="Z5" s="105"/>
-      <c r="AA5" s="105"/>
-      <c r="AB5" s="105"/>
-      <c r="AC5" s="105"/>
-      <c r="AD5" s="105"/>
-      <c r="AE5" s="105"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="84"/>
+      <c r="Y5" s="84"/>
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="84"/>
+      <c r="AB5" s="84"/>
+      <c r="AC5" s="84"/>
+      <c r="AD5" s="84"/>
+      <c r="AE5" s="84"/>
       <c r="AF5" s="56"/>
       <c r="AG5" s="56"/>
       <c r="AH5" s="56"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="108"/>
-      <c r="Z6" s="108"/>
-      <c r="AA6" s="108"/>
-      <c r="AB6" s="108"/>
-      <c r="AC6" s="108"/>
-      <c r="AD6" s="108"/>
-      <c r="AE6" s="108"/>
-      <c r="AF6" s="108"/>
-      <c r="AG6" s="109"/>
-      <c r="AH6" s="92" t="s">
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="87"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="87"/>
+      <c r="W6" s="87"/>
+      <c r="X6" s="87"/>
+      <c r="Y6" s="87"/>
+      <c r="Z6" s="87"/>
+      <c r="AA6" s="87"/>
+      <c r="AB6" s="87"/>
+      <c r="AC6" s="87"/>
+      <c r="AD6" s="87"/>
+      <c r="AE6" s="87"/>
+      <c r="AF6" s="87"/>
+      <c r="AG6" s="88"/>
+      <c r="AH6" s="81" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="92"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="110" t="s">
+      <c r="A7" s="81"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="110"/>
-      <c r="F7" s="92" t="s">
+      <c r="E7" s="89"/>
+      <c r="F7" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="111" t="s">
+      <c r="G7" s="81"/>
+      <c r="H7" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="111"/>
-      <c r="J7" s="92" t="s">
+      <c r="I7" s="90"/>
+      <c r="J7" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="92"/>
-      <c r="L7" s="112" t="s">
+      <c r="K7" s="81"/>
+      <c r="L7" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="112"/>
-      <c r="N7" s="92" t="s">
+      <c r="M7" s="91"/>
+      <c r="N7" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="92"/>
-      <c r="P7" s="100" t="s">
+      <c r="O7" s="81"/>
+      <c r="P7" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="92" t="s">
+      <c r="Q7" s="101"/>
+      <c r="R7" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="92"/>
-      <c r="T7" s="101" t="s">
+      <c r="S7" s="81"/>
+      <c r="T7" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="101"/>
-      <c r="V7" s="92" t="s">
+      <c r="U7" s="102"/>
+      <c r="V7" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="92"/>
-      <c r="X7" s="102" t="s">
+      <c r="W7" s="81"/>
+      <c r="X7" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="102"/>
-      <c r="Z7" s="92" t="s">
+      <c r="Y7" s="103"/>
+      <c r="Z7" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="91" t="s">
+      <c r="AA7" s="81"/>
+      <c r="AB7" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="91"/>
-      <c r="AD7" s="92" t="s">
+      <c r="AC7" s="92"/>
+      <c r="AD7" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="92"/>
+      <c r="AE7" s="81"/>
       <c r="AF7" s="93" t="s">
         <v>24</v>
       </c>
       <c r="AG7" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="92"/>
+      <c r="AH7" s="81"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="92"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="92"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="57" t="s">
         <v>26</v>
       </c>
@@ -3864,7 +3870,7 @@
       </c>
       <c r="AF8" s="113"/>
       <c r="AG8" s="113"/>
-      <c r="AH8" s="92"/>
+      <c r="AH8" s="81"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -4030,10 +4036,10 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
-        <v>4</v>
+        <v>572</v>
       </c>
       <c r="B12" s="13">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>50</v>
@@ -4084,10 +4090,10 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
-        <v>5</v>
+        <v>573</v>
       </c>
       <c r="B13" s="13">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>51</v>
@@ -4142,8 +4148,12 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
+      <c r="B14" s="15">
+        <v>44000</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="16"/>
@@ -4151,7 +4161,9 @@
       <c r="H14" s="32"/>
       <c r="I14" s="32"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
+      <c r="K14" s="16">
+        <v>4</v>
+      </c>
       <c r="L14" s="40"/>
       <c r="M14" s="40"/>
       <c r="N14" s="16"/>
@@ -4163,7 +4175,9 @@
       <c r="T14" s="48"/>
       <c r="U14" s="48"/>
       <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
+      <c r="W14" s="16">
+        <v>2</v>
+      </c>
       <c r="X14" s="52"/>
       <c r="Y14" s="52"/>
       <c r="Z14" s="16"/>
@@ -4172,21 +4186,21 @@
       <c r="AC14" s="36"/>
       <c r="AD14" s="16"/>
       <c r="AE14" s="16"/>
-      <c r="AF14" s="9">
-        <f t="shared" ref="AF10:AF42" si="2">E14+G14+I14+K14+M14+O14+Q14+S14+U14+W14+Y14+AA14+AC14+AE14</f>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="9">
-        <f t="shared" ref="AG10:AG42" si="3">D14+F14+H14+J14+L14+N14+P14+R14+T14+V14+X14+Z14+AB14+AD14</f>
-        <v>0</v>
-      </c>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
       <c r="AH14" s="14"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="28"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="15">
+        <v>44000</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="28">
+        <v>3</v>
+      </c>
       <c r="E15" s="28"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -4214,90 +4228,84 @@
       <c r="AC15" s="36"/>
       <c r="AD15" s="16"/>
       <c r="AE15" s="16"/>
-      <c r="AF15" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG15" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
       <c r="AH15" s="14"/>
     </row>
-    <row r="16" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="51"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="14"/>
-      <c r="AE16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
       <c r="AF16" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AF16:AF44" si="2">E16+G16+I16+K16+M16+O16+Q16+S16+U16+W16+Y16+AA16+AC16+AE16</f>
         <v>0</v>
       </c>
       <c r="AG16" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="AG16:AG44" si="3">D16+F16+H16+J16+L16+N16+P16+R16+T16+V16+X16+Z16+AB16+AD16</f>
         <v>0</v>
       </c>
       <c r="AH16" s="14"/>
     </row>
-    <row r="17" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="51"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
       <c r="AF17" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4561,9 +4569,7 @@
       <c r="AH23" s="14"/>
     </row>
     <row r="24" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
-        <v>16</v>
-      </c>
+      <c r="A24" s="11"/>
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
       <c r="D24" s="27"/>
@@ -4605,9 +4611,7 @@
       <c r="AH24" s="14"/>
     </row>
     <row r="25" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>17</v>
-      </c>
+      <c r="A25" s="9"/>
       <c r="B25" s="13"/>
       <c r="C25" s="14"/>
       <c r="D25" s="27"/>
@@ -4650,7 +4654,7 @@
     </row>
     <row r="26" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
@@ -4694,7 +4698,7 @@
     </row>
     <row r="27" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
@@ -4738,7 +4742,7 @@
     </row>
     <row r="28" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
@@ -4782,7 +4786,7 @@
     </row>
     <row r="29" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
@@ -4826,7 +4830,7 @@
     </row>
     <row r="30" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
@@ -4870,7 +4874,7 @@
     </row>
     <row r="31" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
@@ -4914,7 +4918,7 @@
     </row>
     <row r="32" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
@@ -4958,7 +4962,7 @@
     </row>
     <row r="33" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
@@ -5002,7 +5006,7 @@
     </row>
     <row r="34" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
@@ -5046,7 +5050,7 @@
     </row>
     <row r="35" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
@@ -5090,7 +5094,7 @@
     </row>
     <row r="36" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
@@ -5134,7 +5138,7 @@
     </row>
     <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
@@ -5178,7 +5182,7 @@
     </row>
     <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
@@ -5222,7 +5226,7 @@
     </row>
     <row r="39" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="14"/>
@@ -5266,38 +5270,38 @@
     </row>
     <row r="40" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
-        <v>32</v>
-      </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="44"/>
-      <c r="Q40" s="44"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
-      <c r="T40" s="48"/>
-      <c r="U40" s="48"/>
-      <c r="V40" s="16"/>
-      <c r="W40" s="16"/>
-      <c r="X40" s="52"/>
-      <c r="Y40" s="52"/>
-      <c r="Z40" s="16"/>
-      <c r="AA40" s="16"/>
-      <c r="AB40" s="36"/>
-      <c r="AC40" s="36"/>
-      <c r="AD40" s="16"/>
-      <c r="AE40" s="16"/>
+        <v>30</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="47"/>
+      <c r="U40" s="47"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="51"/>
+      <c r="Y40" s="51"/>
+      <c r="Z40" s="14"/>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="35"/>
+      <c r="AC40" s="35"/>
+      <c r="AD40" s="14"/>
+      <c r="AE40" s="14"/>
       <c r="AF40" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5306,42 +5310,42 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH40" s="16"/>
+      <c r="AH40" s="14"/>
     </row>
     <row r="41" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
-        <v>33</v>
-      </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="44"/>
-      <c r="Q41" s="44"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="16"/>
-      <c r="T41" s="48"/>
-      <c r="U41" s="48"/>
-      <c r="V41" s="16"/>
-      <c r="W41" s="16"/>
-      <c r="X41" s="52"/>
-      <c r="Y41" s="52"/>
-      <c r="Z41" s="16"/>
-      <c r="AA41" s="16"/>
-      <c r="AB41" s="36"/>
-      <c r="AC41" s="36"/>
-      <c r="AD41" s="16"/>
-      <c r="AE41" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="47"/>
+      <c r="U41" s="47"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="51"/>
+      <c r="Y41" s="51"/>
+      <c r="Z41" s="14"/>
+      <c r="AA41" s="14"/>
+      <c r="AB41" s="35"/>
+      <c r="AC41" s="35"/>
+      <c r="AD41" s="14"/>
+      <c r="AE41" s="14"/>
       <c r="AF41" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5350,11 +5354,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH41" s="16"/>
+      <c r="AH41" s="14"/>
     </row>
     <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B42" s="15"/>
       <c r="C42" s="16"/>
@@ -5396,201 +5400,262 @@
       </c>
       <c r="AH42" s="16"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="97">
-        <f>SUM(D9:D42)-SUM(E9:E42)</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="97"/>
-      <c r="F43" s="83">
-        <f>SUM(F9:F42)-SUM(G9:G42)</f>
-        <v>0</v>
-      </c>
-      <c r="G43" s="83"/>
-      <c r="H43" s="98">
-        <f>SUM(H9:H42)-SUM(I9:I42)</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="98"/>
-      <c r="J43" s="83">
-        <f>SUM(J9:J42)-SUM(K9:K42)</f>
+    <row r="43" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>33</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="48"/>
+      <c r="U43" s="48"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="52"/>
+      <c r="Y43" s="52"/>
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="36"/>
+      <c r="AC43" s="36"/>
+      <c r="AD43" s="16"/>
+      <c r="AE43" s="16"/>
+      <c r="AF43" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH43" s="16"/>
+    </row>
+    <row r="44" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>34</v>
+      </c>
+      <c r="B44" s="15"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="44"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="48"/>
+      <c r="U44" s="48"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="52"/>
+      <c r="Y44" s="52"/>
+      <c r="Z44" s="16"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="36"/>
+      <c r="AC44" s="36"/>
+      <c r="AD44" s="16"/>
+      <c r="AE44" s="16"/>
+      <c r="AF44" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG44" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH44" s="16"/>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A45" s="17"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="97">
+        <f>SUM(D9:D44)-SUM(E9:E44)</f>
+        <v>3</v>
+      </c>
+      <c r="E45" s="97"/>
+      <c r="F45" s="98">
+        <f>SUM(F9:F44)-SUM(G9:G44)</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="98"/>
+      <c r="H45" s="99">
+        <f>SUM(H9:H44)-SUM(I9:I44)</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="99"/>
+      <c r="J45" s="98">
+        <f>SUM(J9:J44)-SUM(K9:K44)</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="98"/>
+      <c r="L45" s="100">
+        <f>SUM(L9:L44)-SUM(M9:M44)</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="100"/>
+      <c r="N45" s="98">
+        <f>SUM(N9:N44)-SUM(O9:O44)</f>
+        <v>3</v>
+      </c>
+      <c r="O45" s="98"/>
+      <c r="P45" s="106">
+        <f>SUM(P9:P44)-SUM(Q9:Q44)</f>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="106"/>
+      <c r="R45" s="98">
+        <f>SUM(R9:R44)-SUM(S9:S44)</f>
+        <v>3</v>
+      </c>
+      <c r="S45" s="98"/>
+      <c r="T45" s="107">
+        <f>SUM(T9:T44)-SUM(U9:U44)</f>
+        <v>0</v>
+      </c>
+      <c r="U45" s="107"/>
+      <c r="V45" s="98">
+        <f>SUM(V9:V44)-SUM(W9:W44)</f>
+        <v>1</v>
+      </c>
+      <c r="W45" s="98"/>
+      <c r="X45" s="108">
+        <f>SUM(X9:X44)-SUM(Y9:Y44)</f>
         <v>4</v>
       </c>
-      <c r="K43" s="83"/>
-      <c r="L43" s="99">
-        <f>SUM(L9:L42)-SUM(M9:M42)</f>
-        <v>0</v>
-      </c>
-      <c r="M43" s="99"/>
-      <c r="N43" s="83">
-        <f>SUM(N9:N42)-SUM(O9:O42)</f>
+      <c r="Y45" s="108"/>
+      <c r="Z45" s="98">
+        <f>SUM(Z9:Z44)-SUM(AA9:AA44)</f>
         <v>3</v>
       </c>
-      <c r="O43" s="83"/>
-      <c r="P43" s="84">
-        <f>SUM(P9:P42)-SUM(Q9:Q42)</f>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="84"/>
-      <c r="R43" s="83">
-        <f>SUM(R9:R42)-SUM(S9:S42)</f>
-        <v>3</v>
-      </c>
-      <c r="S43" s="83"/>
-      <c r="T43" s="85">
-        <f>SUM(T9:T42)-SUM(U9:U42)</f>
-        <v>0</v>
-      </c>
-      <c r="U43" s="85"/>
-      <c r="V43" s="83">
-        <f>SUM(V9:V42)-SUM(W9:W42)</f>
-        <v>3</v>
-      </c>
-      <c r="W43" s="83"/>
-      <c r="X43" s="86">
-        <f>SUM(X9:X42)-SUM(Y9:Y42)</f>
+      <c r="AA45" s="98"/>
+      <c r="AB45" s="109">
+        <f>SUM(AB9:AB44)-SUM(AC9:AC44)</f>
         <v>4</v>
       </c>
-      <c r="Y43" s="86"/>
-      <c r="Z43" s="83">
-        <f>SUM(Z9:Z42)-SUM(AA9:AA42)</f>
-        <v>3</v>
-      </c>
-      <c r="AA43" s="83"/>
-      <c r="AB43" s="87">
-        <f>SUM(AB9:AB42)-SUM(AC9:AC42)</f>
-        <v>4</v>
-      </c>
-      <c r="AC43" s="87"/>
-      <c r="AD43" s="83">
-        <f>SUM(AD9:AD42)-SUM(AE9:AE42)</f>
-        <v>0</v>
-      </c>
-      <c r="AE43" s="83"/>
-      <c r="AF43" s="20"/>
-      <c r="AG43" s="9">
-        <f>D43+F43+H43+J43+L43+N43+P43+R43+T43+V43+X43+Z43+AB43+AD43</f>
+      <c r="AC45" s="109"/>
+      <c r="AD45" s="98">
+        <f>SUM(AD9:AD44)-SUM(AE9:AE44)</f>
+        <v>0</v>
+      </c>
+      <c r="AE45" s="98"/>
+      <c r="AF45" s="20"/>
+      <c r="AG45" s="9">
+        <f>D45+F45+H45+J45+L45+N45+P45+R45+T45+V45+X45+Z45+AB45+AD45</f>
+        <v>21</v>
+      </c>
+      <c r="AH45" s="21"/>
+    </row>
+    <row r="46" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="111"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="111"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="111"/>
+      <c r="H46" s="111"/>
+      <c r="I46" s="111"/>
+      <c r="J46" s="111"/>
+      <c r="K46" s="111"/>
+      <c r="L46" s="111"/>
+      <c r="M46" s="111"/>
+      <c r="N46" s="111"/>
+      <c r="O46" s="111"/>
+      <c r="P46" s="111"/>
+      <c r="Q46" s="111"/>
+      <c r="R46" s="111"/>
+      <c r="S46" s="111"/>
+      <c r="T46" s="111"/>
+      <c r="U46" s="111"/>
+      <c r="V46" s="111"/>
+      <c r="W46" s="111"/>
+      <c r="X46" s="111"/>
+      <c r="Y46" s="111"/>
+      <c r="Z46" s="111"/>
+      <c r="AA46" s="111"/>
+      <c r="AB46" s="111"/>
+      <c r="AC46" s="111"/>
+      <c r="AD46" s="111"/>
+      <c r="AE46" s="112"/>
+      <c r="AF46" s="22">
+        <f>SUM(AF9:AF44)</f>
+        <v>7</v>
+      </c>
+      <c r="AG46" s="22">
+        <f>SUM(AG9:AG44)</f>
+        <v>31</v>
+      </c>
+      <c r="AH46" s="23"/>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A47" s="110" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="111"/>
+      <c r="C47" s="111"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="111"/>
+      <c r="F47" s="111"/>
+      <c r="G47" s="111"/>
+      <c r="H47" s="111"/>
+      <c r="I47" s="111"/>
+      <c r="J47" s="111"/>
+      <c r="K47" s="111"/>
+      <c r="L47" s="111"/>
+      <c r="M47" s="111"/>
+      <c r="N47" s="111"/>
+      <c r="O47" s="111"/>
+      <c r="P47" s="111"/>
+      <c r="Q47" s="111"/>
+      <c r="R47" s="111"/>
+      <c r="S47" s="111"/>
+      <c r="T47" s="111"/>
+      <c r="U47" s="111"/>
+      <c r="V47" s="111"/>
+      <c r="W47" s="111"/>
+      <c r="X47" s="111"/>
+      <c r="Y47" s="111"/>
+      <c r="Z47" s="111"/>
+      <c r="AA47" s="111"/>
+      <c r="AB47" s="111"/>
+      <c r="AC47" s="111"/>
+      <c r="AD47" s="111"/>
+      <c r="AE47" s="112"/>
+      <c r="AF47" s="104">
+        <f>AG46-AF46</f>
         <v>24</v>
       </c>
-      <c r="AH43" s="21"/>
-    </row>
-    <row r="44" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="88" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="89"/>
-      <c r="C44" s="89"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="89"/>
-      <c r="J44" s="89"/>
-      <c r="K44" s="89"/>
-      <c r="L44" s="89"/>
-      <c r="M44" s="89"/>
-      <c r="N44" s="89"/>
-      <c r="O44" s="89"/>
-      <c r="P44" s="89"/>
-      <c r="Q44" s="89"/>
-      <c r="R44" s="89"/>
-      <c r="S44" s="89"/>
-      <c r="T44" s="89"/>
-      <c r="U44" s="89"/>
-      <c r="V44" s="89"/>
-      <c r="W44" s="89"/>
-      <c r="X44" s="89"/>
-      <c r="Y44" s="89"/>
-      <c r="Z44" s="89"/>
-      <c r="AA44" s="89"/>
-      <c r="AB44" s="89"/>
-      <c r="AC44" s="89"/>
-      <c r="AD44" s="89"/>
-      <c r="AE44" s="90"/>
-      <c r="AF44" s="22">
-        <f>SUM(AF9:AF42)</f>
-        <v>7</v>
-      </c>
-      <c r="AG44" s="22">
-        <f>SUM(AG9:AG42)</f>
-        <v>31</v>
-      </c>
-      <c r="AH44" s="23"/>
-    </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A45" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" s="89"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="89"/>
-      <c r="J45" s="89"/>
-      <c r="K45" s="89"/>
-      <c r="L45" s="89"/>
-      <c r="M45" s="89"/>
-      <c r="N45" s="89"/>
-      <c r="O45" s="89"/>
-      <c r="P45" s="89"/>
-      <c r="Q45" s="89"/>
-      <c r="R45" s="89"/>
-      <c r="S45" s="89"/>
-      <c r="T45" s="89"/>
-      <c r="U45" s="89"/>
-      <c r="V45" s="89"/>
-      <c r="W45" s="89"/>
-      <c r="X45" s="89"/>
-      <c r="Y45" s="89"/>
-      <c r="Z45" s="89"/>
-      <c r="AA45" s="89"/>
-      <c r="AB45" s="89"/>
-      <c r="AC45" s="89"/>
-      <c r="AD45" s="89"/>
-      <c r="AE45" s="90"/>
-      <c r="AF45" s="81">
-        <f>AG44-AF44</f>
-        <v>24</v>
-      </c>
-      <c r="AG45" s="82"/>
-      <c r="AH45" s="23"/>
+      <c r="AG47" s="105"/>
+      <c r="AH47" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="AB43:AC43"/>
-    <mergeCell ref="AD43:AE43"/>
-    <mergeCell ref="A44:AE44"/>
-    <mergeCell ref="A45:AE45"/>
-    <mergeCell ref="AF45:AG45"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="Z43:AA43"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -5607,6 +5672,33 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB45:AC45"/>
+    <mergeCell ref="AD45:AE45"/>
+    <mergeCell ref="A46:AE46"/>
+    <mergeCell ref="A47:AE47"/>
+    <mergeCell ref="AF47:AG47"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="Z45:AA45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="T5" sheetId="4" r:id="rId1"/>
     <sheet name="T6" sheetId="3" r:id="rId2"/>
+    <sheet name="Tổng hợp ngày 19-6" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -711,7 +712,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="81">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -803,9 +804,6 @@
     <t>tồn kho</t>
   </si>
   <si>
-    <t>Từ 06 tháng 3/2020</t>
-  </si>
-  <si>
     <t>Nhận bàn giao</t>
   </si>
   <si>
@@ -879,13 +877,91 @@
   </si>
   <si>
     <t>Nhập từ kho kín</t>
+  </si>
+  <si>
+    <t>Đơn chị Phương</t>
+  </si>
+  <si>
+    <t>Tháng 6</t>
+  </si>
+  <si>
+    <t>Tên Sản phẩm</t>
+  </si>
+  <si>
+    <t>mã sản phẩm</t>
+  </si>
+  <si>
+    <t>Đơn vị tính</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>Kho mở</t>
+  </si>
+  <si>
+    <t>Kho kín</t>
+  </si>
+  <si>
+    <t>Tổng cộng</t>
+  </si>
+  <si>
+    <t>SỔ THEO DÕI KHO ngày 19/06/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hộp </t>
+  </si>
+  <si>
+    <t>Viên soy</t>
+  </si>
+  <si>
+    <t>Nanomilk Canxi trẻ dưới 3 tuổi 450gr</t>
+  </si>
+  <si>
+    <t>Nanomilk Canxi trẻ dưới 3 tuổi 900gr</t>
+  </si>
+  <si>
+    <t>Nanomilk Canxi trẻ từ 3-12 tuổi 450gr</t>
+  </si>
+  <si>
+    <t>Nanomilk Canxi trẻ từ 3-12 tuổi 900gr</t>
+  </si>
+  <si>
+    <t>Nanomilk Canxi trẻ trên 13 tuổi 450gr</t>
+  </si>
+  <si>
+    <t>Nanomilk Canxi trẻ trên 13 tuổi 900gr</t>
+  </si>
+  <si>
+    <t>Nanomilk Canxi người già 450gr</t>
+  </si>
+  <si>
+    <t>Nanomilk Canxi người già 900gr</t>
+  </si>
+  <si>
+    <t>Nanomilk Canxi bà bầu 450gr</t>
+  </si>
+  <si>
+    <t>Nanomilk Canxi bà bầu 900gr</t>
+  </si>
+  <si>
+    <t>Nanomilk giảm cân 900gr</t>
+  </si>
+  <si>
+    <t>Nanomilk tiểu đường huyết áp 900gr</t>
+  </si>
+  <si>
+    <t>Sữa non, sữa kháng thể 450gr</t>
+  </si>
+  <si>
+    <t>ĐL Quỳnh Trang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -946,6 +1022,26 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1010,7 +1106,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1192,12 +1288,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1335,6 +1446,9 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1433,6 +1547,64 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1759,11 +1931,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
+      <c r="A1" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
       <c r="D1" s="75"/>
       <c r="E1" s="75"/>
       <c r="F1" s="75"/>
@@ -1799,11 +1971,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
       <c r="D2" s="76"/>
       <c r="E2" s="76"/>
       <c r="F2" s="76"/>
@@ -1839,235 +2011,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="85"/>
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="85"/>
+      <c r="AE3" s="85"/>
+      <c r="AF3" s="85"/>
+      <c r="AG3" s="85"/>
+      <c r="AH3" s="85"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="84"/>
-      <c r="AE4" s="84"/>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="84"/>
+      <c r="A4" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="85"/>
+      <c r="AD4" s="85"/>
+      <c r="AE4" s="85"/>
+      <c r="AF4" s="85"/>
+      <c r="AG4" s="85"/>
+      <c r="AH4" s="85"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="84"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="84"/>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="84"/>
-      <c r="AD5" s="84"/>
-      <c r="AE5" s="84"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="85"/>
+      <c r="Y5" s="85"/>
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="85"/>
+      <c r="AB5" s="85"/>
+      <c r="AC5" s="85"/>
+      <c r="AD5" s="85"/>
+      <c r="AE5" s="85"/>
       <c r="AF5" s="77"/>
       <c r="AG5" s="77"/>
       <c r="AH5" s="77"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="87"/>
-      <c r="T6" s="87"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="87"/>
-      <c r="W6" s="87"/>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="87"/>
-      <c r="Z6" s="87"/>
-      <c r="AA6" s="87"/>
-      <c r="AB6" s="87"/>
-      <c r="AC6" s="87"/>
-      <c r="AD6" s="87"/>
-      <c r="AE6" s="87"/>
-      <c r="AF6" s="87"/>
-      <c r="AG6" s="88"/>
-      <c r="AH6" s="81" t="s">
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="88"/>
+      <c r="Y6" s="88"/>
+      <c r="Z6" s="88"/>
+      <c r="AA6" s="88"/>
+      <c r="AB6" s="88"/>
+      <c r="AC6" s="88"/>
+      <c r="AD6" s="88"/>
+      <c r="AE6" s="88"/>
+      <c r="AF6" s="88"/>
+      <c r="AG6" s="89"/>
+      <c r="AH6" s="82" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="89" t="s">
+      <c r="A7" s="82"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="89"/>
-      <c r="F7" s="81" t="s">
+      <c r="E7" s="90"/>
+      <c r="F7" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="90" t="s">
+      <c r="G7" s="82"/>
+      <c r="H7" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="90"/>
-      <c r="J7" s="81" t="s">
+      <c r="I7" s="91"/>
+      <c r="J7" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="81"/>
-      <c r="L7" s="91" t="s">
+      <c r="K7" s="82"/>
+      <c r="L7" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="91"/>
-      <c r="N7" s="81" t="s">
+      <c r="M7" s="92"/>
+      <c r="N7" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="81"/>
-      <c r="P7" s="101" t="s">
+      <c r="O7" s="82"/>
+      <c r="P7" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="81" t="s">
+      <c r="Q7" s="102"/>
+      <c r="R7" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="81"/>
-      <c r="T7" s="102" t="s">
+      <c r="S7" s="82"/>
+      <c r="T7" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="102"/>
-      <c r="V7" s="81" t="s">
+      <c r="U7" s="103"/>
+      <c r="V7" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="81"/>
-      <c r="X7" s="103" t="s">
+      <c r="W7" s="82"/>
+      <c r="X7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="103"/>
-      <c r="Z7" s="81" t="s">
+      <c r="Y7" s="104"/>
+      <c r="Z7" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="81"/>
-      <c r="AB7" s="92" t="s">
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="92"/>
-      <c r="AD7" s="81" t="s">
+      <c r="AC7" s="93"/>
+      <c r="AD7" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="81"/>
-      <c r="AF7" s="93" t="s">
+      <c r="AE7" s="82"/>
+      <c r="AF7" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="93" t="s">
+      <c r="AG7" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="81"/>
+      <c r="AH7" s="82"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="81"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="78" t="s">
         <v>26</v>
       </c>
@@ -2152,9 +2324,9 @@
       <c r="AE8" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="AF8" s="94"/>
-      <c r="AG8" s="94"/>
-      <c r="AH8" s="81"/>
+      <c r="AF8" s="95"/>
+      <c r="AG8" s="95"/>
+      <c r="AH8" s="82"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -2164,7 +2336,7 @@
         <v>43946</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -2226,7 +2398,7 @@
         <v>43946</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2276,7 +2448,7 @@
         <v>43948</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
@@ -2328,7 +2500,7 @@
         <v>43948</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
@@ -2378,7 +2550,7 @@
         <v>43949</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
@@ -2430,7 +2602,7 @@
         <v>43952</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -2478,7 +2650,7 @@
         <v>43952</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
@@ -2528,7 +2700,7 @@
         <v>43953</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
@@ -2578,7 +2750,7 @@
         <v>43956</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
@@ -2628,7 +2800,7 @@
         <v>43956</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
@@ -2678,7 +2850,7 @@
         <v>43960</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
@@ -2736,7 +2908,7 @@
         <v>43957</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
@@ -2786,7 +2958,7 @@
         <v>43963</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
@@ -2836,7 +3008,7 @@
         <v>43959</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
@@ -2886,7 +3058,7 @@
         <v>43961</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
@@ -2946,7 +3118,7 @@
         <v>43968</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
@@ -2994,7 +3166,7 @@
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
@@ -3044,7 +3216,7 @@
         <v>43970</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
@@ -3094,7 +3266,7 @@
         <v>43971</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
@@ -3156,7 +3328,7 @@
         <v>43974</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
@@ -3236,78 +3408,78 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
-      <c r="B30" s="95"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="97">
+      <c r="B30" s="96"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="98">
         <f>SUM(D9:D28)-SUM(E9:E28)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="97"/>
-      <c r="F30" s="98">
+      <c r="E30" s="98"/>
+      <c r="F30" s="99">
         <f>SUM(F9:F28)-SUM(G9:G28)</f>
         <v>4</v>
       </c>
-      <c r="G30" s="98"/>
-      <c r="H30" s="99">
+      <c r="G30" s="99"/>
+      <c r="H30" s="100">
         <f>SUM(H9:H28)-SUM(I9:I28)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="99"/>
-      <c r="J30" s="98">
+      <c r="I30" s="100"/>
+      <c r="J30" s="99">
         <f>SUM(J9:J28)-SUM(K9:K28)</f>
         <v>1</v>
       </c>
-      <c r="K30" s="98"/>
-      <c r="L30" s="100">
+      <c r="K30" s="99"/>
+      <c r="L30" s="101">
         <f>SUM(L9:L28)-SUM(M9:M28)</f>
         <v>0</v>
       </c>
-      <c r="M30" s="100"/>
-      <c r="N30" s="98">
+      <c r="M30" s="101"/>
+      <c r="N30" s="99">
         <f>SUM(N9:N28)-SUM(O9:O28)</f>
         <v>2</v>
       </c>
-      <c r="O30" s="98"/>
-      <c r="P30" s="106">
+      <c r="O30" s="99"/>
+      <c r="P30" s="107">
         <f>SUM(P9:P28)-SUM(Q9:Q28)</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="106"/>
-      <c r="R30" s="98">
+      <c r="Q30" s="107"/>
+      <c r="R30" s="99">
         <f>SUM(R9:R28)-SUM(S9:S28)</f>
         <v>2</v>
       </c>
-      <c r="S30" s="98"/>
-      <c r="T30" s="107">
+      <c r="S30" s="99"/>
+      <c r="T30" s="108">
         <f>SUM(T9:T28)-SUM(U9:U28)</f>
         <v>0</v>
       </c>
-      <c r="U30" s="107"/>
-      <c r="V30" s="98">
+      <c r="U30" s="108"/>
+      <c r="V30" s="99">
         <f>SUM(V9:V28)-SUM(W9:W28)</f>
         <v>0</v>
       </c>
-      <c r="W30" s="98"/>
-      <c r="X30" s="108">
+      <c r="W30" s="99"/>
+      <c r="X30" s="109">
         <f>SUM(X9:X28)-SUM(Y9:Y28)</f>
         <v>5</v>
       </c>
-      <c r="Y30" s="108"/>
-      <c r="Z30" s="98">
+      <c r="Y30" s="109"/>
+      <c r="Z30" s="99">
         <f>SUM(Z9:Z28)-SUM(AA9:AA28)</f>
         <v>0</v>
       </c>
-      <c r="AA30" s="98"/>
-      <c r="AB30" s="109">
+      <c r="AA30" s="99"/>
+      <c r="AB30" s="110">
         <f>SUM(AB9:AB28)-SUM(AC9:AC28)</f>
         <v>3</v>
       </c>
-      <c r="AC30" s="109"/>
-      <c r="AD30" s="98">
+      <c r="AC30" s="110"/>
+      <c r="AD30" s="99">
         <f>SUM(AD9:AD28)-SUM(AE9:AE28)</f>
         <v>0</v>
       </c>
-      <c r="AE30" s="98"/>
+      <c r="AE30" s="99"/>
       <c r="AF30" s="20"/>
       <c r="AG30" s="9">
         <f t="shared" si="1"/>
@@ -3316,39 +3488,39 @@
       <c r="AH30" s="21"/>
     </row>
     <row r="31" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="110" t="s">
+      <c r="A31" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="111"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="111"/>
-      <c r="J31" s="111"/>
-      <c r="K31" s="111"/>
-      <c r="L31" s="111"/>
-      <c r="M31" s="111"/>
-      <c r="N31" s="111"/>
-      <c r="O31" s="111"/>
-      <c r="P31" s="111"/>
-      <c r="Q31" s="111"/>
-      <c r="R31" s="111"/>
-      <c r="S31" s="111"/>
-      <c r="T31" s="111"/>
-      <c r="U31" s="111"/>
-      <c r="V31" s="111"/>
-      <c r="W31" s="111"/>
-      <c r="X31" s="111"/>
-      <c r="Y31" s="111"/>
-      <c r="Z31" s="111"/>
-      <c r="AA31" s="111"/>
-      <c r="AB31" s="111"/>
-      <c r="AC31" s="111"/>
-      <c r="AD31" s="111"/>
-      <c r="AE31" s="112"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="112"/>
+      <c r="L31" s="112"/>
+      <c r="M31" s="112"/>
+      <c r="N31" s="112"/>
+      <c r="O31" s="112"/>
+      <c r="P31" s="112"/>
+      <c r="Q31" s="112"/>
+      <c r="R31" s="112"/>
+      <c r="S31" s="112"/>
+      <c r="T31" s="112"/>
+      <c r="U31" s="112"/>
+      <c r="V31" s="112"/>
+      <c r="W31" s="112"/>
+      <c r="X31" s="112"/>
+      <c r="Y31" s="112"/>
+      <c r="Z31" s="112"/>
+      <c r="AA31" s="112"/>
+      <c r="AB31" s="112"/>
+      <c r="AC31" s="112"/>
+      <c r="AD31" s="112"/>
+      <c r="AE31" s="113"/>
       <c r="AF31" s="22">
         <f>SUM(AF9:AF28)</f>
         <v>79</v>
@@ -3360,44 +3532,44 @@
       <c r="AH31" s="23"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="110" t="s">
+      <c r="A32" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="111"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="111"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="111"/>
-      <c r="L32" s="111"/>
-      <c r="M32" s="111"/>
-      <c r="N32" s="111"/>
-      <c r="O32" s="111"/>
-      <c r="P32" s="111"/>
-      <c r="Q32" s="111"/>
-      <c r="R32" s="111"/>
-      <c r="S32" s="111"/>
-      <c r="T32" s="111"/>
-      <c r="U32" s="111"/>
-      <c r="V32" s="111"/>
-      <c r="W32" s="111"/>
-      <c r="X32" s="111"/>
-      <c r="Y32" s="111"/>
-      <c r="Z32" s="111"/>
-      <c r="AA32" s="111"/>
-      <c r="AB32" s="111"/>
-      <c r="AC32" s="111"/>
-      <c r="AD32" s="111"/>
-      <c r="AE32" s="112"/>
-      <c r="AF32" s="104">
+      <c r="B32" s="112"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="112"/>
+      <c r="H32" s="112"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="112"/>
+      <c r="L32" s="112"/>
+      <c r="M32" s="112"/>
+      <c r="N32" s="112"/>
+      <c r="O32" s="112"/>
+      <c r="P32" s="112"/>
+      <c r="Q32" s="112"/>
+      <c r="R32" s="112"/>
+      <c r="S32" s="112"/>
+      <c r="T32" s="112"/>
+      <c r="U32" s="112"/>
+      <c r="V32" s="112"/>
+      <c r="W32" s="112"/>
+      <c r="X32" s="112"/>
+      <c r="Y32" s="112"/>
+      <c r="Z32" s="112"/>
+      <c r="AA32" s="112"/>
+      <c r="AB32" s="112"/>
+      <c r="AC32" s="112"/>
+      <c r="AD32" s="112"/>
+      <c r="AE32" s="113"/>
+      <c r="AF32" s="105">
         <f>AG31-AF31</f>
         <v>17</v>
       </c>
-      <c r="AG32" s="105"/>
+      <c r="AG32" s="106"/>
       <c r="AH32" s="23"/>
     </row>
   </sheetData>
@@ -3455,11 +3627,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH47"/>
+  <dimension ref="A1:AH49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3475,11 +3647,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
+      <c r="A1" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
       <c r="D1" s="54"/>
       <c r="E1" s="54"/>
       <c r="F1" s="54"/>
@@ -3515,11 +3687,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
       <c r="F2" s="55"/>
@@ -3555,235 +3727,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="85"/>
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="85"/>
+      <c r="AE3" s="85"/>
+      <c r="AF3" s="85"/>
+      <c r="AG3" s="85"/>
+      <c r="AH3" s="85"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="84"/>
-      <c r="AE4" s="84"/>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="84"/>
+      <c r="A4" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="85"/>
+      <c r="AD4" s="85"/>
+      <c r="AE4" s="85"/>
+      <c r="AF4" s="85"/>
+      <c r="AG4" s="85"/>
+      <c r="AH4" s="85"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="84"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="84"/>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="84"/>
-      <c r="AD5" s="84"/>
-      <c r="AE5" s="84"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="85"/>
+      <c r="Y5" s="85"/>
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="85"/>
+      <c r="AB5" s="85"/>
+      <c r="AC5" s="85"/>
+      <c r="AD5" s="85"/>
+      <c r="AE5" s="85"/>
       <c r="AF5" s="56"/>
       <c r="AG5" s="56"/>
       <c r="AH5" s="56"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="87"/>
-      <c r="T6" s="87"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="87"/>
-      <c r="W6" s="87"/>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="87"/>
-      <c r="Z6" s="87"/>
-      <c r="AA6" s="87"/>
-      <c r="AB6" s="87"/>
-      <c r="AC6" s="87"/>
-      <c r="AD6" s="87"/>
-      <c r="AE6" s="87"/>
-      <c r="AF6" s="87"/>
-      <c r="AG6" s="88"/>
-      <c r="AH6" s="81" t="s">
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="88"/>
+      <c r="Y6" s="88"/>
+      <c r="Z6" s="88"/>
+      <c r="AA6" s="88"/>
+      <c r="AB6" s="88"/>
+      <c r="AC6" s="88"/>
+      <c r="AD6" s="88"/>
+      <c r="AE6" s="88"/>
+      <c r="AF6" s="88"/>
+      <c r="AG6" s="89"/>
+      <c r="AH6" s="82" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="89" t="s">
+      <c r="A7" s="82"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="89"/>
-      <c r="F7" s="81" t="s">
+      <c r="E7" s="90"/>
+      <c r="F7" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="90" t="s">
+      <c r="G7" s="82"/>
+      <c r="H7" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="90"/>
-      <c r="J7" s="81" t="s">
+      <c r="I7" s="91"/>
+      <c r="J7" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="81"/>
-      <c r="L7" s="91" t="s">
+      <c r="K7" s="82"/>
+      <c r="L7" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="91"/>
-      <c r="N7" s="81" t="s">
+      <c r="M7" s="92"/>
+      <c r="N7" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="81"/>
-      <c r="P7" s="101" t="s">
+      <c r="O7" s="82"/>
+      <c r="P7" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="81" t="s">
+      <c r="Q7" s="102"/>
+      <c r="R7" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="81"/>
-      <c r="T7" s="102" t="s">
+      <c r="S7" s="82"/>
+      <c r="T7" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="102"/>
-      <c r="V7" s="81" t="s">
+      <c r="U7" s="103"/>
+      <c r="V7" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="81"/>
-      <c r="X7" s="103" t="s">
+      <c r="W7" s="82"/>
+      <c r="X7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="103"/>
-      <c r="Z7" s="81" t="s">
+      <c r="Y7" s="104"/>
+      <c r="Z7" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="81"/>
-      <c r="AB7" s="92" t="s">
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="92"/>
-      <c r="AD7" s="81" t="s">
+      <c r="AC7" s="93"/>
+      <c r="AD7" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="81"/>
-      <c r="AF7" s="93" t="s">
+      <c r="AE7" s="82"/>
+      <c r="AF7" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="93" t="s">
+      <c r="AG7" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="81"/>
+      <c r="AH7" s="82"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="81"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="57" t="s">
         <v>26</v>
       </c>
@@ -3868,9 +4040,9 @@
       <c r="AE8" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AF8" s="113"/>
-      <c r="AG8" s="113"/>
-      <c r="AH8" s="81"/>
+      <c r="AF8" s="114"/>
+      <c r="AG8" s="114"/>
+      <c r="AH8" s="82"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -3880,7 +4052,7 @@
         <v>43983</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -3940,7 +4112,7 @@
         <v>43986</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
@@ -3992,7 +4164,7 @@
         <v>43990</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
@@ -4042,7 +4214,7 @@
         <v>43992</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
@@ -4096,7 +4268,7 @@
         <v>43992</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
@@ -4152,7 +4324,7 @@
         <v>44000</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -4196,7 +4368,7 @@
         <v>44000</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="28">
         <v>3</v>
@@ -4234,8 +4406,12 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
+      <c r="B16" s="15">
+        <v>44001</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="16"/>
@@ -4247,7 +4423,9 @@
       <c r="L16" s="40"/>
       <c r="M16" s="40"/>
       <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
+      <c r="O16" s="16">
+        <v>2</v>
+      </c>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="16"/>
@@ -4264,18 +4442,12 @@
       <c r="AC16" s="36"/>
       <c r="AD16" s="16"/>
       <c r="AE16" s="16"/>
-      <c r="AF16" s="9">
-        <f t="shared" ref="AF16:AF44" si="2">E16+G16+I16+K16+M16+O16+Q16+S16+U16+W16+Y16+AA16+AC16+AE16</f>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="9">
-        <f t="shared" ref="AG16:AG44" si="3">D16+F16+H16+J16+L16+N16+P16+R16+T16+V16+X16+Z16+AB16+AD16</f>
-        <v>0</v>
-      </c>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
       <c r="AH16" s="14"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
       <c r="D17" s="28"/>
@@ -4306,90 +4478,84 @@
       <c r="AC17" s="36"/>
       <c r="AD17" s="16"/>
       <c r="AE17" s="16"/>
-      <c r="AF17" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG17" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
       <c r="AH17" s="14"/>
     </row>
-    <row r="18" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="51"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="14"/>
-      <c r="AE18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
       <c r="AF18" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AF18:AF46" si="2">E18+G18+I18+K18+M18+O18+Q18+S18+U18+W18+Y18+AA18+AC18+AE18</f>
         <v>0</v>
       </c>
       <c r="AG18" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="AG18:AG46" si="3">D18+F18+H18+J18+L18+N18+P18+R18+T18+V18+X18+Z18+AB18+AD18</f>
         <v>0</v>
       </c>
       <c r="AH18" s="14"/>
     </row>
-    <row r="19" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="51"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="35"/>
-      <c r="AD19" s="14"/>
-      <c r="AE19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
       <c r="AF19" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4653,9 +4819,7 @@
       <c r="AH25" s="14"/>
     </row>
     <row r="26" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
-        <v>16</v>
-      </c>
+      <c r="A26" s="11"/>
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
       <c r="D26" s="27"/>
@@ -4697,9 +4861,7 @@
       <c r="AH26" s="14"/>
     </row>
     <row r="27" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>17</v>
-      </c>
+      <c r="A27" s="9"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
       <c r="D27" s="27"/>
@@ -4742,7 +4904,7 @@
     </row>
     <row r="28" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
@@ -4786,7 +4948,7 @@
     </row>
     <row r="29" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
@@ -4830,7 +4992,7 @@
     </row>
     <row r="30" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
@@ -4874,7 +5036,7 @@
     </row>
     <row r="31" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
@@ -4918,7 +5080,7 @@
     </row>
     <row r="32" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
@@ -4962,7 +5124,7 @@
     </row>
     <row r="33" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
@@ -5006,7 +5168,7 @@
     </row>
     <row r="34" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
@@ -5050,7 +5212,7 @@
     </row>
     <row r="35" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
@@ -5094,7 +5256,7 @@
     </row>
     <row r="36" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
@@ -5138,7 +5300,7 @@
     </row>
     <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
@@ -5182,7 +5344,7 @@
     </row>
     <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
@@ -5226,7 +5388,7 @@
     </row>
     <row r="39" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="14"/>
@@ -5270,7 +5432,7 @@
     </row>
     <row r="40" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
@@ -5314,7 +5476,7 @@
     </row>
     <row r="41" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
@@ -5358,38 +5520,38 @@
     </row>
     <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
-        <v>32</v>
-      </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="44"/>
-      <c r="Q42" s="44"/>
-      <c r="R42" s="16"/>
-      <c r="S42" s="16"/>
-      <c r="T42" s="48"/>
-      <c r="U42" s="48"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="16"/>
-      <c r="X42" s="52"/>
-      <c r="Y42" s="52"/>
-      <c r="Z42" s="16"/>
-      <c r="AA42" s="16"/>
-      <c r="AB42" s="36"/>
-      <c r="AC42" s="36"/>
-      <c r="AD42" s="16"/>
-      <c r="AE42" s="16"/>
+        <v>30</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="43"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="47"/>
+      <c r="U42" s="47"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="51"/>
+      <c r="Y42" s="51"/>
+      <c r="Z42" s="14"/>
+      <c r="AA42" s="14"/>
+      <c r="AB42" s="35"/>
+      <c r="AC42" s="35"/>
+      <c r="AD42" s="14"/>
+      <c r="AE42" s="14"/>
       <c r="AF42" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5398,42 +5560,42 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH42" s="16"/>
+      <c r="AH42" s="14"/>
     </row>
     <row r="43" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
-        <v>33</v>
-      </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="16"/>
-      <c r="S43" s="16"/>
-      <c r="T43" s="48"/>
-      <c r="U43" s="48"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="16"/>
-      <c r="X43" s="52"/>
-      <c r="Y43" s="52"/>
-      <c r="Z43" s="16"/>
-      <c r="AA43" s="16"/>
-      <c r="AB43" s="36"/>
-      <c r="AC43" s="36"/>
-      <c r="AD43" s="16"/>
-      <c r="AE43" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="47"/>
+      <c r="U43" s="47"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+      <c r="X43" s="51"/>
+      <c r="Y43" s="51"/>
+      <c r="Z43" s="14"/>
+      <c r="AA43" s="14"/>
+      <c r="AB43" s="35"/>
+      <c r="AC43" s="35"/>
+      <c r="AD43" s="14"/>
+      <c r="AE43" s="14"/>
       <c r="AF43" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5442,11 +5604,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH43" s="16"/>
+      <c r="AH43" s="14"/>
     </row>
     <row r="44" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="16"/>
@@ -5488,171 +5650,259 @@
       </c>
       <c r="AH44" s="16"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="97">
-        <f>SUM(D9:D44)-SUM(E9:E44)</f>
+    <row r="45" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>33</v>
+      </c>
+      <c r="B45" s="15"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="48"/>
+      <c r="U45" s="48"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="52"/>
+      <c r="Y45" s="52"/>
+      <c r="Z45" s="16"/>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="36"/>
+      <c r="AC45" s="36"/>
+      <c r="AD45" s="16"/>
+      <c r="AE45" s="16"/>
+      <c r="AF45" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG45" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH45" s="16"/>
+    </row>
+    <row r="46" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>34</v>
+      </c>
+      <c r="B46" s="15"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="44"/>
+      <c r="Q46" s="44"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="48"/>
+      <c r="U46" s="48"/>
+      <c r="V46" s="16"/>
+      <c r="W46" s="16"/>
+      <c r="X46" s="52"/>
+      <c r="Y46" s="52"/>
+      <c r="Z46" s="16"/>
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="36"/>
+      <c r="AC46" s="36"/>
+      <c r="AD46" s="16"/>
+      <c r="AE46" s="16"/>
+      <c r="AF46" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG46" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH46" s="16"/>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A47" s="17"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="98">
+        <f>SUM(D9:D46)-SUM(E9:E46)</f>
         <v>3</v>
       </c>
-      <c r="E45" s="97"/>
-      <c r="F45" s="98">
-        <f>SUM(F9:F44)-SUM(G9:G44)</f>
-        <v>0</v>
-      </c>
-      <c r="G45" s="98"/>
-      <c r="H45" s="99">
-        <f>SUM(H9:H44)-SUM(I9:I44)</f>
-        <v>0</v>
-      </c>
-      <c r="I45" s="99"/>
-      <c r="J45" s="98">
-        <f>SUM(J9:J44)-SUM(K9:K44)</f>
-        <v>0</v>
-      </c>
-      <c r="K45" s="98"/>
-      <c r="L45" s="100">
-        <f>SUM(L9:L44)-SUM(M9:M44)</f>
-        <v>0</v>
-      </c>
-      <c r="M45" s="100"/>
-      <c r="N45" s="98">
-        <f>SUM(N9:N44)-SUM(O9:O44)</f>
+      <c r="E47" s="98"/>
+      <c r="F47" s="99">
+        <f>SUM(F9:F46)-SUM(G9:G46)</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="99"/>
+      <c r="H47" s="100">
+        <f>SUM(H9:H46)-SUM(I9:I46)</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="100"/>
+      <c r="J47" s="99">
+        <f>SUM(J9:J46)-SUM(K9:K46)</f>
+        <v>0</v>
+      </c>
+      <c r="K47" s="99"/>
+      <c r="L47" s="101">
+        <f>SUM(L9:L46)-SUM(M9:M46)</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="101"/>
+      <c r="N47" s="99">
+        <f>SUM(N9:N46)-SUM(O9:O46)</f>
+        <v>1</v>
+      </c>
+      <c r="O47" s="99"/>
+      <c r="P47" s="107">
+        <f>SUM(P9:P46)-SUM(Q9:Q46)</f>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="107"/>
+      <c r="R47" s="99">
+        <f>SUM(R9:R46)-SUM(S9:S46)</f>
         <v>3</v>
       </c>
-      <c r="O45" s="98"/>
-      <c r="P45" s="106">
-        <f>SUM(P9:P44)-SUM(Q9:Q44)</f>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="106"/>
-      <c r="R45" s="98">
-        <f>SUM(R9:R44)-SUM(S9:S44)</f>
+      <c r="S47" s="99"/>
+      <c r="T47" s="108">
+        <f>SUM(T9:T46)-SUM(U9:U46)</f>
+        <v>0</v>
+      </c>
+      <c r="U47" s="108"/>
+      <c r="V47" s="99">
+        <f>SUM(V9:V46)-SUM(W9:W46)</f>
+        <v>1</v>
+      </c>
+      <c r="W47" s="99"/>
+      <c r="X47" s="109">
+        <f>SUM(X9:X46)-SUM(Y9:Y46)</f>
+        <v>4</v>
+      </c>
+      <c r="Y47" s="109"/>
+      <c r="Z47" s="99">
+        <f>SUM(Z9:Z46)-SUM(AA9:AA46)</f>
         <v>3</v>
       </c>
-      <c r="S45" s="98"/>
-      <c r="T45" s="107">
-        <f>SUM(T9:T44)-SUM(U9:U44)</f>
-        <v>0</v>
-      </c>
-      <c r="U45" s="107"/>
-      <c r="V45" s="98">
-        <f>SUM(V9:V44)-SUM(W9:W44)</f>
-        <v>1</v>
-      </c>
-      <c r="W45" s="98"/>
-      <c r="X45" s="108">
-        <f>SUM(X9:X44)-SUM(Y9:Y44)</f>
+      <c r="AA47" s="99"/>
+      <c r="AB47" s="110">
+        <f>SUM(AB9:AB46)-SUM(AC9:AC46)</f>
         <v>4</v>
       </c>
-      <c r="Y45" s="108"/>
-      <c r="Z45" s="98">
-        <f>SUM(Z9:Z44)-SUM(AA9:AA44)</f>
-        <v>3</v>
-      </c>
-      <c r="AA45" s="98"/>
-      <c r="AB45" s="109">
-        <f>SUM(AB9:AB44)-SUM(AC9:AC44)</f>
-        <v>4</v>
-      </c>
-      <c r="AC45" s="109"/>
-      <c r="AD45" s="98">
-        <f>SUM(AD9:AD44)-SUM(AE9:AE44)</f>
-        <v>0</v>
-      </c>
-      <c r="AE45" s="98"/>
-      <c r="AF45" s="20"/>
-      <c r="AG45" s="9">
-        <f>D45+F45+H45+J45+L45+N45+P45+R45+T45+V45+X45+Z45+AB45+AD45</f>
-        <v>21</v>
-      </c>
-      <c r="AH45" s="21"/>
-    </row>
-    <row r="46" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="110" t="s">
+      <c r="AC47" s="110"/>
+      <c r="AD47" s="99">
+        <f>SUM(AD9:AD46)-SUM(AE9:AE46)</f>
+        <v>0</v>
+      </c>
+      <c r="AE47" s="99"/>
+      <c r="AF47" s="20"/>
+      <c r="AG47" s="9">
+        <f>D47+F47+H47+J47+L47+N47+P47+R47+T47+V47+X47+Z47+AB47+AD47</f>
+        <v>19</v>
+      </c>
+      <c r="AH47" s="21"/>
+    </row>
+    <row r="48" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="111"/>
-      <c r="C46" s="111"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="111"/>
-      <c r="F46" s="111"/>
-      <c r="G46" s="111"/>
-      <c r="H46" s="111"/>
-      <c r="I46" s="111"/>
-      <c r="J46" s="111"/>
-      <c r="K46" s="111"/>
-      <c r="L46" s="111"/>
-      <c r="M46" s="111"/>
-      <c r="N46" s="111"/>
-      <c r="O46" s="111"/>
-      <c r="P46" s="111"/>
-      <c r="Q46" s="111"/>
-      <c r="R46" s="111"/>
-      <c r="S46" s="111"/>
-      <c r="T46" s="111"/>
-      <c r="U46" s="111"/>
-      <c r="V46" s="111"/>
-      <c r="W46" s="111"/>
-      <c r="X46" s="111"/>
-      <c r="Y46" s="111"/>
-      <c r="Z46" s="111"/>
-      <c r="AA46" s="111"/>
-      <c r="AB46" s="111"/>
-      <c r="AC46" s="111"/>
-      <c r="AD46" s="111"/>
-      <c r="AE46" s="112"/>
-      <c r="AF46" s="22">
-        <f>SUM(AF9:AF44)</f>
+      <c r="B48" s="112"/>
+      <c r="C48" s="112"/>
+      <c r="D48" s="112"/>
+      <c r="E48" s="112"/>
+      <c r="F48" s="112"/>
+      <c r="G48" s="112"/>
+      <c r="H48" s="112"/>
+      <c r="I48" s="112"/>
+      <c r="J48" s="112"/>
+      <c r="K48" s="112"/>
+      <c r="L48" s="112"/>
+      <c r="M48" s="112"/>
+      <c r="N48" s="112"/>
+      <c r="O48" s="112"/>
+      <c r="P48" s="112"/>
+      <c r="Q48" s="112"/>
+      <c r="R48" s="112"/>
+      <c r="S48" s="112"/>
+      <c r="T48" s="112"/>
+      <c r="U48" s="112"/>
+      <c r="V48" s="112"/>
+      <c r="W48" s="112"/>
+      <c r="X48" s="112"/>
+      <c r="Y48" s="112"/>
+      <c r="Z48" s="112"/>
+      <c r="AA48" s="112"/>
+      <c r="AB48" s="112"/>
+      <c r="AC48" s="112"/>
+      <c r="AD48" s="112"/>
+      <c r="AE48" s="113"/>
+      <c r="AF48" s="22">
+        <f>SUM(AF9:AF46)</f>
         <v>7</v>
       </c>
-      <c r="AG46" s="22">
-        <f>SUM(AG9:AG44)</f>
+      <c r="AG48" s="22">
+        <f>SUM(AG9:AG46)</f>
         <v>31</v>
       </c>
-      <c r="AH46" s="23"/>
-    </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A47" s="110" t="s">
+      <c r="AH48" s="23"/>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A49" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="111"/>
-      <c r="C47" s="111"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="111"/>
-      <c r="F47" s="111"/>
-      <c r="G47" s="111"/>
-      <c r="H47" s="111"/>
-      <c r="I47" s="111"/>
-      <c r="J47" s="111"/>
-      <c r="K47" s="111"/>
-      <c r="L47" s="111"/>
-      <c r="M47" s="111"/>
-      <c r="N47" s="111"/>
-      <c r="O47" s="111"/>
-      <c r="P47" s="111"/>
-      <c r="Q47" s="111"/>
-      <c r="R47" s="111"/>
-      <c r="S47" s="111"/>
-      <c r="T47" s="111"/>
-      <c r="U47" s="111"/>
-      <c r="V47" s="111"/>
-      <c r="W47" s="111"/>
-      <c r="X47" s="111"/>
-      <c r="Y47" s="111"/>
-      <c r="Z47" s="111"/>
-      <c r="AA47" s="111"/>
-      <c r="AB47" s="111"/>
-      <c r="AC47" s="111"/>
-      <c r="AD47" s="111"/>
-      <c r="AE47" s="112"/>
-      <c r="AF47" s="104">
-        <f>AG46-AF46</f>
+      <c r="B49" s="112"/>
+      <c r="C49" s="112"/>
+      <c r="D49" s="112"/>
+      <c r="E49" s="112"/>
+      <c r="F49" s="112"/>
+      <c r="G49" s="112"/>
+      <c r="H49" s="112"/>
+      <c r="I49" s="112"/>
+      <c r="J49" s="112"/>
+      <c r="K49" s="112"/>
+      <c r="L49" s="112"/>
+      <c r="M49" s="112"/>
+      <c r="N49" s="112"/>
+      <c r="O49" s="112"/>
+      <c r="P49" s="112"/>
+      <c r="Q49" s="112"/>
+      <c r="R49" s="112"/>
+      <c r="S49" s="112"/>
+      <c r="T49" s="112"/>
+      <c r="U49" s="112"/>
+      <c r="V49" s="112"/>
+      <c r="W49" s="112"/>
+      <c r="X49" s="112"/>
+      <c r="Y49" s="112"/>
+      <c r="Z49" s="112"/>
+      <c r="AA49" s="112"/>
+      <c r="AB49" s="112"/>
+      <c r="AC49" s="112"/>
+      <c r="AD49" s="112"/>
+      <c r="AE49" s="113"/>
+      <c r="AF49" s="105">
+        <f>AG48-AF48</f>
         <v>24</v>
       </c>
-      <c r="AG47" s="105"/>
-      <c r="AH47" s="23"/>
+      <c r="AG49" s="106"/>
+      <c r="AH49" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -5676,31 +5926,563 @@
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AF8"/>
     <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="R7:S7"/>
     <mergeCell ref="T7:U7"/>
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB45:AC45"/>
-    <mergeCell ref="AD45:AE45"/>
-    <mergeCell ref="A46:AE46"/>
-    <mergeCell ref="A47:AE47"/>
-    <mergeCell ref="AF47:AG47"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="Z45:AA45"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="AD47:AE47"/>
+    <mergeCell ref="A48:AE48"/>
+    <mergeCell ref="A49:AE49"/>
+    <mergeCell ref="AF49:AG49"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="Z47:AA47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="7" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" s="121" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="129" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="122"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="119"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="120"/>
+      <c r="AA1" s="120"/>
+      <c r="AB1" s="122"/>
+      <c r="AC1" s="119"/>
+      <c r="AD1" s="119"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="120"/>
+      <c r="AG1" s="120"/>
+      <c r="AH1" s="120"/>
+    </row>
+    <row r="2" spans="1:34" s="121" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="130" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="120"/>
+      <c r="AA2" s="120"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="126"/>
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="120"/>
+      <c r="AG2" s="120"/>
+      <c r="AH2" s="120"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="116"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="115"/>
+      <c r="R4" s="115"/>
+      <c r="S4" s="115"/>
+      <c r="T4" s="115"/>
+      <c r="U4" s="115"/>
+      <c r="V4" s="115"/>
+      <c r="W4" s="115"/>
+      <c r="X4" s="115"/>
+      <c r="Y4" s="115"/>
+      <c r="Z4" s="115"/>
+      <c r="AA4" s="115"/>
+      <c r="AB4" s="115"/>
+      <c r="AC4" s="115"/>
+      <c r="AD4" s="115"/>
+      <c r="AE4" s="115"/>
+      <c r="AF4" s="115"/>
+      <c r="AG4" s="115"/>
+      <c r="AH4" s="115"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="132" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="132" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="132" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="132" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="57" x14ac:dyDescent="0.25">
+      <c r="A7" s="132"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="133" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="138" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="133" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="132"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="9">
+        <v>3</v>
+      </c>
+      <c r="E8" s="9">
+        <v>42</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="135">
+        <f>SUM(D8:F8)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14">
+        <v>1</v>
+      </c>
+      <c r="G9" s="136">
+        <f t="shared" ref="G9:G22" si="0">SUM(D9:F9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14">
+        <v>7</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="136">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14">
+        <v>13</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="136">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="136">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="14">
+        <v>3</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14">
+        <v>55</v>
+      </c>
+      <c r="G15" s="136">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14">
+        <v>7</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="136">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="136">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="14">
+        <v>4</v>
+      </c>
+      <c r="E18" s="14">
+        <v>124</v>
+      </c>
+      <c r="F18" s="14">
+        <v>58</v>
+      </c>
+      <c r="G18" s="136">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="14">
+        <v>3</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14">
+        <v>38</v>
+      </c>
+      <c r="G19" s="136">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="14">
+        <v>4</v>
+      </c>
+      <c r="E20" s="14">
+        <v>54</v>
+      </c>
+      <c r="F20" s="14">
+        <v>48</v>
+      </c>
+      <c r="G20" s="136">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="131" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="131" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="131" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="131"/>
+      <c r="E21" s="131">
+        <v>127</v>
+      </c>
+      <c r="F21" s="131"/>
+      <c r="G21" s="137">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="134" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="22">
+        <f>SUM(D8:D21)</f>
+        <v>19</v>
+      </c>
+      <c r="E22" s="22">
+        <f>SUM(E8:E21)</f>
+        <v>374</v>
+      </c>
+      <c r="F22" s="22">
+        <f>SUM(F8:F21)</f>
+        <v>200</v>
+      </c>
+      <c r="G22" s="22">
+        <f t="shared" si="0"/>
+        <v>593</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
@@ -1308,7 +1308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1449,105 +1449,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1567,9 +1468,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1581,28 +1479,133 @@
     <xf numFmtId="9" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1931,11 +1934,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
+      <c r="A1" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
       <c r="D1" s="75"/>
       <c r="E1" s="75"/>
       <c r="F1" s="75"/>
@@ -1971,11 +1974,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
       <c r="D2" s="76"/>
       <c r="E2" s="76"/>
       <c r="F2" s="76"/>
@@ -2011,235 +2014,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="124"/>
+      <c r="T3" s="124"/>
+      <c r="U3" s="124"/>
+      <c r="V3" s="124"/>
+      <c r="W3" s="124"/>
+      <c r="X3" s="124"/>
+      <c r="Y3" s="124"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="124"/>
+      <c r="AD3" s="124"/>
+      <c r="AE3" s="124"/>
+      <c r="AF3" s="124"/>
+      <c r="AG3" s="124"/>
+      <c r="AH3" s="124"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="85"/>
-      <c r="W4" s="85"/>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="85"/>
-      <c r="AB4" s="85"/>
-      <c r="AC4" s="85"/>
-      <c r="AD4" s="85"/>
-      <c r="AE4" s="85"/>
-      <c r="AF4" s="85"/>
-      <c r="AG4" s="85"/>
-      <c r="AH4" s="85"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="124"/>
+      <c r="P4" s="124"/>
+      <c r="Q4" s="124"/>
+      <c r="R4" s="124"/>
+      <c r="S4" s="124"/>
+      <c r="T4" s="124"/>
+      <c r="U4" s="124"/>
+      <c r="V4" s="124"/>
+      <c r="W4" s="124"/>
+      <c r="X4" s="124"/>
+      <c r="Y4" s="124"/>
+      <c r="Z4" s="124"/>
+      <c r="AA4" s="124"/>
+      <c r="AB4" s="124"/>
+      <c r="AC4" s="124"/>
+      <c r="AD4" s="124"/>
+      <c r="AE4" s="124"/>
+      <c r="AF4" s="124"/>
+      <c r="AG4" s="124"/>
+      <c r="AH4" s="124"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85"/>
-      <c r="T5" s="85"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
-      <c r="W5" s="85"/>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="85"/>
-      <c r="Z5" s="85"/>
-      <c r="AA5" s="85"/>
-      <c r="AB5" s="85"/>
-      <c r="AC5" s="85"/>
-      <c r="AD5" s="85"/>
-      <c r="AE5" s="85"/>
+      <c r="A5" s="124"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="124"/>
+      <c r="R5" s="124"/>
+      <c r="S5" s="124"/>
+      <c r="T5" s="124"/>
+      <c r="U5" s="124"/>
+      <c r="V5" s="124"/>
+      <c r="W5" s="124"/>
+      <c r="X5" s="124"/>
+      <c r="Y5" s="124"/>
+      <c r="Z5" s="124"/>
+      <c r="AA5" s="124"/>
+      <c r="AB5" s="124"/>
+      <c r="AC5" s="124"/>
+      <c r="AD5" s="124"/>
+      <c r="AE5" s="124"/>
       <c r="AF5" s="77"/>
       <c r="AG5" s="77"/>
       <c r="AH5" s="77"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="88"/>
-      <c r="T6" s="88"/>
-      <c r="U6" s="88"/>
-      <c r="V6" s="88"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="88"/>
-      <c r="Y6" s="88"/>
-      <c r="Z6" s="88"/>
-      <c r="AA6" s="88"/>
-      <c r="AB6" s="88"/>
-      <c r="AC6" s="88"/>
-      <c r="AD6" s="88"/>
-      <c r="AE6" s="88"/>
-      <c r="AF6" s="88"/>
-      <c r="AG6" s="89"/>
-      <c r="AH6" s="82" t="s">
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="127"/>
+      <c r="T6" s="127"/>
+      <c r="U6" s="127"/>
+      <c r="V6" s="127"/>
+      <c r="W6" s="127"/>
+      <c r="X6" s="127"/>
+      <c r="Y6" s="127"/>
+      <c r="Z6" s="127"/>
+      <c r="AA6" s="127"/>
+      <c r="AB6" s="127"/>
+      <c r="AC6" s="127"/>
+      <c r="AD6" s="127"/>
+      <c r="AE6" s="127"/>
+      <c r="AF6" s="127"/>
+      <c r="AG6" s="128"/>
+      <c r="AH6" s="111" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="90" t="s">
+      <c r="A7" s="111"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="82" t="s">
+      <c r="E7" s="129"/>
+      <c r="F7" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="82"/>
-      <c r="H7" s="91" t="s">
+      <c r="G7" s="111"/>
+      <c r="H7" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="91"/>
-      <c r="J7" s="82" t="s">
+      <c r="I7" s="130"/>
+      <c r="J7" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="82"/>
-      <c r="L7" s="92" t="s">
+      <c r="K7" s="111"/>
+      <c r="L7" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="92"/>
-      <c r="N7" s="82" t="s">
+      <c r="M7" s="131"/>
+      <c r="N7" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="82"/>
-      <c r="P7" s="102" t="s">
+      <c r="O7" s="111"/>
+      <c r="P7" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="82" t="s">
+      <c r="Q7" s="119"/>
+      <c r="R7" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="82"/>
-      <c r="T7" s="103" t="s">
+      <c r="S7" s="111"/>
+      <c r="T7" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="103"/>
-      <c r="V7" s="82" t="s">
+      <c r="U7" s="120"/>
+      <c r="V7" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="82"/>
-      <c r="X7" s="104" t="s">
+      <c r="W7" s="111"/>
+      <c r="X7" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="104"/>
-      <c r="Z7" s="82" t="s">
+      <c r="Y7" s="121"/>
+      <c r="Z7" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="82"/>
-      <c r="AB7" s="93" t="s">
+      <c r="AA7" s="111"/>
+      <c r="AB7" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="93"/>
-      <c r="AD7" s="82" t="s">
+      <c r="AC7" s="110"/>
+      <c r="AD7" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="82"/>
-      <c r="AF7" s="94" t="s">
+      <c r="AE7" s="111"/>
+      <c r="AF7" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="94" t="s">
+      <c r="AG7" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="82"/>
+      <c r="AH7" s="111"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="82"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="78" t="s">
         <v>26</v>
       </c>
@@ -2324,9 +2327,9 @@
       <c r="AE8" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="AF8" s="95"/>
-      <c r="AG8" s="95"/>
-      <c r="AH8" s="82"/>
+      <c r="AF8" s="113"/>
+      <c r="AG8" s="113"/>
+      <c r="AH8" s="111"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -3408,78 +3411,78 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
-      <c r="B30" s="96"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="98">
+      <c r="B30" s="114"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="116">
         <f>SUM(D9:D28)-SUM(E9:E28)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="98"/>
-      <c r="F30" s="99">
+      <c r="E30" s="116"/>
+      <c r="F30" s="102">
         <f>SUM(F9:F28)-SUM(G9:G28)</f>
         <v>4</v>
       </c>
-      <c r="G30" s="99"/>
-      <c r="H30" s="100">
+      <c r="G30" s="102"/>
+      <c r="H30" s="117">
         <f>SUM(H9:H28)-SUM(I9:I28)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="100"/>
-      <c r="J30" s="99">
+      <c r="I30" s="117"/>
+      <c r="J30" s="102">
         <f>SUM(J9:J28)-SUM(K9:K28)</f>
         <v>1</v>
       </c>
-      <c r="K30" s="99"/>
-      <c r="L30" s="101">
+      <c r="K30" s="102"/>
+      <c r="L30" s="118">
         <f>SUM(L9:L28)-SUM(M9:M28)</f>
         <v>0</v>
       </c>
-      <c r="M30" s="101"/>
-      <c r="N30" s="99">
+      <c r="M30" s="118"/>
+      <c r="N30" s="102">
         <f>SUM(N9:N28)-SUM(O9:O28)</f>
         <v>2</v>
       </c>
-      <c r="O30" s="99"/>
-      <c r="P30" s="107">
+      <c r="O30" s="102"/>
+      <c r="P30" s="103">
         <f>SUM(P9:P28)-SUM(Q9:Q28)</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="107"/>
-      <c r="R30" s="99">
+      <c r="Q30" s="103"/>
+      <c r="R30" s="102">
         <f>SUM(R9:R28)-SUM(S9:S28)</f>
         <v>2</v>
       </c>
-      <c r="S30" s="99"/>
-      <c r="T30" s="108">
+      <c r="S30" s="102"/>
+      <c r="T30" s="104">
         <f>SUM(T9:T28)-SUM(U9:U28)</f>
         <v>0</v>
       </c>
-      <c r="U30" s="108"/>
-      <c r="V30" s="99">
+      <c r="U30" s="104"/>
+      <c r="V30" s="102">
         <f>SUM(V9:V28)-SUM(W9:W28)</f>
         <v>0</v>
       </c>
-      <c r="W30" s="99"/>
-      <c r="X30" s="109">
+      <c r="W30" s="102"/>
+      <c r="X30" s="105">
         <f>SUM(X9:X28)-SUM(Y9:Y28)</f>
         <v>5</v>
       </c>
-      <c r="Y30" s="109"/>
-      <c r="Z30" s="99">
+      <c r="Y30" s="105"/>
+      <c r="Z30" s="102">
         <f>SUM(Z9:Z28)-SUM(AA9:AA28)</f>
         <v>0</v>
       </c>
-      <c r="AA30" s="99"/>
-      <c r="AB30" s="110">
+      <c r="AA30" s="102"/>
+      <c r="AB30" s="106">
         <f>SUM(AB9:AB28)-SUM(AC9:AC28)</f>
         <v>3</v>
       </c>
-      <c r="AC30" s="110"/>
-      <c r="AD30" s="99">
+      <c r="AC30" s="106"/>
+      <c r="AD30" s="102">
         <f>SUM(AD9:AD28)-SUM(AE9:AE28)</f>
         <v>0</v>
       </c>
-      <c r="AE30" s="99"/>
+      <c r="AE30" s="102"/>
       <c r="AF30" s="20"/>
       <c r="AG30" s="9">
         <f t="shared" si="1"/>
@@ -3488,39 +3491,39 @@
       <c r="AH30" s="21"/>
     </row>
     <row r="31" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="111" t="s">
+      <c r="A31" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="112"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="112"/>
-      <c r="L31" s="112"/>
-      <c r="M31" s="112"/>
-      <c r="N31" s="112"/>
-      <c r="O31" s="112"/>
-      <c r="P31" s="112"/>
-      <c r="Q31" s="112"/>
-      <c r="R31" s="112"/>
-      <c r="S31" s="112"/>
-      <c r="T31" s="112"/>
-      <c r="U31" s="112"/>
-      <c r="V31" s="112"/>
-      <c r="W31" s="112"/>
-      <c r="X31" s="112"/>
-      <c r="Y31" s="112"/>
-      <c r="Z31" s="112"/>
-      <c r="AA31" s="112"/>
-      <c r="AB31" s="112"/>
-      <c r="AC31" s="112"/>
-      <c r="AD31" s="112"/>
-      <c r="AE31" s="113"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="108"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="108"/>
+      <c r="N31" s="108"/>
+      <c r="O31" s="108"/>
+      <c r="P31" s="108"/>
+      <c r="Q31" s="108"/>
+      <c r="R31" s="108"/>
+      <c r="S31" s="108"/>
+      <c r="T31" s="108"/>
+      <c r="U31" s="108"/>
+      <c r="V31" s="108"/>
+      <c r="W31" s="108"/>
+      <c r="X31" s="108"/>
+      <c r="Y31" s="108"/>
+      <c r="Z31" s="108"/>
+      <c r="AA31" s="108"/>
+      <c r="AB31" s="108"/>
+      <c r="AC31" s="108"/>
+      <c r="AD31" s="108"/>
+      <c r="AE31" s="109"/>
       <c r="AF31" s="22">
         <f>SUM(AF9:AF28)</f>
         <v>79</v>
@@ -3532,60 +3535,64 @@
       <c r="AH31" s="23"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="111" t="s">
+      <c r="A32" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="112"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="112"/>
-      <c r="M32" s="112"/>
-      <c r="N32" s="112"/>
-      <c r="O32" s="112"/>
-      <c r="P32" s="112"/>
-      <c r="Q32" s="112"/>
-      <c r="R32" s="112"/>
-      <c r="S32" s="112"/>
-      <c r="T32" s="112"/>
-      <c r="U32" s="112"/>
-      <c r="V32" s="112"/>
-      <c r="W32" s="112"/>
-      <c r="X32" s="112"/>
-      <c r="Y32" s="112"/>
-      <c r="Z32" s="112"/>
-      <c r="AA32" s="112"/>
-      <c r="AB32" s="112"/>
-      <c r="AC32" s="112"/>
-      <c r="AD32" s="112"/>
-      <c r="AE32" s="113"/>
-      <c r="AF32" s="105">
+      <c r="B32" s="108"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="108"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="108"/>
+      <c r="N32" s="108"/>
+      <c r="O32" s="108"/>
+      <c r="P32" s="108"/>
+      <c r="Q32" s="108"/>
+      <c r="R32" s="108"/>
+      <c r="S32" s="108"/>
+      <c r="T32" s="108"/>
+      <c r="U32" s="108"/>
+      <c r="V32" s="108"/>
+      <c r="W32" s="108"/>
+      <c r="X32" s="108"/>
+      <c r="Y32" s="108"/>
+      <c r="Z32" s="108"/>
+      <c r="AA32" s="108"/>
+      <c r="AB32" s="108"/>
+      <c r="AC32" s="108"/>
+      <c r="AD32" s="108"/>
+      <c r="AE32" s="109"/>
+      <c r="AF32" s="100">
         <f>AG31-AF31</f>
         <v>17</v>
       </c>
-      <c r="AG32" s="106"/>
+      <c r="AG32" s="101"/>
       <c r="AH32" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="A31:AE31"/>
-    <mergeCell ref="A32:AE32"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AF8"/>
@@ -3602,22 +3609,18 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="A31:AE31"/>
+    <mergeCell ref="A32:AE32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3647,11 +3650,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
+      <c r="A1" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
       <c r="D1" s="54"/>
       <c r="E1" s="54"/>
       <c r="F1" s="54"/>
@@ -3687,11 +3690,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
       <c r="F2" s="55"/>
@@ -3727,235 +3730,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="124"/>
+      <c r="T3" s="124"/>
+      <c r="U3" s="124"/>
+      <c r="V3" s="124"/>
+      <c r="W3" s="124"/>
+      <c r="X3" s="124"/>
+      <c r="Y3" s="124"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="124"/>
+      <c r="AD3" s="124"/>
+      <c r="AE3" s="124"/>
+      <c r="AF3" s="124"/>
+      <c r="AG3" s="124"/>
+      <c r="AH3" s="124"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="85"/>
-      <c r="W4" s="85"/>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="85"/>
-      <c r="AB4" s="85"/>
-      <c r="AC4" s="85"/>
-      <c r="AD4" s="85"/>
-      <c r="AE4" s="85"/>
-      <c r="AF4" s="85"/>
-      <c r="AG4" s="85"/>
-      <c r="AH4" s="85"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="124"/>
+      <c r="P4" s="124"/>
+      <c r="Q4" s="124"/>
+      <c r="R4" s="124"/>
+      <c r="S4" s="124"/>
+      <c r="T4" s="124"/>
+      <c r="U4" s="124"/>
+      <c r="V4" s="124"/>
+      <c r="W4" s="124"/>
+      <c r="X4" s="124"/>
+      <c r="Y4" s="124"/>
+      <c r="Z4" s="124"/>
+      <c r="AA4" s="124"/>
+      <c r="AB4" s="124"/>
+      <c r="AC4" s="124"/>
+      <c r="AD4" s="124"/>
+      <c r="AE4" s="124"/>
+      <c r="AF4" s="124"/>
+      <c r="AG4" s="124"/>
+      <c r="AH4" s="124"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85"/>
-      <c r="T5" s="85"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
-      <c r="W5" s="85"/>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="85"/>
-      <c r="Z5" s="85"/>
-      <c r="AA5" s="85"/>
-      <c r="AB5" s="85"/>
-      <c r="AC5" s="85"/>
-      <c r="AD5" s="85"/>
-      <c r="AE5" s="85"/>
+      <c r="A5" s="124"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="124"/>
+      <c r="R5" s="124"/>
+      <c r="S5" s="124"/>
+      <c r="T5" s="124"/>
+      <c r="U5" s="124"/>
+      <c r="V5" s="124"/>
+      <c r="W5" s="124"/>
+      <c r="X5" s="124"/>
+      <c r="Y5" s="124"/>
+      <c r="Z5" s="124"/>
+      <c r="AA5" s="124"/>
+      <c r="AB5" s="124"/>
+      <c r="AC5" s="124"/>
+      <c r="AD5" s="124"/>
+      <c r="AE5" s="124"/>
       <c r="AF5" s="56"/>
       <c r="AG5" s="56"/>
       <c r="AH5" s="56"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="88"/>
-      <c r="T6" s="88"/>
-      <c r="U6" s="88"/>
-      <c r="V6" s="88"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="88"/>
-      <c r="Y6" s="88"/>
-      <c r="Z6" s="88"/>
-      <c r="AA6" s="88"/>
-      <c r="AB6" s="88"/>
-      <c r="AC6" s="88"/>
-      <c r="AD6" s="88"/>
-      <c r="AE6" s="88"/>
-      <c r="AF6" s="88"/>
-      <c r="AG6" s="89"/>
-      <c r="AH6" s="82" t="s">
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="127"/>
+      <c r="T6" s="127"/>
+      <c r="U6" s="127"/>
+      <c r="V6" s="127"/>
+      <c r="W6" s="127"/>
+      <c r="X6" s="127"/>
+      <c r="Y6" s="127"/>
+      <c r="Z6" s="127"/>
+      <c r="AA6" s="127"/>
+      <c r="AB6" s="127"/>
+      <c r="AC6" s="127"/>
+      <c r="AD6" s="127"/>
+      <c r="AE6" s="127"/>
+      <c r="AF6" s="127"/>
+      <c r="AG6" s="128"/>
+      <c r="AH6" s="111" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="90" t="s">
+      <c r="A7" s="111"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="82" t="s">
+      <c r="E7" s="129"/>
+      <c r="F7" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="82"/>
-      <c r="H7" s="91" t="s">
+      <c r="G7" s="111"/>
+      <c r="H7" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="91"/>
-      <c r="J7" s="82" t="s">
+      <c r="I7" s="130"/>
+      <c r="J7" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="82"/>
-      <c r="L7" s="92" t="s">
+      <c r="K7" s="111"/>
+      <c r="L7" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="92"/>
-      <c r="N7" s="82" t="s">
+      <c r="M7" s="131"/>
+      <c r="N7" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="82"/>
-      <c r="P7" s="102" t="s">
+      <c r="O7" s="111"/>
+      <c r="P7" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="82" t="s">
+      <c r="Q7" s="119"/>
+      <c r="R7" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="82"/>
-      <c r="T7" s="103" t="s">
+      <c r="S7" s="111"/>
+      <c r="T7" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="103"/>
-      <c r="V7" s="82" t="s">
+      <c r="U7" s="120"/>
+      <c r="V7" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="82"/>
-      <c r="X7" s="104" t="s">
+      <c r="W7" s="111"/>
+      <c r="X7" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="104"/>
-      <c r="Z7" s="82" t="s">
+      <c r="Y7" s="121"/>
+      <c r="Z7" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="82"/>
-      <c r="AB7" s="93" t="s">
+      <c r="AA7" s="111"/>
+      <c r="AB7" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="93"/>
-      <c r="AD7" s="82" t="s">
+      <c r="AC7" s="110"/>
+      <c r="AD7" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="82"/>
-      <c r="AF7" s="94" t="s">
+      <c r="AE7" s="111"/>
+      <c r="AF7" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="94" t="s">
+      <c r="AG7" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="82"/>
+      <c r="AH7" s="111"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="82"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="57" t="s">
         <v>26</v>
       </c>
@@ -4040,9 +4043,9 @@
       <c r="AE8" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AF8" s="114"/>
-      <c r="AG8" s="114"/>
-      <c r="AH8" s="82"/>
+      <c r="AF8" s="132"/>
+      <c r="AG8" s="132"/>
+      <c r="AH8" s="111"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -5742,76 +5745,76 @@
       <c r="A47" s="17"/>
       <c r="B47" s="18"/>
       <c r="C47" s="19"/>
-      <c r="D47" s="98">
+      <c r="D47" s="116">
         <f>SUM(D9:D46)-SUM(E9:E46)</f>
         <v>3</v>
       </c>
-      <c r="E47" s="98"/>
-      <c r="F47" s="99">
+      <c r="E47" s="116"/>
+      <c r="F47" s="102">
         <f>SUM(F9:F46)-SUM(G9:G46)</f>
         <v>0</v>
       </c>
-      <c r="G47" s="99"/>
-      <c r="H47" s="100">
+      <c r="G47" s="102"/>
+      <c r="H47" s="117">
         <f>SUM(H9:H46)-SUM(I9:I46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="100"/>
-      <c r="J47" s="99">
+      <c r="I47" s="117"/>
+      <c r="J47" s="102">
         <f>SUM(J9:J46)-SUM(K9:K46)</f>
         <v>0</v>
       </c>
-      <c r="K47" s="99"/>
-      <c r="L47" s="101">
+      <c r="K47" s="102"/>
+      <c r="L47" s="118">
         <f>SUM(L9:L46)-SUM(M9:M46)</f>
         <v>0</v>
       </c>
-      <c r="M47" s="101"/>
-      <c r="N47" s="99">
+      <c r="M47" s="118"/>
+      <c r="N47" s="102">
         <f>SUM(N9:N46)-SUM(O9:O46)</f>
         <v>1</v>
       </c>
-      <c r="O47" s="99"/>
-      <c r="P47" s="107">
+      <c r="O47" s="102"/>
+      <c r="P47" s="103">
         <f>SUM(P9:P46)-SUM(Q9:Q46)</f>
         <v>0</v>
       </c>
-      <c r="Q47" s="107"/>
-      <c r="R47" s="99">
+      <c r="Q47" s="103"/>
+      <c r="R47" s="102">
         <f>SUM(R9:R46)-SUM(S9:S46)</f>
         <v>3</v>
       </c>
-      <c r="S47" s="99"/>
-      <c r="T47" s="108">
+      <c r="S47" s="102"/>
+      <c r="T47" s="104">
         <f>SUM(T9:T46)-SUM(U9:U46)</f>
         <v>0</v>
       </c>
-      <c r="U47" s="108"/>
-      <c r="V47" s="99">
+      <c r="U47" s="104"/>
+      <c r="V47" s="102">
         <f>SUM(V9:V46)-SUM(W9:W46)</f>
         <v>1</v>
       </c>
-      <c r="W47" s="99"/>
-      <c r="X47" s="109">
+      <c r="W47" s="102"/>
+      <c r="X47" s="105">
         <f>SUM(X9:X46)-SUM(Y9:Y46)</f>
         <v>4</v>
       </c>
-      <c r="Y47" s="109"/>
-      <c r="Z47" s="99">
+      <c r="Y47" s="105"/>
+      <c r="Z47" s="102">
         <f>SUM(Z9:Z46)-SUM(AA9:AA46)</f>
         <v>3</v>
       </c>
-      <c r="AA47" s="99"/>
-      <c r="AB47" s="110">
+      <c r="AA47" s="102"/>
+      <c r="AB47" s="106">
         <f>SUM(AB9:AB46)-SUM(AC9:AC46)</f>
         <v>4</v>
       </c>
-      <c r="AC47" s="110"/>
-      <c r="AD47" s="99">
+      <c r="AC47" s="106"/>
+      <c r="AD47" s="102">
         <f>SUM(AD9:AD46)-SUM(AE9:AE46)</f>
         <v>0</v>
       </c>
-      <c r="AE47" s="99"/>
+      <c r="AE47" s="102"/>
       <c r="AF47" s="20"/>
       <c r="AG47" s="9">
         <f>D47+F47+H47+J47+L47+N47+P47+R47+T47+V47+X47+Z47+AB47+AD47</f>
@@ -5820,39 +5823,39 @@
       <c r="AH47" s="21"/>
     </row>
     <row r="48" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="111" t="s">
+      <c r="A48" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="112"/>
-      <c r="C48" s="112"/>
-      <c r="D48" s="112"/>
-      <c r="E48" s="112"/>
-      <c r="F48" s="112"/>
-      <c r="G48" s="112"/>
-      <c r="H48" s="112"/>
-      <c r="I48" s="112"/>
-      <c r="J48" s="112"/>
-      <c r="K48" s="112"/>
-      <c r="L48" s="112"/>
-      <c r="M48" s="112"/>
-      <c r="N48" s="112"/>
-      <c r="O48" s="112"/>
-      <c r="P48" s="112"/>
-      <c r="Q48" s="112"/>
-      <c r="R48" s="112"/>
-      <c r="S48" s="112"/>
-      <c r="T48" s="112"/>
-      <c r="U48" s="112"/>
-      <c r="V48" s="112"/>
-      <c r="W48" s="112"/>
-      <c r="X48" s="112"/>
-      <c r="Y48" s="112"/>
-      <c r="Z48" s="112"/>
-      <c r="AA48" s="112"/>
-      <c r="AB48" s="112"/>
-      <c r="AC48" s="112"/>
-      <c r="AD48" s="112"/>
-      <c r="AE48" s="113"/>
+      <c r="B48" s="108"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="108"/>
+      <c r="J48" s="108"/>
+      <c r="K48" s="108"/>
+      <c r="L48" s="108"/>
+      <c r="M48" s="108"/>
+      <c r="N48" s="108"/>
+      <c r="O48" s="108"/>
+      <c r="P48" s="108"/>
+      <c r="Q48" s="108"/>
+      <c r="R48" s="108"/>
+      <c r="S48" s="108"/>
+      <c r="T48" s="108"/>
+      <c r="U48" s="108"/>
+      <c r="V48" s="108"/>
+      <c r="W48" s="108"/>
+      <c r="X48" s="108"/>
+      <c r="Y48" s="108"/>
+      <c r="Z48" s="108"/>
+      <c r="AA48" s="108"/>
+      <c r="AB48" s="108"/>
+      <c r="AC48" s="108"/>
+      <c r="AD48" s="108"/>
+      <c r="AE48" s="109"/>
       <c r="AF48" s="22">
         <f>SUM(AF9:AF46)</f>
         <v>7</v>
@@ -5864,48 +5867,75 @@
       <c r="AH48" s="23"/>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A49" s="111" t="s">
+      <c r="A49" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="112"/>
-      <c r="C49" s="112"/>
-      <c r="D49" s="112"/>
-      <c r="E49" s="112"/>
-      <c r="F49" s="112"/>
-      <c r="G49" s="112"/>
-      <c r="H49" s="112"/>
-      <c r="I49" s="112"/>
-      <c r="J49" s="112"/>
-      <c r="K49" s="112"/>
-      <c r="L49" s="112"/>
-      <c r="M49" s="112"/>
-      <c r="N49" s="112"/>
-      <c r="O49" s="112"/>
-      <c r="P49" s="112"/>
-      <c r="Q49" s="112"/>
-      <c r="R49" s="112"/>
-      <c r="S49" s="112"/>
-      <c r="T49" s="112"/>
-      <c r="U49" s="112"/>
-      <c r="V49" s="112"/>
-      <c r="W49" s="112"/>
-      <c r="X49" s="112"/>
-      <c r="Y49" s="112"/>
-      <c r="Z49" s="112"/>
-      <c r="AA49" s="112"/>
-      <c r="AB49" s="112"/>
-      <c r="AC49" s="112"/>
-      <c r="AD49" s="112"/>
-      <c r="AE49" s="113"/>
-      <c r="AF49" s="105">
+      <c r="B49" s="108"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="108"/>
+      <c r="I49" s="108"/>
+      <c r="J49" s="108"/>
+      <c r="K49" s="108"/>
+      <c r="L49" s="108"/>
+      <c r="M49" s="108"/>
+      <c r="N49" s="108"/>
+      <c r="O49" s="108"/>
+      <c r="P49" s="108"/>
+      <c r="Q49" s="108"/>
+      <c r="R49" s="108"/>
+      <c r="S49" s="108"/>
+      <c r="T49" s="108"/>
+      <c r="U49" s="108"/>
+      <c r="V49" s="108"/>
+      <c r="W49" s="108"/>
+      <c r="X49" s="108"/>
+      <c r="Y49" s="108"/>
+      <c r="Z49" s="108"/>
+      <c r="AA49" s="108"/>
+      <c r="AB49" s="108"/>
+      <c r="AC49" s="108"/>
+      <c r="AD49" s="108"/>
+      <c r="AE49" s="109"/>
+      <c r="AF49" s="100">
         <f>AG48-AF48</f>
         <v>24</v>
       </c>
-      <c r="AG49" s="106"/>
+      <c r="AG49" s="101"/>
       <c r="AH49" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="AD47:AE47"/>
+    <mergeCell ref="A48:AE48"/>
+    <mergeCell ref="A49:AE49"/>
+    <mergeCell ref="AF49:AG49"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="Z47:AA47"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -5922,33 +5952,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="AD47:AE47"/>
-    <mergeCell ref="A48:AE48"/>
-    <mergeCell ref="A49:AE49"/>
-    <mergeCell ref="AF49:AG49"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="Z47:AA47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5959,8 +5962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5975,86 +5978,86 @@
     <col min="8" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="121" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="129" t="s">
+    <row r="1" spans="1:34" s="88" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="122"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="120"/>
-      <c r="AA1" s="120"/>
-      <c r="AB1" s="122"/>
-      <c r="AC1" s="119"/>
-      <c r="AD1" s="119"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="120"/>
-      <c r="AG1" s="120"/>
-      <c r="AH1" s="120"/>
-    </row>
-    <row r="2" spans="1:34" s="121" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="123" t="s">
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="87"/>
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="87"/>
+    </row>
+    <row r="2" spans="1:34" s="88" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="130" t="s">
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="120"/>
-      <c r="AA2" s="120"/>
-      <c r="AB2" s="127"/>
-      <c r="AC2" s="126"/>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="120"/>
-      <c r="AG2" s="120"/>
-      <c r="AH2" s="120"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="87"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="92"/>
+      <c r="AD2" s="92"/>
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="87"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="116"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="81"/>
       <c r="G3" s="81"/>
       <c r="H3" s="81"/>
@@ -6084,76 +6087,76 @@
       <c r="AH3" s="2"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
-      <c r="U4" s="115"/>
-      <c r="V4" s="115"/>
-      <c r="W4" s="115"/>
-      <c r="X4" s="115"/>
-      <c r="Y4" s="115"/>
-      <c r="Z4" s="115"/>
-      <c r="AA4" s="115"/>
-      <c r="AB4" s="115"/>
-      <c r="AC4" s="115"/>
-      <c r="AD4" s="115"/>
-      <c r="AE4" s="115"/>
-      <c r="AF4" s="115"/>
-      <c r="AG4" s="115"/>
-      <c r="AH4" s="115"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="82"/>
+      <c r="X4" s="82"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="82"/>
+      <c r="AD4" s="82"/>
+      <c r="AE4" s="82"/>
+      <c r="AF4" s="82"/>
+      <c r="AG4" s="82"/>
+      <c r="AH4" s="82"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="132" t="s">
+      <c r="A6" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="139" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="132" t="s">
+      <c r="C6" s="139" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="132" t="s">
+      <c r="D6" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132" t="s">
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="57" x14ac:dyDescent="0.25">
-      <c r="A7" s="132"/>
-      <c r="B7" s="132"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="133" t="s">
+      <c r="A7" s="136"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="138" t="s">
+      <c r="E7" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="133" t="s">
+      <c r="F7" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="132"/>
+      <c r="G7" s="136"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -6172,7 +6175,7 @@
         <v>42</v>
       </c>
       <c r="F8" s="9"/>
-      <c r="G8" s="135">
+      <c r="G8" s="96">
         <f>SUM(D8:F8)</f>
         <v>45</v>
       </c>
@@ -6192,7 +6195,7 @@
       <c r="F9" s="14">
         <v>1</v>
       </c>
-      <c r="G9" s="136">
+      <c r="G9" s="97">
         <f t="shared" ref="G9:G22" si="0">SUM(D9:F9)</f>
         <v>1</v>
       </c>
@@ -6212,7 +6215,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="14"/>
-      <c r="G10" s="136">
+      <c r="G10" s="97">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -6230,7 +6233,7 @@
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="136">
+      <c r="G11" s="97">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6250,7 +6253,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="14"/>
-      <c r="G12" s="136">
+      <c r="G12" s="97">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -6270,7 +6273,7 @@
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="136">
+      <c r="G13" s="97">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -6288,7 +6291,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="136">
+      <c r="G14" s="97">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6308,11 +6311,11 @@
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14">
-        <v>55</v>
-      </c>
-      <c r="G15" s="136">
+        <v>49</v>
+      </c>
+      <c r="G15" s="97">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
@@ -6330,7 +6333,7 @@
         <v>7</v>
       </c>
       <c r="F16" s="14"/>
-      <c r="G16" s="136">
+      <c r="G16" s="97">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -6350,7 +6353,7 @@
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="136">
+      <c r="G17" s="97">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -6374,7 +6377,7 @@
       <c r="F18" s="14">
         <v>58</v>
       </c>
-      <c r="G18" s="136">
+      <c r="G18" s="97">
         <f t="shared" si="0"/>
         <v>186</v>
       </c>
@@ -6394,11 +6397,11 @@
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14">
-        <v>38</v>
-      </c>
-      <c r="G19" s="136">
+        <v>32</v>
+      </c>
+      <c r="G19" s="97">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -6420,37 +6423,37 @@
       <c r="F20" s="14">
         <v>48</v>
       </c>
-      <c r="G20" s="136">
+      <c r="G20" s="97">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="131" t="s">
+      <c r="A21" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="131" t="s">
+      <c r="B21" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="131" t="s">
+      <c r="C21" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131">
+      <c r="D21" s="94"/>
+      <c r="E21" s="94">
         <v>127</v>
       </c>
-      <c r="F21" s="131"/>
-      <c r="G21" s="137">
+      <c r="F21" s="94"/>
+      <c r="G21" s="98">
         <f t="shared" si="0"/>
         <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="134" t="s">
+      <c r="A22" s="135" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="135"/>
       <c r="D22" s="22">
         <f>SUM(D8:D21)</f>
         <v>19</v>
@@ -6461,11 +6464,11 @@
       </c>
       <c r="F22" s="22">
         <f>SUM(F8:F21)</f>
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="G22" s="22">
         <f t="shared" si="0"/>
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>

--- a/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="192" windowWidth="14808" windowHeight="7920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="T5" sheetId="4" r:id="rId1"/>
     <sheet name="T6" sheetId="3" r:id="rId2"/>
     <sheet name="Tổng hợp ngày 19-6" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -21,7 +21,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0" shapeId="0">
+    <comment ref="J7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0" shapeId="0">
+    <comment ref="L7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0" shapeId="0">
+    <comment ref="N7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0" shapeId="0">
+    <comment ref="P7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0" shapeId="0">
+    <comment ref="R7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0" shapeId="0">
+    <comment ref="T7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0" shapeId="0">
+    <comment ref="V7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0" shapeId="0">
+    <comment ref="X7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0" shapeId="0">
+    <comment ref="Z7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0" shapeId="0">
+    <comment ref="AB7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0" shapeId="0">
+    <comment ref="AD7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -369,7 +369,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -394,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -418,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -442,7 +442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0" shapeId="0">
+    <comment ref="J7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -466,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0" shapeId="0">
+    <comment ref="L7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -490,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0" shapeId="0">
+    <comment ref="N7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -514,7 +514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0" shapeId="0">
+    <comment ref="P7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -538,7 +538,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0" shapeId="0">
+    <comment ref="R7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -562,7 +562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0" shapeId="0">
+    <comment ref="T7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -586,7 +586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0" shapeId="0">
+    <comment ref="V7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -610,7 +610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0" shapeId="0">
+    <comment ref="X7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -634,7 +634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0" shapeId="0">
+    <comment ref="Z7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -658,7 +658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0" shapeId="0">
+    <comment ref="AB7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -683,7 +683,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0" shapeId="0">
+    <comment ref="AD7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -712,7 +712,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="82">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -955,12 +955,15 @@
   </si>
   <si>
     <t>ĐL Quỳnh Trang</t>
+  </si>
+  <si>
+    <t>Khách lẻ anh lâm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1489,15 +1492,81 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1519,72 +1588,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1600,14 +1603,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1670,7 +1673,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1705,7 +1708,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1921,24 +1924,24 @@
       <selection pane="bottomLeft" activeCell="AB30" sqref="AB30:AC30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="5" customWidth="1"/>
-    <col min="4" max="31" width="3.28515625" style="5" customWidth="1"/>
-    <col min="32" max="32" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" style="5" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="3.5546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="5" customWidth="1"/>
+    <col min="4" max="31" width="3.33203125" style="5" customWidth="1"/>
+    <col min="32" max="32" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.6640625" style="5" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
+      <c r="A1" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
       <c r="D1" s="75"/>
       <c r="E1" s="75"/>
       <c r="F1" s="75"/>
@@ -1974,11 +1977,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
       <c r="D2" s="76"/>
       <c r="E2" s="76"/>
       <c r="F2" s="76"/>
@@ -2014,235 +2017,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="124"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="124"/>
-      <c r="S3" s="124"/>
-      <c r="T3" s="124"/>
-      <c r="U3" s="124"/>
-      <c r="V3" s="124"/>
-      <c r="W3" s="124"/>
-      <c r="X3" s="124"/>
-      <c r="Y3" s="124"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="124"/>
-      <c r="AB3" s="124"/>
-      <c r="AC3" s="124"/>
-      <c r="AD3" s="124"/>
-      <c r="AE3" s="124"/>
-      <c r="AF3" s="124"/>
-      <c r="AG3" s="124"/>
-      <c r="AH3" s="124"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103"/>
+      <c r="S3" s="103"/>
+      <c r="T3" s="103"/>
+      <c r="U3" s="103"/>
+      <c r="V3" s="103"/>
+      <c r="W3" s="103"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="103"/>
+      <c r="Z3" s="103"/>
+      <c r="AA3" s="103"/>
+      <c r="AB3" s="103"/>
+      <c r="AC3" s="103"/>
+      <c r="AD3" s="103"/>
+      <c r="AE3" s="103"/>
+      <c r="AF3" s="103"/>
+      <c r="AG3" s="103"/>
+      <c r="AH3" s="103"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="124" t="s">
+      <c r="A4" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
-      <c r="R4" s="124"/>
-      <c r="S4" s="124"/>
-      <c r="T4" s="124"/>
-      <c r="U4" s="124"/>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="124"/>
-      <c r="Z4" s="124"/>
-      <c r="AA4" s="124"/>
-      <c r="AB4" s="124"/>
-      <c r="AC4" s="124"/>
-      <c r="AD4" s="124"/>
-      <c r="AE4" s="124"/>
-      <c r="AF4" s="124"/>
-      <c r="AG4" s="124"/>
-      <c r="AH4" s="124"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="103"/>
+      <c r="T4" s="103"/>
+      <c r="U4" s="103"/>
+      <c r="V4" s="103"/>
+      <c r="W4" s="103"/>
+      <c r="X4" s="103"/>
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="103"/>
+      <c r="AB4" s="103"/>
+      <c r="AC4" s="103"/>
+      <c r="AD4" s="103"/>
+      <c r="AE4" s="103"/>
+      <c r="AF4" s="103"/>
+      <c r="AG4" s="103"/>
+      <c r="AH4" s="103"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="124"/>
-      <c r="B5" s="124"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="124"/>
-      <c r="R5" s="124"/>
-      <c r="S5" s="124"/>
-      <c r="T5" s="124"/>
-      <c r="U5" s="124"/>
-      <c r="V5" s="124"/>
-      <c r="W5" s="124"/>
-      <c r="X5" s="124"/>
-      <c r="Y5" s="124"/>
-      <c r="Z5" s="124"/>
-      <c r="AA5" s="124"/>
-      <c r="AB5" s="124"/>
-      <c r="AC5" s="124"/>
-      <c r="AD5" s="124"/>
-      <c r="AE5" s="124"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
+      <c r="AA5" s="103"/>
+      <c r="AB5" s="103"/>
+      <c r="AC5" s="103"/>
+      <c r="AD5" s="103"/>
+      <c r="AE5" s="103"/>
       <c r="AF5" s="77"/>
       <c r="AG5" s="77"/>
       <c r="AH5" s="77"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="126" t="s">
+      <c r="D6" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127"/>
-      <c r="P6" s="127"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="127"/>
-      <c r="T6" s="127"/>
-      <c r="U6" s="127"/>
-      <c r="V6" s="127"/>
-      <c r="W6" s="127"/>
-      <c r="X6" s="127"/>
-      <c r="Y6" s="127"/>
-      <c r="Z6" s="127"/>
-      <c r="AA6" s="127"/>
-      <c r="AB6" s="127"/>
-      <c r="AC6" s="127"/>
-      <c r="AD6" s="127"/>
-      <c r="AE6" s="127"/>
-      <c r="AF6" s="127"/>
-      <c r="AG6" s="128"/>
-      <c r="AH6" s="111" t="s">
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="106"/>
+      <c r="T6" s="106"/>
+      <c r="U6" s="106"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="106"/>
+      <c r="X6" s="106"/>
+      <c r="Y6" s="106"/>
+      <c r="Z6" s="106"/>
+      <c r="AA6" s="106"/>
+      <c r="AB6" s="106"/>
+      <c r="AC6" s="106"/>
+      <c r="AD6" s="106"/>
+      <c r="AE6" s="106"/>
+      <c r="AF6" s="106"/>
+      <c r="AG6" s="107"/>
+      <c r="AH6" s="100" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="111"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="129" t="s">
+      <c r="A7" s="100"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="129"/>
-      <c r="F7" s="111" t="s">
+      <c r="E7" s="108"/>
+      <c r="F7" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="111"/>
-      <c r="H7" s="130" t="s">
+      <c r="G7" s="100"/>
+      <c r="H7" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="130"/>
-      <c r="J7" s="111" t="s">
+      <c r="I7" s="109"/>
+      <c r="J7" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="111"/>
-      <c r="L7" s="131" t="s">
+      <c r="K7" s="100"/>
+      <c r="L7" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="131"/>
-      <c r="N7" s="111" t="s">
+      <c r="M7" s="110"/>
+      <c r="N7" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="111"/>
-      <c r="P7" s="119" t="s">
+      <c r="O7" s="100"/>
+      <c r="P7" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="111" t="s">
+      <c r="Q7" s="120"/>
+      <c r="R7" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="111"/>
-      <c r="T7" s="120" t="s">
+      <c r="S7" s="100"/>
+      <c r="T7" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="120"/>
-      <c r="V7" s="111" t="s">
+      <c r="U7" s="121"/>
+      <c r="V7" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="111"/>
-      <c r="X7" s="121" t="s">
+      <c r="W7" s="100"/>
+      <c r="X7" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="121"/>
-      <c r="Z7" s="111" t="s">
+      <c r="Y7" s="122"/>
+      <c r="Z7" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="111"/>
-      <c r="AB7" s="110" t="s">
+      <c r="AA7" s="100"/>
+      <c r="AB7" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="110"/>
-      <c r="AD7" s="111" t="s">
+      <c r="AC7" s="111"/>
+      <c r="AD7" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="111"/>
+      <c r="AE7" s="100"/>
       <c r="AF7" s="112" t="s">
         <v>24</v>
       </c>
       <c r="AG7" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="111"/>
+      <c r="AH7" s="100"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="111"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="111"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="100"/>
       <c r="D8" s="78" t="s">
         <v>26</v>
       </c>
@@ -2329,7 +2332,7 @@
       </c>
       <c r="AF8" s="113"/>
       <c r="AG8" s="113"/>
-      <c r="AH8" s="111"/>
+      <c r="AH8" s="100"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -3418,71 +3421,71 @@
         <v>0</v>
       </c>
       <c r="E30" s="116"/>
-      <c r="F30" s="102">
+      <c r="F30" s="117">
         <f>SUM(F9:F28)-SUM(G9:G28)</f>
         <v>4</v>
       </c>
-      <c r="G30" s="102"/>
-      <c r="H30" s="117">
+      <c r="G30" s="117"/>
+      <c r="H30" s="118">
         <f>SUM(H9:H28)-SUM(I9:I28)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="117"/>
-      <c r="J30" s="102">
+      <c r="I30" s="118"/>
+      <c r="J30" s="117">
         <f>SUM(J9:J28)-SUM(K9:K28)</f>
         <v>1</v>
       </c>
-      <c r="K30" s="102"/>
-      <c r="L30" s="118">
+      <c r="K30" s="117"/>
+      <c r="L30" s="119">
         <f>SUM(L9:L28)-SUM(M9:M28)</f>
         <v>0</v>
       </c>
-      <c r="M30" s="118"/>
-      <c r="N30" s="102">
+      <c r="M30" s="119"/>
+      <c r="N30" s="117">
         <f>SUM(N9:N28)-SUM(O9:O28)</f>
         <v>2</v>
       </c>
-      <c r="O30" s="102"/>
-      <c r="P30" s="103">
+      <c r="O30" s="117"/>
+      <c r="P30" s="125">
         <f>SUM(P9:P28)-SUM(Q9:Q28)</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="102">
+      <c r="Q30" s="125"/>
+      <c r="R30" s="117">
         <f>SUM(R9:R28)-SUM(S9:S28)</f>
         <v>2</v>
       </c>
-      <c r="S30" s="102"/>
-      <c r="T30" s="104">
+      <c r="S30" s="117"/>
+      <c r="T30" s="126">
         <f>SUM(T9:T28)-SUM(U9:U28)</f>
         <v>0</v>
       </c>
-      <c r="U30" s="104"/>
-      <c r="V30" s="102">
+      <c r="U30" s="126"/>
+      <c r="V30" s="117">
         <f>SUM(V9:V28)-SUM(W9:W28)</f>
         <v>0</v>
       </c>
-      <c r="W30" s="102"/>
-      <c r="X30" s="105">
+      <c r="W30" s="117"/>
+      <c r="X30" s="127">
         <f>SUM(X9:X28)-SUM(Y9:Y28)</f>
         <v>5</v>
       </c>
-      <c r="Y30" s="105"/>
-      <c r="Z30" s="102">
+      <c r="Y30" s="127"/>
+      <c r="Z30" s="117">
         <f>SUM(Z9:Z28)-SUM(AA9:AA28)</f>
         <v>0</v>
       </c>
-      <c r="AA30" s="102"/>
-      <c r="AB30" s="106">
+      <c r="AA30" s="117"/>
+      <c r="AB30" s="128">
         <f>SUM(AB9:AB28)-SUM(AC9:AC28)</f>
         <v>3</v>
       </c>
-      <c r="AC30" s="106"/>
-      <c r="AD30" s="102">
+      <c r="AC30" s="128"/>
+      <c r="AD30" s="117">
         <f>SUM(AD9:AD28)-SUM(AE9:AE28)</f>
         <v>0</v>
       </c>
-      <c r="AE30" s="102"/>
+      <c r="AE30" s="117"/>
       <c r="AF30" s="20"/>
       <c r="AG30" s="9">
         <f t="shared" si="1"/>
@@ -3491,39 +3494,39 @@
       <c r="AH30" s="21"/>
     </row>
     <row r="31" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="107" t="s">
+      <c r="A31" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="108"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="108"/>
-      <c r="L31" s="108"/>
-      <c r="M31" s="108"/>
-      <c r="N31" s="108"/>
-      <c r="O31" s="108"/>
-      <c r="P31" s="108"/>
-      <c r="Q31" s="108"/>
-      <c r="R31" s="108"/>
-      <c r="S31" s="108"/>
-      <c r="T31" s="108"/>
-      <c r="U31" s="108"/>
-      <c r="V31" s="108"/>
-      <c r="W31" s="108"/>
-      <c r="X31" s="108"/>
-      <c r="Y31" s="108"/>
-      <c r="Z31" s="108"/>
-      <c r="AA31" s="108"/>
-      <c r="AB31" s="108"/>
-      <c r="AC31" s="108"/>
-      <c r="AD31" s="108"/>
-      <c r="AE31" s="109"/>
+      <c r="B31" s="130"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="130"/>
+      <c r="J31" s="130"/>
+      <c r="K31" s="130"/>
+      <c r="L31" s="130"/>
+      <c r="M31" s="130"/>
+      <c r="N31" s="130"/>
+      <c r="O31" s="130"/>
+      <c r="P31" s="130"/>
+      <c r="Q31" s="130"/>
+      <c r="R31" s="130"/>
+      <c r="S31" s="130"/>
+      <c r="T31" s="130"/>
+      <c r="U31" s="130"/>
+      <c r="V31" s="130"/>
+      <c r="W31" s="130"/>
+      <c r="X31" s="130"/>
+      <c r="Y31" s="130"/>
+      <c r="Z31" s="130"/>
+      <c r="AA31" s="130"/>
+      <c r="AB31" s="130"/>
+      <c r="AC31" s="130"/>
+      <c r="AD31" s="130"/>
+      <c r="AE31" s="131"/>
       <c r="AF31" s="22">
         <f>SUM(AF9:AF28)</f>
         <v>79</v>
@@ -3535,48 +3538,76 @@
       <c r="AH31" s="23"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="107" t="s">
+      <c r="A32" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="108"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="108"/>
-      <c r="K32" s="108"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="108"/>
-      <c r="N32" s="108"/>
-      <c r="O32" s="108"/>
-      <c r="P32" s="108"/>
-      <c r="Q32" s="108"/>
-      <c r="R32" s="108"/>
-      <c r="S32" s="108"/>
-      <c r="T32" s="108"/>
-      <c r="U32" s="108"/>
-      <c r="V32" s="108"/>
-      <c r="W32" s="108"/>
-      <c r="X32" s="108"/>
-      <c r="Y32" s="108"/>
-      <c r="Z32" s="108"/>
-      <c r="AA32" s="108"/>
-      <c r="AB32" s="108"/>
-      <c r="AC32" s="108"/>
-      <c r="AD32" s="108"/>
-      <c r="AE32" s="109"/>
-      <c r="AF32" s="100">
+      <c r="B32" s="130"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="130"/>
+      <c r="G32" s="130"/>
+      <c r="H32" s="130"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="130"/>
+      <c r="K32" s="130"/>
+      <c r="L32" s="130"/>
+      <c r="M32" s="130"/>
+      <c r="N32" s="130"/>
+      <c r="O32" s="130"/>
+      <c r="P32" s="130"/>
+      <c r="Q32" s="130"/>
+      <c r="R32" s="130"/>
+      <c r="S32" s="130"/>
+      <c r="T32" s="130"/>
+      <c r="U32" s="130"/>
+      <c r="V32" s="130"/>
+      <c r="W32" s="130"/>
+      <c r="X32" s="130"/>
+      <c r="Y32" s="130"/>
+      <c r="Z32" s="130"/>
+      <c r="AA32" s="130"/>
+      <c r="AB32" s="130"/>
+      <c r="AC32" s="130"/>
+      <c r="AD32" s="130"/>
+      <c r="AE32" s="131"/>
+      <c r="AF32" s="123">
         <f>AG31-AF31</f>
         <v>17</v>
       </c>
-      <c r="AG32" s="101"/>
+      <c r="AG32" s="124"/>
       <c r="AH32" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="A31:AE31"/>
+    <mergeCell ref="A32:AE32"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -3593,34 +3624,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="A31:AE31"/>
-    <mergeCell ref="A32:AE32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3632,29 +3635,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="5" customWidth="1"/>
-    <col min="4" max="31" width="3.28515625" style="5" customWidth="1"/>
-    <col min="32" max="32" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" style="5" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="3.5546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="5" customWidth="1"/>
+    <col min="4" max="31" width="3.33203125" style="5" customWidth="1"/>
+    <col min="32" max="32" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.6640625" style="5" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
+      <c r="A1" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
       <c r="D1" s="54"/>
       <c r="E1" s="54"/>
       <c r="F1" s="54"/>
@@ -3690,11 +3693,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
       <c r="F2" s="55"/>
@@ -3730,235 +3733,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="124"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="124"/>
-      <c r="S3" s="124"/>
-      <c r="T3" s="124"/>
-      <c r="U3" s="124"/>
-      <c r="V3" s="124"/>
-      <c r="W3" s="124"/>
-      <c r="X3" s="124"/>
-      <c r="Y3" s="124"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="124"/>
-      <c r="AB3" s="124"/>
-      <c r="AC3" s="124"/>
-      <c r="AD3" s="124"/>
-      <c r="AE3" s="124"/>
-      <c r="AF3" s="124"/>
-      <c r="AG3" s="124"/>
-      <c r="AH3" s="124"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103"/>
+      <c r="S3" s="103"/>
+      <c r="T3" s="103"/>
+      <c r="U3" s="103"/>
+      <c r="V3" s="103"/>
+      <c r="W3" s="103"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="103"/>
+      <c r="Z3" s="103"/>
+      <c r="AA3" s="103"/>
+      <c r="AB3" s="103"/>
+      <c r="AC3" s="103"/>
+      <c r="AD3" s="103"/>
+      <c r="AE3" s="103"/>
+      <c r="AF3" s="103"/>
+      <c r="AG3" s="103"/>
+      <c r="AH3" s="103"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="124" t="s">
+      <c r="A4" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
-      <c r="R4" s="124"/>
-      <c r="S4" s="124"/>
-      <c r="T4" s="124"/>
-      <c r="U4" s="124"/>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="124"/>
-      <c r="Z4" s="124"/>
-      <c r="AA4" s="124"/>
-      <c r="AB4" s="124"/>
-      <c r="AC4" s="124"/>
-      <c r="AD4" s="124"/>
-      <c r="AE4" s="124"/>
-      <c r="AF4" s="124"/>
-      <c r="AG4" s="124"/>
-      <c r="AH4" s="124"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="124"/>
-      <c r="B5" s="124"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="124"/>
-      <c r="R5" s="124"/>
-      <c r="S5" s="124"/>
-      <c r="T5" s="124"/>
-      <c r="U5" s="124"/>
-      <c r="V5" s="124"/>
-      <c r="W5" s="124"/>
-      <c r="X5" s="124"/>
-      <c r="Y5" s="124"/>
-      <c r="Z5" s="124"/>
-      <c r="AA5" s="124"/>
-      <c r="AB5" s="124"/>
-      <c r="AC5" s="124"/>
-      <c r="AD5" s="124"/>
-      <c r="AE5" s="124"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="103"/>
+      <c r="T4" s="103"/>
+      <c r="U4" s="103"/>
+      <c r="V4" s="103"/>
+      <c r="W4" s="103"/>
+      <c r="X4" s="103"/>
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="103"/>
+      <c r="AB4" s="103"/>
+      <c r="AC4" s="103"/>
+      <c r="AD4" s="103"/>
+      <c r="AE4" s="103"/>
+      <c r="AF4" s="103"/>
+      <c r="AG4" s="103"/>
+      <c r="AH4" s="103"/>
+    </row>
+    <row r="5" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="103"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
+      <c r="AA5" s="103"/>
+      <c r="AB5" s="103"/>
+      <c r="AC5" s="103"/>
+      <c r="AD5" s="103"/>
+      <c r="AE5" s="103"/>
       <c r="AF5" s="56"/>
       <c r="AG5" s="56"/>
       <c r="AH5" s="56"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="126" t="s">
+      <c r="D6" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127"/>
-      <c r="P6" s="127"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="127"/>
-      <c r="T6" s="127"/>
-      <c r="U6" s="127"/>
-      <c r="V6" s="127"/>
-      <c r="W6" s="127"/>
-      <c r="X6" s="127"/>
-      <c r="Y6" s="127"/>
-      <c r="Z6" s="127"/>
-      <c r="AA6" s="127"/>
-      <c r="AB6" s="127"/>
-      <c r="AC6" s="127"/>
-      <c r="AD6" s="127"/>
-      <c r="AE6" s="127"/>
-      <c r="AF6" s="127"/>
-      <c r="AG6" s="128"/>
-      <c r="AH6" s="111" t="s">
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="106"/>
+      <c r="T6" s="106"/>
+      <c r="U6" s="106"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="106"/>
+      <c r="X6" s="106"/>
+      <c r="Y6" s="106"/>
+      <c r="Z6" s="106"/>
+      <c r="AA6" s="106"/>
+      <c r="AB6" s="106"/>
+      <c r="AC6" s="106"/>
+      <c r="AD6" s="106"/>
+      <c r="AE6" s="106"/>
+      <c r="AF6" s="106"/>
+      <c r="AG6" s="107"/>
+      <c r="AH6" s="100" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="111"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="129" t="s">
+      <c r="A7" s="100"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="129"/>
-      <c r="F7" s="111" t="s">
+      <c r="E7" s="108"/>
+      <c r="F7" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="111"/>
-      <c r="H7" s="130" t="s">
+      <c r="G7" s="100"/>
+      <c r="H7" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="130"/>
-      <c r="J7" s="111" t="s">
+      <c r="I7" s="109"/>
+      <c r="J7" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="111"/>
-      <c r="L7" s="131" t="s">
+      <c r="K7" s="100"/>
+      <c r="L7" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="131"/>
-      <c r="N7" s="111" t="s">
+      <c r="M7" s="110"/>
+      <c r="N7" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="111"/>
-      <c r="P7" s="119" t="s">
+      <c r="O7" s="100"/>
+      <c r="P7" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="111" t="s">
+      <c r="Q7" s="120"/>
+      <c r="R7" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="111"/>
-      <c r="T7" s="120" t="s">
+      <c r="S7" s="100"/>
+      <c r="T7" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="120"/>
-      <c r="V7" s="111" t="s">
+      <c r="U7" s="121"/>
+      <c r="V7" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="111"/>
-      <c r="X7" s="121" t="s">
+      <c r="W7" s="100"/>
+      <c r="X7" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="121"/>
-      <c r="Z7" s="111" t="s">
+      <c r="Y7" s="122"/>
+      <c r="Z7" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="111"/>
-      <c r="AB7" s="110" t="s">
+      <c r="AA7" s="100"/>
+      <c r="AB7" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="110"/>
-      <c r="AD7" s="111" t="s">
+      <c r="AC7" s="111"/>
+      <c r="AD7" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="111"/>
+      <c r="AE7" s="100"/>
       <c r="AF7" s="112" t="s">
         <v>24</v>
       </c>
       <c r="AG7" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="111"/>
+      <c r="AH7" s="100"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="111"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="111"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="100"/>
       <c r="D8" s="57" t="s">
         <v>26</v>
       </c>
@@ -4045,7 +4048,7 @@
       </c>
       <c r="AF8" s="132"/>
       <c r="AG8" s="132"/>
-      <c r="AH8" s="111"/>
+      <c r="AH8" s="100"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -4449,10 +4452,14 @@
       <c r="AG16" s="11"/>
       <c r="AH16" s="14"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
+      <c r="B17" s="15">
+        <v>44005</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>81</v>
+      </c>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="16"/>
@@ -4468,7 +4475,9 @@
       <c r="P17" s="44"/>
       <c r="Q17" s="44"/>
       <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
+      <c r="S17" s="16">
+        <v>1</v>
+      </c>
       <c r="T17" s="48"/>
       <c r="U17" s="48"/>
       <c r="V17" s="16"/>
@@ -4478,14 +4487,16 @@
       <c r="Z17" s="16"/>
       <c r="AA17" s="16"/>
       <c r="AB17" s="36"/>
-      <c r="AC17" s="36"/>
+      <c r="AC17" s="36">
+        <v>1</v>
+      </c>
       <c r="AD17" s="16"/>
       <c r="AE17" s="16"/>
       <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
       <c r="AH17" s="14"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
@@ -4527,7 +4538,7 @@
       </c>
       <c r="AH18" s="14"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
@@ -4569,7 +4580,7 @@
       </c>
       <c r="AH19" s="14"/>
     </row>
-    <row r="20" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
@@ -4611,7 +4622,7 @@
       </c>
       <c r="AH20" s="14"/>
     </row>
-    <row r="21" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
@@ -4653,7 +4664,7 @@
       </c>
       <c r="AH21" s="14"/>
     </row>
-    <row r="22" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
@@ -4695,7 +4706,7 @@
       </c>
       <c r="AH22" s="14"/>
     </row>
-    <row r="23" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
@@ -4737,7 +4748,7 @@
       </c>
       <c r="AH23" s="14"/>
     </row>
-    <row r="24" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
@@ -4779,7 +4790,7 @@
       </c>
       <c r="AH24" s="14"/>
     </row>
-    <row r="25" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="13"/>
       <c r="C25" s="14"/>
@@ -4821,7 +4832,7 @@
       </c>
       <c r="AH25" s="14"/>
     </row>
-    <row r="26" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
@@ -4863,7 +4874,7 @@
       </c>
       <c r="AH26" s="14"/>
     </row>
-    <row r="27" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
@@ -4905,7 +4916,7 @@
       </c>
       <c r="AH27" s="14"/>
     </row>
-    <row r="28" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>16</v>
       </c>
@@ -4949,7 +4960,7 @@
       </c>
       <c r="AH28" s="14"/>
     </row>
-    <row r="29" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>17</v>
       </c>
@@ -4993,7 +5004,7 @@
       </c>
       <c r="AH29" s="14"/>
     </row>
-    <row r="30" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>18</v>
       </c>
@@ -5037,7 +5048,7 @@
       </c>
       <c r="AH30" s="14"/>
     </row>
-    <row r="31" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>19</v>
       </c>
@@ -5081,7 +5092,7 @@
       </c>
       <c r="AH31" s="14"/>
     </row>
-    <row r="32" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>20</v>
       </c>
@@ -5125,7 +5136,7 @@
       </c>
       <c r="AH32" s="14"/>
     </row>
-    <row r="33" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>21</v>
       </c>
@@ -5169,7 +5180,7 @@
       </c>
       <c r="AH33" s="14"/>
     </row>
-    <row r="34" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>22</v>
       </c>
@@ -5213,7 +5224,7 @@
       </c>
       <c r="AH34" s="14"/>
     </row>
-    <row r="35" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>23</v>
       </c>
@@ -5257,7 +5268,7 @@
       </c>
       <c r="AH35" s="14"/>
     </row>
-    <row r="36" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>24</v>
       </c>
@@ -5301,7 +5312,7 @@
       </c>
       <c r="AH36" s="14"/>
     </row>
-    <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>25</v>
       </c>
@@ -5345,7 +5356,7 @@
       </c>
       <c r="AH37" s="14"/>
     </row>
-    <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>26</v>
       </c>
@@ -5389,7 +5400,7 @@
       </c>
       <c r="AH38" s="14"/>
     </row>
-    <row r="39" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>27</v>
       </c>
@@ -5433,7 +5444,7 @@
       </c>
       <c r="AH39" s="14"/>
     </row>
-    <row r="40" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>28</v>
       </c>
@@ -5477,7 +5488,7 @@
       </c>
       <c r="AH40" s="14"/>
     </row>
-    <row r="41" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>29</v>
       </c>
@@ -5521,7 +5532,7 @@
       </c>
       <c r="AH41" s="14"/>
     </row>
-    <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>30</v>
       </c>
@@ -5565,7 +5576,7 @@
       </c>
       <c r="AH42" s="14"/>
     </row>
-    <row r="43" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>31</v>
       </c>
@@ -5609,7 +5620,7 @@
       </c>
       <c r="AH43" s="14"/>
     </row>
-    <row r="44" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>32</v>
       </c>
@@ -5653,7 +5664,7 @@
       </c>
       <c r="AH44" s="16"/>
     </row>
-    <row r="45" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>33</v>
       </c>
@@ -5697,7 +5708,7 @@
       </c>
       <c r="AH45" s="16"/>
     </row>
-    <row r="46" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>34</v>
       </c>
@@ -5741,7 +5752,7 @@
       </c>
       <c r="AH46" s="16"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="18"/>
       <c r="C47" s="19"/>
@@ -5750,112 +5761,112 @@
         <v>3</v>
       </c>
       <c r="E47" s="116"/>
-      <c r="F47" s="102">
+      <c r="F47" s="117">
         <f>SUM(F9:F46)-SUM(G9:G46)</f>
         <v>0</v>
       </c>
-      <c r="G47" s="102"/>
-      <c r="H47" s="117">
+      <c r="G47" s="117"/>
+      <c r="H47" s="118">
         <f>SUM(H9:H46)-SUM(I9:I46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="117"/>
-      <c r="J47" s="102">
+      <c r="I47" s="118"/>
+      <c r="J47" s="117">
         <f>SUM(J9:J46)-SUM(K9:K46)</f>
         <v>0</v>
       </c>
-      <c r="K47" s="102"/>
-      <c r="L47" s="118">
+      <c r="K47" s="117"/>
+      <c r="L47" s="119">
         <f>SUM(L9:L46)-SUM(M9:M46)</f>
         <v>0</v>
       </c>
-      <c r="M47" s="118"/>
-      <c r="N47" s="102">
+      <c r="M47" s="119"/>
+      <c r="N47" s="117">
         <f>SUM(N9:N46)-SUM(O9:O46)</f>
         <v>1</v>
       </c>
-      <c r="O47" s="102"/>
-      <c r="P47" s="103">
+      <c r="O47" s="117"/>
+      <c r="P47" s="125">
         <f>SUM(P9:P46)-SUM(Q9:Q46)</f>
         <v>0</v>
       </c>
-      <c r="Q47" s="103"/>
-      <c r="R47" s="102">
+      <c r="Q47" s="125"/>
+      <c r="R47" s="117">
         <f>SUM(R9:R46)-SUM(S9:S46)</f>
-        <v>3</v>
-      </c>
-      <c r="S47" s="102"/>
-      <c r="T47" s="104">
+        <v>2</v>
+      </c>
+      <c r="S47" s="117"/>
+      <c r="T47" s="126">
         <f>SUM(T9:T46)-SUM(U9:U46)</f>
         <v>0</v>
       </c>
-      <c r="U47" s="104"/>
-      <c r="V47" s="102">
+      <c r="U47" s="126"/>
+      <c r="V47" s="117">
         <f>SUM(V9:V46)-SUM(W9:W46)</f>
         <v>1</v>
       </c>
-      <c r="W47" s="102"/>
-      <c r="X47" s="105">
+      <c r="W47" s="117"/>
+      <c r="X47" s="127">
         <f>SUM(X9:X46)-SUM(Y9:Y46)</f>
         <v>4</v>
       </c>
-      <c r="Y47" s="105"/>
-      <c r="Z47" s="102">
+      <c r="Y47" s="127"/>
+      <c r="Z47" s="117">
         <f>SUM(Z9:Z46)-SUM(AA9:AA46)</f>
         <v>3</v>
       </c>
-      <c r="AA47" s="102"/>
-      <c r="AB47" s="106">
+      <c r="AA47" s="117"/>
+      <c r="AB47" s="128">
         <f>SUM(AB9:AB46)-SUM(AC9:AC46)</f>
-        <v>4</v>
-      </c>
-      <c r="AC47" s="106"/>
-      <c r="AD47" s="102">
+        <v>3</v>
+      </c>
+      <c r="AC47" s="128"/>
+      <c r="AD47" s="117">
         <f>SUM(AD9:AD46)-SUM(AE9:AE46)</f>
         <v>0</v>
       </c>
-      <c r="AE47" s="102"/>
+      <c r="AE47" s="117"/>
       <c r="AF47" s="20"/>
       <c r="AG47" s="9">
         <f>D47+F47+H47+J47+L47+N47+P47+R47+T47+V47+X47+Z47+AB47+AD47</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH47" s="21"/>
     </row>
     <row r="48" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="107" t="s">
+      <c r="A48" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="108"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="108"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="108"/>
-      <c r="G48" s="108"/>
-      <c r="H48" s="108"/>
-      <c r="I48" s="108"/>
-      <c r="J48" s="108"/>
-      <c r="K48" s="108"/>
-      <c r="L48" s="108"/>
-      <c r="M48" s="108"/>
-      <c r="N48" s="108"/>
-      <c r="O48" s="108"/>
-      <c r="P48" s="108"/>
-      <c r="Q48" s="108"/>
-      <c r="R48" s="108"/>
-      <c r="S48" s="108"/>
-      <c r="T48" s="108"/>
-      <c r="U48" s="108"/>
-      <c r="V48" s="108"/>
-      <c r="W48" s="108"/>
-      <c r="X48" s="108"/>
-      <c r="Y48" s="108"/>
-      <c r="Z48" s="108"/>
-      <c r="AA48" s="108"/>
-      <c r="AB48" s="108"/>
-      <c r="AC48" s="108"/>
-      <c r="AD48" s="108"/>
-      <c r="AE48" s="109"/>
+      <c r="B48" s="130"/>
+      <c r="C48" s="130"/>
+      <c r="D48" s="130"/>
+      <c r="E48" s="130"/>
+      <c r="F48" s="130"/>
+      <c r="G48" s="130"/>
+      <c r="H48" s="130"/>
+      <c r="I48" s="130"/>
+      <c r="J48" s="130"/>
+      <c r="K48" s="130"/>
+      <c r="L48" s="130"/>
+      <c r="M48" s="130"/>
+      <c r="N48" s="130"/>
+      <c r="O48" s="130"/>
+      <c r="P48" s="130"/>
+      <c r="Q48" s="130"/>
+      <c r="R48" s="130"/>
+      <c r="S48" s="130"/>
+      <c r="T48" s="130"/>
+      <c r="U48" s="130"/>
+      <c r="V48" s="130"/>
+      <c r="W48" s="130"/>
+      <c r="X48" s="130"/>
+      <c r="Y48" s="130"/>
+      <c r="Z48" s="130"/>
+      <c r="AA48" s="130"/>
+      <c r="AB48" s="130"/>
+      <c r="AC48" s="130"/>
+      <c r="AD48" s="130"/>
+      <c r="AE48" s="131"/>
       <c r="AF48" s="22">
         <f>SUM(AF9:AF46)</f>
         <v>7</v>
@@ -5867,59 +5878,64 @@
       <c r="AH48" s="23"/>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A49" s="107" t="s">
+      <c r="A49" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="108"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="108"/>
-      <c r="G49" s="108"/>
-      <c r="H49" s="108"/>
-      <c r="I49" s="108"/>
-      <c r="J49" s="108"/>
-      <c r="K49" s="108"/>
-      <c r="L49" s="108"/>
-      <c r="M49" s="108"/>
-      <c r="N49" s="108"/>
-      <c r="O49" s="108"/>
-      <c r="P49" s="108"/>
-      <c r="Q49" s="108"/>
-      <c r="R49" s="108"/>
-      <c r="S49" s="108"/>
-      <c r="T49" s="108"/>
-      <c r="U49" s="108"/>
-      <c r="V49" s="108"/>
-      <c r="W49" s="108"/>
-      <c r="X49" s="108"/>
-      <c r="Y49" s="108"/>
-      <c r="Z49" s="108"/>
-      <c r="AA49" s="108"/>
-      <c r="AB49" s="108"/>
-      <c r="AC49" s="108"/>
-      <c r="AD49" s="108"/>
-      <c r="AE49" s="109"/>
-      <c r="AF49" s="100">
+      <c r="B49" s="130"/>
+      <c r="C49" s="130"/>
+      <c r="D49" s="130"/>
+      <c r="E49" s="130"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="130"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="130"/>
+      <c r="J49" s="130"/>
+      <c r="K49" s="130"/>
+      <c r="L49" s="130"/>
+      <c r="M49" s="130"/>
+      <c r="N49" s="130"/>
+      <c r="O49" s="130"/>
+      <c r="P49" s="130"/>
+      <c r="Q49" s="130"/>
+      <c r="R49" s="130"/>
+      <c r="S49" s="130"/>
+      <c r="T49" s="130"/>
+      <c r="U49" s="130"/>
+      <c r="V49" s="130"/>
+      <c r="W49" s="130"/>
+      <c r="X49" s="130"/>
+      <c r="Y49" s="130"/>
+      <c r="Z49" s="130"/>
+      <c r="AA49" s="130"/>
+      <c r="AB49" s="130"/>
+      <c r="AC49" s="130"/>
+      <c r="AD49" s="130"/>
+      <c r="AE49" s="131"/>
+      <c r="AF49" s="123">
         <f>AG48-AF48</f>
         <v>24</v>
       </c>
-      <c r="AG49" s="101"/>
+      <c r="AG49" s="124"/>
       <c r="AH49" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="AD47:AE47"/>
-    <mergeCell ref="A48:AE48"/>
-    <mergeCell ref="A49:AE49"/>
-    <mergeCell ref="AF49:AG49"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="Z47:AA47"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AF8"/>
@@ -5936,22 +5952,17 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="AD47:AE47"/>
+    <mergeCell ref="A48:AE48"/>
+    <mergeCell ref="A49:AE49"/>
+    <mergeCell ref="AF49:AG49"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="Z47:AA47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5962,30 +5973,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="34.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" style="5" customWidth="1"/>
     <col min="6" max="6" width="7" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="5"/>
+    <col min="7" max="7" width="9.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="88" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
+    <row r="1" spans="1:34" s="88" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
       <c r="F1" s="134" t="s">
         <v>1</v>
       </c>
@@ -6015,14 +6026,14 @@
       <c r="AG1" s="87"/>
       <c r="AH1" s="87"/>
     </row>
-    <row r="2" spans="1:34" s="88" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="138" t="s">
+    <row r="2" spans="1:34" s="88" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
       <c r="F2" s="133" t="s">
         <v>3</v>
       </c>
@@ -6052,7 +6063,7 @@
       <c r="AG2" s="87"/>
       <c r="AH2" s="87"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="83"/>
       <c r="B3" s="83"/>
       <c r="C3" s="83"/>
@@ -6087,15 +6098,15 @@
       <c r="AH3" s="2"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="124" t="s">
+      <c r="A4" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
       <c r="H4" s="82"/>
       <c r="I4" s="82"/>
       <c r="J4" s="82"/>
@@ -6128,10 +6139,10 @@
       <c r="A6" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="139" t="s">
+      <c r="B6" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="137" t="s">
         <v>59</v>
       </c>
       <c r="D6" s="136" t="s">
@@ -6143,10 +6154,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="57" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7" s="136"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
       <c r="D7" s="95" t="s">
         <v>61</v>
       </c>

--- a/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="T5" sheetId="4" r:id="rId1"/>
     <sheet name="T6" sheetId="3" r:id="rId2"/>
-    <sheet name="Tổng hợp ngày 19-6" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -712,7 +711,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="59">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -885,86 +884,17 @@
     <t>Tháng 6</t>
   </si>
   <si>
-    <t>Tên Sản phẩm</t>
+    <t>Khách lẻ anh lâm</t>
   </si>
   <si>
-    <t>mã sản phẩm</t>
-  </si>
-  <si>
-    <t>Đơn vị tính</t>
-  </si>
-  <si>
-    <t>Số lượng</t>
-  </si>
-  <si>
-    <t>Kho mở</t>
-  </si>
-  <si>
-    <t>Kho kín</t>
-  </si>
-  <si>
-    <t>Tổng cộng</t>
-  </si>
-  <si>
-    <t>SỔ THEO DÕI KHO ngày 19/06/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hộp </t>
-  </si>
-  <si>
-    <t>Viên soy</t>
-  </si>
-  <si>
-    <t>Nanomilk Canxi trẻ dưới 3 tuổi 450gr</t>
-  </si>
-  <si>
-    <t>Nanomilk Canxi trẻ dưới 3 tuổi 900gr</t>
-  </si>
-  <si>
-    <t>Nanomilk Canxi trẻ từ 3-12 tuổi 450gr</t>
-  </si>
-  <si>
-    <t>Nanomilk Canxi trẻ từ 3-12 tuổi 900gr</t>
-  </si>
-  <si>
-    <t>Nanomilk Canxi trẻ trên 13 tuổi 450gr</t>
-  </si>
-  <si>
-    <t>Nanomilk Canxi trẻ trên 13 tuổi 900gr</t>
-  </si>
-  <si>
-    <t>Nanomilk Canxi người già 450gr</t>
-  </si>
-  <si>
-    <t>Nanomilk Canxi người già 900gr</t>
-  </si>
-  <si>
-    <t>Nanomilk Canxi bà bầu 450gr</t>
-  </si>
-  <si>
-    <t>Nanomilk Canxi bà bầu 900gr</t>
-  </si>
-  <si>
-    <t>Nanomilk giảm cân 900gr</t>
-  </si>
-  <si>
-    <t>Nanomilk tiểu đường huyết áp 900gr</t>
-  </si>
-  <si>
-    <t>Sữa non, sữa kháng thể 450gr</t>
-  </si>
-  <si>
-    <t>ĐL Quỳnh Trang</t>
-  </si>
-  <si>
-    <t>Khách lẻ anh lâm</t>
+    <t>Chị Huệ Điện Biên gộp đơn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1025,26 +955,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1109,7 +1019,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1291,27 +1201,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1449,58 +1344,15 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1590,27 +1442,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1937,11 +1768,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
+      <c r="A1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
       <c r="D1" s="75"/>
       <c r="E1" s="75"/>
       <c r="F1" s="75"/>
@@ -1977,11 +1808,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
       <c r="D2" s="76"/>
       <c r="E2" s="76"/>
       <c r="F2" s="76"/>
@@ -2017,235 +1848,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="103"/>
-      <c r="Z3" s="103"/>
-      <c r="AA3" s="103"/>
-      <c r="AB3" s="103"/>
-      <c r="AC3" s="103"/>
-      <c r="AD3" s="103"/>
-      <c r="AE3" s="103"/>
-      <c r="AF3" s="103"/>
-      <c r="AG3" s="103"/>
-      <c r="AH3" s="103"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
-      <c r="U4" s="103"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="103"/>
-      <c r="Z4" s="103"/>
-      <c r="AA4" s="103"/>
-      <c r="AB4" s="103"/>
-      <c r="AC4" s="103"/>
-      <c r="AD4" s="103"/>
-      <c r="AE4" s="103"/>
-      <c r="AF4" s="103"/>
-      <c r="AG4" s="103"/>
-      <c r="AH4" s="103"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="84"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="84"/>
+      <c r="AE4" s="84"/>
+      <c r="AF4" s="84"/>
+      <c r="AG4" s="84"/>
+      <c r="AH4" s="84"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="103"/>
-      <c r="AE5" s="103"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="84"/>
+      <c r="Y5" s="84"/>
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="84"/>
+      <c r="AB5" s="84"/>
+      <c r="AC5" s="84"/>
+      <c r="AD5" s="84"/>
+      <c r="AE5" s="84"/>
       <c r="AF5" s="77"/>
       <c r="AG5" s="77"/>
       <c r="AH5" s="77"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="105" t="s">
+      <c r="D6" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="106"/>
-      <c r="O6" s="106"/>
-      <c r="P6" s="106"/>
-      <c r="Q6" s="106"/>
-      <c r="R6" s="106"/>
-      <c r="S6" s="106"/>
-      <c r="T6" s="106"/>
-      <c r="U6" s="106"/>
-      <c r="V6" s="106"/>
-      <c r="W6" s="106"/>
-      <c r="X6" s="106"/>
-      <c r="Y6" s="106"/>
-      <c r="Z6" s="106"/>
-      <c r="AA6" s="106"/>
-      <c r="AB6" s="106"/>
-      <c r="AC6" s="106"/>
-      <c r="AD6" s="106"/>
-      <c r="AE6" s="106"/>
-      <c r="AF6" s="106"/>
-      <c r="AG6" s="107"/>
-      <c r="AH6" s="100" t="s">
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="87"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="87"/>
+      <c r="W6" s="87"/>
+      <c r="X6" s="87"/>
+      <c r="Y6" s="87"/>
+      <c r="Z6" s="87"/>
+      <c r="AA6" s="87"/>
+      <c r="AB6" s="87"/>
+      <c r="AC6" s="87"/>
+      <c r="AD6" s="87"/>
+      <c r="AE6" s="87"/>
+      <c r="AF6" s="87"/>
+      <c r="AG6" s="88"/>
+      <c r="AH6" s="81" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="100"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="108" t="s">
+      <c r="A7" s="81"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="108"/>
-      <c r="F7" s="100" t="s">
+      <c r="E7" s="89"/>
+      <c r="F7" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="100"/>
-      <c r="H7" s="109" t="s">
+      <c r="G7" s="81"/>
+      <c r="H7" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="109"/>
-      <c r="J7" s="100" t="s">
+      <c r="I7" s="90"/>
+      <c r="J7" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="100"/>
-      <c r="L7" s="110" t="s">
+      <c r="K7" s="81"/>
+      <c r="L7" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="110"/>
-      <c r="N7" s="100" t="s">
+      <c r="M7" s="91"/>
+      <c r="N7" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="100"/>
-      <c r="P7" s="120" t="s">
+      <c r="O7" s="81"/>
+      <c r="P7" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="100" t="s">
+      <c r="Q7" s="101"/>
+      <c r="R7" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="100"/>
-      <c r="T7" s="121" t="s">
+      <c r="S7" s="81"/>
+      <c r="T7" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="121"/>
-      <c r="V7" s="100" t="s">
+      <c r="U7" s="102"/>
+      <c r="V7" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="100"/>
-      <c r="X7" s="122" t="s">
+      <c r="W7" s="81"/>
+      <c r="X7" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="122"/>
-      <c r="Z7" s="100" t="s">
+      <c r="Y7" s="103"/>
+      <c r="Z7" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="100"/>
-      <c r="AB7" s="111" t="s">
+      <c r="AA7" s="81"/>
+      <c r="AB7" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="111"/>
-      <c r="AD7" s="100" t="s">
+      <c r="AC7" s="92"/>
+      <c r="AD7" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="100"/>
-      <c r="AF7" s="112" t="s">
+      <c r="AE7" s="81"/>
+      <c r="AF7" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="112" t="s">
+      <c r="AG7" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="100"/>
+      <c r="AH7" s="81"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="100"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="100"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="78" t="s">
         <v>26</v>
       </c>
@@ -2330,9 +2161,9 @@
       <c r="AE8" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="AF8" s="113"/>
-      <c r="AG8" s="113"/>
-      <c r="AH8" s="100"/>
+      <c r="AF8" s="94"/>
+      <c r="AG8" s="94"/>
+      <c r="AH8" s="81"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -3414,78 +3245,78 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
-      <c r="B30" s="114"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="116">
+      <c r="B30" s="95"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="97">
         <f>SUM(D9:D28)-SUM(E9:E28)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="116"/>
-      <c r="F30" s="117">
+      <c r="E30" s="97"/>
+      <c r="F30" s="98">
         <f>SUM(F9:F28)-SUM(G9:G28)</f>
         <v>4</v>
       </c>
-      <c r="G30" s="117"/>
-      <c r="H30" s="118">
+      <c r="G30" s="98"/>
+      <c r="H30" s="99">
         <f>SUM(H9:H28)-SUM(I9:I28)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="118"/>
-      <c r="J30" s="117">
+      <c r="I30" s="99"/>
+      <c r="J30" s="98">
         <f>SUM(J9:J28)-SUM(K9:K28)</f>
         <v>1</v>
       </c>
-      <c r="K30" s="117"/>
-      <c r="L30" s="119">
+      <c r="K30" s="98"/>
+      <c r="L30" s="100">
         <f>SUM(L9:L28)-SUM(M9:M28)</f>
         <v>0</v>
       </c>
-      <c r="M30" s="119"/>
-      <c r="N30" s="117">
+      <c r="M30" s="100"/>
+      <c r="N30" s="98">
         <f>SUM(N9:N28)-SUM(O9:O28)</f>
         <v>2</v>
       </c>
-      <c r="O30" s="117"/>
-      <c r="P30" s="125">
+      <c r="O30" s="98"/>
+      <c r="P30" s="106">
         <f>SUM(P9:P28)-SUM(Q9:Q28)</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="125"/>
-      <c r="R30" s="117">
+      <c r="Q30" s="106"/>
+      <c r="R30" s="98">
         <f>SUM(R9:R28)-SUM(S9:S28)</f>
         <v>2</v>
       </c>
-      <c r="S30" s="117"/>
-      <c r="T30" s="126">
+      <c r="S30" s="98"/>
+      <c r="T30" s="107">
         <f>SUM(T9:T28)-SUM(U9:U28)</f>
         <v>0</v>
       </c>
-      <c r="U30" s="126"/>
-      <c r="V30" s="117">
+      <c r="U30" s="107"/>
+      <c r="V30" s="98">
         <f>SUM(V9:V28)-SUM(W9:W28)</f>
         <v>0</v>
       </c>
-      <c r="W30" s="117"/>
-      <c r="X30" s="127">
+      <c r="W30" s="98"/>
+      <c r="X30" s="108">
         <f>SUM(X9:X28)-SUM(Y9:Y28)</f>
         <v>5</v>
       </c>
-      <c r="Y30" s="127"/>
-      <c r="Z30" s="117">
+      <c r="Y30" s="108"/>
+      <c r="Z30" s="98">
         <f>SUM(Z9:Z28)-SUM(AA9:AA28)</f>
         <v>0</v>
       </c>
-      <c r="AA30" s="117"/>
-      <c r="AB30" s="128">
+      <c r="AA30" s="98"/>
+      <c r="AB30" s="109">
         <f>SUM(AB9:AB28)-SUM(AC9:AC28)</f>
         <v>3</v>
       </c>
-      <c r="AC30" s="128"/>
-      <c r="AD30" s="117">
+      <c r="AC30" s="109"/>
+      <c r="AD30" s="98">
         <f>SUM(AD9:AD28)-SUM(AE9:AE28)</f>
         <v>0</v>
       </c>
-      <c r="AE30" s="117"/>
+      <c r="AE30" s="98"/>
       <c r="AF30" s="20"/>
       <c r="AG30" s="9">
         <f t="shared" si="1"/>
@@ -3494,39 +3325,39 @@
       <c r="AH30" s="21"/>
     </row>
     <row r="31" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="129" t="s">
+      <c r="A31" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="130"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="130"/>
-      <c r="J31" s="130"/>
-      <c r="K31" s="130"/>
-      <c r="L31" s="130"/>
-      <c r="M31" s="130"/>
-      <c r="N31" s="130"/>
-      <c r="O31" s="130"/>
-      <c r="P31" s="130"/>
-      <c r="Q31" s="130"/>
-      <c r="R31" s="130"/>
-      <c r="S31" s="130"/>
-      <c r="T31" s="130"/>
-      <c r="U31" s="130"/>
-      <c r="V31" s="130"/>
-      <c r="W31" s="130"/>
-      <c r="X31" s="130"/>
-      <c r="Y31" s="130"/>
-      <c r="Z31" s="130"/>
-      <c r="AA31" s="130"/>
-      <c r="AB31" s="130"/>
-      <c r="AC31" s="130"/>
-      <c r="AD31" s="130"/>
-      <c r="AE31" s="131"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="111"/>
+      <c r="O31" s="111"/>
+      <c r="P31" s="111"/>
+      <c r="Q31" s="111"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="111"/>
+      <c r="T31" s="111"/>
+      <c r="U31" s="111"/>
+      <c r="V31" s="111"/>
+      <c r="W31" s="111"/>
+      <c r="X31" s="111"/>
+      <c r="Y31" s="111"/>
+      <c r="Z31" s="111"/>
+      <c r="AA31" s="111"/>
+      <c r="AB31" s="111"/>
+      <c r="AC31" s="111"/>
+      <c r="AD31" s="111"/>
+      <c r="AE31" s="112"/>
       <c r="AF31" s="22">
         <f>SUM(AF9:AF28)</f>
         <v>79</v>
@@ -3538,44 +3369,44 @@
       <c r="AH31" s="23"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="129" t="s">
+      <c r="A32" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="130"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="130"/>
-      <c r="F32" s="130"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="130"/>
-      <c r="J32" s="130"/>
-      <c r="K32" s="130"/>
-      <c r="L32" s="130"/>
-      <c r="M32" s="130"/>
-      <c r="N32" s="130"/>
-      <c r="O32" s="130"/>
-      <c r="P32" s="130"/>
-      <c r="Q32" s="130"/>
-      <c r="R32" s="130"/>
-      <c r="S32" s="130"/>
-      <c r="T32" s="130"/>
-      <c r="U32" s="130"/>
-      <c r="V32" s="130"/>
-      <c r="W32" s="130"/>
-      <c r="X32" s="130"/>
-      <c r="Y32" s="130"/>
-      <c r="Z32" s="130"/>
-      <c r="AA32" s="130"/>
-      <c r="AB32" s="130"/>
-      <c r="AC32" s="130"/>
-      <c r="AD32" s="130"/>
-      <c r="AE32" s="131"/>
-      <c r="AF32" s="123">
+      <c r="B32" s="111"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="111"/>
+      <c r="M32" s="111"/>
+      <c r="N32" s="111"/>
+      <c r="O32" s="111"/>
+      <c r="P32" s="111"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="111"/>
+      <c r="S32" s="111"/>
+      <c r="T32" s="111"/>
+      <c r="U32" s="111"/>
+      <c r="V32" s="111"/>
+      <c r="W32" s="111"/>
+      <c r="X32" s="111"/>
+      <c r="Y32" s="111"/>
+      <c r="Z32" s="111"/>
+      <c r="AA32" s="111"/>
+      <c r="AB32" s="111"/>
+      <c r="AC32" s="111"/>
+      <c r="AD32" s="111"/>
+      <c r="AE32" s="112"/>
+      <c r="AF32" s="104">
         <f>AG31-AF31</f>
         <v>17</v>
       </c>
-      <c r="AG32" s="124"/>
+      <c r="AG32" s="105"/>
       <c r="AH32" s="23"/>
     </row>
   </sheetData>
@@ -3633,11 +3464,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH49"/>
+  <dimension ref="A1:AH51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3653,11 +3484,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
+      <c r="A1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
       <c r="D1" s="54"/>
       <c r="E1" s="54"/>
       <c r="F1" s="54"/>
@@ -3693,11 +3524,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
       <c r="F2" s="55"/>
@@ -3733,235 +3564,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="103"/>
-      <c r="Z3" s="103"/>
-      <c r="AA3" s="103"/>
-      <c r="AB3" s="103"/>
-      <c r="AC3" s="103"/>
-      <c r="AD3" s="103"/>
-      <c r="AE3" s="103"/>
-      <c r="AF3" s="103"/>
-      <c r="AG3" s="103"/>
-      <c r="AH3" s="103"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
-      <c r="U4" s="103"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="103"/>
-      <c r="Z4" s="103"/>
-      <c r="AA4" s="103"/>
-      <c r="AB4" s="103"/>
-      <c r="AC4" s="103"/>
-      <c r="AD4" s="103"/>
-      <c r="AE4" s="103"/>
-      <c r="AF4" s="103"/>
-      <c r="AG4" s="103"/>
-      <c r="AH4" s="103"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="84"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="84"/>
+      <c r="AE4" s="84"/>
+      <c r="AF4" s="84"/>
+      <c r="AG4" s="84"/>
+      <c r="AH4" s="84"/>
     </row>
     <row r="5" spans="1:34" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="103"/>
-      <c r="AE5" s="103"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="84"/>
+      <c r="Y5" s="84"/>
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="84"/>
+      <c r="AB5" s="84"/>
+      <c r="AC5" s="84"/>
+      <c r="AD5" s="84"/>
+      <c r="AE5" s="84"/>
       <c r="AF5" s="56"/>
       <c r="AG5" s="56"/>
       <c r="AH5" s="56"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="105" t="s">
+      <c r="D6" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="106"/>
-      <c r="O6" s="106"/>
-      <c r="P6" s="106"/>
-      <c r="Q6" s="106"/>
-      <c r="R6" s="106"/>
-      <c r="S6" s="106"/>
-      <c r="T6" s="106"/>
-      <c r="U6" s="106"/>
-      <c r="V6" s="106"/>
-      <c r="W6" s="106"/>
-      <c r="X6" s="106"/>
-      <c r="Y6" s="106"/>
-      <c r="Z6" s="106"/>
-      <c r="AA6" s="106"/>
-      <c r="AB6" s="106"/>
-      <c r="AC6" s="106"/>
-      <c r="AD6" s="106"/>
-      <c r="AE6" s="106"/>
-      <c r="AF6" s="106"/>
-      <c r="AG6" s="107"/>
-      <c r="AH6" s="100" t="s">
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="87"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="87"/>
+      <c r="W6" s="87"/>
+      <c r="X6" s="87"/>
+      <c r="Y6" s="87"/>
+      <c r="Z6" s="87"/>
+      <c r="AA6" s="87"/>
+      <c r="AB6" s="87"/>
+      <c r="AC6" s="87"/>
+      <c r="AD6" s="87"/>
+      <c r="AE6" s="87"/>
+      <c r="AF6" s="87"/>
+      <c r="AG6" s="88"/>
+      <c r="AH6" s="81" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="100"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="108" t="s">
+      <c r="A7" s="81"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="108"/>
-      <c r="F7" s="100" t="s">
+      <c r="E7" s="89"/>
+      <c r="F7" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="100"/>
-      <c r="H7" s="109" t="s">
+      <c r="G7" s="81"/>
+      <c r="H7" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="109"/>
-      <c r="J7" s="100" t="s">
+      <c r="I7" s="90"/>
+      <c r="J7" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="100"/>
-      <c r="L7" s="110" t="s">
+      <c r="K7" s="81"/>
+      <c r="L7" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="110"/>
-      <c r="N7" s="100" t="s">
+      <c r="M7" s="91"/>
+      <c r="N7" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="100"/>
-      <c r="P7" s="120" t="s">
+      <c r="O7" s="81"/>
+      <c r="P7" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="100" t="s">
+      <c r="Q7" s="101"/>
+      <c r="R7" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="100"/>
-      <c r="T7" s="121" t="s">
+      <c r="S7" s="81"/>
+      <c r="T7" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="121"/>
-      <c r="V7" s="100" t="s">
+      <c r="U7" s="102"/>
+      <c r="V7" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="100"/>
-      <c r="X7" s="122" t="s">
+      <c r="W7" s="81"/>
+      <c r="X7" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="122"/>
-      <c r="Z7" s="100" t="s">
+      <c r="Y7" s="103"/>
+      <c r="Z7" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="100"/>
-      <c r="AB7" s="111" t="s">
+      <c r="AA7" s="81"/>
+      <c r="AB7" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="111"/>
-      <c r="AD7" s="100" t="s">
+      <c r="AC7" s="92"/>
+      <c r="AD7" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="100"/>
-      <c r="AF7" s="112" t="s">
+      <c r="AE7" s="81"/>
+      <c r="AF7" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="112" t="s">
+      <c r="AG7" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="100"/>
+      <c r="AH7" s="81"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="100"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="100"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="57" t="s">
         <v>26</v>
       </c>
@@ -4046,9 +3877,9 @@
       <c r="AE8" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AF8" s="132"/>
-      <c r="AG8" s="132"/>
-      <c r="AH8" s="100"/>
+      <c r="AF8" s="113"/>
+      <c r="AG8" s="113"/>
+      <c r="AH8" s="81"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -4153,11 +3984,11 @@
       <c r="AD10" s="14"/>
       <c r="AE10" s="14"/>
       <c r="AF10" s="14">
-        <f t="shared" ref="AF10:AF13" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
+        <f t="shared" ref="AF10:AF21" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
         <v>3</v>
       </c>
       <c r="AG10" s="14">
-        <f t="shared" ref="AG10:AG13" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
+        <f t="shared" ref="AG10:AG21" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
         <v>0</v>
       </c>
       <c r="AH10" s="14"/>
@@ -4364,8 +4195,14 @@
       <c r="AC14" s="36"/>
       <c r="AD14" s="16"/>
       <c r="AE14" s="16"/>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="11"/>
+      <c r="AF14" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AG14" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AH14" s="14"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
@@ -4406,8 +4243,14 @@
       <c r="AC15" s="36"/>
       <c r="AD15" s="16"/>
       <c r="AE15" s="16"/>
-      <c r="AF15" s="11"/>
-      <c r="AG15" s="11"/>
+      <c r="AF15" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="AH15" s="14"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
@@ -4448,17 +4291,23 @@
       <c r="AC16" s="36"/>
       <c r="AD16" s="16"/>
       <c r="AE16" s="16"/>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
+      <c r="AF16" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AG16" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AH16" s="14"/>
     </row>
-    <row r="17" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="15">
         <v>44005</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
@@ -4492,14 +4341,24 @@
       </c>
       <c r="AD17" s="16"/>
       <c r="AE17" s="16"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
+      <c r="AF17" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AG17" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AH17" s="14"/>
     </row>
-    <row r="18" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="15">
+        <v>44007</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
       <c r="F18" s="16"/>
@@ -4519,7 +4378,9 @@
       <c r="T18" s="48"/>
       <c r="U18" s="48"/>
       <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
+      <c r="W18" s="16">
+        <v>1</v>
+      </c>
       <c r="X18" s="52"/>
       <c r="Y18" s="52"/>
       <c r="Z18" s="16"/>
@@ -4528,18 +4389,18 @@
       <c r="AC18" s="36"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="16"/>
-      <c r="AF18" s="9">
-        <f t="shared" ref="AF18:AF46" si="2">E18+G18+I18+K18+M18+O18+Q18+S18+U18+W18+Y18+AA18+AC18+AE18</f>
-        <v>0</v>
-      </c>
-      <c r="AG18" s="9">
-        <f t="shared" ref="AG18:AG46" si="3">D18+F18+H18+J18+L18+N18+P18+R18+T18+V18+X18+Z18+AB18+AD18</f>
+      <c r="AF18" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG18" s="14">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH18" s="14"/>
     </row>
-    <row r="19" spans="1:34" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
       <c r="D19" s="28"/>
@@ -4570,96 +4431,96 @@
       <c r="AC19" s="36"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="16"/>
-      <c r="AF19" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG19" s="9">
-        <f t="shared" si="3"/>
+      <c r="AF19" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="14">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH19" s="14"/>
     </row>
-    <row r="20" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="51"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="35"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG20" s="9">
-        <f t="shared" si="3"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="14">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH20" s="14"/>
     </row>
-    <row r="21" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="51"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG21" s="9">
-        <f t="shared" si="3"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="14">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH21" s="14"/>
@@ -4697,11 +4558,11 @@
       <c r="AD22" s="14"/>
       <c r="AE22" s="14"/>
       <c r="AF22" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AF22:AF48" si="2">E22+G22+I22+K22+M22+O22+Q22+S22+U22+W22+Y22+AA22+AC22+AE22</f>
         <v>0</v>
       </c>
       <c r="AG22" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="AG22:AG48" si="3">D22+F22+H22+J22+L22+N22+P22+R22+T22+V22+X22+Z22+AB22+AD22</f>
         <v>0</v>
       </c>
       <c r="AH22" s="14"/>
@@ -4917,9 +4778,7 @@
       <c r="AH27" s="14"/>
     </row>
     <row r="28" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
-        <v>16</v>
-      </c>
+      <c r="A28" s="11"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
       <c r="D28" s="27"/>
@@ -4961,9 +4820,7 @@
       <c r="AH28" s="14"/>
     </row>
     <row r="29" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
-        <v>17</v>
-      </c>
+      <c r="A29" s="9"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
       <c r="D29" s="27"/>
@@ -5006,7 +4863,7 @@
     </row>
     <row r="30" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
@@ -5050,7 +4907,7 @@
     </row>
     <row r="31" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
@@ -5094,7 +4951,7 @@
     </row>
     <row r="32" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
@@ -5138,7 +4995,7 @@
     </row>
     <row r="33" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
@@ -5182,7 +5039,7 @@
     </row>
     <row r="34" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
@@ -5226,7 +5083,7 @@
     </row>
     <row r="35" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
@@ -5270,7 +5127,7 @@
     </row>
     <row r="36" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
@@ -5314,7 +5171,7 @@
     </row>
     <row r="37" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
@@ -5358,7 +5215,7 @@
     </row>
     <row r="38" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
@@ -5402,7 +5259,7 @@
     </row>
     <row r="39" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="14"/>
@@ -5446,7 +5303,7 @@
     </row>
     <row r="40" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
@@ -5490,7 +5347,7 @@
     </row>
     <row r="41" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
@@ -5534,7 +5391,7 @@
     </row>
     <row r="42" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="14"/>
@@ -5578,7 +5435,7 @@
     </row>
     <row r="43" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
@@ -5622,38 +5479,38 @@
     </row>
     <row r="44" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
-        <v>32</v>
-      </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="44"/>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="16"/>
-      <c r="S44" s="16"/>
-      <c r="T44" s="48"/>
-      <c r="U44" s="48"/>
-      <c r="V44" s="16"/>
-      <c r="W44" s="16"/>
-      <c r="X44" s="52"/>
-      <c r="Y44" s="52"/>
-      <c r="Z44" s="16"/>
-      <c r="AA44" s="16"/>
-      <c r="AB44" s="36"/>
-      <c r="AC44" s="36"/>
-      <c r="AD44" s="16"/>
-      <c r="AE44" s="16"/>
+        <v>30</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="43"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="47"/>
+      <c r="U44" s="47"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="51"/>
+      <c r="Y44" s="51"/>
+      <c r="Z44" s="14"/>
+      <c r="AA44" s="14"/>
+      <c r="AB44" s="35"/>
+      <c r="AC44" s="35"/>
+      <c r="AD44" s="14"/>
+      <c r="AE44" s="14"/>
       <c r="AF44" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5662,42 +5519,42 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH44" s="16"/>
+      <c r="AH44" s="14"/>
     </row>
     <row r="45" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
-        <v>33</v>
-      </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="44"/>
-      <c r="Q45" s="44"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
-      <c r="T45" s="48"/>
-      <c r="U45" s="48"/>
-      <c r="V45" s="16"/>
-      <c r="W45" s="16"/>
-      <c r="X45" s="52"/>
-      <c r="Y45" s="52"/>
-      <c r="Z45" s="16"/>
-      <c r="AA45" s="16"/>
-      <c r="AB45" s="36"/>
-      <c r="AC45" s="36"/>
-      <c r="AD45" s="16"/>
-      <c r="AE45" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="43"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="47"/>
+      <c r="U45" s="47"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+      <c r="X45" s="51"/>
+      <c r="Y45" s="51"/>
+      <c r="Z45" s="14"/>
+      <c r="AA45" s="14"/>
+      <c r="AB45" s="35"/>
+      <c r="AC45" s="35"/>
+      <c r="AD45" s="14"/>
+      <c r="AE45" s="14"/>
       <c r="AF45" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5706,11 +5563,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH45" s="16"/>
+      <c r="AH45" s="14"/>
     </row>
     <row r="46" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="16"/>
@@ -5752,171 +5609,259 @@
       </c>
       <c r="AH46" s="16"/>
     </row>
-    <row r="47" spans="1:34" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="116">
-        <f>SUM(D9:D46)-SUM(E9:E46)</f>
+    <row r="47" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>33</v>
+      </c>
+      <c r="B47" s="15"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="48"/>
+      <c r="U47" s="48"/>
+      <c r="V47" s="16"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="52"/>
+      <c r="Y47" s="52"/>
+      <c r="Z47" s="16"/>
+      <c r="AA47" s="16"/>
+      <c r="AB47" s="36"/>
+      <c r="AC47" s="36"/>
+      <c r="AD47" s="16"/>
+      <c r="AE47" s="16"/>
+      <c r="AF47" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG47" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH47" s="16"/>
+    </row>
+    <row r="48" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>34</v>
+      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="44"/>
+      <c r="Q48" s="44"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="48"/>
+      <c r="U48" s="48"/>
+      <c r="V48" s="16"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="52"/>
+      <c r="Y48" s="52"/>
+      <c r="Z48" s="16"/>
+      <c r="AA48" s="16"/>
+      <c r="AB48" s="36"/>
+      <c r="AC48" s="36"/>
+      <c r="AD48" s="16"/>
+      <c r="AE48" s="16"/>
+      <c r="AF48" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG48" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH48" s="16"/>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A49" s="17"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="97">
+        <f>SUM(D9:D48)-SUM(E9:E48)</f>
         <v>3</v>
       </c>
-      <c r="E47" s="116"/>
-      <c r="F47" s="117">
-        <f>SUM(F9:F46)-SUM(G9:G46)</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="117"/>
-      <c r="H47" s="118">
-        <f>SUM(H9:H46)-SUM(I9:I46)</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="118"/>
-      <c r="J47" s="117">
-        <f>SUM(J9:J46)-SUM(K9:K46)</f>
-        <v>0</v>
-      </c>
-      <c r="K47" s="117"/>
-      <c r="L47" s="119">
-        <f>SUM(L9:L46)-SUM(M9:M46)</f>
-        <v>0</v>
-      </c>
-      <c r="M47" s="119"/>
-      <c r="N47" s="117">
-        <f>SUM(N9:N46)-SUM(O9:O46)</f>
+      <c r="E49" s="97"/>
+      <c r="F49" s="98">
+        <f>SUM(F9:F48)-SUM(G9:G48)</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="98"/>
+      <c r="H49" s="99">
+        <f>SUM(H9:H48)-SUM(I9:I48)</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="99"/>
+      <c r="J49" s="98">
+        <f>SUM(J9:J48)-SUM(K9:K48)</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="98"/>
+      <c r="L49" s="100">
+        <f>SUM(L9:L48)-SUM(M9:M48)</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="100"/>
+      <c r="N49" s="98">
+        <f>SUM(N9:N48)-SUM(O9:O48)</f>
         <v>1</v>
       </c>
-      <c r="O47" s="117"/>
-      <c r="P47" s="125">
-        <f>SUM(P9:P46)-SUM(Q9:Q46)</f>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="125"/>
-      <c r="R47" s="117">
-        <f>SUM(R9:R46)-SUM(S9:S46)</f>
+      <c r="O49" s="98"/>
+      <c r="P49" s="106">
+        <f>SUM(P9:P48)-SUM(Q9:Q48)</f>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="106"/>
+      <c r="R49" s="98">
+        <f>SUM(R9:R48)-SUM(S9:S48)</f>
         <v>2</v>
       </c>
-      <c r="S47" s="117"/>
-      <c r="T47" s="126">
-        <f>SUM(T9:T46)-SUM(U9:U46)</f>
-        <v>0</v>
-      </c>
-      <c r="U47" s="126"/>
-      <c r="V47" s="117">
-        <f>SUM(V9:V46)-SUM(W9:W46)</f>
-        <v>1</v>
-      </c>
-      <c r="W47" s="117"/>
-      <c r="X47" s="127">
-        <f>SUM(X9:X46)-SUM(Y9:Y46)</f>
+      <c r="S49" s="98"/>
+      <c r="T49" s="107">
+        <f>SUM(T9:T48)-SUM(U9:U48)</f>
+        <v>0</v>
+      </c>
+      <c r="U49" s="107"/>
+      <c r="V49" s="98">
+        <f>SUM(V9:V48)-SUM(W9:W48)</f>
+        <v>0</v>
+      </c>
+      <c r="W49" s="98"/>
+      <c r="X49" s="108">
+        <f>SUM(X9:X48)-SUM(Y9:Y48)</f>
         <v>4</v>
       </c>
-      <c r="Y47" s="127"/>
-      <c r="Z47" s="117">
-        <f>SUM(Z9:Z46)-SUM(AA9:AA46)</f>
+      <c r="Y49" s="108"/>
+      <c r="Z49" s="98">
+        <f>SUM(Z9:Z48)-SUM(AA9:AA48)</f>
         <v>3</v>
       </c>
-      <c r="AA47" s="117"/>
-      <c r="AB47" s="128">
-        <f>SUM(AB9:AB46)-SUM(AC9:AC46)</f>
+      <c r="AA49" s="98"/>
+      <c r="AB49" s="109">
+        <f>SUM(AB9:AB48)-SUM(AC9:AC48)</f>
         <v>3</v>
       </c>
-      <c r="AC47" s="128"/>
-      <c r="AD47" s="117">
-        <f>SUM(AD9:AD46)-SUM(AE9:AE46)</f>
-        <v>0</v>
-      </c>
-      <c r="AE47" s="117"/>
-      <c r="AF47" s="20"/>
-      <c r="AG47" s="9">
-        <f>D47+F47+H47+J47+L47+N47+P47+R47+T47+V47+X47+Z47+AB47+AD47</f>
-        <v>17</v>
-      </c>
-      <c r="AH47" s="21"/>
-    </row>
-    <row r="48" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="129" t="s">
+      <c r="AC49" s="109"/>
+      <c r="AD49" s="98">
+        <f>SUM(AD9:AD48)-SUM(AE9:AE48)</f>
+        <v>0</v>
+      </c>
+      <c r="AE49" s="98"/>
+      <c r="AF49" s="20"/>
+      <c r="AG49" s="9">
+        <f>D49+F49+H49+J49+L49+N49+P49+R49+T49+V49+X49+Z49+AB49+AD49</f>
+        <v>16</v>
+      </c>
+      <c r="AH49" s="21"/>
+    </row>
+    <row r="50" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="130"/>
-      <c r="C48" s="130"/>
-      <c r="D48" s="130"/>
-      <c r="E48" s="130"/>
-      <c r="F48" s="130"/>
-      <c r="G48" s="130"/>
-      <c r="H48" s="130"/>
-      <c r="I48" s="130"/>
-      <c r="J48" s="130"/>
-      <c r="K48" s="130"/>
-      <c r="L48" s="130"/>
-      <c r="M48" s="130"/>
-      <c r="N48" s="130"/>
-      <c r="O48" s="130"/>
-      <c r="P48" s="130"/>
-      <c r="Q48" s="130"/>
-      <c r="R48" s="130"/>
-      <c r="S48" s="130"/>
-      <c r="T48" s="130"/>
-      <c r="U48" s="130"/>
-      <c r="V48" s="130"/>
-      <c r="W48" s="130"/>
-      <c r="X48" s="130"/>
-      <c r="Y48" s="130"/>
-      <c r="Z48" s="130"/>
-      <c r="AA48" s="130"/>
-      <c r="AB48" s="130"/>
-      <c r="AC48" s="130"/>
-      <c r="AD48" s="130"/>
-      <c r="AE48" s="131"/>
-      <c r="AF48" s="22">
-        <f>SUM(AF9:AF46)</f>
-        <v>7</v>
-      </c>
-      <c r="AG48" s="22">
-        <f>SUM(AG9:AG46)</f>
-        <v>31</v>
-      </c>
-      <c r="AH48" s="23"/>
-    </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A49" s="129" t="s">
+      <c r="B50" s="111"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="111"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="111"/>
+      <c r="H50" s="111"/>
+      <c r="I50" s="111"/>
+      <c r="J50" s="111"/>
+      <c r="K50" s="111"/>
+      <c r="L50" s="111"/>
+      <c r="M50" s="111"/>
+      <c r="N50" s="111"/>
+      <c r="O50" s="111"/>
+      <c r="P50" s="111"/>
+      <c r="Q50" s="111"/>
+      <c r="R50" s="111"/>
+      <c r="S50" s="111"/>
+      <c r="T50" s="111"/>
+      <c r="U50" s="111"/>
+      <c r="V50" s="111"/>
+      <c r="W50" s="111"/>
+      <c r="X50" s="111"/>
+      <c r="Y50" s="111"/>
+      <c r="Z50" s="111"/>
+      <c r="AA50" s="111"/>
+      <c r="AB50" s="111"/>
+      <c r="AC50" s="111"/>
+      <c r="AD50" s="111"/>
+      <c r="AE50" s="112"/>
+      <c r="AF50" s="22">
+        <f>SUM(AF9:AF48)</f>
+        <v>18</v>
+      </c>
+      <c r="AG50" s="22">
+        <f>SUM(AG9:AG48)</f>
+        <v>34</v>
+      </c>
+      <c r="AH50" s="23"/>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A51" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="130"/>
-      <c r="C49" s="130"/>
-      <c r="D49" s="130"/>
-      <c r="E49" s="130"/>
-      <c r="F49" s="130"/>
-      <c r="G49" s="130"/>
-      <c r="H49" s="130"/>
-      <c r="I49" s="130"/>
-      <c r="J49" s="130"/>
-      <c r="K49" s="130"/>
-      <c r="L49" s="130"/>
-      <c r="M49" s="130"/>
-      <c r="N49" s="130"/>
-      <c r="O49" s="130"/>
-      <c r="P49" s="130"/>
-      <c r="Q49" s="130"/>
-      <c r="R49" s="130"/>
-      <c r="S49" s="130"/>
-      <c r="T49" s="130"/>
-      <c r="U49" s="130"/>
-      <c r="V49" s="130"/>
-      <c r="W49" s="130"/>
-      <c r="X49" s="130"/>
-      <c r="Y49" s="130"/>
-      <c r="Z49" s="130"/>
-      <c r="AA49" s="130"/>
-      <c r="AB49" s="130"/>
-      <c r="AC49" s="130"/>
-      <c r="AD49" s="130"/>
-      <c r="AE49" s="131"/>
-      <c r="AF49" s="123">
-        <f>AG48-AF48</f>
-        <v>24</v>
-      </c>
-      <c r="AG49" s="124"/>
-      <c r="AH49" s="23"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="111"/>
+      <c r="F51" s="111"/>
+      <c r="G51" s="111"/>
+      <c r="H51" s="111"/>
+      <c r="I51" s="111"/>
+      <c r="J51" s="111"/>
+      <c r="K51" s="111"/>
+      <c r="L51" s="111"/>
+      <c r="M51" s="111"/>
+      <c r="N51" s="111"/>
+      <c r="O51" s="111"/>
+      <c r="P51" s="111"/>
+      <c r="Q51" s="111"/>
+      <c r="R51" s="111"/>
+      <c r="S51" s="111"/>
+      <c r="T51" s="111"/>
+      <c r="U51" s="111"/>
+      <c r="V51" s="111"/>
+      <c r="W51" s="111"/>
+      <c r="X51" s="111"/>
+      <c r="Y51" s="111"/>
+      <c r="Z51" s="111"/>
+      <c r="AA51" s="111"/>
+      <c r="AB51" s="111"/>
+      <c r="AC51" s="111"/>
+      <c r="AD51" s="111"/>
+      <c r="AE51" s="112"/>
+      <c r="AF51" s="104">
+        <f>AG50-AF50</f>
+        <v>16</v>
+      </c>
+      <c r="AG51" s="105"/>
+      <c r="AH51" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -5940,563 +5885,31 @@
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AF8"/>
     <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="R7:S7"/>
     <mergeCell ref="T7:U7"/>
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="AD47:AE47"/>
-    <mergeCell ref="A48:AE48"/>
-    <mergeCell ref="A49:AE49"/>
-    <mergeCell ref="AF49:AG49"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="Z47:AA47"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="A50:AE50"/>
+    <mergeCell ref="A51:AE51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="Z49:AA49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH22"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="7" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34" s="88" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="134" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="87"/>
-      <c r="AA1" s="87"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="87"/>
-      <c r="AG1" s="87"/>
-      <c r="AH1" s="87"/>
-    </row>
-    <row r="2" spans="1:34" s="88" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="133" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="87"/>
-      <c r="AA2" s="87"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="92"/>
-      <c r="AD2" s="92"/>
-      <c r="AE2" s="87"/>
-      <c r="AF2" s="87"/>
-      <c r="AG2" s="87"/>
-      <c r="AH2" s="87"/>
-    </row>
-    <row r="3" spans="1:34" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="82"/>
-      <c r="W4" s="82"/>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="82"/>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="82"/>
-      <c r="AD4" s="82"/>
-      <c r="AE4" s="82"/>
-      <c r="AF4" s="82"/>
-      <c r="AG4" s="82"/>
-      <c r="AH4" s="82"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="136" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="137" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="137" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="136" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="136"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="95" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="99" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="95" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="136"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="9">
-        <v>3</v>
-      </c>
-      <c r="E8" s="9">
-        <v>42</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="96">
-        <f>SUM(D8:F8)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14">
-        <v>1</v>
-      </c>
-      <c r="G9" s="97">
-        <f t="shared" ref="G9:G22" si="0">SUM(D9:F9)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14">
-        <v>7</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="97">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="97">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14">
-        <v>13</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="97">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="14">
-        <v>1</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="97">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="97">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="14">
-        <v>3</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14">
-        <v>49</v>
-      </c>
-      <c r="G15" s="97">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14">
-        <v>7</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="97">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="14">
-        <v>1</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="97">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="14">
-        <v>4</v>
-      </c>
-      <c r="E18" s="14">
-        <v>124</v>
-      </c>
-      <c r="F18" s="14">
-        <v>58</v>
-      </c>
-      <c r="G18" s="97">
-        <f t="shared" si="0"/>
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="14">
-        <v>3</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14">
-        <v>32</v>
-      </c>
-      <c r="G19" s="97">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="14">
-        <v>4</v>
-      </c>
-      <c r="E20" s="14">
-        <v>54</v>
-      </c>
-      <c r="F20" s="14">
-        <v>48</v>
-      </c>
-      <c r="G20" s="97">
-        <f t="shared" si="0"/>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="94" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="94" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94">
-        <v>127</v>
-      </c>
-      <c r="F21" s="94"/>
-      <c r="G21" s="98">
-        <f t="shared" si="0"/>
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="135" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="135"/>
-      <c r="C22" s="135"/>
-      <c r="D22" s="22">
-        <f>SUM(D8:D21)</f>
-        <v>19</v>
-      </c>
-      <c r="E22" s="22">
-        <f>SUM(E8:E21)</f>
-        <v>374</v>
-      </c>
-      <c r="F22" s="22">
-        <f>SUM(F8:F21)</f>
-        <v>188</v>
-      </c>
-      <c r="G22" s="22">
-        <f t="shared" si="0"/>
-        <v>581</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="192" windowWidth="14808" windowHeight="7920" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="T5" sheetId="4" r:id="rId1"/>
     <sheet name="T6" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -20,7 +20,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0">
+    <comment ref="J7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0">
+    <comment ref="L7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0">
+    <comment ref="N7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -165,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0">
+    <comment ref="P7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -189,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0">
+    <comment ref="R7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -213,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0">
+    <comment ref="T7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -237,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0">
+    <comment ref="V7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -261,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0">
+    <comment ref="X7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -285,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0">
+    <comment ref="Z7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0">
+    <comment ref="AB7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -334,7 +334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0">
+    <comment ref="AD7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -368,7 +368,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -393,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -417,7 +417,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -441,7 +441,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0">
+    <comment ref="J7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -465,7 +465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0">
+    <comment ref="L7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -489,7 +489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0">
+    <comment ref="N7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -513,7 +513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0">
+    <comment ref="P7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -537,7 +537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0">
+    <comment ref="R7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -561,7 +561,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0">
+    <comment ref="T7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -585,7 +585,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0">
+    <comment ref="V7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -609,7 +609,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0">
+    <comment ref="X7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -633,7 +633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0">
+    <comment ref="Z7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -657,7 +657,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0">
+    <comment ref="AB7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -682,7 +682,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0">
+    <comment ref="AD7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -893,7 +893,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1344,9 +1344,72 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1376,69 +1439,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1504,7 +1504,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1539,7 +1539,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1755,24 +1755,24 @@
       <selection pane="bottomLeft" activeCell="AB30" sqref="AB30:AC30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="5" customWidth="1"/>
-    <col min="4" max="31" width="3.33203125" style="5" customWidth="1"/>
-    <col min="32" max="32" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.6640625" style="5" customWidth="1"/>
-    <col min="35" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="3.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="5" customWidth="1"/>
+    <col min="4" max="31" width="3.28515625" style="5" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="5" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
       <c r="D1" s="75"/>
       <c r="E1" s="75"/>
       <c r="F1" s="75"/>
@@ -1808,11 +1808,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
       <c r="D2" s="76"/>
       <c r="E2" s="76"/>
       <c r="F2" s="76"/>
@@ -1848,235 +1848,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
+      <c r="X3" s="105"/>
+      <c r="Y3" s="105"/>
+      <c r="Z3" s="105"/>
+      <c r="AA3" s="105"/>
+      <c r="AB3" s="105"/>
+      <c r="AC3" s="105"/>
+      <c r="AD3" s="105"/>
+      <c r="AE3" s="105"/>
+      <c r="AF3" s="105"/>
+      <c r="AG3" s="105"/>
+      <c r="AH3" s="105"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="84"/>
-      <c r="AE4" s="84"/>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="84"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="105"/>
+      <c r="Y4" s="105"/>
+      <c r="Z4" s="105"/>
+      <c r="AA4" s="105"/>
+      <c r="AB4" s="105"/>
+      <c r="AC4" s="105"/>
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="105"/>
+      <c r="AF4" s="105"/>
+      <c r="AG4" s="105"/>
+      <c r="AH4" s="105"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="84"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="84"/>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="84"/>
-      <c r="AD5" s="84"/>
-      <c r="AE5" s="84"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="105"/>
+      <c r="T5" s="105"/>
+      <c r="U5" s="105"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="105"/>
+      <c r="X5" s="105"/>
+      <c r="Y5" s="105"/>
+      <c r="Z5" s="105"/>
+      <c r="AA5" s="105"/>
+      <c r="AB5" s="105"/>
+      <c r="AC5" s="105"/>
+      <c r="AD5" s="105"/>
+      <c r="AE5" s="105"/>
       <c r="AF5" s="77"/>
       <c r="AG5" s="77"/>
       <c r="AH5" s="77"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="87"/>
-      <c r="T6" s="87"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="87"/>
-      <c r="W6" s="87"/>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="87"/>
-      <c r="Z6" s="87"/>
-      <c r="AA6" s="87"/>
-      <c r="AB6" s="87"/>
-      <c r="AC6" s="87"/>
-      <c r="AD6" s="87"/>
-      <c r="AE6" s="87"/>
-      <c r="AF6" s="87"/>
-      <c r="AG6" s="88"/>
-      <c r="AH6" s="81" t="s">
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="108"/>
+      <c r="R6" s="108"/>
+      <c r="S6" s="108"/>
+      <c r="T6" s="108"/>
+      <c r="U6" s="108"/>
+      <c r="V6" s="108"/>
+      <c r="W6" s="108"/>
+      <c r="X6" s="108"/>
+      <c r="Y6" s="108"/>
+      <c r="Z6" s="108"/>
+      <c r="AA6" s="108"/>
+      <c r="AB6" s="108"/>
+      <c r="AC6" s="108"/>
+      <c r="AD6" s="108"/>
+      <c r="AE6" s="108"/>
+      <c r="AF6" s="108"/>
+      <c r="AG6" s="109"/>
+      <c r="AH6" s="92" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="89" t="s">
+      <c r="A7" s="92"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="89"/>
-      <c r="F7" s="81" t="s">
+      <c r="E7" s="110"/>
+      <c r="F7" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="90" t="s">
+      <c r="G7" s="92"/>
+      <c r="H7" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="90"/>
-      <c r="J7" s="81" t="s">
+      <c r="I7" s="111"/>
+      <c r="J7" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="81"/>
-      <c r="L7" s="91" t="s">
+      <c r="K7" s="92"/>
+      <c r="L7" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="91"/>
-      <c r="N7" s="81" t="s">
+      <c r="M7" s="112"/>
+      <c r="N7" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="81"/>
-      <c r="P7" s="101" t="s">
+      <c r="O7" s="92"/>
+      <c r="P7" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="81" t="s">
+      <c r="Q7" s="100"/>
+      <c r="R7" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="81"/>
-      <c r="T7" s="102" t="s">
+      <c r="S7" s="92"/>
+      <c r="T7" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="102"/>
-      <c r="V7" s="81" t="s">
+      <c r="U7" s="101"/>
+      <c r="V7" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="81"/>
-      <c r="X7" s="103" t="s">
+      <c r="W7" s="92"/>
+      <c r="X7" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="103"/>
-      <c r="Z7" s="81" t="s">
+      <c r="Y7" s="102"/>
+      <c r="Z7" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="81"/>
-      <c r="AB7" s="92" t="s">
+      <c r="AA7" s="92"/>
+      <c r="AB7" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="92"/>
-      <c r="AD7" s="81" t="s">
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="81"/>
+      <c r="AE7" s="92"/>
       <c r="AF7" s="93" t="s">
         <v>24</v>
       </c>
       <c r="AG7" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="81"/>
+      <c r="AH7" s="92"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="81"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="78" t="s">
         <v>26</v>
       </c>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="AF8" s="94"/>
       <c r="AG8" s="94"/>
-      <c r="AH8" s="81"/>
+      <c r="AH8" s="92"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -3252,71 +3252,71 @@
         <v>0</v>
       </c>
       <c r="E30" s="97"/>
-      <c r="F30" s="98">
+      <c r="F30" s="83">
         <f>SUM(F9:F28)-SUM(G9:G28)</f>
         <v>4</v>
       </c>
-      <c r="G30" s="98"/>
-      <c r="H30" s="99">
+      <c r="G30" s="83"/>
+      <c r="H30" s="98">
         <f>SUM(H9:H28)-SUM(I9:I28)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="99"/>
-      <c r="J30" s="98">
+      <c r="I30" s="98"/>
+      <c r="J30" s="83">
         <f>SUM(J9:J28)-SUM(K9:K28)</f>
         <v>1</v>
       </c>
-      <c r="K30" s="98"/>
-      <c r="L30" s="100">
+      <c r="K30" s="83"/>
+      <c r="L30" s="99">
         <f>SUM(L9:L28)-SUM(M9:M28)</f>
         <v>0</v>
       </c>
-      <c r="M30" s="100"/>
-      <c r="N30" s="98">
+      <c r="M30" s="99"/>
+      <c r="N30" s="83">
         <f>SUM(N9:N28)-SUM(O9:O28)</f>
         <v>2</v>
       </c>
-      <c r="O30" s="98"/>
-      <c r="P30" s="106">
+      <c r="O30" s="83"/>
+      <c r="P30" s="84">
         <f>SUM(P9:P28)-SUM(Q9:Q28)</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="106"/>
-      <c r="R30" s="98">
+      <c r="Q30" s="84"/>
+      <c r="R30" s="83">
         <f>SUM(R9:R28)-SUM(S9:S28)</f>
         <v>2</v>
       </c>
-      <c r="S30" s="98"/>
-      <c r="T30" s="107">
+      <c r="S30" s="83"/>
+      <c r="T30" s="85">
         <f>SUM(T9:T28)-SUM(U9:U28)</f>
         <v>0</v>
       </c>
-      <c r="U30" s="107"/>
-      <c r="V30" s="98">
+      <c r="U30" s="85"/>
+      <c r="V30" s="83">
         <f>SUM(V9:V28)-SUM(W9:W28)</f>
         <v>0</v>
       </c>
-      <c r="W30" s="98"/>
-      <c r="X30" s="108">
+      <c r="W30" s="83"/>
+      <c r="X30" s="86">
         <f>SUM(X9:X28)-SUM(Y9:Y28)</f>
         <v>5</v>
       </c>
-      <c r="Y30" s="108"/>
-      <c r="Z30" s="98">
+      <c r="Y30" s="86"/>
+      <c r="Z30" s="83">
         <f>SUM(Z9:Z28)-SUM(AA9:AA28)</f>
         <v>0</v>
       </c>
-      <c r="AA30" s="98"/>
-      <c r="AB30" s="109">
+      <c r="AA30" s="83"/>
+      <c r="AB30" s="87">
         <f>SUM(AB9:AB28)-SUM(AC9:AC28)</f>
         <v>3</v>
       </c>
-      <c r="AC30" s="109"/>
-      <c r="AD30" s="98">
+      <c r="AC30" s="87"/>
+      <c r="AD30" s="83">
         <f>SUM(AD9:AD28)-SUM(AE9:AE28)</f>
         <v>0</v>
       </c>
-      <c r="AE30" s="98"/>
+      <c r="AE30" s="83"/>
       <c r="AF30" s="20"/>
       <c r="AG30" s="9">
         <f t="shared" si="1"/>
@@ -3325,39 +3325,39 @@
       <c r="AH30" s="21"/>
     </row>
     <row r="31" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="110" t="s">
+      <c r="A31" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="111"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="111"/>
-      <c r="J31" s="111"/>
-      <c r="K31" s="111"/>
-      <c r="L31" s="111"/>
-      <c r="M31" s="111"/>
-      <c r="N31" s="111"/>
-      <c r="O31" s="111"/>
-      <c r="P31" s="111"/>
-      <c r="Q31" s="111"/>
-      <c r="R31" s="111"/>
-      <c r="S31" s="111"/>
-      <c r="T31" s="111"/>
-      <c r="U31" s="111"/>
-      <c r="V31" s="111"/>
-      <c r="W31" s="111"/>
-      <c r="X31" s="111"/>
-      <c r="Y31" s="111"/>
-      <c r="Z31" s="111"/>
-      <c r="AA31" s="111"/>
-      <c r="AB31" s="111"/>
-      <c r="AC31" s="111"/>
-      <c r="AD31" s="111"/>
-      <c r="AE31" s="112"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="89"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="89"/>
+      <c r="Q31" s="89"/>
+      <c r="R31" s="89"/>
+      <c r="S31" s="89"/>
+      <c r="T31" s="89"/>
+      <c r="U31" s="89"/>
+      <c r="V31" s="89"/>
+      <c r="W31" s="89"/>
+      <c r="X31" s="89"/>
+      <c r="Y31" s="89"/>
+      <c r="Z31" s="89"/>
+      <c r="AA31" s="89"/>
+      <c r="AB31" s="89"/>
+      <c r="AC31" s="89"/>
+      <c r="AD31" s="89"/>
+      <c r="AE31" s="90"/>
       <c r="AF31" s="22">
         <f>SUM(AF9:AF28)</f>
         <v>79</v>
@@ -3369,60 +3369,64 @@
       <c r="AH31" s="23"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="110" t="s">
+      <c r="A32" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="111"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="111"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="111"/>
-      <c r="L32" s="111"/>
-      <c r="M32" s="111"/>
-      <c r="N32" s="111"/>
-      <c r="O32" s="111"/>
-      <c r="P32" s="111"/>
-      <c r="Q32" s="111"/>
-      <c r="R32" s="111"/>
-      <c r="S32" s="111"/>
-      <c r="T32" s="111"/>
-      <c r="U32" s="111"/>
-      <c r="V32" s="111"/>
-      <c r="W32" s="111"/>
-      <c r="X32" s="111"/>
-      <c r="Y32" s="111"/>
-      <c r="Z32" s="111"/>
-      <c r="AA32" s="111"/>
-      <c r="AB32" s="111"/>
-      <c r="AC32" s="111"/>
-      <c r="AD32" s="111"/>
-      <c r="AE32" s="112"/>
-      <c r="AF32" s="104">
+      <c r="B32" s="89"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="89"/>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="89"/>
+      <c r="S32" s="89"/>
+      <c r="T32" s="89"/>
+      <c r="U32" s="89"/>
+      <c r="V32" s="89"/>
+      <c r="W32" s="89"/>
+      <c r="X32" s="89"/>
+      <c r="Y32" s="89"/>
+      <c r="Z32" s="89"/>
+      <c r="AA32" s="89"/>
+      <c r="AB32" s="89"/>
+      <c r="AC32" s="89"/>
+      <c r="AD32" s="89"/>
+      <c r="AE32" s="90"/>
+      <c r="AF32" s="81">
         <f>AG31-AF31</f>
         <v>17</v>
       </c>
-      <c r="AG32" s="105"/>
+      <c r="AG32" s="82"/>
       <c r="AH32" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="A31:AE31"/>
-    <mergeCell ref="A32:AE32"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AF8"/>
@@ -3439,22 +3443,18 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="A31:AE31"/>
+    <mergeCell ref="A32:AE32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3467,28 +3467,28 @@
   <dimension ref="A1:AH51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <pane ySplit="8" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="5" customWidth="1"/>
-    <col min="4" max="31" width="3.33203125" style="5" customWidth="1"/>
-    <col min="32" max="32" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.6640625" style="5" customWidth="1"/>
-    <col min="35" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="3.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="5" customWidth="1"/>
+    <col min="4" max="31" width="3.28515625" style="5" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="5" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
       <c r="D1" s="54"/>
       <c r="E1" s="54"/>
       <c r="F1" s="54"/>
@@ -3524,11 +3524,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
       <c r="F2" s="55"/>
@@ -3564,235 +3564,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
+      <c r="X3" s="105"/>
+      <c r="Y3" s="105"/>
+      <c r="Z3" s="105"/>
+      <c r="AA3" s="105"/>
+      <c r="AB3" s="105"/>
+      <c r="AC3" s="105"/>
+      <c r="AD3" s="105"/>
+      <c r="AE3" s="105"/>
+      <c r="AF3" s="105"/>
+      <c r="AG3" s="105"/>
+      <c r="AH3" s="105"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="84"/>
-      <c r="AE4" s="84"/>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="84"/>
-    </row>
-    <row r="5" spans="1:34" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="84"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="84"/>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="84"/>
-      <c r="AD5" s="84"/>
-      <c r="AE5" s="84"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="105"/>
+      <c r="Y4" s="105"/>
+      <c r="Z4" s="105"/>
+      <c r="AA4" s="105"/>
+      <c r="AB4" s="105"/>
+      <c r="AC4" s="105"/>
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="105"/>
+      <c r="AF4" s="105"/>
+      <c r="AG4" s="105"/>
+      <c r="AH4" s="105"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="105"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="105"/>
+      <c r="T5" s="105"/>
+      <c r="U5" s="105"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="105"/>
+      <c r="X5" s="105"/>
+      <c r="Y5" s="105"/>
+      <c r="Z5" s="105"/>
+      <c r="AA5" s="105"/>
+      <c r="AB5" s="105"/>
+      <c r="AC5" s="105"/>
+      <c r="AD5" s="105"/>
+      <c r="AE5" s="105"/>
       <c r="AF5" s="56"/>
       <c r="AG5" s="56"/>
       <c r="AH5" s="56"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="87"/>
-      <c r="T6" s="87"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="87"/>
-      <c r="W6" s="87"/>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="87"/>
-      <c r="Z6" s="87"/>
-      <c r="AA6" s="87"/>
-      <c r="AB6" s="87"/>
-      <c r="AC6" s="87"/>
-      <c r="AD6" s="87"/>
-      <c r="AE6" s="87"/>
-      <c r="AF6" s="87"/>
-      <c r="AG6" s="88"/>
-      <c r="AH6" s="81" t="s">
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="108"/>
+      <c r="R6" s="108"/>
+      <c r="S6" s="108"/>
+      <c r="T6" s="108"/>
+      <c r="U6" s="108"/>
+      <c r="V6" s="108"/>
+      <c r="W6" s="108"/>
+      <c r="X6" s="108"/>
+      <c r="Y6" s="108"/>
+      <c r="Z6" s="108"/>
+      <c r="AA6" s="108"/>
+      <c r="AB6" s="108"/>
+      <c r="AC6" s="108"/>
+      <c r="AD6" s="108"/>
+      <c r="AE6" s="108"/>
+      <c r="AF6" s="108"/>
+      <c r="AG6" s="109"/>
+      <c r="AH6" s="92" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="89" t="s">
+      <c r="A7" s="92"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="89"/>
-      <c r="F7" s="81" t="s">
+      <c r="E7" s="110"/>
+      <c r="F7" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="90" t="s">
+      <c r="G7" s="92"/>
+      <c r="H7" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="90"/>
-      <c r="J7" s="81" t="s">
+      <c r="I7" s="111"/>
+      <c r="J7" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="81"/>
-      <c r="L7" s="91" t="s">
+      <c r="K7" s="92"/>
+      <c r="L7" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="91"/>
-      <c r="N7" s="81" t="s">
+      <c r="M7" s="112"/>
+      <c r="N7" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="81"/>
-      <c r="P7" s="101" t="s">
+      <c r="O7" s="92"/>
+      <c r="P7" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="81" t="s">
+      <c r="Q7" s="100"/>
+      <c r="R7" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="81"/>
-      <c r="T7" s="102" t="s">
+      <c r="S7" s="92"/>
+      <c r="T7" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="102"/>
-      <c r="V7" s="81" t="s">
+      <c r="U7" s="101"/>
+      <c r="V7" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="81"/>
-      <c r="X7" s="103" t="s">
+      <c r="W7" s="92"/>
+      <c r="X7" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="103"/>
-      <c r="Z7" s="81" t="s">
+      <c r="Y7" s="102"/>
+      <c r="Z7" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="81"/>
-      <c r="AB7" s="92" t="s">
+      <c r="AA7" s="92"/>
+      <c r="AB7" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="92"/>
-      <c r="AD7" s="81" t="s">
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="81"/>
+      <c r="AE7" s="92"/>
       <c r="AF7" s="93" t="s">
         <v>24</v>
       </c>
       <c r="AG7" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="81"/>
+      <c r="AH7" s="92"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="81"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="57" t="s">
         <v>26</v>
       </c>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="AF8" s="113"/>
       <c r="AG8" s="113"/>
-      <c r="AH8" s="81"/>
+      <c r="AH8" s="92"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -4525,7 +4525,7 @@
       </c>
       <c r="AH21" s="14"/>
     </row>
-    <row r="22" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="AH22" s="14"/>
     </row>
-    <row r="23" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="AH23" s="14"/>
     </row>
-    <row r="24" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="AH24" s="14"/>
     </row>
-    <row r="25" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="13"/>
       <c r="C25" s="14"/>
@@ -4693,7 +4693,7 @@
       </c>
       <c r="AH25" s="14"/>
     </row>
-    <row r="26" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="AH26" s="14"/>
     </row>
-    <row r="27" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="AH27" s="14"/>
     </row>
-    <row r="28" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
@@ -4819,7 +4819,7 @@
       </c>
       <c r="AH28" s="14"/>
     </row>
-    <row r="29" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
@@ -4861,7 +4861,7 @@
       </c>
       <c r="AH29" s="14"/>
     </row>
-    <row r="30" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>16</v>
       </c>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="AH30" s="14"/>
     </row>
-    <row r="31" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>17</v>
       </c>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="AH31" s="14"/>
     </row>
-    <row r="32" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>18</v>
       </c>
@@ -4993,7 +4993,7 @@
       </c>
       <c r="AH32" s="14"/>
     </row>
-    <row r="33" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>19</v>
       </c>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="AH33" s="14"/>
     </row>
-    <row r="34" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>20</v>
       </c>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="AH34" s="14"/>
     </row>
-    <row r="35" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>21</v>
       </c>
@@ -5125,7 +5125,7 @@
       </c>
       <c r="AH35" s="14"/>
     </row>
-    <row r="36" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>22</v>
       </c>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="AH36" s="14"/>
     </row>
-    <row r="37" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>23</v>
       </c>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="AH37" s="14"/>
     </row>
-    <row r="38" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>24</v>
       </c>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="AH38" s="14"/>
     </row>
-    <row r="39" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>25</v>
       </c>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="AH39" s="14"/>
     </row>
-    <row r="40" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>26</v>
       </c>
@@ -5345,7 +5345,7 @@
       </c>
       <c r="AH40" s="14"/>
     </row>
-    <row r="41" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>27</v>
       </c>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="AH41" s="14"/>
     </row>
-    <row r="42" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>28</v>
       </c>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AH42" s="14"/>
     </row>
-    <row r="43" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>29</v>
       </c>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="AH43" s="14"/>
     </row>
-    <row r="44" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>30</v>
       </c>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="AH44" s="14"/>
     </row>
-    <row r="45" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>31</v>
       </c>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="AH45" s="14"/>
     </row>
-    <row r="46" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>32</v>
       </c>
@@ -5609,7 +5609,7 @@
       </c>
       <c r="AH46" s="16"/>
     </row>
-    <row r="47" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>33</v>
       </c>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="AH47" s="16"/>
     </row>
-    <row r="48" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>34</v>
       </c>
@@ -5706,71 +5706,71 @@
         <v>3</v>
       </c>
       <c r="E49" s="97"/>
-      <c r="F49" s="98">
+      <c r="F49" s="83">
         <f>SUM(F9:F48)-SUM(G9:G48)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="98"/>
-      <c r="H49" s="99">
+      <c r="G49" s="83"/>
+      <c r="H49" s="98">
         <f>SUM(H9:H48)-SUM(I9:I48)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="99"/>
-      <c r="J49" s="98">
+      <c r="I49" s="98"/>
+      <c r="J49" s="83">
         <f>SUM(J9:J48)-SUM(K9:K48)</f>
         <v>0</v>
       </c>
-      <c r="K49" s="98"/>
-      <c r="L49" s="100">
+      <c r="K49" s="83"/>
+      <c r="L49" s="99">
         <f>SUM(L9:L48)-SUM(M9:M48)</f>
         <v>0</v>
       </c>
-      <c r="M49" s="100"/>
-      <c r="N49" s="98">
+      <c r="M49" s="99"/>
+      <c r="N49" s="83">
         <f>SUM(N9:N48)-SUM(O9:O48)</f>
         <v>1</v>
       </c>
-      <c r="O49" s="98"/>
-      <c r="P49" s="106">
+      <c r="O49" s="83"/>
+      <c r="P49" s="84">
         <f>SUM(P9:P48)-SUM(Q9:Q48)</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="106"/>
-      <c r="R49" s="98">
+      <c r="Q49" s="84"/>
+      <c r="R49" s="83">
         <f>SUM(R9:R48)-SUM(S9:S48)</f>
         <v>2</v>
       </c>
-      <c r="S49" s="98"/>
-      <c r="T49" s="107">
+      <c r="S49" s="83"/>
+      <c r="T49" s="85">
         <f>SUM(T9:T48)-SUM(U9:U48)</f>
         <v>0</v>
       </c>
-      <c r="U49" s="107"/>
-      <c r="V49" s="98">
+      <c r="U49" s="85"/>
+      <c r="V49" s="83">
         <f>SUM(V9:V48)-SUM(W9:W48)</f>
         <v>0</v>
       </c>
-      <c r="W49" s="98"/>
-      <c r="X49" s="108">
+      <c r="W49" s="83"/>
+      <c r="X49" s="86">
         <f>SUM(X9:X48)-SUM(Y9:Y48)</f>
         <v>4</v>
       </c>
-      <c r="Y49" s="108"/>
-      <c r="Z49" s="98">
+      <c r="Y49" s="86"/>
+      <c r="Z49" s="83">
         <f>SUM(Z9:Z48)-SUM(AA9:AA48)</f>
         <v>3</v>
       </c>
-      <c r="AA49" s="98"/>
-      <c r="AB49" s="109">
+      <c r="AA49" s="83"/>
+      <c r="AB49" s="87">
         <f>SUM(AB9:AB48)-SUM(AC9:AC48)</f>
         <v>3</v>
       </c>
-      <c r="AC49" s="109"/>
-      <c r="AD49" s="98">
+      <c r="AC49" s="87"/>
+      <c r="AD49" s="83">
         <f>SUM(AD9:AD48)-SUM(AE9:AE48)</f>
         <v>0</v>
       </c>
-      <c r="AE49" s="98"/>
+      <c r="AE49" s="83"/>
       <c r="AF49" s="20"/>
       <c r="AG49" s="9">
         <f>D49+F49+H49+J49+L49+N49+P49+R49+T49+V49+X49+Z49+AB49+AD49</f>
@@ -5779,39 +5779,39 @@
       <c r="AH49" s="21"/>
     </row>
     <row r="50" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="110" t="s">
+      <c r="A50" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="111"/>
-      <c r="C50" s="111"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="111"/>
-      <c r="F50" s="111"/>
-      <c r="G50" s="111"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="111"/>
-      <c r="J50" s="111"/>
-      <c r="K50" s="111"/>
-      <c r="L50" s="111"/>
-      <c r="M50" s="111"/>
-      <c r="N50" s="111"/>
-      <c r="O50" s="111"/>
-      <c r="P50" s="111"/>
-      <c r="Q50" s="111"/>
-      <c r="R50" s="111"/>
-      <c r="S50" s="111"/>
-      <c r="T50" s="111"/>
-      <c r="U50" s="111"/>
-      <c r="V50" s="111"/>
-      <c r="W50" s="111"/>
-      <c r="X50" s="111"/>
-      <c r="Y50" s="111"/>
-      <c r="Z50" s="111"/>
-      <c r="AA50" s="111"/>
-      <c r="AB50" s="111"/>
-      <c r="AC50" s="111"/>
-      <c r="AD50" s="111"/>
-      <c r="AE50" s="112"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="89"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="89"/>
+      <c r="J50" s="89"/>
+      <c r="K50" s="89"/>
+      <c r="L50" s="89"/>
+      <c r="M50" s="89"/>
+      <c r="N50" s="89"/>
+      <c r="O50" s="89"/>
+      <c r="P50" s="89"/>
+      <c r="Q50" s="89"/>
+      <c r="R50" s="89"/>
+      <c r="S50" s="89"/>
+      <c r="T50" s="89"/>
+      <c r="U50" s="89"/>
+      <c r="V50" s="89"/>
+      <c r="W50" s="89"/>
+      <c r="X50" s="89"/>
+      <c r="Y50" s="89"/>
+      <c r="Z50" s="89"/>
+      <c r="AA50" s="89"/>
+      <c r="AB50" s="89"/>
+      <c r="AC50" s="89"/>
+      <c r="AD50" s="89"/>
+      <c r="AE50" s="90"/>
       <c r="AF50" s="22">
         <f>SUM(AF9:AF48)</f>
         <v>18</v>
@@ -5823,48 +5823,75 @@
       <c r="AH50" s="23"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="110" t="s">
+      <c r="A51" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="111"/>
-      <c r="C51" s="111"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="111"/>
-      <c r="F51" s="111"/>
-      <c r="G51" s="111"/>
-      <c r="H51" s="111"/>
-      <c r="I51" s="111"/>
-      <c r="J51" s="111"/>
-      <c r="K51" s="111"/>
-      <c r="L51" s="111"/>
-      <c r="M51" s="111"/>
-      <c r="N51" s="111"/>
-      <c r="O51" s="111"/>
-      <c r="P51" s="111"/>
-      <c r="Q51" s="111"/>
-      <c r="R51" s="111"/>
-      <c r="S51" s="111"/>
-      <c r="T51" s="111"/>
-      <c r="U51" s="111"/>
-      <c r="V51" s="111"/>
-      <c r="W51" s="111"/>
-      <c r="X51" s="111"/>
-      <c r="Y51" s="111"/>
-      <c r="Z51" s="111"/>
-      <c r="AA51" s="111"/>
-      <c r="AB51" s="111"/>
-      <c r="AC51" s="111"/>
-      <c r="AD51" s="111"/>
-      <c r="AE51" s="112"/>
-      <c r="AF51" s="104">
+      <c r="B51" s="89"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="89"/>
+      <c r="F51" s="89"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="89"/>
+      <c r="I51" s="89"/>
+      <c r="J51" s="89"/>
+      <c r="K51" s="89"/>
+      <c r="L51" s="89"/>
+      <c r="M51" s="89"/>
+      <c r="N51" s="89"/>
+      <c r="O51" s="89"/>
+      <c r="P51" s="89"/>
+      <c r="Q51" s="89"/>
+      <c r="R51" s="89"/>
+      <c r="S51" s="89"/>
+      <c r="T51" s="89"/>
+      <c r="U51" s="89"/>
+      <c r="V51" s="89"/>
+      <c r="W51" s="89"/>
+      <c r="X51" s="89"/>
+      <c r="Y51" s="89"/>
+      <c r="Z51" s="89"/>
+      <c r="AA51" s="89"/>
+      <c r="AB51" s="89"/>
+      <c r="AC51" s="89"/>
+      <c r="AD51" s="89"/>
+      <c r="AE51" s="90"/>
+      <c r="AF51" s="81">
         <f>AG50-AF50</f>
         <v>16</v>
       </c>
-      <c r="AG51" s="105"/>
+      <c r="AG51" s="82"/>
       <c r="AH51" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="A50:AE50"/>
+    <mergeCell ref="A51:AE51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -5881,33 +5908,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AD49:AE49"/>
-    <mergeCell ref="A50:AE50"/>
-    <mergeCell ref="A51:AE51"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="Z49:AA49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
@@ -1344,15 +1344,81 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1373,72 +1439,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1768,11 +1768,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
+      <c r="A1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
       <c r="D1" s="75"/>
       <c r="E1" s="75"/>
       <c r="F1" s="75"/>
@@ -1808,11 +1808,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
       <c r="D2" s="76"/>
       <c r="E2" s="76"/>
       <c r="F2" s="76"/>
@@ -1848,235 +1848,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105"/>
-      <c r="W3" s="105"/>
-      <c r="X3" s="105"/>
-      <c r="Y3" s="105"/>
-      <c r="Z3" s="105"/>
-      <c r="AA3" s="105"/>
-      <c r="AB3" s="105"/>
-      <c r="AC3" s="105"/>
-      <c r="AD3" s="105"/>
-      <c r="AE3" s="105"/>
-      <c r="AF3" s="105"/>
-      <c r="AG3" s="105"/>
-      <c r="AH3" s="105"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
-      <c r="V4" s="105"/>
-      <c r="W4" s="105"/>
-      <c r="X4" s="105"/>
-      <c r="Y4" s="105"/>
-      <c r="Z4" s="105"/>
-      <c r="AA4" s="105"/>
-      <c r="AB4" s="105"/>
-      <c r="AC4" s="105"/>
-      <c r="AD4" s="105"/>
-      <c r="AE4" s="105"/>
-      <c r="AF4" s="105"/>
-      <c r="AG4" s="105"/>
-      <c r="AH4" s="105"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="84"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="84"/>
+      <c r="AE4" s="84"/>
+      <c r="AF4" s="84"/>
+      <c r="AG4" s="84"/>
+      <c r="AH4" s="84"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
-      <c r="U5" s="105"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="105"/>
-      <c r="X5" s="105"/>
-      <c r="Y5" s="105"/>
-      <c r="Z5" s="105"/>
-      <c r="AA5" s="105"/>
-      <c r="AB5" s="105"/>
-      <c r="AC5" s="105"/>
-      <c r="AD5" s="105"/>
-      <c r="AE5" s="105"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="84"/>
+      <c r="Y5" s="84"/>
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="84"/>
+      <c r="AB5" s="84"/>
+      <c r="AC5" s="84"/>
+      <c r="AD5" s="84"/>
+      <c r="AE5" s="84"/>
       <c r="AF5" s="77"/>
       <c r="AG5" s="77"/>
       <c r="AH5" s="77"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="108"/>
-      <c r="Z6" s="108"/>
-      <c r="AA6" s="108"/>
-      <c r="AB6" s="108"/>
-      <c r="AC6" s="108"/>
-      <c r="AD6" s="108"/>
-      <c r="AE6" s="108"/>
-      <c r="AF6" s="108"/>
-      <c r="AG6" s="109"/>
-      <c r="AH6" s="92" t="s">
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="87"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="87"/>
+      <c r="W6" s="87"/>
+      <c r="X6" s="87"/>
+      <c r="Y6" s="87"/>
+      <c r="Z6" s="87"/>
+      <c r="AA6" s="87"/>
+      <c r="AB6" s="87"/>
+      <c r="AC6" s="87"/>
+      <c r="AD6" s="87"/>
+      <c r="AE6" s="87"/>
+      <c r="AF6" s="87"/>
+      <c r="AG6" s="88"/>
+      <c r="AH6" s="81" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="92"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="110" t="s">
+      <c r="A7" s="81"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="110"/>
-      <c r="F7" s="92" t="s">
+      <c r="E7" s="89"/>
+      <c r="F7" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="111" t="s">
+      <c r="G7" s="81"/>
+      <c r="H7" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="111"/>
-      <c r="J7" s="92" t="s">
+      <c r="I7" s="90"/>
+      <c r="J7" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="92"/>
-      <c r="L7" s="112" t="s">
+      <c r="K7" s="81"/>
+      <c r="L7" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="112"/>
-      <c r="N7" s="92" t="s">
+      <c r="M7" s="91"/>
+      <c r="N7" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="92"/>
-      <c r="P7" s="100" t="s">
+      <c r="O7" s="81"/>
+      <c r="P7" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="92" t="s">
+      <c r="Q7" s="101"/>
+      <c r="R7" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="92"/>
-      <c r="T7" s="101" t="s">
+      <c r="S7" s="81"/>
+      <c r="T7" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="101"/>
-      <c r="V7" s="92" t="s">
+      <c r="U7" s="102"/>
+      <c r="V7" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="92"/>
-      <c r="X7" s="102" t="s">
+      <c r="W7" s="81"/>
+      <c r="X7" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="102"/>
-      <c r="Z7" s="92" t="s">
+      <c r="Y7" s="103"/>
+      <c r="Z7" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="91" t="s">
+      <c r="AA7" s="81"/>
+      <c r="AB7" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="91"/>
-      <c r="AD7" s="92" t="s">
+      <c r="AC7" s="92"/>
+      <c r="AD7" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="92"/>
+      <c r="AE7" s="81"/>
       <c r="AF7" s="93" t="s">
         <v>24</v>
       </c>
       <c r="AG7" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="92"/>
+      <c r="AH7" s="81"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="92"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="92"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="78" t="s">
         <v>26</v>
       </c>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="AF8" s="94"/>
       <c r="AG8" s="94"/>
-      <c r="AH8" s="92"/>
+      <c r="AH8" s="81"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -3252,71 +3252,71 @@
         <v>0</v>
       </c>
       <c r="E30" s="97"/>
-      <c r="F30" s="83">
+      <c r="F30" s="98">
         <f>SUM(F9:F28)-SUM(G9:G28)</f>
         <v>4</v>
       </c>
-      <c r="G30" s="83"/>
-      <c r="H30" s="98">
+      <c r="G30" s="98"/>
+      <c r="H30" s="99">
         <f>SUM(H9:H28)-SUM(I9:I28)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="98"/>
-      <c r="J30" s="83">
+      <c r="I30" s="99"/>
+      <c r="J30" s="98">
         <f>SUM(J9:J28)-SUM(K9:K28)</f>
         <v>1</v>
       </c>
-      <c r="K30" s="83"/>
-      <c r="L30" s="99">
+      <c r="K30" s="98"/>
+      <c r="L30" s="100">
         <f>SUM(L9:L28)-SUM(M9:M28)</f>
         <v>0</v>
       </c>
-      <c r="M30" s="99"/>
-      <c r="N30" s="83">
+      <c r="M30" s="100"/>
+      <c r="N30" s="98">
         <f>SUM(N9:N28)-SUM(O9:O28)</f>
         <v>2</v>
       </c>
-      <c r="O30" s="83"/>
-      <c r="P30" s="84">
+      <c r="O30" s="98"/>
+      <c r="P30" s="106">
         <f>SUM(P9:P28)-SUM(Q9:Q28)</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="83">
+      <c r="Q30" s="106"/>
+      <c r="R30" s="98">
         <f>SUM(R9:R28)-SUM(S9:S28)</f>
         <v>2</v>
       </c>
-      <c r="S30" s="83"/>
-      <c r="T30" s="85">
+      <c r="S30" s="98"/>
+      <c r="T30" s="107">
         <f>SUM(T9:T28)-SUM(U9:U28)</f>
         <v>0</v>
       </c>
-      <c r="U30" s="85"/>
-      <c r="V30" s="83">
+      <c r="U30" s="107"/>
+      <c r="V30" s="98">
         <f>SUM(V9:V28)-SUM(W9:W28)</f>
         <v>0</v>
       </c>
-      <c r="W30" s="83"/>
-      <c r="X30" s="86">
+      <c r="W30" s="98"/>
+      <c r="X30" s="108">
         <f>SUM(X9:X28)-SUM(Y9:Y28)</f>
         <v>5</v>
       </c>
-      <c r="Y30" s="86"/>
-      <c r="Z30" s="83">
+      <c r="Y30" s="108"/>
+      <c r="Z30" s="98">
         <f>SUM(Z9:Z28)-SUM(AA9:AA28)</f>
         <v>0</v>
       </c>
-      <c r="AA30" s="83"/>
-      <c r="AB30" s="87">
+      <c r="AA30" s="98"/>
+      <c r="AB30" s="109">
         <f>SUM(AB9:AB28)-SUM(AC9:AC28)</f>
         <v>3</v>
       </c>
-      <c r="AC30" s="87"/>
-      <c r="AD30" s="83">
+      <c r="AC30" s="109"/>
+      <c r="AD30" s="98">
         <f>SUM(AD9:AD28)-SUM(AE9:AE28)</f>
         <v>0</v>
       </c>
-      <c r="AE30" s="83"/>
+      <c r="AE30" s="98"/>
       <c r="AF30" s="20"/>
       <c r="AG30" s="9">
         <f t="shared" si="1"/>
@@ -3325,39 +3325,39 @@
       <c r="AH30" s="21"/>
     </row>
     <row r="31" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="88" t="s">
+      <c r="A31" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="89"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="89"/>
-      <c r="O31" s="89"/>
-      <c r="P31" s="89"/>
-      <c r="Q31" s="89"/>
-      <c r="R31" s="89"/>
-      <c r="S31" s="89"/>
-      <c r="T31" s="89"/>
-      <c r="U31" s="89"/>
-      <c r="V31" s="89"/>
-      <c r="W31" s="89"/>
-      <c r="X31" s="89"/>
-      <c r="Y31" s="89"/>
-      <c r="Z31" s="89"/>
-      <c r="AA31" s="89"/>
-      <c r="AB31" s="89"/>
-      <c r="AC31" s="89"/>
-      <c r="AD31" s="89"/>
-      <c r="AE31" s="90"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="111"/>
+      <c r="O31" s="111"/>
+      <c r="P31" s="111"/>
+      <c r="Q31" s="111"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="111"/>
+      <c r="T31" s="111"/>
+      <c r="U31" s="111"/>
+      <c r="V31" s="111"/>
+      <c r="W31" s="111"/>
+      <c r="X31" s="111"/>
+      <c r="Y31" s="111"/>
+      <c r="Z31" s="111"/>
+      <c r="AA31" s="111"/>
+      <c r="AB31" s="111"/>
+      <c r="AC31" s="111"/>
+      <c r="AD31" s="111"/>
+      <c r="AE31" s="112"/>
       <c r="AF31" s="22">
         <f>SUM(AF9:AF28)</f>
         <v>79</v>
@@ -3369,48 +3369,76 @@
       <c r="AH31" s="23"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="88" t="s">
+      <c r="A32" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="89"/>
-      <c r="O32" s="89"/>
-      <c r="P32" s="89"/>
-      <c r="Q32" s="89"/>
-      <c r="R32" s="89"/>
-      <c r="S32" s="89"/>
-      <c r="T32" s="89"/>
-      <c r="U32" s="89"/>
-      <c r="V32" s="89"/>
-      <c r="W32" s="89"/>
-      <c r="X32" s="89"/>
-      <c r="Y32" s="89"/>
-      <c r="Z32" s="89"/>
-      <c r="AA32" s="89"/>
-      <c r="AB32" s="89"/>
-      <c r="AC32" s="89"/>
-      <c r="AD32" s="89"/>
-      <c r="AE32" s="90"/>
-      <c r="AF32" s="81">
+      <c r="B32" s="111"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="111"/>
+      <c r="M32" s="111"/>
+      <c r="N32" s="111"/>
+      <c r="O32" s="111"/>
+      <c r="P32" s="111"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="111"/>
+      <c r="S32" s="111"/>
+      <c r="T32" s="111"/>
+      <c r="U32" s="111"/>
+      <c r="V32" s="111"/>
+      <c r="W32" s="111"/>
+      <c r="X32" s="111"/>
+      <c r="Y32" s="111"/>
+      <c r="Z32" s="111"/>
+      <c r="AA32" s="111"/>
+      <c r="AB32" s="111"/>
+      <c r="AC32" s="111"/>
+      <c r="AD32" s="111"/>
+      <c r="AE32" s="112"/>
+      <c r="AF32" s="104">
         <f>AG31-AF31</f>
         <v>17</v>
       </c>
-      <c r="AG32" s="82"/>
+      <c r="AG32" s="105"/>
       <c r="AH32" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="A31:AE31"/>
+    <mergeCell ref="A32:AE32"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -3427,34 +3455,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="A31:AE31"/>
-    <mergeCell ref="A32:AE32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3484,11 +3484,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
+      <c r="A1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
       <c r="D1" s="54"/>
       <c r="E1" s="54"/>
       <c r="F1" s="54"/>
@@ -3524,11 +3524,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
       <c r="F2" s="55"/>
@@ -3564,235 +3564,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105"/>
-      <c r="W3" s="105"/>
-      <c r="X3" s="105"/>
-      <c r="Y3" s="105"/>
-      <c r="Z3" s="105"/>
-      <c r="AA3" s="105"/>
-      <c r="AB3" s="105"/>
-      <c r="AC3" s="105"/>
-      <c r="AD3" s="105"/>
-      <c r="AE3" s="105"/>
-      <c r="AF3" s="105"/>
-      <c r="AG3" s="105"/>
-      <c r="AH3" s="105"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
-      <c r="V4" s="105"/>
-      <c r="W4" s="105"/>
-      <c r="X4" s="105"/>
-      <c r="Y4" s="105"/>
-      <c r="Z4" s="105"/>
-      <c r="AA4" s="105"/>
-      <c r="AB4" s="105"/>
-      <c r="AC4" s="105"/>
-      <c r="AD4" s="105"/>
-      <c r="AE4" s="105"/>
-      <c r="AF4" s="105"/>
-      <c r="AG4" s="105"/>
-      <c r="AH4" s="105"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="84"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="84"/>
+      <c r="AE4" s="84"/>
+      <c r="AF4" s="84"/>
+      <c r="AG4" s="84"/>
+      <c r="AH4" s="84"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
-      <c r="U5" s="105"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="105"/>
-      <c r="X5" s="105"/>
-      <c r="Y5" s="105"/>
-      <c r="Z5" s="105"/>
-      <c r="AA5" s="105"/>
-      <c r="AB5" s="105"/>
-      <c r="AC5" s="105"/>
-      <c r="AD5" s="105"/>
-      <c r="AE5" s="105"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="84"/>
+      <c r="Y5" s="84"/>
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="84"/>
+      <c r="AB5" s="84"/>
+      <c r="AC5" s="84"/>
+      <c r="AD5" s="84"/>
+      <c r="AE5" s="84"/>
       <c r="AF5" s="56"/>
       <c r="AG5" s="56"/>
       <c r="AH5" s="56"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="108"/>
-      <c r="Z6" s="108"/>
-      <c r="AA6" s="108"/>
-      <c r="AB6" s="108"/>
-      <c r="AC6" s="108"/>
-      <c r="AD6" s="108"/>
-      <c r="AE6" s="108"/>
-      <c r="AF6" s="108"/>
-      <c r="AG6" s="109"/>
-      <c r="AH6" s="92" t="s">
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="87"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="87"/>
+      <c r="W6" s="87"/>
+      <c r="X6" s="87"/>
+      <c r="Y6" s="87"/>
+      <c r="Z6" s="87"/>
+      <c r="AA6" s="87"/>
+      <c r="AB6" s="87"/>
+      <c r="AC6" s="87"/>
+      <c r="AD6" s="87"/>
+      <c r="AE6" s="87"/>
+      <c r="AF6" s="87"/>
+      <c r="AG6" s="88"/>
+      <c r="AH6" s="81" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="92"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="110" t="s">
+      <c r="A7" s="81"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="110"/>
-      <c r="F7" s="92" t="s">
+      <c r="E7" s="89"/>
+      <c r="F7" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="111" t="s">
+      <c r="G7" s="81"/>
+      <c r="H7" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="111"/>
-      <c r="J7" s="92" t="s">
+      <c r="I7" s="90"/>
+      <c r="J7" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="92"/>
-      <c r="L7" s="112" t="s">
+      <c r="K7" s="81"/>
+      <c r="L7" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="112"/>
-      <c r="N7" s="92" t="s">
+      <c r="M7" s="91"/>
+      <c r="N7" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="92"/>
-      <c r="P7" s="100" t="s">
+      <c r="O7" s="81"/>
+      <c r="P7" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="92" t="s">
+      <c r="Q7" s="101"/>
+      <c r="R7" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="92"/>
-      <c r="T7" s="101" t="s">
+      <c r="S7" s="81"/>
+      <c r="T7" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="101"/>
-      <c r="V7" s="92" t="s">
+      <c r="U7" s="102"/>
+      <c r="V7" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="92"/>
-      <c r="X7" s="102" t="s">
+      <c r="W7" s="81"/>
+      <c r="X7" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="102"/>
-      <c r="Z7" s="92" t="s">
+      <c r="Y7" s="103"/>
+      <c r="Z7" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="91" t="s">
+      <c r="AA7" s="81"/>
+      <c r="AB7" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="91"/>
-      <c r="AD7" s="92" t="s">
+      <c r="AC7" s="92"/>
+      <c r="AD7" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="92"/>
+      <c r="AE7" s="81"/>
       <c r="AF7" s="93" t="s">
         <v>24</v>
       </c>
       <c r="AG7" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="92"/>
+      <c r="AH7" s="81"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="92"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="92"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="57" t="s">
         <v>26</v>
       </c>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="AF8" s="113"/>
       <c r="AG8" s="113"/>
-      <c r="AH8" s="92"/>
+      <c r="AH8" s="81"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -5706,71 +5706,71 @@
         <v>3</v>
       </c>
       <c r="E49" s="97"/>
-      <c r="F49" s="83">
+      <c r="F49" s="98">
         <f>SUM(F9:F48)-SUM(G9:G48)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="83"/>
-      <c r="H49" s="98">
+      <c r="G49" s="98"/>
+      <c r="H49" s="99">
         <f>SUM(H9:H48)-SUM(I9:I48)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="98"/>
-      <c r="J49" s="83">
+      <c r="I49" s="99"/>
+      <c r="J49" s="98">
         <f>SUM(J9:J48)-SUM(K9:K48)</f>
         <v>0</v>
       </c>
-      <c r="K49" s="83"/>
-      <c r="L49" s="99">
+      <c r="K49" s="98"/>
+      <c r="L49" s="100">
         <f>SUM(L9:L48)-SUM(M9:M48)</f>
         <v>0</v>
       </c>
-      <c r="M49" s="99"/>
-      <c r="N49" s="83">
+      <c r="M49" s="100"/>
+      <c r="N49" s="98">
         <f>SUM(N9:N48)-SUM(O9:O48)</f>
         <v>1</v>
       </c>
-      <c r="O49" s="83"/>
-      <c r="P49" s="84">
+      <c r="O49" s="98"/>
+      <c r="P49" s="106">
         <f>SUM(P9:P48)-SUM(Q9:Q48)</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="84"/>
-      <c r="R49" s="83">
+      <c r="Q49" s="106"/>
+      <c r="R49" s="98">
         <f>SUM(R9:R48)-SUM(S9:S48)</f>
         <v>2</v>
       </c>
-      <c r="S49" s="83"/>
-      <c r="T49" s="85">
+      <c r="S49" s="98"/>
+      <c r="T49" s="107">
         <f>SUM(T9:T48)-SUM(U9:U48)</f>
         <v>0</v>
       </c>
-      <c r="U49" s="85"/>
-      <c r="V49" s="83">
+      <c r="U49" s="107"/>
+      <c r="V49" s="98">
         <f>SUM(V9:V48)-SUM(W9:W48)</f>
         <v>0</v>
       </c>
-      <c r="W49" s="83"/>
-      <c r="X49" s="86">
+      <c r="W49" s="98"/>
+      <c r="X49" s="108">
         <f>SUM(X9:X48)-SUM(Y9:Y48)</f>
         <v>4</v>
       </c>
-      <c r="Y49" s="86"/>
-      <c r="Z49" s="83">
+      <c r="Y49" s="108"/>
+      <c r="Z49" s="98">
         <f>SUM(Z9:Z48)-SUM(AA9:AA48)</f>
         <v>3</v>
       </c>
-      <c r="AA49" s="83"/>
-      <c r="AB49" s="87">
+      <c r="AA49" s="98"/>
+      <c r="AB49" s="109">
         <f>SUM(AB9:AB48)-SUM(AC9:AC48)</f>
         <v>3</v>
       </c>
-      <c r="AC49" s="87"/>
-      <c r="AD49" s="83">
+      <c r="AC49" s="109"/>
+      <c r="AD49" s="98">
         <f>SUM(AD9:AD48)-SUM(AE9:AE48)</f>
         <v>0</v>
       </c>
-      <c r="AE49" s="83"/>
+      <c r="AE49" s="98"/>
       <c r="AF49" s="20"/>
       <c r="AG49" s="9">
         <f>D49+F49+H49+J49+L49+N49+P49+R49+T49+V49+X49+Z49+AB49+AD49</f>
@@ -5779,39 +5779,39 @@
       <c r="AH49" s="21"/>
     </row>
     <row r="50" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="88" t="s">
+      <c r="A50" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="89"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="89"/>
-      <c r="I50" s="89"/>
-      <c r="J50" s="89"/>
-      <c r="K50" s="89"/>
-      <c r="L50" s="89"/>
-      <c r="M50" s="89"/>
-      <c r="N50" s="89"/>
-      <c r="O50" s="89"/>
-      <c r="P50" s="89"/>
-      <c r="Q50" s="89"/>
-      <c r="R50" s="89"/>
-      <c r="S50" s="89"/>
-      <c r="T50" s="89"/>
-      <c r="U50" s="89"/>
-      <c r="V50" s="89"/>
-      <c r="W50" s="89"/>
-      <c r="X50" s="89"/>
-      <c r="Y50" s="89"/>
-      <c r="Z50" s="89"/>
-      <c r="AA50" s="89"/>
-      <c r="AB50" s="89"/>
-      <c r="AC50" s="89"/>
-      <c r="AD50" s="89"/>
-      <c r="AE50" s="90"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="111"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="111"/>
+      <c r="H50" s="111"/>
+      <c r="I50" s="111"/>
+      <c r="J50" s="111"/>
+      <c r="K50" s="111"/>
+      <c r="L50" s="111"/>
+      <c r="M50" s="111"/>
+      <c r="N50" s="111"/>
+      <c r="O50" s="111"/>
+      <c r="P50" s="111"/>
+      <c r="Q50" s="111"/>
+      <c r="R50" s="111"/>
+      <c r="S50" s="111"/>
+      <c r="T50" s="111"/>
+      <c r="U50" s="111"/>
+      <c r="V50" s="111"/>
+      <c r="W50" s="111"/>
+      <c r="X50" s="111"/>
+      <c r="Y50" s="111"/>
+      <c r="Z50" s="111"/>
+      <c r="AA50" s="111"/>
+      <c r="AB50" s="111"/>
+      <c r="AC50" s="111"/>
+      <c r="AD50" s="111"/>
+      <c r="AE50" s="112"/>
       <c r="AF50" s="22">
         <f>SUM(AF9:AF48)</f>
         <v>18</v>
@@ -5823,59 +5823,64 @@
       <c r="AH50" s="23"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="88" t="s">
+      <c r="A51" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="89"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="89"/>
-      <c r="F51" s="89"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="89"/>
-      <c r="I51" s="89"/>
-      <c r="J51" s="89"/>
-      <c r="K51" s="89"/>
-      <c r="L51" s="89"/>
-      <c r="M51" s="89"/>
-      <c r="N51" s="89"/>
-      <c r="O51" s="89"/>
-      <c r="P51" s="89"/>
-      <c r="Q51" s="89"/>
-      <c r="R51" s="89"/>
-      <c r="S51" s="89"/>
-      <c r="T51" s="89"/>
-      <c r="U51" s="89"/>
-      <c r="V51" s="89"/>
-      <c r="W51" s="89"/>
-      <c r="X51" s="89"/>
-      <c r="Y51" s="89"/>
-      <c r="Z51" s="89"/>
-      <c r="AA51" s="89"/>
-      <c r="AB51" s="89"/>
-      <c r="AC51" s="89"/>
-      <c r="AD51" s="89"/>
-      <c r="AE51" s="90"/>
-      <c r="AF51" s="81">
+      <c r="B51" s="111"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="111"/>
+      <c r="F51" s="111"/>
+      <c r="G51" s="111"/>
+      <c r="H51" s="111"/>
+      <c r="I51" s="111"/>
+      <c r="J51" s="111"/>
+      <c r="K51" s="111"/>
+      <c r="L51" s="111"/>
+      <c r="M51" s="111"/>
+      <c r="N51" s="111"/>
+      <c r="O51" s="111"/>
+      <c r="P51" s="111"/>
+      <c r="Q51" s="111"/>
+      <c r="R51" s="111"/>
+      <c r="S51" s="111"/>
+      <c r="T51" s="111"/>
+      <c r="U51" s="111"/>
+      <c r="V51" s="111"/>
+      <c r="W51" s="111"/>
+      <c r="X51" s="111"/>
+      <c r="Y51" s="111"/>
+      <c r="Z51" s="111"/>
+      <c r="AA51" s="111"/>
+      <c r="AB51" s="111"/>
+      <c r="AC51" s="111"/>
+      <c r="AD51" s="111"/>
+      <c r="AE51" s="112"/>
+      <c r="AF51" s="104">
         <f>AG50-AF50</f>
         <v>16</v>
       </c>
-      <c r="AG51" s="82"/>
+      <c r="AG51" s="105"/>
       <c r="AH51" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AD49:AE49"/>
-    <mergeCell ref="A50:AE50"/>
-    <mergeCell ref="A51:AE51"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AF8"/>
@@ -5892,22 +5897,17 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="A50:AE50"/>
+    <mergeCell ref="A51:AE51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="Z49:AA49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="T5" sheetId="4" r:id="rId1"/>
     <sheet name="T6" sheetId="3" r:id="rId2"/>
+    <sheet name="T7" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -710,8 +711,356 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ dưới 3 tuổi 450gr
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ dưới 3 tuổi 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ từi 3-12 tuổi 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ dưới 3 tuổi 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ trên 13 tuổi 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ trên 13 tuổi 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi người già 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi người giài 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi bà bầu 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk canxi bà bầu 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk giảm cân 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk tiểu đường tim mạch 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+sữa non, sữa kháng thể 450gr
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+viên soy, collagen nội tiết tố 60v</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="60">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -888,6 +1237,9 @@
   </si>
   <si>
     <t>Chị Huệ Điện Biên gộp đơn</t>
+  </si>
+  <si>
+    <t>Tồn tháng 6</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1558,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1356,18 +1708,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1379,30 +1719,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1417,6 +1733,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1439,6 +1758,72 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1768,11 +2153,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
+      <c r="A1" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
       <c r="D1" s="75"/>
       <c r="E1" s="75"/>
       <c r="F1" s="75"/>
@@ -1808,11 +2193,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
       <c r="D2" s="76"/>
       <c r="E2" s="76"/>
       <c r="F2" s="76"/>
@@ -1848,235 +2233,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="116"/>
+      <c r="AG3" s="116"/>
+      <c r="AH3" s="116"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="84"/>
-      <c r="AE4" s="84"/>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="84"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="116"/>
+      <c r="Z4" s="116"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="116"/>
+      <c r="AC4" s="116"/>
+      <c r="AD4" s="116"/>
+      <c r="AE4" s="116"/>
+      <c r="AF4" s="116"/>
+      <c r="AG4" s="116"/>
+      <c r="AH4" s="116"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="84"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="84"/>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="84"/>
-      <c r="AD5" s="84"/>
-      <c r="AE5" s="84"/>
+      <c r="A5" s="116"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116"/>
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="116"/>
+      <c r="AC5" s="116"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="116"/>
       <c r="AF5" s="77"/>
       <c r="AG5" s="77"/>
       <c r="AH5" s="77"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="87"/>
-      <c r="T6" s="87"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="87"/>
-      <c r="W6" s="87"/>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="87"/>
-      <c r="Z6" s="87"/>
-      <c r="AA6" s="87"/>
-      <c r="AB6" s="87"/>
-      <c r="AC6" s="87"/>
-      <c r="AD6" s="87"/>
-      <c r="AE6" s="87"/>
-      <c r="AF6" s="87"/>
-      <c r="AG6" s="88"/>
-      <c r="AH6" s="81" t="s">
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="119"/>
+      <c r="AC6" s="119"/>
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="119"/>
+      <c r="AF6" s="119"/>
+      <c r="AG6" s="120"/>
+      <c r="AH6" s="103" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="89" t="s">
+      <c r="A7" s="103"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="89"/>
-      <c r="F7" s="81" t="s">
+      <c r="E7" s="121"/>
+      <c r="F7" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="90" t="s">
+      <c r="G7" s="103"/>
+      <c r="H7" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="90"/>
-      <c r="J7" s="81" t="s">
+      <c r="I7" s="122"/>
+      <c r="J7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="81"/>
-      <c r="L7" s="91" t="s">
+      <c r="K7" s="103"/>
+      <c r="L7" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="91"/>
-      <c r="N7" s="81" t="s">
+      <c r="M7" s="123"/>
+      <c r="N7" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="81"/>
-      <c r="P7" s="101" t="s">
+      <c r="O7" s="103"/>
+      <c r="P7" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="81" t="s">
+      <c r="Q7" s="111"/>
+      <c r="R7" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="81"/>
-      <c r="T7" s="102" t="s">
+      <c r="S7" s="103"/>
+      <c r="T7" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="102"/>
-      <c r="V7" s="81" t="s">
+      <c r="U7" s="112"/>
+      <c r="V7" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="81"/>
-      <c r="X7" s="103" t="s">
+      <c r="W7" s="103"/>
+      <c r="X7" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="103"/>
-      <c r="Z7" s="81" t="s">
+      <c r="Y7" s="113"/>
+      <c r="Z7" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="81"/>
-      <c r="AB7" s="92" t="s">
+      <c r="AA7" s="103"/>
+      <c r="AB7" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="92"/>
-      <c r="AD7" s="81" t="s">
+      <c r="AC7" s="102"/>
+      <c r="AD7" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="81"/>
-      <c r="AF7" s="93" t="s">
+      <c r="AE7" s="103"/>
+      <c r="AF7" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="93" t="s">
+      <c r="AG7" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="81"/>
+      <c r="AH7" s="103"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="81"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="78" t="s">
         <v>26</v>
       </c>
@@ -2161,9 +2546,9 @@
       <c r="AE8" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="AF8" s="94"/>
-      <c r="AG8" s="94"/>
-      <c r="AH8" s="81"/>
+      <c r="AF8" s="105"/>
+      <c r="AG8" s="105"/>
+      <c r="AH8" s="103"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -3245,78 +3630,78 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
-      <c r="B30" s="95"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="97">
+      <c r="B30" s="106"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="108">
         <f>SUM(D9:D28)-SUM(E9:E28)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="97"/>
-      <c r="F30" s="98">
+      <c r="E30" s="108"/>
+      <c r="F30" s="94">
         <f>SUM(F9:F28)-SUM(G9:G28)</f>
         <v>4</v>
       </c>
-      <c r="G30" s="98"/>
-      <c r="H30" s="99">
+      <c r="G30" s="94"/>
+      <c r="H30" s="109">
         <f>SUM(H9:H28)-SUM(I9:I28)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="99"/>
-      <c r="J30" s="98">
+      <c r="I30" s="109"/>
+      <c r="J30" s="94">
         <f>SUM(J9:J28)-SUM(K9:K28)</f>
         <v>1</v>
       </c>
-      <c r="K30" s="98"/>
-      <c r="L30" s="100">
+      <c r="K30" s="94"/>
+      <c r="L30" s="110">
         <f>SUM(L9:L28)-SUM(M9:M28)</f>
         <v>0</v>
       </c>
-      <c r="M30" s="100"/>
-      <c r="N30" s="98">
+      <c r="M30" s="110"/>
+      <c r="N30" s="94">
         <f>SUM(N9:N28)-SUM(O9:O28)</f>
         <v>2</v>
       </c>
-      <c r="O30" s="98"/>
-      <c r="P30" s="106">
+      <c r="O30" s="94"/>
+      <c r="P30" s="95">
         <f>SUM(P9:P28)-SUM(Q9:Q28)</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="106"/>
-      <c r="R30" s="98">
+      <c r="Q30" s="95"/>
+      <c r="R30" s="94">
         <f>SUM(R9:R28)-SUM(S9:S28)</f>
         <v>2</v>
       </c>
-      <c r="S30" s="98"/>
-      <c r="T30" s="107">
+      <c r="S30" s="94"/>
+      <c r="T30" s="96">
         <f>SUM(T9:T28)-SUM(U9:U28)</f>
         <v>0</v>
       </c>
-      <c r="U30" s="107"/>
-      <c r="V30" s="98">
+      <c r="U30" s="96"/>
+      <c r="V30" s="94">
         <f>SUM(V9:V28)-SUM(W9:W28)</f>
         <v>0</v>
       </c>
-      <c r="W30" s="98"/>
-      <c r="X30" s="108">
+      <c r="W30" s="94"/>
+      <c r="X30" s="97">
         <f>SUM(X9:X28)-SUM(Y9:Y28)</f>
         <v>5</v>
       </c>
-      <c r="Y30" s="108"/>
-      <c r="Z30" s="98">
+      <c r="Y30" s="97"/>
+      <c r="Z30" s="94">
         <f>SUM(Z9:Z28)-SUM(AA9:AA28)</f>
         <v>0</v>
       </c>
-      <c r="AA30" s="98"/>
-      <c r="AB30" s="109">
+      <c r="AA30" s="94"/>
+      <c r="AB30" s="98">
         <f>SUM(AB9:AB28)-SUM(AC9:AC28)</f>
         <v>3</v>
       </c>
-      <c r="AC30" s="109"/>
-      <c r="AD30" s="98">
+      <c r="AC30" s="98"/>
+      <c r="AD30" s="94">
         <f>SUM(AD9:AD28)-SUM(AE9:AE28)</f>
         <v>0</v>
       </c>
-      <c r="AE30" s="98"/>
+      <c r="AE30" s="94"/>
       <c r="AF30" s="20"/>
       <c r="AG30" s="9">
         <f t="shared" si="1"/>
@@ -3325,39 +3710,39 @@
       <c r="AH30" s="21"/>
     </row>
     <row r="31" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="110" t="s">
+      <c r="A31" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="111"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="111"/>
-      <c r="J31" s="111"/>
-      <c r="K31" s="111"/>
-      <c r="L31" s="111"/>
-      <c r="M31" s="111"/>
-      <c r="N31" s="111"/>
-      <c r="O31" s="111"/>
-      <c r="P31" s="111"/>
-      <c r="Q31" s="111"/>
-      <c r="R31" s="111"/>
-      <c r="S31" s="111"/>
-      <c r="T31" s="111"/>
-      <c r="U31" s="111"/>
-      <c r="V31" s="111"/>
-      <c r="W31" s="111"/>
-      <c r="X31" s="111"/>
-      <c r="Y31" s="111"/>
-      <c r="Z31" s="111"/>
-      <c r="AA31" s="111"/>
-      <c r="AB31" s="111"/>
-      <c r="AC31" s="111"/>
-      <c r="AD31" s="111"/>
-      <c r="AE31" s="112"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="100"/>
+      <c r="N31" s="100"/>
+      <c r="O31" s="100"/>
+      <c r="P31" s="100"/>
+      <c r="Q31" s="100"/>
+      <c r="R31" s="100"/>
+      <c r="S31" s="100"/>
+      <c r="T31" s="100"/>
+      <c r="U31" s="100"/>
+      <c r="V31" s="100"/>
+      <c r="W31" s="100"/>
+      <c r="X31" s="100"/>
+      <c r="Y31" s="100"/>
+      <c r="Z31" s="100"/>
+      <c r="AA31" s="100"/>
+      <c r="AB31" s="100"/>
+      <c r="AC31" s="100"/>
+      <c r="AD31" s="100"/>
+      <c r="AE31" s="101"/>
       <c r="AF31" s="22">
         <f>SUM(AF9:AF28)</f>
         <v>79</v>
@@ -3369,60 +3754,64 @@
       <c r="AH31" s="23"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="110" t="s">
+      <c r="A32" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="111"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="111"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="111"/>
-      <c r="L32" s="111"/>
-      <c r="M32" s="111"/>
-      <c r="N32" s="111"/>
-      <c r="O32" s="111"/>
-      <c r="P32" s="111"/>
-      <c r="Q32" s="111"/>
-      <c r="R32" s="111"/>
-      <c r="S32" s="111"/>
-      <c r="T32" s="111"/>
-      <c r="U32" s="111"/>
-      <c r="V32" s="111"/>
-      <c r="W32" s="111"/>
-      <c r="X32" s="111"/>
-      <c r="Y32" s="111"/>
-      <c r="Z32" s="111"/>
-      <c r="AA32" s="111"/>
-      <c r="AB32" s="111"/>
-      <c r="AC32" s="111"/>
-      <c r="AD32" s="111"/>
-      <c r="AE32" s="112"/>
-      <c r="AF32" s="104">
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="100"/>
+      <c r="Q32" s="100"/>
+      <c r="R32" s="100"/>
+      <c r="S32" s="100"/>
+      <c r="T32" s="100"/>
+      <c r="U32" s="100"/>
+      <c r="V32" s="100"/>
+      <c r="W32" s="100"/>
+      <c r="X32" s="100"/>
+      <c r="Y32" s="100"/>
+      <c r="Z32" s="100"/>
+      <c r="AA32" s="100"/>
+      <c r="AB32" s="100"/>
+      <c r="AC32" s="100"/>
+      <c r="AD32" s="100"/>
+      <c r="AE32" s="101"/>
+      <c r="AF32" s="92">
         <f>AG31-AF31</f>
         <v>17</v>
       </c>
-      <c r="AG32" s="105"/>
+      <c r="AG32" s="93"/>
       <c r="AH32" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="A31:AE31"/>
-    <mergeCell ref="A32:AE32"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AF8"/>
@@ -3439,22 +3828,18 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="A31:AE31"/>
+    <mergeCell ref="A32:AE32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3466,8 +3851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -3484,11 +3869,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
+      <c r="A1" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
       <c r="D1" s="54"/>
       <c r="E1" s="54"/>
       <c r="F1" s="54"/>
@@ -3524,11 +3909,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
       <c r="F2" s="55"/>
@@ -3564,235 +3949,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="116"/>
+      <c r="AG3" s="116"/>
+      <c r="AH3" s="116"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="84"/>
-      <c r="AE4" s="84"/>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="84"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="116"/>
+      <c r="Z4" s="116"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="116"/>
+      <c r="AC4" s="116"/>
+      <c r="AD4" s="116"/>
+      <c r="AE4" s="116"/>
+      <c r="AF4" s="116"/>
+      <c r="AG4" s="116"/>
+      <c r="AH4" s="116"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="84"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="84"/>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="84"/>
-      <c r="AD5" s="84"/>
-      <c r="AE5" s="84"/>
+      <c r="A5" s="116"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116"/>
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="116"/>
+      <c r="AC5" s="116"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="116"/>
       <c r="AF5" s="56"/>
       <c r="AG5" s="56"/>
       <c r="AH5" s="56"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="87"/>
-      <c r="T6" s="87"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="87"/>
-      <c r="W6" s="87"/>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="87"/>
-      <c r="Z6" s="87"/>
-      <c r="AA6" s="87"/>
-      <c r="AB6" s="87"/>
-      <c r="AC6" s="87"/>
-      <c r="AD6" s="87"/>
-      <c r="AE6" s="87"/>
-      <c r="AF6" s="87"/>
-      <c r="AG6" s="88"/>
-      <c r="AH6" s="81" t="s">
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="119"/>
+      <c r="AC6" s="119"/>
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="119"/>
+      <c r="AF6" s="119"/>
+      <c r="AG6" s="120"/>
+      <c r="AH6" s="103" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="89" t="s">
+      <c r="A7" s="103"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="89"/>
-      <c r="F7" s="81" t="s">
+      <c r="E7" s="121"/>
+      <c r="F7" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="90" t="s">
+      <c r="G7" s="103"/>
+      <c r="H7" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="90"/>
-      <c r="J7" s="81" t="s">
+      <c r="I7" s="122"/>
+      <c r="J7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="81"/>
-      <c r="L7" s="91" t="s">
+      <c r="K7" s="103"/>
+      <c r="L7" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="91"/>
-      <c r="N7" s="81" t="s">
+      <c r="M7" s="123"/>
+      <c r="N7" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="81"/>
-      <c r="P7" s="101" t="s">
+      <c r="O7" s="103"/>
+      <c r="P7" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="81" t="s">
+      <c r="Q7" s="111"/>
+      <c r="R7" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="81"/>
-      <c r="T7" s="102" t="s">
+      <c r="S7" s="103"/>
+      <c r="T7" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="102"/>
-      <c r="V7" s="81" t="s">
+      <c r="U7" s="112"/>
+      <c r="V7" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="81"/>
-      <c r="X7" s="103" t="s">
+      <c r="W7" s="103"/>
+      <c r="X7" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="103"/>
-      <c r="Z7" s="81" t="s">
+      <c r="Y7" s="113"/>
+      <c r="Z7" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="81"/>
-      <c r="AB7" s="92" t="s">
+      <c r="AA7" s="103"/>
+      <c r="AB7" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="92"/>
-      <c r="AD7" s="81" t="s">
+      <c r="AC7" s="102"/>
+      <c r="AD7" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="81"/>
-      <c r="AF7" s="93" t="s">
+      <c r="AE7" s="103"/>
+      <c r="AF7" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="93" t="s">
+      <c r="AG7" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="81"/>
+      <c r="AH7" s="103"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="81"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="57" t="s">
         <v>26</v>
       </c>
@@ -3877,9 +4262,9 @@
       <c r="AE8" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AF8" s="113"/>
-      <c r="AG8" s="113"/>
-      <c r="AH8" s="81"/>
+      <c r="AF8" s="124"/>
+      <c r="AG8" s="124"/>
+      <c r="AH8" s="103"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -5701,76 +6086,76 @@
       <c r="A49" s="17"/>
       <c r="B49" s="18"/>
       <c r="C49" s="19"/>
-      <c r="D49" s="97">
+      <c r="D49" s="108">
         <f>SUM(D9:D48)-SUM(E9:E48)</f>
         <v>3</v>
       </c>
-      <c r="E49" s="97"/>
-      <c r="F49" s="98">
+      <c r="E49" s="108"/>
+      <c r="F49" s="94">
         <f>SUM(F9:F48)-SUM(G9:G48)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="98"/>
-      <c r="H49" s="99">
+      <c r="G49" s="94"/>
+      <c r="H49" s="109">
         <f>SUM(H9:H48)-SUM(I9:I48)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="99"/>
-      <c r="J49" s="98">
+      <c r="I49" s="109"/>
+      <c r="J49" s="94">
         <f>SUM(J9:J48)-SUM(K9:K48)</f>
         <v>0</v>
       </c>
-      <c r="K49" s="98"/>
-      <c r="L49" s="100">
+      <c r="K49" s="94"/>
+      <c r="L49" s="110">
         <f>SUM(L9:L48)-SUM(M9:M48)</f>
         <v>0</v>
       </c>
-      <c r="M49" s="100"/>
-      <c r="N49" s="98">
+      <c r="M49" s="110"/>
+      <c r="N49" s="94">
         <f>SUM(N9:N48)-SUM(O9:O48)</f>
         <v>1</v>
       </c>
-      <c r="O49" s="98"/>
-      <c r="P49" s="106">
+      <c r="O49" s="94"/>
+      <c r="P49" s="95">
         <f>SUM(P9:P48)-SUM(Q9:Q48)</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="106"/>
-      <c r="R49" s="98">
+      <c r="Q49" s="95"/>
+      <c r="R49" s="94">
         <f>SUM(R9:R48)-SUM(S9:S48)</f>
         <v>2</v>
       </c>
-      <c r="S49" s="98"/>
-      <c r="T49" s="107">
+      <c r="S49" s="94"/>
+      <c r="T49" s="96">
         <f>SUM(T9:T48)-SUM(U9:U48)</f>
         <v>0</v>
       </c>
-      <c r="U49" s="107"/>
-      <c r="V49" s="98">
+      <c r="U49" s="96"/>
+      <c r="V49" s="94">
         <f>SUM(V9:V48)-SUM(W9:W48)</f>
         <v>0</v>
       </c>
-      <c r="W49" s="98"/>
-      <c r="X49" s="108">
+      <c r="W49" s="94"/>
+      <c r="X49" s="97">
         <f>SUM(X9:X48)-SUM(Y9:Y48)</f>
         <v>4</v>
       </c>
-      <c r="Y49" s="108"/>
-      <c r="Z49" s="98">
+      <c r="Y49" s="97"/>
+      <c r="Z49" s="94">
         <f>SUM(Z9:Z48)-SUM(AA9:AA48)</f>
         <v>3</v>
       </c>
-      <c r="AA49" s="98"/>
-      <c r="AB49" s="109">
+      <c r="AA49" s="94"/>
+      <c r="AB49" s="98">
         <f>SUM(AB9:AB48)-SUM(AC9:AC48)</f>
         <v>3</v>
       </c>
-      <c r="AC49" s="109"/>
-      <c r="AD49" s="98">
+      <c r="AC49" s="98"/>
+      <c r="AD49" s="94">
         <f>SUM(AD9:AD48)-SUM(AE9:AE48)</f>
         <v>0</v>
       </c>
-      <c r="AE49" s="98"/>
+      <c r="AE49" s="94"/>
       <c r="AF49" s="20"/>
       <c r="AG49" s="9">
         <f>D49+F49+H49+J49+L49+N49+P49+R49+T49+V49+X49+Z49+AB49+AD49</f>
@@ -5779,39 +6164,39 @@
       <c r="AH49" s="21"/>
     </row>
     <row r="50" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="110" t="s">
+      <c r="A50" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="111"/>
-      <c r="C50" s="111"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="111"/>
-      <c r="F50" s="111"/>
-      <c r="G50" s="111"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="111"/>
-      <c r="J50" s="111"/>
-      <c r="K50" s="111"/>
-      <c r="L50" s="111"/>
-      <c r="M50" s="111"/>
-      <c r="N50" s="111"/>
-      <c r="O50" s="111"/>
-      <c r="P50" s="111"/>
-      <c r="Q50" s="111"/>
-      <c r="R50" s="111"/>
-      <c r="S50" s="111"/>
-      <c r="T50" s="111"/>
-      <c r="U50" s="111"/>
-      <c r="V50" s="111"/>
-      <c r="W50" s="111"/>
-      <c r="X50" s="111"/>
-      <c r="Y50" s="111"/>
-      <c r="Z50" s="111"/>
-      <c r="AA50" s="111"/>
-      <c r="AB50" s="111"/>
-      <c r="AC50" s="111"/>
-      <c r="AD50" s="111"/>
-      <c r="AE50" s="112"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="100"/>
+      <c r="K50" s="100"/>
+      <c r="L50" s="100"/>
+      <c r="M50" s="100"/>
+      <c r="N50" s="100"/>
+      <c r="O50" s="100"/>
+      <c r="P50" s="100"/>
+      <c r="Q50" s="100"/>
+      <c r="R50" s="100"/>
+      <c r="S50" s="100"/>
+      <c r="T50" s="100"/>
+      <c r="U50" s="100"/>
+      <c r="V50" s="100"/>
+      <c r="W50" s="100"/>
+      <c r="X50" s="100"/>
+      <c r="Y50" s="100"/>
+      <c r="Z50" s="100"/>
+      <c r="AA50" s="100"/>
+      <c r="AB50" s="100"/>
+      <c r="AC50" s="100"/>
+      <c r="AD50" s="100"/>
+      <c r="AE50" s="101"/>
       <c r="AF50" s="22">
         <f>SUM(AF9:AF48)</f>
         <v>18</v>
@@ -5823,48 +6208,75 @@
       <c r="AH50" s="23"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="110" t="s">
+      <c r="A51" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="111"/>
-      <c r="C51" s="111"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="111"/>
-      <c r="F51" s="111"/>
-      <c r="G51" s="111"/>
-      <c r="H51" s="111"/>
-      <c r="I51" s="111"/>
-      <c r="J51" s="111"/>
-      <c r="K51" s="111"/>
-      <c r="L51" s="111"/>
-      <c r="M51" s="111"/>
-      <c r="N51" s="111"/>
-      <c r="O51" s="111"/>
-      <c r="P51" s="111"/>
-      <c r="Q51" s="111"/>
-      <c r="R51" s="111"/>
-      <c r="S51" s="111"/>
-      <c r="T51" s="111"/>
-      <c r="U51" s="111"/>
-      <c r="V51" s="111"/>
-      <c r="W51" s="111"/>
-      <c r="X51" s="111"/>
-      <c r="Y51" s="111"/>
-      <c r="Z51" s="111"/>
-      <c r="AA51" s="111"/>
-      <c r="AB51" s="111"/>
-      <c r="AC51" s="111"/>
-      <c r="AD51" s="111"/>
-      <c r="AE51" s="112"/>
-      <c r="AF51" s="104">
+      <c r="B51" s="100"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="100"/>
+      <c r="J51" s="100"/>
+      <c r="K51" s="100"/>
+      <c r="L51" s="100"/>
+      <c r="M51" s="100"/>
+      <c r="N51" s="100"/>
+      <c r="O51" s="100"/>
+      <c r="P51" s="100"/>
+      <c r="Q51" s="100"/>
+      <c r="R51" s="100"/>
+      <c r="S51" s="100"/>
+      <c r="T51" s="100"/>
+      <c r="U51" s="100"/>
+      <c r="V51" s="100"/>
+      <c r="W51" s="100"/>
+      <c r="X51" s="100"/>
+      <c r="Y51" s="100"/>
+      <c r="Z51" s="100"/>
+      <c r="AA51" s="100"/>
+      <c r="AB51" s="100"/>
+      <c r="AC51" s="100"/>
+      <c r="AD51" s="100"/>
+      <c r="AE51" s="101"/>
+      <c r="AF51" s="92">
         <f>AG50-AF50</f>
         <v>16</v>
       </c>
-      <c r="AG51" s="105"/>
+      <c r="AG51" s="93"/>
       <c r="AH51" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="A50:AE50"/>
+    <mergeCell ref="A51:AE51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -5881,6 +6293,2343 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="5" customWidth="1"/>
+    <col min="4" max="31" width="3.28515625" style="5" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="5" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="116" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="116"/>
+      <c r="AG3" s="116"/>
+      <c r="AH3" s="116"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="116" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="116"/>
+      <c r="Z4" s="116"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="116"/>
+      <c r="AC4" s="116"/>
+      <c r="AD4" s="116"/>
+      <c r="AE4" s="116"/>
+      <c r="AF4" s="116"/>
+      <c r="AG4" s="116"/>
+      <c r="AH4" s="116"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="116"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116"/>
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="116"/>
+      <c r="AC5" s="116"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="116"/>
+      <c r="AF5" s="84"/>
+      <c r="AG5" s="84"/>
+      <c r="AH5" s="84"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="118" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="119"/>
+      <c r="AC6" s="119"/>
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="119"/>
+      <c r="AF6" s="119"/>
+      <c r="AG6" s="120"/>
+      <c r="AH6" s="103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="103"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="121"/>
+      <c r="F7" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="103"/>
+      <c r="H7" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="122"/>
+      <c r="J7" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="103"/>
+      <c r="L7" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="123"/>
+      <c r="N7" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="103"/>
+      <c r="P7" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="S7" s="103"/>
+      <c r="T7" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="U7" s="112"/>
+      <c r="V7" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="W7" s="103"/>
+      <c r="X7" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y7" s="113"/>
+      <c r="Z7" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA7" s="103"/>
+      <c r="AB7" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC7" s="102"/>
+      <c r="AD7" s="103" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE7" s="103"/>
+      <c r="AF7" s="104" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG7" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH7" s="103"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="103"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="U8" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="W8" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="X8" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y8" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z8" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA8" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB8" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC8" s="88" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD8" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE8" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF8" s="124"/>
+      <c r="AG8" s="124"/>
+      <c r="AH8" s="103"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10">
+        <v>44012</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="25">
+        <v>3</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="9">
+        <v>1</v>
+      </c>
+      <c r="O9" s="9"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="9">
+        <v>2</v>
+      </c>
+      <c r="S9" s="9"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="49">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="9">
+        <v>3</v>
+      </c>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="33">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9">
+        <f>E9+G9+I9+K9+M9+O9+Q9+S9+U9+W9+Y9+AA9+AC9+AE9</f>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="9">
+        <f>D9+F9+H9+J9+L9+N9+P9+R9+T9+V9+X9+Z9+AB9+AD9</f>
+        <v>16</v>
+      </c>
+      <c r="AH9" s="9"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14">
+        <f t="shared" ref="AF10:AF48" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="14">
+        <f t="shared" ref="AG10:AG48" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="14"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="14"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="14"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="14"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="14"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="14"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="14"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="14"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="14"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH19" s="14"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="14"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="14"/>
+    </row>
+    <row r="22" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="14"/>
+    </row>
+    <row r="23" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="14"/>
+    </row>
+    <row r="24" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH24" s="14"/>
+    </row>
+    <row r="25" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="35"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="14"/>
+    </row>
+    <row r="26" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH26" s="14"/>
+    </row>
+    <row r="27" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="51"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="35"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH27" s="14"/>
+    </row>
+    <row r="28" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="35"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH28" s="14"/>
+    </row>
+    <row r="29" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="35"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="14"/>
+    </row>
+    <row r="30" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>16</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="47"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="35"/>
+      <c r="AC30" s="35"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH30" s="14"/>
+    </row>
+    <row r="31" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>17</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="35"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH31" s="14"/>
+    </row>
+    <row r="32" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>18</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="35"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH32" s="14"/>
+    </row>
+    <row r="33" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>19</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="47"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="35"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH33" s="14"/>
+    </row>
+    <row r="34" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>20</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="47"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="51"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="35"/>
+      <c r="AC34" s="35"/>
+      <c r="AD34" s="14"/>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH34" s="14"/>
+    </row>
+    <row r="35" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>21</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="47"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="35"/>
+      <c r="AC35" s="35"/>
+      <c r="AD35" s="14"/>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH35" s="14"/>
+    </row>
+    <row r="36" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>22</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="47"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="51"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="35"/>
+      <c r="AD36" s="14"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH36" s="14"/>
+    </row>
+    <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>23</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="35"/>
+      <c r="AC37" s="35"/>
+      <c r="AD37" s="14"/>
+      <c r="AE37" s="14"/>
+      <c r="AF37" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH37" s="14"/>
+    </row>
+    <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>24</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="51"/>
+      <c r="Y38" s="51"/>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="35"/>
+      <c r="AC38" s="35"/>
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="14"/>
+      <c r="AF38" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG38" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH38" s="14"/>
+    </row>
+    <row r="39" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>25</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="47"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="51"/>
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="14"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="35"/>
+      <c r="AC39" s="35"/>
+      <c r="AD39" s="14"/>
+      <c r="AE39" s="14"/>
+      <c r="AF39" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG39" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH39" s="14"/>
+    </row>
+    <row r="40" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>26</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="47"/>
+      <c r="U40" s="47"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="51"/>
+      <c r="Y40" s="51"/>
+      <c r="Z40" s="14"/>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="35"/>
+      <c r="AC40" s="35"/>
+      <c r="AD40" s="14"/>
+      <c r="AE40" s="14"/>
+      <c r="AF40" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH40" s="14"/>
+    </row>
+    <row r="41" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>27</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="47"/>
+      <c r="U41" s="47"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="51"/>
+      <c r="Y41" s="51"/>
+      <c r="Z41" s="14"/>
+      <c r="AA41" s="14"/>
+      <c r="AB41" s="35"/>
+      <c r="AC41" s="35"/>
+      <c r="AD41" s="14"/>
+      <c r="AE41" s="14"/>
+      <c r="AF41" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH41" s="14"/>
+    </row>
+    <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>28</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="43"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="47"/>
+      <c r="U42" s="47"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="51"/>
+      <c r="Y42" s="51"/>
+      <c r="Z42" s="14"/>
+      <c r="AA42" s="14"/>
+      <c r="AB42" s="35"/>
+      <c r="AC42" s="35"/>
+      <c r="AD42" s="14"/>
+      <c r="AE42" s="14"/>
+      <c r="AF42" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH42" s="14"/>
+    </row>
+    <row r="43" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>29</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="47"/>
+      <c r="U43" s="47"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+      <c r="X43" s="51"/>
+      <c r="Y43" s="51"/>
+      <c r="Z43" s="14"/>
+      <c r="AA43" s="14"/>
+      <c r="AB43" s="35"/>
+      <c r="AC43" s="35"/>
+      <c r="AD43" s="14"/>
+      <c r="AE43" s="14"/>
+      <c r="AF43" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH43" s="14"/>
+    </row>
+    <row r="44" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>30</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="43"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="47"/>
+      <c r="U44" s="47"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="51"/>
+      <c r="Y44" s="51"/>
+      <c r="Z44" s="14"/>
+      <c r="AA44" s="14"/>
+      <c r="AB44" s="35"/>
+      <c r="AC44" s="35"/>
+      <c r="AD44" s="14"/>
+      <c r="AE44" s="14"/>
+      <c r="AF44" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG44" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH44" s="14"/>
+    </row>
+    <row r="45" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>31</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="43"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="47"/>
+      <c r="U45" s="47"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+      <c r="X45" s="51"/>
+      <c r="Y45" s="51"/>
+      <c r="Z45" s="14"/>
+      <c r="AA45" s="14"/>
+      <c r="AB45" s="35"/>
+      <c r="AC45" s="35"/>
+      <c r="AD45" s="14"/>
+      <c r="AE45" s="14"/>
+      <c r="AF45" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG45" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH45" s="14"/>
+    </row>
+    <row r="46" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>32</v>
+      </c>
+      <c r="B46" s="15"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="44"/>
+      <c r="Q46" s="44"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="48"/>
+      <c r="U46" s="48"/>
+      <c r="V46" s="16"/>
+      <c r="W46" s="16"/>
+      <c r="X46" s="52"/>
+      <c r="Y46" s="52"/>
+      <c r="Z46" s="16"/>
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="36"/>
+      <c r="AC46" s="36"/>
+      <c r="AD46" s="16"/>
+      <c r="AE46" s="16"/>
+      <c r="AF46" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG46" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH46" s="16"/>
+    </row>
+    <row r="47" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>33</v>
+      </c>
+      <c r="B47" s="15"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="48"/>
+      <c r="U47" s="48"/>
+      <c r="V47" s="16"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="52"/>
+      <c r="Y47" s="52"/>
+      <c r="Z47" s="16"/>
+      <c r="AA47" s="16"/>
+      <c r="AB47" s="36"/>
+      <c r="AC47" s="36"/>
+      <c r="AD47" s="16"/>
+      <c r="AE47" s="16"/>
+      <c r="AF47" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG47" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH47" s="16"/>
+    </row>
+    <row r="48" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>34</v>
+      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="44"/>
+      <c r="Q48" s="44"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="48"/>
+      <c r="U48" s="48"/>
+      <c r="V48" s="16"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="52"/>
+      <c r="Y48" s="52"/>
+      <c r="Z48" s="16"/>
+      <c r="AA48" s="16"/>
+      <c r="AB48" s="36"/>
+      <c r="AC48" s="36"/>
+      <c r="AD48" s="16"/>
+      <c r="AE48" s="16"/>
+      <c r="AF48" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG48" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH48" s="16"/>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A49" s="17"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="108">
+        <f>SUM(D9:D48)-SUM(E9:E48)</f>
+        <v>3</v>
+      </c>
+      <c r="E49" s="108"/>
+      <c r="F49" s="94">
+        <f>SUM(F9:F48)-SUM(G9:G48)</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="94"/>
+      <c r="H49" s="109">
+        <f>SUM(H9:H48)-SUM(I9:I48)</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="109"/>
+      <c r="J49" s="94">
+        <f>SUM(J9:J48)-SUM(K9:K48)</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="94"/>
+      <c r="L49" s="110">
+        <f>SUM(L9:L48)-SUM(M9:M48)</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="110"/>
+      <c r="N49" s="94">
+        <f>SUM(N9:N48)-SUM(O9:O48)</f>
+        <v>1</v>
+      </c>
+      <c r="O49" s="94"/>
+      <c r="P49" s="95">
+        <f>SUM(P9:P48)-SUM(Q9:Q48)</f>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="95"/>
+      <c r="R49" s="94">
+        <f>SUM(R9:R48)-SUM(S9:S48)</f>
+        <v>2</v>
+      </c>
+      <c r="S49" s="94"/>
+      <c r="T49" s="96">
+        <f>SUM(T9:T48)-SUM(U9:U48)</f>
+        <v>0</v>
+      </c>
+      <c r="U49" s="96"/>
+      <c r="V49" s="94">
+        <f>SUM(V9:V48)-SUM(W9:W48)</f>
+        <v>0</v>
+      </c>
+      <c r="W49" s="94"/>
+      <c r="X49" s="97">
+        <f>SUM(X9:X48)-SUM(Y9:Y48)</f>
+        <v>4</v>
+      </c>
+      <c r="Y49" s="97"/>
+      <c r="Z49" s="94">
+        <f>SUM(Z9:Z48)-SUM(AA9:AA48)</f>
+        <v>3</v>
+      </c>
+      <c r="AA49" s="94"/>
+      <c r="AB49" s="98">
+        <f>SUM(AB9:AB48)-SUM(AC9:AC48)</f>
+        <v>3</v>
+      </c>
+      <c r="AC49" s="98"/>
+      <c r="AD49" s="94">
+        <f>SUM(AD9:AD48)-SUM(AE9:AE48)</f>
+        <v>0</v>
+      </c>
+      <c r="AE49" s="94"/>
+      <c r="AF49" s="20"/>
+      <c r="AG49" s="9">
+        <f>D49+F49+H49+J49+L49+N49+P49+R49+T49+V49+X49+Z49+AB49+AD49</f>
+        <v>16</v>
+      </c>
+      <c r="AH49" s="21"/>
+    </row>
+    <row r="50" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="99" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="100"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="100"/>
+      <c r="K50" s="100"/>
+      <c r="L50" s="100"/>
+      <c r="M50" s="100"/>
+      <c r="N50" s="100"/>
+      <c r="O50" s="100"/>
+      <c r="P50" s="100"/>
+      <c r="Q50" s="100"/>
+      <c r="R50" s="100"/>
+      <c r="S50" s="100"/>
+      <c r="T50" s="100"/>
+      <c r="U50" s="100"/>
+      <c r="V50" s="100"/>
+      <c r="W50" s="100"/>
+      <c r="X50" s="100"/>
+      <c r="Y50" s="100"/>
+      <c r="Z50" s="100"/>
+      <c r="AA50" s="100"/>
+      <c r="AB50" s="100"/>
+      <c r="AC50" s="100"/>
+      <c r="AD50" s="100"/>
+      <c r="AE50" s="101"/>
+      <c r="AF50" s="22">
+        <f>SUM(AF9:AF48)</f>
+        <v>0</v>
+      </c>
+      <c r="AG50" s="22">
+        <f>SUM(AG9:AG48)</f>
+        <v>16</v>
+      </c>
+      <c r="AH50" s="23"/>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A51" s="99" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="100"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="100"/>
+      <c r="J51" s="100"/>
+      <c r="K51" s="100"/>
+      <c r="L51" s="100"/>
+      <c r="M51" s="100"/>
+      <c r="N51" s="100"/>
+      <c r="O51" s="100"/>
+      <c r="P51" s="100"/>
+      <c r="Q51" s="100"/>
+      <c r="R51" s="100"/>
+      <c r="S51" s="100"/>
+      <c r="T51" s="100"/>
+      <c r="U51" s="100"/>
+      <c r="V51" s="100"/>
+      <c r="W51" s="100"/>
+      <c r="X51" s="100"/>
+      <c r="Y51" s="100"/>
+      <c r="Z51" s="100"/>
+      <c r="AA51" s="100"/>
+      <c r="AB51" s="100"/>
+      <c r="AC51" s="100"/>
+      <c r="AD51" s="100"/>
+      <c r="AE51" s="101"/>
+      <c r="AF51" s="92">
+        <f>AG50-AF50</f>
+        <v>16</v>
+      </c>
+      <c r="AG51" s="93"/>
+      <c r="AH51" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="A50:AE50"/>
+    <mergeCell ref="A51:AE51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="Z49:AA49"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AF8"/>
@@ -5897,17 +8646,22 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AD49:AE49"/>
-    <mergeCell ref="A50:AE50"/>
-    <mergeCell ref="A51:AE51"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
@@ -1060,7 +1060,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="61">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1240,6 +1240,9 @@
   </si>
   <si>
     <t>Tồn tháng 6</t>
+  </si>
+  <si>
+    <t>Chị Hồng Nanomilk</t>
   </si>
 </sst>
 </file>
@@ -1729,70 +1732,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1824,6 +1764,69 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2153,11 +2156,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
+      <c r="A1" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
       <c r="D1" s="75"/>
       <c r="E1" s="75"/>
       <c r="F1" s="75"/>
@@ -2193,11 +2196,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
       <c r="D2" s="76"/>
       <c r="E2" s="76"/>
       <c r="F2" s="76"/>
@@ -2233,235 +2236,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="116"/>
-      <c r="U3" s="116"/>
-      <c r="V3" s="116"/>
-      <c r="W3" s="116"/>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="116"/>
-      <c r="AH3" s="116"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="95"/>
+      <c r="V3" s="95"/>
+      <c r="W3" s="95"/>
+      <c r="X3" s="95"/>
+      <c r="Y3" s="95"/>
+      <c r="Z3" s="95"/>
+      <c r="AA3" s="95"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="95"/>
+      <c r="AD3" s="95"/>
+      <c r="AE3" s="95"/>
+      <c r="AF3" s="95"/>
+      <c r="AG3" s="95"/>
+      <c r="AH3" s="95"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="116"/>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="116"/>
-      <c r="AD4" s="116"/>
-      <c r="AE4" s="116"/>
-      <c r="AF4" s="116"/>
-      <c r="AG4" s="116"/>
-      <c r="AH4" s="116"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="95"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="116"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
-      <c r="U5" s="116"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="116"/>
-      <c r="X5" s="116"/>
-      <c r="Y5" s="116"/>
-      <c r="Z5" s="116"/>
-      <c r="AA5" s="116"/>
-      <c r="AB5" s="116"/>
-      <c r="AC5" s="116"/>
-      <c r="AD5" s="116"/>
-      <c r="AE5" s="116"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="95"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="95"/>
+      <c r="AA5" s="95"/>
+      <c r="AB5" s="95"/>
+      <c r="AC5" s="95"/>
+      <c r="AD5" s="95"/>
+      <c r="AE5" s="95"/>
       <c r="AF5" s="77"/>
       <c r="AG5" s="77"/>
       <c r="AH5" s="77"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="118" t="s">
+      <c r="D6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119"/>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="119"/>
-      <c r="T6" s="119"/>
-      <c r="U6" s="119"/>
-      <c r="V6" s="119"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="119"/>
-      <c r="Y6" s="119"/>
-      <c r="Z6" s="119"/>
-      <c r="AA6" s="119"/>
-      <c r="AB6" s="119"/>
-      <c r="AC6" s="119"/>
-      <c r="AD6" s="119"/>
-      <c r="AE6" s="119"/>
-      <c r="AF6" s="119"/>
-      <c r="AG6" s="120"/>
-      <c r="AH6" s="103" t="s">
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="98"/>
+      <c r="R6" s="98"/>
+      <c r="S6" s="98"/>
+      <c r="T6" s="98"/>
+      <c r="U6" s="98"/>
+      <c r="V6" s="98"/>
+      <c r="W6" s="98"/>
+      <c r="X6" s="98"/>
+      <c r="Y6" s="98"/>
+      <c r="Z6" s="98"/>
+      <c r="AA6" s="98"/>
+      <c r="AB6" s="98"/>
+      <c r="AC6" s="98"/>
+      <c r="AD6" s="98"/>
+      <c r="AE6" s="98"/>
+      <c r="AF6" s="98"/>
+      <c r="AG6" s="99"/>
+      <c r="AH6" s="92" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="103"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="121" t="s">
+      <c r="A7" s="92"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="103" t="s">
+      <c r="E7" s="100"/>
+      <c r="F7" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="103"/>
-      <c r="H7" s="122" t="s">
+      <c r="G7" s="92"/>
+      <c r="H7" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="122"/>
-      <c r="J7" s="103" t="s">
+      <c r="I7" s="101"/>
+      <c r="J7" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="103"/>
-      <c r="L7" s="123" t="s">
+      <c r="K7" s="92"/>
+      <c r="L7" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="123"/>
-      <c r="N7" s="103" t="s">
+      <c r="M7" s="102"/>
+      <c r="N7" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="103"/>
-      <c r="P7" s="111" t="s">
+      <c r="O7" s="92"/>
+      <c r="P7" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="103" t="s">
+      <c r="Q7" s="112"/>
+      <c r="R7" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="103"/>
-      <c r="T7" s="112" t="s">
+      <c r="S7" s="92"/>
+      <c r="T7" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="112"/>
-      <c r="V7" s="103" t="s">
+      <c r="U7" s="113"/>
+      <c r="V7" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="103"/>
-      <c r="X7" s="113" t="s">
+      <c r="W7" s="92"/>
+      <c r="X7" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="113"/>
-      <c r="Z7" s="103" t="s">
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="103"/>
-      <c r="AB7" s="102" t="s">
+      <c r="AA7" s="92"/>
+      <c r="AB7" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="102"/>
-      <c r="AD7" s="103" t="s">
+      <c r="AC7" s="103"/>
+      <c r="AD7" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="103"/>
+      <c r="AE7" s="92"/>
       <c r="AF7" s="104" t="s">
         <v>24</v>
       </c>
       <c r="AG7" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="103"/>
+      <c r="AH7" s="92"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="103"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="103"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="78" t="s">
         <v>26</v>
       </c>
@@ -2548,7 +2551,7 @@
       </c>
       <c r="AF8" s="105"/>
       <c r="AG8" s="105"/>
-      <c r="AH8" s="103"/>
+      <c r="AH8" s="92"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -3637,71 +3640,71 @@
         <v>0</v>
       </c>
       <c r="E30" s="108"/>
-      <c r="F30" s="94">
+      <c r="F30" s="109">
         <f>SUM(F9:F28)-SUM(G9:G28)</f>
         <v>4</v>
       </c>
-      <c r="G30" s="94"/>
-      <c r="H30" s="109">
+      <c r="G30" s="109"/>
+      <c r="H30" s="110">
         <f>SUM(H9:H28)-SUM(I9:I28)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="109"/>
-      <c r="J30" s="94">
+      <c r="I30" s="110"/>
+      <c r="J30" s="109">
         <f>SUM(J9:J28)-SUM(K9:K28)</f>
         <v>1</v>
       </c>
-      <c r="K30" s="94"/>
-      <c r="L30" s="110">
+      <c r="K30" s="109"/>
+      <c r="L30" s="111">
         <f>SUM(L9:L28)-SUM(M9:M28)</f>
         <v>0</v>
       </c>
-      <c r="M30" s="110"/>
-      <c r="N30" s="94">
+      <c r="M30" s="111"/>
+      <c r="N30" s="109">
         <f>SUM(N9:N28)-SUM(O9:O28)</f>
         <v>2</v>
       </c>
-      <c r="O30" s="94"/>
-      <c r="P30" s="95">
+      <c r="O30" s="109"/>
+      <c r="P30" s="117">
         <f>SUM(P9:P28)-SUM(Q9:Q28)</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="94">
+      <c r="Q30" s="117"/>
+      <c r="R30" s="109">
         <f>SUM(R9:R28)-SUM(S9:S28)</f>
         <v>2</v>
       </c>
-      <c r="S30" s="94"/>
-      <c r="T30" s="96">
+      <c r="S30" s="109"/>
+      <c r="T30" s="118">
         <f>SUM(T9:T28)-SUM(U9:U28)</f>
         <v>0</v>
       </c>
-      <c r="U30" s="96"/>
-      <c r="V30" s="94">
+      <c r="U30" s="118"/>
+      <c r="V30" s="109">
         <f>SUM(V9:V28)-SUM(W9:W28)</f>
         <v>0</v>
       </c>
-      <c r="W30" s="94"/>
-      <c r="X30" s="97">
+      <c r="W30" s="109"/>
+      <c r="X30" s="119">
         <f>SUM(X9:X28)-SUM(Y9:Y28)</f>
         <v>5</v>
       </c>
-      <c r="Y30" s="97"/>
-      <c r="Z30" s="94">
+      <c r="Y30" s="119"/>
+      <c r="Z30" s="109">
         <f>SUM(Z9:Z28)-SUM(AA9:AA28)</f>
         <v>0</v>
       </c>
-      <c r="AA30" s="94"/>
-      <c r="AB30" s="98">
+      <c r="AA30" s="109"/>
+      <c r="AB30" s="120">
         <f>SUM(AB9:AB28)-SUM(AC9:AC28)</f>
         <v>3</v>
       </c>
-      <c r="AC30" s="98"/>
-      <c r="AD30" s="94">
+      <c r="AC30" s="120"/>
+      <c r="AD30" s="109">
         <f>SUM(AD9:AD28)-SUM(AE9:AE28)</f>
         <v>0</v>
       </c>
-      <c r="AE30" s="94"/>
+      <c r="AE30" s="109"/>
       <c r="AF30" s="20"/>
       <c r="AG30" s="9">
         <f t="shared" si="1"/>
@@ -3710,39 +3713,39 @@
       <c r="AH30" s="21"/>
     </row>
     <row r="31" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="99" t="s">
+      <c r="A31" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="100"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="100"/>
-      <c r="M31" s="100"/>
-      <c r="N31" s="100"/>
-      <c r="O31" s="100"/>
-      <c r="P31" s="100"/>
-      <c r="Q31" s="100"/>
-      <c r="R31" s="100"/>
-      <c r="S31" s="100"/>
-      <c r="T31" s="100"/>
-      <c r="U31" s="100"/>
-      <c r="V31" s="100"/>
-      <c r="W31" s="100"/>
-      <c r="X31" s="100"/>
-      <c r="Y31" s="100"/>
-      <c r="Z31" s="100"/>
-      <c r="AA31" s="100"/>
-      <c r="AB31" s="100"/>
-      <c r="AC31" s="100"/>
-      <c r="AD31" s="100"/>
-      <c r="AE31" s="101"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="122"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="122"/>
+      <c r="M31" s="122"/>
+      <c r="N31" s="122"/>
+      <c r="O31" s="122"/>
+      <c r="P31" s="122"/>
+      <c r="Q31" s="122"/>
+      <c r="R31" s="122"/>
+      <c r="S31" s="122"/>
+      <c r="T31" s="122"/>
+      <c r="U31" s="122"/>
+      <c r="V31" s="122"/>
+      <c r="W31" s="122"/>
+      <c r="X31" s="122"/>
+      <c r="Y31" s="122"/>
+      <c r="Z31" s="122"/>
+      <c r="AA31" s="122"/>
+      <c r="AB31" s="122"/>
+      <c r="AC31" s="122"/>
+      <c r="AD31" s="122"/>
+      <c r="AE31" s="123"/>
       <c r="AF31" s="22">
         <f>SUM(AF9:AF28)</f>
         <v>79</v>
@@ -3754,48 +3757,76 @@
       <c r="AH31" s="23"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="99" t="s">
+      <c r="A32" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="100"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="100"/>
-      <c r="N32" s="100"/>
-      <c r="O32" s="100"/>
-      <c r="P32" s="100"/>
-      <c r="Q32" s="100"/>
-      <c r="R32" s="100"/>
-      <c r="S32" s="100"/>
-      <c r="T32" s="100"/>
-      <c r="U32" s="100"/>
-      <c r="V32" s="100"/>
-      <c r="W32" s="100"/>
-      <c r="X32" s="100"/>
-      <c r="Y32" s="100"/>
-      <c r="Z32" s="100"/>
-      <c r="AA32" s="100"/>
-      <c r="AB32" s="100"/>
-      <c r="AC32" s="100"/>
-      <c r="AD32" s="100"/>
-      <c r="AE32" s="101"/>
-      <c r="AF32" s="92">
+      <c r="B32" s="122"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="122"/>
+      <c r="K32" s="122"/>
+      <c r="L32" s="122"/>
+      <c r="M32" s="122"/>
+      <c r="N32" s="122"/>
+      <c r="O32" s="122"/>
+      <c r="P32" s="122"/>
+      <c r="Q32" s="122"/>
+      <c r="R32" s="122"/>
+      <c r="S32" s="122"/>
+      <c r="T32" s="122"/>
+      <c r="U32" s="122"/>
+      <c r="V32" s="122"/>
+      <c r="W32" s="122"/>
+      <c r="X32" s="122"/>
+      <c r="Y32" s="122"/>
+      <c r="Z32" s="122"/>
+      <c r="AA32" s="122"/>
+      <c r="AB32" s="122"/>
+      <c r="AC32" s="122"/>
+      <c r="AD32" s="122"/>
+      <c r="AE32" s="123"/>
+      <c r="AF32" s="115">
         <f>AG31-AF31</f>
         <v>17</v>
       </c>
-      <c r="AG32" s="93"/>
+      <c r="AG32" s="116"/>
       <c r="AH32" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="A31:AE31"/>
+    <mergeCell ref="A32:AE32"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -3812,34 +3843,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="A31:AE31"/>
-    <mergeCell ref="A32:AE32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3869,11 +3872,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
+      <c r="A1" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
       <c r="D1" s="54"/>
       <c r="E1" s="54"/>
       <c r="F1" s="54"/>
@@ -3909,11 +3912,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
       <c r="F2" s="55"/>
@@ -3949,235 +3952,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="116"/>
-      <c r="U3" s="116"/>
-      <c r="V3" s="116"/>
-      <c r="W3" s="116"/>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="116"/>
-      <c r="AH3" s="116"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="95"/>
+      <c r="V3" s="95"/>
+      <c r="W3" s="95"/>
+      <c r="X3" s="95"/>
+      <c r="Y3" s="95"/>
+      <c r="Z3" s="95"/>
+      <c r="AA3" s="95"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="95"/>
+      <c r="AD3" s="95"/>
+      <c r="AE3" s="95"/>
+      <c r="AF3" s="95"/>
+      <c r="AG3" s="95"/>
+      <c r="AH3" s="95"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="116"/>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="116"/>
-      <c r="AD4" s="116"/>
-      <c r="AE4" s="116"/>
-      <c r="AF4" s="116"/>
-      <c r="AG4" s="116"/>
-      <c r="AH4" s="116"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="95"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="116"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
-      <c r="U5" s="116"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="116"/>
-      <c r="X5" s="116"/>
-      <c r="Y5" s="116"/>
-      <c r="Z5" s="116"/>
-      <c r="AA5" s="116"/>
-      <c r="AB5" s="116"/>
-      <c r="AC5" s="116"/>
-      <c r="AD5" s="116"/>
-      <c r="AE5" s="116"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="95"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="95"/>
+      <c r="AA5" s="95"/>
+      <c r="AB5" s="95"/>
+      <c r="AC5" s="95"/>
+      <c r="AD5" s="95"/>
+      <c r="AE5" s="95"/>
       <c r="AF5" s="56"/>
       <c r="AG5" s="56"/>
       <c r="AH5" s="56"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="118" t="s">
+      <c r="D6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119"/>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="119"/>
-      <c r="T6" s="119"/>
-      <c r="U6" s="119"/>
-      <c r="V6" s="119"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="119"/>
-      <c r="Y6" s="119"/>
-      <c r="Z6" s="119"/>
-      <c r="AA6" s="119"/>
-      <c r="AB6" s="119"/>
-      <c r="AC6" s="119"/>
-      <c r="AD6" s="119"/>
-      <c r="AE6" s="119"/>
-      <c r="AF6" s="119"/>
-      <c r="AG6" s="120"/>
-      <c r="AH6" s="103" t="s">
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="98"/>
+      <c r="R6" s="98"/>
+      <c r="S6" s="98"/>
+      <c r="T6" s="98"/>
+      <c r="U6" s="98"/>
+      <c r="V6" s="98"/>
+      <c r="W6" s="98"/>
+      <c r="X6" s="98"/>
+      <c r="Y6" s="98"/>
+      <c r="Z6" s="98"/>
+      <c r="AA6" s="98"/>
+      <c r="AB6" s="98"/>
+      <c r="AC6" s="98"/>
+      <c r="AD6" s="98"/>
+      <c r="AE6" s="98"/>
+      <c r="AF6" s="98"/>
+      <c r="AG6" s="99"/>
+      <c r="AH6" s="92" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="103"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="121" t="s">
+      <c r="A7" s="92"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="103" t="s">
+      <c r="E7" s="100"/>
+      <c r="F7" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="103"/>
-      <c r="H7" s="122" t="s">
+      <c r="G7" s="92"/>
+      <c r="H7" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="122"/>
-      <c r="J7" s="103" t="s">
+      <c r="I7" s="101"/>
+      <c r="J7" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="103"/>
-      <c r="L7" s="123" t="s">
+      <c r="K7" s="92"/>
+      <c r="L7" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="123"/>
-      <c r="N7" s="103" t="s">
+      <c r="M7" s="102"/>
+      <c r="N7" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="103"/>
-      <c r="P7" s="111" t="s">
+      <c r="O7" s="92"/>
+      <c r="P7" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="103" t="s">
+      <c r="Q7" s="112"/>
+      <c r="R7" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="103"/>
-      <c r="T7" s="112" t="s">
+      <c r="S7" s="92"/>
+      <c r="T7" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="112"/>
-      <c r="V7" s="103" t="s">
+      <c r="U7" s="113"/>
+      <c r="V7" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="103"/>
-      <c r="X7" s="113" t="s">
+      <c r="W7" s="92"/>
+      <c r="X7" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="113"/>
-      <c r="Z7" s="103" t="s">
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="103"/>
-      <c r="AB7" s="102" t="s">
+      <c r="AA7" s="92"/>
+      <c r="AB7" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="102"/>
-      <c r="AD7" s="103" t="s">
+      <c r="AC7" s="103"/>
+      <c r="AD7" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="103"/>
+      <c r="AE7" s="92"/>
       <c r="AF7" s="104" t="s">
         <v>24</v>
       </c>
       <c r="AG7" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="103"/>
+      <c r="AH7" s="92"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="103"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="103"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="57" t="s">
         <v>26</v>
       </c>
@@ -4264,7 +4267,7 @@
       </c>
       <c r="AF8" s="124"/>
       <c r="AG8" s="124"/>
-      <c r="AH8" s="103"/>
+      <c r="AH8" s="92"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -6091,71 +6094,71 @@
         <v>3</v>
       </c>
       <c r="E49" s="108"/>
-      <c r="F49" s="94">
+      <c r="F49" s="109">
         <f>SUM(F9:F48)-SUM(G9:G48)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="94"/>
-      <c r="H49" s="109">
+      <c r="G49" s="109"/>
+      <c r="H49" s="110">
         <f>SUM(H9:H48)-SUM(I9:I48)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="109"/>
-      <c r="J49" s="94">
+      <c r="I49" s="110"/>
+      <c r="J49" s="109">
         <f>SUM(J9:J48)-SUM(K9:K48)</f>
         <v>0</v>
       </c>
-      <c r="K49" s="94"/>
-      <c r="L49" s="110">
+      <c r="K49" s="109"/>
+      <c r="L49" s="111">
         <f>SUM(L9:L48)-SUM(M9:M48)</f>
         <v>0</v>
       </c>
-      <c r="M49" s="110"/>
-      <c r="N49" s="94">
+      <c r="M49" s="111"/>
+      <c r="N49" s="109">
         <f>SUM(N9:N48)-SUM(O9:O48)</f>
         <v>1</v>
       </c>
-      <c r="O49" s="94"/>
-      <c r="P49" s="95">
+      <c r="O49" s="109"/>
+      <c r="P49" s="117">
         <f>SUM(P9:P48)-SUM(Q9:Q48)</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="95"/>
-      <c r="R49" s="94">
+      <c r="Q49" s="117"/>
+      <c r="R49" s="109">
         <f>SUM(R9:R48)-SUM(S9:S48)</f>
         <v>2</v>
       </c>
-      <c r="S49" s="94"/>
-      <c r="T49" s="96">
+      <c r="S49" s="109"/>
+      <c r="T49" s="118">
         <f>SUM(T9:T48)-SUM(U9:U48)</f>
         <v>0</v>
       </c>
-      <c r="U49" s="96"/>
-      <c r="V49" s="94">
+      <c r="U49" s="118"/>
+      <c r="V49" s="109">
         <f>SUM(V9:V48)-SUM(W9:W48)</f>
         <v>0</v>
       </c>
-      <c r="W49" s="94"/>
-      <c r="X49" s="97">
+      <c r="W49" s="109"/>
+      <c r="X49" s="119">
         <f>SUM(X9:X48)-SUM(Y9:Y48)</f>
         <v>4</v>
       </c>
-      <c r="Y49" s="97"/>
-      <c r="Z49" s="94">
+      <c r="Y49" s="119"/>
+      <c r="Z49" s="109">
         <f>SUM(Z9:Z48)-SUM(AA9:AA48)</f>
         <v>3</v>
       </c>
-      <c r="AA49" s="94"/>
-      <c r="AB49" s="98">
+      <c r="AA49" s="109"/>
+      <c r="AB49" s="120">
         <f>SUM(AB9:AB48)-SUM(AC9:AC48)</f>
         <v>3</v>
       </c>
-      <c r="AC49" s="98"/>
-      <c r="AD49" s="94">
+      <c r="AC49" s="120"/>
+      <c r="AD49" s="109">
         <f>SUM(AD9:AD48)-SUM(AE9:AE48)</f>
         <v>0</v>
       </c>
-      <c r="AE49" s="94"/>
+      <c r="AE49" s="109"/>
       <c r="AF49" s="20"/>
       <c r="AG49" s="9">
         <f>D49+F49+H49+J49+L49+N49+P49+R49+T49+V49+X49+Z49+AB49+AD49</f>
@@ -6164,39 +6167,39 @@
       <c r="AH49" s="21"/>
     </row>
     <row r="50" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="99" t="s">
+      <c r="A50" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="100"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="100"/>
-      <c r="E50" s="100"/>
-      <c r="F50" s="100"/>
-      <c r="G50" s="100"/>
-      <c r="H50" s="100"/>
-      <c r="I50" s="100"/>
-      <c r="J50" s="100"/>
-      <c r="K50" s="100"/>
-      <c r="L50" s="100"/>
-      <c r="M50" s="100"/>
-      <c r="N50" s="100"/>
-      <c r="O50" s="100"/>
-      <c r="P50" s="100"/>
-      <c r="Q50" s="100"/>
-      <c r="R50" s="100"/>
-      <c r="S50" s="100"/>
-      <c r="T50" s="100"/>
-      <c r="U50" s="100"/>
-      <c r="V50" s="100"/>
-      <c r="W50" s="100"/>
-      <c r="X50" s="100"/>
-      <c r="Y50" s="100"/>
-      <c r="Z50" s="100"/>
-      <c r="AA50" s="100"/>
-      <c r="AB50" s="100"/>
-      <c r="AC50" s="100"/>
-      <c r="AD50" s="100"/>
-      <c r="AE50" s="101"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="122"/>
+      <c r="E50" s="122"/>
+      <c r="F50" s="122"/>
+      <c r="G50" s="122"/>
+      <c r="H50" s="122"/>
+      <c r="I50" s="122"/>
+      <c r="J50" s="122"/>
+      <c r="K50" s="122"/>
+      <c r="L50" s="122"/>
+      <c r="M50" s="122"/>
+      <c r="N50" s="122"/>
+      <c r="O50" s="122"/>
+      <c r="P50" s="122"/>
+      <c r="Q50" s="122"/>
+      <c r="R50" s="122"/>
+      <c r="S50" s="122"/>
+      <c r="T50" s="122"/>
+      <c r="U50" s="122"/>
+      <c r="V50" s="122"/>
+      <c r="W50" s="122"/>
+      <c r="X50" s="122"/>
+      <c r="Y50" s="122"/>
+      <c r="Z50" s="122"/>
+      <c r="AA50" s="122"/>
+      <c r="AB50" s="122"/>
+      <c r="AC50" s="122"/>
+      <c r="AD50" s="122"/>
+      <c r="AE50" s="123"/>
       <c r="AF50" s="22">
         <f>SUM(AF9:AF48)</f>
         <v>18</v>
@@ -6208,59 +6211,64 @@
       <c r="AH50" s="23"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="99" t="s">
+      <c r="A51" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="100"/>
-      <c r="C51" s="100"/>
-      <c r="D51" s="100"/>
-      <c r="E51" s="100"/>
-      <c r="F51" s="100"/>
-      <c r="G51" s="100"/>
-      <c r="H51" s="100"/>
-      <c r="I51" s="100"/>
-      <c r="J51" s="100"/>
-      <c r="K51" s="100"/>
-      <c r="L51" s="100"/>
-      <c r="M51" s="100"/>
-      <c r="N51" s="100"/>
-      <c r="O51" s="100"/>
-      <c r="P51" s="100"/>
-      <c r="Q51" s="100"/>
-      <c r="R51" s="100"/>
-      <c r="S51" s="100"/>
-      <c r="T51" s="100"/>
-      <c r="U51" s="100"/>
-      <c r="V51" s="100"/>
-      <c r="W51" s="100"/>
-      <c r="X51" s="100"/>
-      <c r="Y51" s="100"/>
-      <c r="Z51" s="100"/>
-      <c r="AA51" s="100"/>
-      <c r="AB51" s="100"/>
-      <c r="AC51" s="100"/>
-      <c r="AD51" s="100"/>
-      <c r="AE51" s="101"/>
-      <c r="AF51" s="92">
+      <c r="B51" s="122"/>
+      <c r="C51" s="122"/>
+      <c r="D51" s="122"/>
+      <c r="E51" s="122"/>
+      <c r="F51" s="122"/>
+      <c r="G51" s="122"/>
+      <c r="H51" s="122"/>
+      <c r="I51" s="122"/>
+      <c r="J51" s="122"/>
+      <c r="K51" s="122"/>
+      <c r="L51" s="122"/>
+      <c r="M51" s="122"/>
+      <c r="N51" s="122"/>
+      <c r="O51" s="122"/>
+      <c r="P51" s="122"/>
+      <c r="Q51" s="122"/>
+      <c r="R51" s="122"/>
+      <c r="S51" s="122"/>
+      <c r="T51" s="122"/>
+      <c r="U51" s="122"/>
+      <c r="V51" s="122"/>
+      <c r="W51" s="122"/>
+      <c r="X51" s="122"/>
+      <c r="Y51" s="122"/>
+      <c r="Z51" s="122"/>
+      <c r="AA51" s="122"/>
+      <c r="AB51" s="122"/>
+      <c r="AC51" s="122"/>
+      <c r="AD51" s="122"/>
+      <c r="AE51" s="123"/>
+      <c r="AF51" s="115">
         <f>AG50-AF50</f>
         <v>16</v>
       </c>
-      <c r="AG51" s="93"/>
+      <c r="AG51" s="116"/>
       <c r="AH51" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AD49:AE49"/>
-    <mergeCell ref="A50:AE50"/>
-    <mergeCell ref="A51:AE51"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AF8"/>
@@ -6277,22 +6285,17 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="A50:AE50"/>
+    <mergeCell ref="A51:AE51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="Z49:AA49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6304,7 +6307,7 @@
   <dimension ref="A1:AH51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6320,11 +6323,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
+      <c r="A1" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
       <c r="D1" s="82"/>
       <c r="E1" s="82"/>
       <c r="F1" s="82"/>
@@ -6360,11 +6363,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
       <c r="D2" s="83"/>
       <c r="E2" s="83"/>
       <c r="F2" s="83"/>
@@ -6400,235 +6403,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="116"/>
-      <c r="U3" s="116"/>
-      <c r="V3" s="116"/>
-      <c r="W3" s="116"/>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="116"/>
-      <c r="AH3" s="116"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="95"/>
+      <c r="V3" s="95"/>
+      <c r="W3" s="95"/>
+      <c r="X3" s="95"/>
+      <c r="Y3" s="95"/>
+      <c r="Z3" s="95"/>
+      <c r="AA3" s="95"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="95"/>
+      <c r="AD3" s="95"/>
+      <c r="AE3" s="95"/>
+      <c r="AF3" s="95"/>
+      <c r="AG3" s="95"/>
+      <c r="AH3" s="95"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="116"/>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="116"/>
-      <c r="AD4" s="116"/>
-      <c r="AE4" s="116"/>
-      <c r="AF4" s="116"/>
-      <c r="AG4" s="116"/>
-      <c r="AH4" s="116"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="95"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="116"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
-      <c r="U5" s="116"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="116"/>
-      <c r="X5" s="116"/>
-      <c r="Y5" s="116"/>
-      <c r="Z5" s="116"/>
-      <c r="AA5" s="116"/>
-      <c r="AB5" s="116"/>
-      <c r="AC5" s="116"/>
-      <c r="AD5" s="116"/>
-      <c r="AE5" s="116"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="95"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="95"/>
+      <c r="AA5" s="95"/>
+      <c r="AB5" s="95"/>
+      <c r="AC5" s="95"/>
+      <c r="AD5" s="95"/>
+      <c r="AE5" s="95"/>
       <c r="AF5" s="84"/>
       <c r="AG5" s="84"/>
       <c r="AH5" s="84"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="118" t="s">
+      <c r="D6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119"/>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="119"/>
-      <c r="T6" s="119"/>
-      <c r="U6" s="119"/>
-      <c r="V6" s="119"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="119"/>
-      <c r="Y6" s="119"/>
-      <c r="Z6" s="119"/>
-      <c r="AA6" s="119"/>
-      <c r="AB6" s="119"/>
-      <c r="AC6" s="119"/>
-      <c r="AD6" s="119"/>
-      <c r="AE6" s="119"/>
-      <c r="AF6" s="119"/>
-      <c r="AG6" s="120"/>
-      <c r="AH6" s="103" t="s">
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="98"/>
+      <c r="R6" s="98"/>
+      <c r="S6" s="98"/>
+      <c r="T6" s="98"/>
+      <c r="U6" s="98"/>
+      <c r="V6" s="98"/>
+      <c r="W6" s="98"/>
+      <c r="X6" s="98"/>
+      <c r="Y6" s="98"/>
+      <c r="Z6" s="98"/>
+      <c r="AA6" s="98"/>
+      <c r="AB6" s="98"/>
+      <c r="AC6" s="98"/>
+      <c r="AD6" s="98"/>
+      <c r="AE6" s="98"/>
+      <c r="AF6" s="98"/>
+      <c r="AG6" s="99"/>
+      <c r="AH6" s="92" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="103"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="121" t="s">
+      <c r="A7" s="92"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="103" t="s">
+      <c r="E7" s="100"/>
+      <c r="F7" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="103"/>
-      <c r="H7" s="122" t="s">
+      <c r="G7" s="92"/>
+      <c r="H7" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="122"/>
-      <c r="J7" s="103" t="s">
+      <c r="I7" s="101"/>
+      <c r="J7" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="103"/>
-      <c r="L7" s="123" t="s">
+      <c r="K7" s="92"/>
+      <c r="L7" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="123"/>
-      <c r="N7" s="103" t="s">
+      <c r="M7" s="102"/>
+      <c r="N7" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="103"/>
-      <c r="P7" s="111" t="s">
+      <c r="O7" s="92"/>
+      <c r="P7" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="103" t="s">
+      <c r="Q7" s="112"/>
+      <c r="R7" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="103"/>
-      <c r="T7" s="112" t="s">
+      <c r="S7" s="92"/>
+      <c r="T7" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="112"/>
-      <c r="V7" s="103" t="s">
+      <c r="U7" s="113"/>
+      <c r="V7" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="103"/>
-      <c r="X7" s="113" t="s">
+      <c r="W7" s="92"/>
+      <c r="X7" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="113"/>
-      <c r="Z7" s="103" t="s">
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="103"/>
-      <c r="AB7" s="102" t="s">
+      <c r="AA7" s="92"/>
+      <c r="AB7" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="102"/>
-      <c r="AD7" s="103" t="s">
+      <c r="AC7" s="103"/>
+      <c r="AD7" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="103"/>
+      <c r="AE7" s="92"/>
       <c r="AF7" s="104" t="s">
         <v>24</v>
       </c>
       <c r="AG7" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="103"/>
+      <c r="AH7" s="92"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="103"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="103"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="85" t="s">
         <v>26</v>
       </c>
@@ -6715,7 +6718,7 @@
       </c>
       <c r="AF8" s="124"/>
       <c r="AG8" s="124"/>
-      <c r="AH8" s="103"/>
+      <c r="AH8" s="92"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
@@ -6777,8 +6780,12 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="13">
+        <v>44019</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="14"/>
@@ -6790,17 +6797,23 @@
       <c r="L10" s="39"/>
       <c r="M10" s="39"/>
       <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
+      <c r="O10" s="14">
+        <v>1</v>
+      </c>
       <c r="P10" s="43"/>
       <c r="Q10" s="43"/>
       <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
+      <c r="S10" s="14">
+        <v>1</v>
+      </c>
       <c r="T10" s="47"/>
       <c r="U10" s="47"/>
       <c r="V10" s="14"/>
       <c r="W10" s="14"/>
       <c r="X10" s="51"/>
-      <c r="Y10" s="51"/>
+      <c r="Y10" s="51">
+        <v>1</v>
+      </c>
       <c r="Z10" s="14"/>
       <c r="AA10" s="14"/>
       <c r="AB10" s="35"/>
@@ -6809,7 +6822,7 @@
       <c r="AE10" s="14"/>
       <c r="AF10" s="14">
         <f t="shared" ref="AF10:AF48" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG10" s="14">
         <f t="shared" ref="AG10:AG48" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
@@ -8460,115 +8473,115 @@
         <v>3</v>
       </c>
       <c r="E49" s="108"/>
-      <c r="F49" s="94">
+      <c r="F49" s="109">
         <f>SUM(F9:F48)-SUM(G9:G48)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="94"/>
-      <c r="H49" s="109">
+      <c r="G49" s="109"/>
+      <c r="H49" s="110">
         <f>SUM(H9:H48)-SUM(I9:I48)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="109"/>
-      <c r="J49" s="94">
+      <c r="I49" s="110"/>
+      <c r="J49" s="109">
         <f>SUM(J9:J48)-SUM(K9:K48)</f>
         <v>0</v>
       </c>
-      <c r="K49" s="94"/>
-      <c r="L49" s="110">
+      <c r="K49" s="109"/>
+      <c r="L49" s="111">
         <f>SUM(L9:L48)-SUM(M9:M48)</f>
         <v>0</v>
       </c>
-      <c r="M49" s="110"/>
-      <c r="N49" s="94">
+      <c r="M49" s="111"/>
+      <c r="N49" s="109">
         <f>SUM(N9:N48)-SUM(O9:O48)</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="109"/>
+      <c r="P49" s="117">
+        <f>SUM(P9:P48)-SUM(Q9:Q48)</f>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="117"/>
+      <c r="R49" s="109">
+        <f>SUM(R9:R48)-SUM(S9:S48)</f>
         <v>1</v>
       </c>
-      <c r="O49" s="94"/>
-      <c r="P49" s="95">
-        <f>SUM(P9:P48)-SUM(Q9:Q48)</f>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="95"/>
-      <c r="R49" s="94">
-        <f>SUM(R9:R48)-SUM(S9:S48)</f>
-        <v>2</v>
-      </c>
-      <c r="S49" s="94"/>
-      <c r="T49" s="96">
+      <c r="S49" s="109"/>
+      <c r="T49" s="118">
         <f>SUM(T9:T48)-SUM(U9:U48)</f>
         <v>0</v>
       </c>
-      <c r="U49" s="96"/>
-      <c r="V49" s="94">
+      <c r="U49" s="118"/>
+      <c r="V49" s="109">
         <f>SUM(V9:V48)-SUM(W9:W48)</f>
         <v>0</v>
       </c>
-      <c r="W49" s="94"/>
-      <c r="X49" s="97">
+      <c r="W49" s="109"/>
+      <c r="X49" s="119">
         <f>SUM(X9:X48)-SUM(Y9:Y48)</f>
-        <v>4</v>
-      </c>
-      <c r="Y49" s="97"/>
-      <c r="Z49" s="94">
+        <v>3</v>
+      </c>
+      <c r="Y49" s="119"/>
+      <c r="Z49" s="109">
         <f>SUM(Z9:Z48)-SUM(AA9:AA48)</f>
         <v>3</v>
       </c>
-      <c r="AA49" s="94"/>
-      <c r="AB49" s="98">
+      <c r="AA49" s="109"/>
+      <c r="AB49" s="120">
         <f>SUM(AB9:AB48)-SUM(AC9:AC48)</f>
         <v>3</v>
       </c>
-      <c r="AC49" s="98"/>
-      <c r="AD49" s="94">
+      <c r="AC49" s="120"/>
+      <c r="AD49" s="109">
         <f>SUM(AD9:AD48)-SUM(AE9:AE48)</f>
         <v>0</v>
       </c>
-      <c r="AE49" s="94"/>
+      <c r="AE49" s="109"/>
       <c r="AF49" s="20"/>
       <c r="AG49" s="9">
         <f>D49+F49+H49+J49+L49+N49+P49+R49+T49+V49+X49+Z49+AB49+AD49</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AH49" s="21"/>
     </row>
     <row r="50" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="99" t="s">
+      <c r="A50" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="100"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="100"/>
-      <c r="E50" s="100"/>
-      <c r="F50" s="100"/>
-      <c r="G50" s="100"/>
-      <c r="H50" s="100"/>
-      <c r="I50" s="100"/>
-      <c r="J50" s="100"/>
-      <c r="K50" s="100"/>
-      <c r="L50" s="100"/>
-      <c r="M50" s="100"/>
-      <c r="N50" s="100"/>
-      <c r="O50" s="100"/>
-      <c r="P50" s="100"/>
-      <c r="Q50" s="100"/>
-      <c r="R50" s="100"/>
-      <c r="S50" s="100"/>
-      <c r="T50" s="100"/>
-      <c r="U50" s="100"/>
-      <c r="V50" s="100"/>
-      <c r="W50" s="100"/>
-      <c r="X50" s="100"/>
-      <c r="Y50" s="100"/>
-      <c r="Z50" s="100"/>
-      <c r="AA50" s="100"/>
-      <c r="AB50" s="100"/>
-      <c r="AC50" s="100"/>
-      <c r="AD50" s="100"/>
-      <c r="AE50" s="101"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="122"/>
+      <c r="E50" s="122"/>
+      <c r="F50" s="122"/>
+      <c r="G50" s="122"/>
+      <c r="H50" s="122"/>
+      <c r="I50" s="122"/>
+      <c r="J50" s="122"/>
+      <c r="K50" s="122"/>
+      <c r="L50" s="122"/>
+      <c r="M50" s="122"/>
+      <c r="N50" s="122"/>
+      <c r="O50" s="122"/>
+      <c r="P50" s="122"/>
+      <c r="Q50" s="122"/>
+      <c r="R50" s="122"/>
+      <c r="S50" s="122"/>
+      <c r="T50" s="122"/>
+      <c r="U50" s="122"/>
+      <c r="V50" s="122"/>
+      <c r="W50" s="122"/>
+      <c r="X50" s="122"/>
+      <c r="Y50" s="122"/>
+      <c r="Z50" s="122"/>
+      <c r="AA50" s="122"/>
+      <c r="AB50" s="122"/>
+      <c r="AC50" s="122"/>
+      <c r="AD50" s="122"/>
+      <c r="AE50" s="123"/>
       <c r="AF50" s="22">
         <f>SUM(AF9:AF48)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG50" s="22">
         <f>SUM(AG9:AG48)</f>
@@ -8577,59 +8590,64 @@
       <c r="AH50" s="23"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="99" t="s">
+      <c r="A51" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="100"/>
-      <c r="C51" s="100"/>
-      <c r="D51" s="100"/>
-      <c r="E51" s="100"/>
-      <c r="F51" s="100"/>
-      <c r="G51" s="100"/>
-      <c r="H51" s="100"/>
-      <c r="I51" s="100"/>
-      <c r="J51" s="100"/>
-      <c r="K51" s="100"/>
-      <c r="L51" s="100"/>
-      <c r="M51" s="100"/>
-      <c r="N51" s="100"/>
-      <c r="O51" s="100"/>
-      <c r="P51" s="100"/>
-      <c r="Q51" s="100"/>
-      <c r="R51" s="100"/>
-      <c r="S51" s="100"/>
-      <c r="T51" s="100"/>
-      <c r="U51" s="100"/>
-      <c r="V51" s="100"/>
-      <c r="W51" s="100"/>
-      <c r="X51" s="100"/>
-      <c r="Y51" s="100"/>
-      <c r="Z51" s="100"/>
-      <c r="AA51" s="100"/>
-      <c r="AB51" s="100"/>
-      <c r="AC51" s="100"/>
-      <c r="AD51" s="100"/>
-      <c r="AE51" s="101"/>
-      <c r="AF51" s="92">
+      <c r="B51" s="122"/>
+      <c r="C51" s="122"/>
+      <c r="D51" s="122"/>
+      <c r="E51" s="122"/>
+      <c r="F51" s="122"/>
+      <c r="G51" s="122"/>
+      <c r="H51" s="122"/>
+      <c r="I51" s="122"/>
+      <c r="J51" s="122"/>
+      <c r="K51" s="122"/>
+      <c r="L51" s="122"/>
+      <c r="M51" s="122"/>
+      <c r="N51" s="122"/>
+      <c r="O51" s="122"/>
+      <c r="P51" s="122"/>
+      <c r="Q51" s="122"/>
+      <c r="R51" s="122"/>
+      <c r="S51" s="122"/>
+      <c r="T51" s="122"/>
+      <c r="U51" s="122"/>
+      <c r="V51" s="122"/>
+      <c r="W51" s="122"/>
+      <c r="X51" s="122"/>
+      <c r="Y51" s="122"/>
+      <c r="Z51" s="122"/>
+      <c r="AA51" s="122"/>
+      <c r="AB51" s="122"/>
+      <c r="AC51" s="122"/>
+      <c r="AD51" s="122"/>
+      <c r="AE51" s="123"/>
+      <c r="AF51" s="115">
         <f>AG50-AF50</f>
-        <v>16</v>
-      </c>
-      <c r="AG51" s="93"/>
+        <v>13</v>
+      </c>
+      <c r="AG51" s="116"/>
       <c r="AH51" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AD49:AE49"/>
-    <mergeCell ref="A50:AE50"/>
-    <mergeCell ref="A51:AE51"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AF8"/>
@@ -8646,22 +8664,17 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="A50:AE50"/>
+    <mergeCell ref="A51:AE51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="Z49:AA49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
@@ -1060,7 +1060,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="62">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1243,6 +1243,9 @@
   </si>
   <si>
     <t>Chị Hồng Nanomilk</t>
+  </si>
+  <si>
+    <t>Hải vui</t>
   </si>
 </sst>
 </file>
@@ -1732,7 +1735,70 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1764,69 +1830,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2156,11 +2159,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
+      <c r="A1" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
       <c r="D1" s="75"/>
       <c r="E1" s="75"/>
       <c r="F1" s="75"/>
@@ -2196,11 +2199,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
       <c r="D2" s="76"/>
       <c r="E2" s="76"/>
       <c r="F2" s="76"/>
@@ -2236,235 +2239,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="95"/>
-      <c r="AD3" s="95"/>
-      <c r="AE3" s="95"/>
-      <c r="AF3" s="95"/>
-      <c r="AG3" s="95"/>
-      <c r="AH3" s="95"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="116"/>
+      <c r="AG3" s="116"/>
+      <c r="AH3" s="116"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="95"/>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="95"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="116"/>
+      <c r="Z4" s="116"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="116"/>
+      <c r="AC4" s="116"/>
+      <c r="AD4" s="116"/>
+      <c r="AE4" s="116"/>
+      <c r="AF4" s="116"/>
+      <c r="AG4" s="116"/>
+      <c r="AH4" s="116"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="95"/>
-      <c r="U5" s="95"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="95"/>
-      <c r="Z5" s="95"/>
-      <c r="AA5" s="95"/>
-      <c r="AB5" s="95"/>
-      <c r="AC5" s="95"/>
-      <c r="AD5" s="95"/>
-      <c r="AE5" s="95"/>
+      <c r="A5" s="116"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116"/>
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="116"/>
+      <c r="AC5" s="116"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="116"/>
       <c r="AF5" s="77"/>
       <c r="AG5" s="77"/>
       <c r="AH5" s="77"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="98"/>
-      <c r="R6" s="98"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="98"/>
-      <c r="V6" s="98"/>
-      <c r="W6" s="98"/>
-      <c r="X6" s="98"/>
-      <c r="Y6" s="98"/>
-      <c r="Z6" s="98"/>
-      <c r="AA6" s="98"/>
-      <c r="AB6" s="98"/>
-      <c r="AC6" s="98"/>
-      <c r="AD6" s="98"/>
-      <c r="AE6" s="98"/>
-      <c r="AF6" s="98"/>
-      <c r="AG6" s="99"/>
-      <c r="AH6" s="92" t="s">
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="119"/>
+      <c r="AC6" s="119"/>
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="119"/>
+      <c r="AF6" s="119"/>
+      <c r="AG6" s="120"/>
+      <c r="AH6" s="103" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="92"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="100" t="s">
+      <c r="A7" s="103"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="92" t="s">
+      <c r="E7" s="121"/>
+      <c r="F7" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="101" t="s">
+      <c r="G7" s="103"/>
+      <c r="H7" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="101"/>
-      <c r="J7" s="92" t="s">
+      <c r="I7" s="122"/>
+      <c r="J7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="92"/>
-      <c r="L7" s="102" t="s">
+      <c r="K7" s="103"/>
+      <c r="L7" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="102"/>
-      <c r="N7" s="92" t="s">
+      <c r="M7" s="123"/>
+      <c r="N7" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="92"/>
-      <c r="P7" s="112" t="s">
+      <c r="O7" s="103"/>
+      <c r="P7" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="92" t="s">
+      <c r="Q7" s="111"/>
+      <c r="R7" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="92"/>
-      <c r="T7" s="113" t="s">
+      <c r="S7" s="103"/>
+      <c r="T7" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="113"/>
-      <c r="V7" s="92" t="s">
+      <c r="U7" s="112"/>
+      <c r="V7" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="92"/>
-      <c r="X7" s="114" t="s">
+      <c r="W7" s="103"/>
+      <c r="X7" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="114"/>
-      <c r="Z7" s="92" t="s">
+      <c r="Y7" s="113"/>
+      <c r="Z7" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="103" t="s">
+      <c r="AA7" s="103"/>
+      <c r="AB7" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="103"/>
-      <c r="AD7" s="92" t="s">
+      <c r="AC7" s="102"/>
+      <c r="AD7" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="92"/>
+      <c r="AE7" s="103"/>
       <c r="AF7" s="104" t="s">
         <v>24</v>
       </c>
       <c r="AG7" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="92"/>
+      <c r="AH7" s="103"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="92"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="92"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="78" t="s">
         <v>26</v>
       </c>
@@ -2551,7 +2554,7 @@
       </c>
       <c r="AF8" s="105"/>
       <c r="AG8" s="105"/>
-      <c r="AH8" s="92"/>
+      <c r="AH8" s="103"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -3640,71 +3643,71 @@
         <v>0</v>
       </c>
       <c r="E30" s="108"/>
-      <c r="F30" s="109">
+      <c r="F30" s="94">
         <f>SUM(F9:F28)-SUM(G9:G28)</f>
         <v>4</v>
       </c>
-      <c r="G30" s="109"/>
-      <c r="H30" s="110">
+      <c r="G30" s="94"/>
+      <c r="H30" s="109">
         <f>SUM(H9:H28)-SUM(I9:I28)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="110"/>
-      <c r="J30" s="109">
+      <c r="I30" s="109"/>
+      <c r="J30" s="94">
         <f>SUM(J9:J28)-SUM(K9:K28)</f>
         <v>1</v>
       </c>
-      <c r="K30" s="109"/>
-      <c r="L30" s="111">
+      <c r="K30" s="94"/>
+      <c r="L30" s="110">
         <f>SUM(L9:L28)-SUM(M9:M28)</f>
         <v>0</v>
       </c>
-      <c r="M30" s="111"/>
-      <c r="N30" s="109">
+      <c r="M30" s="110"/>
+      <c r="N30" s="94">
         <f>SUM(N9:N28)-SUM(O9:O28)</f>
         <v>2</v>
       </c>
-      <c r="O30" s="109"/>
-      <c r="P30" s="117">
+      <c r="O30" s="94"/>
+      <c r="P30" s="95">
         <f>SUM(P9:P28)-SUM(Q9:Q28)</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="117"/>
-      <c r="R30" s="109">
+      <c r="Q30" s="95"/>
+      <c r="R30" s="94">
         <f>SUM(R9:R28)-SUM(S9:S28)</f>
         <v>2</v>
       </c>
-      <c r="S30" s="109"/>
-      <c r="T30" s="118">
+      <c r="S30" s="94"/>
+      <c r="T30" s="96">
         <f>SUM(T9:T28)-SUM(U9:U28)</f>
         <v>0</v>
       </c>
-      <c r="U30" s="118"/>
-      <c r="V30" s="109">
+      <c r="U30" s="96"/>
+      <c r="V30" s="94">
         <f>SUM(V9:V28)-SUM(W9:W28)</f>
         <v>0</v>
       </c>
-      <c r="W30" s="109"/>
-      <c r="X30" s="119">
+      <c r="W30" s="94"/>
+      <c r="X30" s="97">
         <f>SUM(X9:X28)-SUM(Y9:Y28)</f>
         <v>5</v>
       </c>
-      <c r="Y30" s="119"/>
-      <c r="Z30" s="109">
+      <c r="Y30" s="97"/>
+      <c r="Z30" s="94">
         <f>SUM(Z9:Z28)-SUM(AA9:AA28)</f>
         <v>0</v>
       </c>
-      <c r="AA30" s="109"/>
-      <c r="AB30" s="120">
+      <c r="AA30" s="94"/>
+      <c r="AB30" s="98">
         <f>SUM(AB9:AB28)-SUM(AC9:AC28)</f>
         <v>3</v>
       </c>
-      <c r="AC30" s="120"/>
-      <c r="AD30" s="109">
+      <c r="AC30" s="98"/>
+      <c r="AD30" s="94">
         <f>SUM(AD9:AD28)-SUM(AE9:AE28)</f>
         <v>0</v>
       </c>
-      <c r="AE30" s="109"/>
+      <c r="AE30" s="94"/>
       <c r="AF30" s="20"/>
       <c r="AG30" s="9">
         <f t="shared" si="1"/>
@@ -3713,39 +3716,39 @@
       <c r="AH30" s="21"/>
     </row>
     <row r="31" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="121" t="s">
+      <c r="A31" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="122"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="122"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="122"/>
-      <c r="K31" s="122"/>
-      <c r="L31" s="122"/>
-      <c r="M31" s="122"/>
-      <c r="N31" s="122"/>
-      <c r="O31" s="122"/>
-      <c r="P31" s="122"/>
-      <c r="Q31" s="122"/>
-      <c r="R31" s="122"/>
-      <c r="S31" s="122"/>
-      <c r="T31" s="122"/>
-      <c r="U31" s="122"/>
-      <c r="V31" s="122"/>
-      <c r="W31" s="122"/>
-      <c r="X31" s="122"/>
-      <c r="Y31" s="122"/>
-      <c r="Z31" s="122"/>
-      <c r="AA31" s="122"/>
-      <c r="AB31" s="122"/>
-      <c r="AC31" s="122"/>
-      <c r="AD31" s="122"/>
-      <c r="AE31" s="123"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="100"/>
+      <c r="N31" s="100"/>
+      <c r="O31" s="100"/>
+      <c r="P31" s="100"/>
+      <c r="Q31" s="100"/>
+      <c r="R31" s="100"/>
+      <c r="S31" s="100"/>
+      <c r="T31" s="100"/>
+      <c r="U31" s="100"/>
+      <c r="V31" s="100"/>
+      <c r="W31" s="100"/>
+      <c r="X31" s="100"/>
+      <c r="Y31" s="100"/>
+      <c r="Z31" s="100"/>
+      <c r="AA31" s="100"/>
+      <c r="AB31" s="100"/>
+      <c r="AC31" s="100"/>
+      <c r="AD31" s="100"/>
+      <c r="AE31" s="101"/>
       <c r="AF31" s="22">
         <f>SUM(AF9:AF28)</f>
         <v>79</v>
@@ -3757,60 +3760,64 @@
       <c r="AH31" s="23"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="121" t="s">
+      <c r="A32" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="122"/>
-      <c r="C32" s="122"/>
-      <c r="D32" s="122"/>
-      <c r="E32" s="122"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="122"/>
-      <c r="H32" s="122"/>
-      <c r="I32" s="122"/>
-      <c r="J32" s="122"/>
-      <c r="K32" s="122"/>
-      <c r="L32" s="122"/>
-      <c r="M32" s="122"/>
-      <c r="N32" s="122"/>
-      <c r="O32" s="122"/>
-      <c r="P32" s="122"/>
-      <c r="Q32" s="122"/>
-      <c r="R32" s="122"/>
-      <c r="S32" s="122"/>
-      <c r="T32" s="122"/>
-      <c r="U32" s="122"/>
-      <c r="V32" s="122"/>
-      <c r="W32" s="122"/>
-      <c r="X32" s="122"/>
-      <c r="Y32" s="122"/>
-      <c r="Z32" s="122"/>
-      <c r="AA32" s="122"/>
-      <c r="AB32" s="122"/>
-      <c r="AC32" s="122"/>
-      <c r="AD32" s="122"/>
-      <c r="AE32" s="123"/>
-      <c r="AF32" s="115">
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="100"/>
+      <c r="Q32" s="100"/>
+      <c r="R32" s="100"/>
+      <c r="S32" s="100"/>
+      <c r="T32" s="100"/>
+      <c r="U32" s="100"/>
+      <c r="V32" s="100"/>
+      <c r="W32" s="100"/>
+      <c r="X32" s="100"/>
+      <c r="Y32" s="100"/>
+      <c r="Z32" s="100"/>
+      <c r="AA32" s="100"/>
+      <c r="AB32" s="100"/>
+      <c r="AC32" s="100"/>
+      <c r="AD32" s="100"/>
+      <c r="AE32" s="101"/>
+      <c r="AF32" s="92">
         <f>AG31-AF31</f>
         <v>17</v>
       </c>
-      <c r="AG32" s="116"/>
+      <c r="AG32" s="93"/>
       <c r="AH32" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="A31:AE31"/>
-    <mergeCell ref="A32:AE32"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AF8"/>
@@ -3827,22 +3834,18 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="A31:AE31"/>
+    <mergeCell ref="A32:AE32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3872,11 +3875,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
+      <c r="A1" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
       <c r="D1" s="54"/>
       <c r="E1" s="54"/>
       <c r="F1" s="54"/>
@@ -3912,11 +3915,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
       <c r="F2" s="55"/>
@@ -3952,235 +3955,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="95"/>
-      <c r="AD3" s="95"/>
-      <c r="AE3" s="95"/>
-      <c r="AF3" s="95"/>
-      <c r="AG3" s="95"/>
-      <c r="AH3" s="95"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="116"/>
+      <c r="AG3" s="116"/>
+      <c r="AH3" s="116"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="95"/>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="95"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="116"/>
+      <c r="Z4" s="116"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="116"/>
+      <c r="AC4" s="116"/>
+      <c r="AD4" s="116"/>
+      <c r="AE4" s="116"/>
+      <c r="AF4" s="116"/>
+      <c r="AG4" s="116"/>
+      <c r="AH4" s="116"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="95"/>
-      <c r="U5" s="95"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="95"/>
-      <c r="Z5" s="95"/>
-      <c r="AA5" s="95"/>
-      <c r="AB5" s="95"/>
-      <c r="AC5" s="95"/>
-      <c r="AD5" s="95"/>
-      <c r="AE5" s="95"/>
+      <c r="A5" s="116"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116"/>
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="116"/>
+      <c r="AC5" s="116"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="116"/>
       <c r="AF5" s="56"/>
       <c r="AG5" s="56"/>
       <c r="AH5" s="56"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="98"/>
-      <c r="R6" s="98"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="98"/>
-      <c r="V6" s="98"/>
-      <c r="W6" s="98"/>
-      <c r="X6" s="98"/>
-      <c r="Y6" s="98"/>
-      <c r="Z6" s="98"/>
-      <c r="AA6" s="98"/>
-      <c r="AB6" s="98"/>
-      <c r="AC6" s="98"/>
-      <c r="AD6" s="98"/>
-      <c r="AE6" s="98"/>
-      <c r="AF6" s="98"/>
-      <c r="AG6" s="99"/>
-      <c r="AH6" s="92" t="s">
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="119"/>
+      <c r="AC6" s="119"/>
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="119"/>
+      <c r="AF6" s="119"/>
+      <c r="AG6" s="120"/>
+      <c r="AH6" s="103" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="92"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="100" t="s">
+      <c r="A7" s="103"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="92" t="s">
+      <c r="E7" s="121"/>
+      <c r="F7" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="101" t="s">
+      <c r="G7" s="103"/>
+      <c r="H7" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="101"/>
-      <c r="J7" s="92" t="s">
+      <c r="I7" s="122"/>
+      <c r="J7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="92"/>
-      <c r="L7" s="102" t="s">
+      <c r="K7" s="103"/>
+      <c r="L7" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="102"/>
-      <c r="N7" s="92" t="s">
+      <c r="M7" s="123"/>
+      <c r="N7" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="92"/>
-      <c r="P7" s="112" t="s">
+      <c r="O7" s="103"/>
+      <c r="P7" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="92" t="s">
+      <c r="Q7" s="111"/>
+      <c r="R7" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="92"/>
-      <c r="T7" s="113" t="s">
+      <c r="S7" s="103"/>
+      <c r="T7" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="113"/>
-      <c r="V7" s="92" t="s">
+      <c r="U7" s="112"/>
+      <c r="V7" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="92"/>
-      <c r="X7" s="114" t="s">
+      <c r="W7" s="103"/>
+      <c r="X7" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="114"/>
-      <c r="Z7" s="92" t="s">
+      <c r="Y7" s="113"/>
+      <c r="Z7" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="103" t="s">
+      <c r="AA7" s="103"/>
+      <c r="AB7" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="103"/>
-      <c r="AD7" s="92" t="s">
+      <c r="AC7" s="102"/>
+      <c r="AD7" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="92"/>
+      <c r="AE7" s="103"/>
       <c r="AF7" s="104" t="s">
         <v>24</v>
       </c>
       <c r="AG7" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="92"/>
+      <c r="AH7" s="103"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="92"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="92"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="57" t="s">
         <v>26</v>
       </c>
@@ -4267,7 +4270,7 @@
       </c>
       <c r="AF8" s="124"/>
       <c r="AG8" s="124"/>
-      <c r="AH8" s="92"/>
+      <c r="AH8" s="103"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -6094,71 +6097,71 @@
         <v>3</v>
       </c>
       <c r="E49" s="108"/>
-      <c r="F49" s="109">
+      <c r="F49" s="94">
         <f>SUM(F9:F48)-SUM(G9:G48)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="109"/>
-      <c r="H49" s="110">
+      <c r="G49" s="94"/>
+      <c r="H49" s="109">
         <f>SUM(H9:H48)-SUM(I9:I48)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="110"/>
-      <c r="J49" s="109">
+      <c r="I49" s="109"/>
+      <c r="J49" s="94">
         <f>SUM(J9:J48)-SUM(K9:K48)</f>
         <v>0</v>
       </c>
-      <c r="K49" s="109"/>
-      <c r="L49" s="111">
+      <c r="K49" s="94"/>
+      <c r="L49" s="110">
         <f>SUM(L9:L48)-SUM(M9:M48)</f>
         <v>0</v>
       </c>
-      <c r="M49" s="111"/>
-      <c r="N49" s="109">
+      <c r="M49" s="110"/>
+      <c r="N49" s="94">
         <f>SUM(N9:N48)-SUM(O9:O48)</f>
         <v>1</v>
       </c>
-      <c r="O49" s="109"/>
-      <c r="P49" s="117">
+      <c r="O49" s="94"/>
+      <c r="P49" s="95">
         <f>SUM(P9:P48)-SUM(Q9:Q48)</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="117"/>
-      <c r="R49" s="109">
+      <c r="Q49" s="95"/>
+      <c r="R49" s="94">
         <f>SUM(R9:R48)-SUM(S9:S48)</f>
         <v>2</v>
       </c>
-      <c r="S49" s="109"/>
-      <c r="T49" s="118">
+      <c r="S49" s="94"/>
+      <c r="T49" s="96">
         <f>SUM(T9:T48)-SUM(U9:U48)</f>
         <v>0</v>
       </c>
-      <c r="U49" s="118"/>
-      <c r="V49" s="109">
+      <c r="U49" s="96"/>
+      <c r="V49" s="94">
         <f>SUM(V9:V48)-SUM(W9:W48)</f>
         <v>0</v>
       </c>
-      <c r="W49" s="109"/>
-      <c r="X49" s="119">
+      <c r="W49" s="94"/>
+      <c r="X49" s="97">
         <f>SUM(X9:X48)-SUM(Y9:Y48)</f>
         <v>4</v>
       </c>
-      <c r="Y49" s="119"/>
-      <c r="Z49" s="109">
+      <c r="Y49" s="97"/>
+      <c r="Z49" s="94">
         <f>SUM(Z9:Z48)-SUM(AA9:AA48)</f>
         <v>3</v>
       </c>
-      <c r="AA49" s="109"/>
-      <c r="AB49" s="120">
+      <c r="AA49" s="94"/>
+      <c r="AB49" s="98">
         <f>SUM(AB9:AB48)-SUM(AC9:AC48)</f>
         <v>3</v>
       </c>
-      <c r="AC49" s="120"/>
-      <c r="AD49" s="109">
+      <c r="AC49" s="98"/>
+      <c r="AD49" s="94">
         <f>SUM(AD9:AD48)-SUM(AE9:AE48)</f>
         <v>0</v>
       </c>
-      <c r="AE49" s="109"/>
+      <c r="AE49" s="94"/>
       <c r="AF49" s="20"/>
       <c r="AG49" s="9">
         <f>D49+F49+H49+J49+L49+N49+P49+R49+T49+V49+X49+Z49+AB49+AD49</f>
@@ -6167,39 +6170,39 @@
       <c r="AH49" s="21"/>
     </row>
     <row r="50" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="121" t="s">
+      <c r="A50" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="122"/>
-      <c r="C50" s="122"/>
-      <c r="D50" s="122"/>
-      <c r="E50" s="122"/>
-      <c r="F50" s="122"/>
-      <c r="G50" s="122"/>
-      <c r="H50" s="122"/>
-      <c r="I50" s="122"/>
-      <c r="J50" s="122"/>
-      <c r="K50" s="122"/>
-      <c r="L50" s="122"/>
-      <c r="M50" s="122"/>
-      <c r="N50" s="122"/>
-      <c r="O50" s="122"/>
-      <c r="P50" s="122"/>
-      <c r="Q50" s="122"/>
-      <c r="R50" s="122"/>
-      <c r="S50" s="122"/>
-      <c r="T50" s="122"/>
-      <c r="U50" s="122"/>
-      <c r="V50" s="122"/>
-      <c r="W50" s="122"/>
-      <c r="X50" s="122"/>
-      <c r="Y50" s="122"/>
-      <c r="Z50" s="122"/>
-      <c r="AA50" s="122"/>
-      <c r="AB50" s="122"/>
-      <c r="AC50" s="122"/>
-      <c r="AD50" s="122"/>
-      <c r="AE50" s="123"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="100"/>
+      <c r="K50" s="100"/>
+      <c r="L50" s="100"/>
+      <c r="M50" s="100"/>
+      <c r="N50" s="100"/>
+      <c r="O50" s="100"/>
+      <c r="P50" s="100"/>
+      <c r="Q50" s="100"/>
+      <c r="R50" s="100"/>
+      <c r="S50" s="100"/>
+      <c r="T50" s="100"/>
+      <c r="U50" s="100"/>
+      <c r="V50" s="100"/>
+      <c r="W50" s="100"/>
+      <c r="X50" s="100"/>
+      <c r="Y50" s="100"/>
+      <c r="Z50" s="100"/>
+      <c r="AA50" s="100"/>
+      <c r="AB50" s="100"/>
+      <c r="AC50" s="100"/>
+      <c r="AD50" s="100"/>
+      <c r="AE50" s="101"/>
       <c r="AF50" s="22">
         <f>SUM(AF9:AF48)</f>
         <v>18</v>
@@ -6211,48 +6214,75 @@
       <c r="AH50" s="23"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="121" t="s">
+      <c r="A51" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="122"/>
-      <c r="C51" s="122"/>
-      <c r="D51" s="122"/>
-      <c r="E51" s="122"/>
-      <c r="F51" s="122"/>
-      <c r="G51" s="122"/>
-      <c r="H51" s="122"/>
-      <c r="I51" s="122"/>
-      <c r="J51" s="122"/>
-      <c r="K51" s="122"/>
-      <c r="L51" s="122"/>
-      <c r="M51" s="122"/>
-      <c r="N51" s="122"/>
-      <c r="O51" s="122"/>
-      <c r="P51" s="122"/>
-      <c r="Q51" s="122"/>
-      <c r="R51" s="122"/>
-      <c r="S51" s="122"/>
-      <c r="T51" s="122"/>
-      <c r="U51" s="122"/>
-      <c r="V51" s="122"/>
-      <c r="W51" s="122"/>
-      <c r="X51" s="122"/>
-      <c r="Y51" s="122"/>
-      <c r="Z51" s="122"/>
-      <c r="AA51" s="122"/>
-      <c r="AB51" s="122"/>
-      <c r="AC51" s="122"/>
-      <c r="AD51" s="122"/>
-      <c r="AE51" s="123"/>
-      <c r="AF51" s="115">
+      <c r="B51" s="100"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="100"/>
+      <c r="J51" s="100"/>
+      <c r="K51" s="100"/>
+      <c r="L51" s="100"/>
+      <c r="M51" s="100"/>
+      <c r="N51" s="100"/>
+      <c r="O51" s="100"/>
+      <c r="P51" s="100"/>
+      <c r="Q51" s="100"/>
+      <c r="R51" s="100"/>
+      <c r="S51" s="100"/>
+      <c r="T51" s="100"/>
+      <c r="U51" s="100"/>
+      <c r="V51" s="100"/>
+      <c r="W51" s="100"/>
+      <c r="X51" s="100"/>
+      <c r="Y51" s="100"/>
+      <c r="Z51" s="100"/>
+      <c r="AA51" s="100"/>
+      <c r="AB51" s="100"/>
+      <c r="AC51" s="100"/>
+      <c r="AD51" s="100"/>
+      <c r="AE51" s="101"/>
+      <c r="AF51" s="92">
         <f>AG50-AF50</f>
         <v>16</v>
       </c>
-      <c r="AG51" s="116"/>
+      <c r="AG51" s="93"/>
       <c r="AH51" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="A50:AE50"/>
+    <mergeCell ref="A51:AE51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -6269,33 +6299,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AD49:AE49"/>
-    <mergeCell ref="A50:AE50"/>
-    <mergeCell ref="A51:AE51"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="Z49:AA49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6307,7 +6310,7 @@
   <dimension ref="A1:AH51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6323,11 +6326,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
+      <c r="A1" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
       <c r="D1" s="82"/>
       <c r="E1" s="82"/>
       <c r="F1" s="82"/>
@@ -6363,11 +6366,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
       <c r="D2" s="83"/>
       <c r="E2" s="83"/>
       <c r="F2" s="83"/>
@@ -6403,235 +6406,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="95"/>
-      <c r="AD3" s="95"/>
-      <c r="AE3" s="95"/>
-      <c r="AF3" s="95"/>
-      <c r="AG3" s="95"/>
-      <c r="AH3" s="95"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="116"/>
+      <c r="AG3" s="116"/>
+      <c r="AH3" s="116"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="95"/>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="95"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="116"/>
+      <c r="Z4" s="116"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="116"/>
+      <c r="AC4" s="116"/>
+      <c r="AD4" s="116"/>
+      <c r="AE4" s="116"/>
+      <c r="AF4" s="116"/>
+      <c r="AG4" s="116"/>
+      <c r="AH4" s="116"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="95"/>
-      <c r="U5" s="95"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="95"/>
-      <c r="Z5" s="95"/>
-      <c r="AA5" s="95"/>
-      <c r="AB5" s="95"/>
-      <c r="AC5" s="95"/>
-      <c r="AD5" s="95"/>
-      <c r="AE5" s="95"/>
+      <c r="A5" s="116"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116"/>
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="116"/>
+      <c r="AC5" s="116"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="116"/>
       <c r="AF5" s="84"/>
       <c r="AG5" s="84"/>
       <c r="AH5" s="84"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="98"/>
-      <c r="R6" s="98"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="98"/>
-      <c r="V6" s="98"/>
-      <c r="W6" s="98"/>
-      <c r="X6" s="98"/>
-      <c r="Y6" s="98"/>
-      <c r="Z6" s="98"/>
-      <c r="AA6" s="98"/>
-      <c r="AB6" s="98"/>
-      <c r="AC6" s="98"/>
-      <c r="AD6" s="98"/>
-      <c r="AE6" s="98"/>
-      <c r="AF6" s="98"/>
-      <c r="AG6" s="99"/>
-      <c r="AH6" s="92" t="s">
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="119"/>
+      <c r="AC6" s="119"/>
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="119"/>
+      <c r="AF6" s="119"/>
+      <c r="AG6" s="120"/>
+      <c r="AH6" s="103" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="92"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="100" t="s">
+      <c r="A7" s="103"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="92" t="s">
+      <c r="E7" s="121"/>
+      <c r="F7" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="101" t="s">
+      <c r="G7" s="103"/>
+      <c r="H7" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="101"/>
-      <c r="J7" s="92" t="s">
+      <c r="I7" s="122"/>
+      <c r="J7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="92"/>
-      <c r="L7" s="102" t="s">
+      <c r="K7" s="103"/>
+      <c r="L7" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="102"/>
-      <c r="N7" s="92" t="s">
+      <c r="M7" s="123"/>
+      <c r="N7" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="92"/>
-      <c r="P7" s="112" t="s">
+      <c r="O7" s="103"/>
+      <c r="P7" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="92" t="s">
+      <c r="Q7" s="111"/>
+      <c r="R7" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="92"/>
-      <c r="T7" s="113" t="s">
+      <c r="S7" s="103"/>
+      <c r="T7" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="113"/>
-      <c r="V7" s="92" t="s">
+      <c r="U7" s="112"/>
+      <c r="V7" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="92"/>
-      <c r="X7" s="114" t="s">
+      <c r="W7" s="103"/>
+      <c r="X7" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="114"/>
-      <c r="Z7" s="92" t="s">
+      <c r="Y7" s="113"/>
+      <c r="Z7" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="103" t="s">
+      <c r="AA7" s="103"/>
+      <c r="AB7" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="103"/>
-      <c r="AD7" s="92" t="s">
+      <c r="AC7" s="102"/>
+      <c r="AD7" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="92"/>
+      <c r="AE7" s="103"/>
       <c r="AF7" s="104" t="s">
         <v>24</v>
       </c>
       <c r="AG7" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="92"/>
+      <c r="AH7" s="103"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="92"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="92"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="85" t="s">
         <v>26</v>
       </c>
@@ -6718,7 +6721,7 @@
       </c>
       <c r="AF8" s="124"/>
       <c r="AG8" s="124"/>
-      <c r="AH8" s="92"/>
+      <c r="AH8" s="103"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
@@ -6832,10 +6835,16 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="13">
+        <v>44021</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
+      <c r="E11" s="27">
+        <v>3</v>
+      </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="31"/>
@@ -6864,7 +6873,7 @@
       <c r="AE11" s="14"/>
       <c r="AF11" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG11" s="14">
         <f t="shared" si="1"/>
@@ -8470,118 +8479,118 @@
       <c r="C49" s="19"/>
       <c r="D49" s="108">
         <f>SUM(D9:D48)-SUM(E9:E48)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E49" s="108"/>
-      <c r="F49" s="109">
+      <c r="F49" s="94">
         <f>SUM(F9:F48)-SUM(G9:G48)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="109"/>
-      <c r="H49" s="110">
+      <c r="G49" s="94"/>
+      <c r="H49" s="109">
         <f>SUM(H9:H48)-SUM(I9:I48)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="110"/>
-      <c r="J49" s="109">
+      <c r="I49" s="109"/>
+      <c r="J49" s="94">
         <f>SUM(J9:J48)-SUM(K9:K48)</f>
         <v>0</v>
       </c>
-      <c r="K49" s="109"/>
-      <c r="L49" s="111">
+      <c r="K49" s="94"/>
+      <c r="L49" s="110">
         <f>SUM(L9:L48)-SUM(M9:M48)</f>
         <v>0</v>
       </c>
-      <c r="M49" s="111"/>
-      <c r="N49" s="109">
+      <c r="M49" s="110"/>
+      <c r="N49" s="94">
         <f>SUM(N9:N48)-SUM(O9:O48)</f>
         <v>0</v>
       </c>
-      <c r="O49" s="109"/>
-      <c r="P49" s="117">
+      <c r="O49" s="94"/>
+      <c r="P49" s="95">
         <f>SUM(P9:P48)-SUM(Q9:Q48)</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="117"/>
-      <c r="R49" s="109">
+      <c r="Q49" s="95"/>
+      <c r="R49" s="94">
         <f>SUM(R9:R48)-SUM(S9:S48)</f>
         <v>1</v>
       </c>
-      <c r="S49" s="109"/>
-      <c r="T49" s="118">
+      <c r="S49" s="94"/>
+      <c r="T49" s="96">
         <f>SUM(T9:T48)-SUM(U9:U48)</f>
         <v>0</v>
       </c>
-      <c r="U49" s="118"/>
-      <c r="V49" s="109">
+      <c r="U49" s="96"/>
+      <c r="V49" s="94">
         <f>SUM(V9:V48)-SUM(W9:W48)</f>
         <v>0</v>
       </c>
-      <c r="W49" s="109"/>
-      <c r="X49" s="119">
+      <c r="W49" s="94"/>
+      <c r="X49" s="97">
         <f>SUM(X9:X48)-SUM(Y9:Y48)</f>
         <v>3</v>
       </c>
-      <c r="Y49" s="119"/>
-      <c r="Z49" s="109">
+      <c r="Y49" s="97"/>
+      <c r="Z49" s="94">
         <f>SUM(Z9:Z48)-SUM(AA9:AA48)</f>
         <v>3</v>
       </c>
-      <c r="AA49" s="109"/>
-      <c r="AB49" s="120">
+      <c r="AA49" s="94"/>
+      <c r="AB49" s="98">
         <f>SUM(AB9:AB48)-SUM(AC9:AC48)</f>
         <v>3</v>
       </c>
-      <c r="AC49" s="120"/>
-      <c r="AD49" s="109">
+      <c r="AC49" s="98"/>
+      <c r="AD49" s="94">
         <f>SUM(AD9:AD48)-SUM(AE9:AE48)</f>
         <v>0</v>
       </c>
-      <c r="AE49" s="109"/>
+      <c r="AE49" s="94"/>
       <c r="AF49" s="20"/>
       <c r="AG49" s="9">
         <f>D49+F49+H49+J49+L49+N49+P49+R49+T49+V49+X49+Z49+AB49+AD49</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AH49" s="21"/>
     </row>
     <row r="50" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="121" t="s">
+      <c r="A50" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="122"/>
-      <c r="C50" s="122"/>
-      <c r="D50" s="122"/>
-      <c r="E50" s="122"/>
-      <c r="F50" s="122"/>
-      <c r="G50" s="122"/>
-      <c r="H50" s="122"/>
-      <c r="I50" s="122"/>
-      <c r="J50" s="122"/>
-      <c r="K50" s="122"/>
-      <c r="L50" s="122"/>
-      <c r="M50" s="122"/>
-      <c r="N50" s="122"/>
-      <c r="O50" s="122"/>
-      <c r="P50" s="122"/>
-      <c r="Q50" s="122"/>
-      <c r="R50" s="122"/>
-      <c r="S50" s="122"/>
-      <c r="T50" s="122"/>
-      <c r="U50" s="122"/>
-      <c r="V50" s="122"/>
-      <c r="W50" s="122"/>
-      <c r="X50" s="122"/>
-      <c r="Y50" s="122"/>
-      <c r="Z50" s="122"/>
-      <c r="AA50" s="122"/>
-      <c r="AB50" s="122"/>
-      <c r="AC50" s="122"/>
-      <c r="AD50" s="122"/>
-      <c r="AE50" s="123"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="100"/>
+      <c r="K50" s="100"/>
+      <c r="L50" s="100"/>
+      <c r="M50" s="100"/>
+      <c r="N50" s="100"/>
+      <c r="O50" s="100"/>
+      <c r="P50" s="100"/>
+      <c r="Q50" s="100"/>
+      <c r="R50" s="100"/>
+      <c r="S50" s="100"/>
+      <c r="T50" s="100"/>
+      <c r="U50" s="100"/>
+      <c r="V50" s="100"/>
+      <c r="W50" s="100"/>
+      <c r="X50" s="100"/>
+      <c r="Y50" s="100"/>
+      <c r="Z50" s="100"/>
+      <c r="AA50" s="100"/>
+      <c r="AB50" s="100"/>
+      <c r="AC50" s="100"/>
+      <c r="AD50" s="100"/>
+      <c r="AE50" s="101"/>
       <c r="AF50" s="22">
         <f>SUM(AF9:AF48)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AG50" s="22">
         <f>SUM(AG9:AG48)</f>
@@ -8590,48 +8599,75 @@
       <c r="AH50" s="23"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="121" t="s">
+      <c r="A51" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="122"/>
-      <c r="C51" s="122"/>
-      <c r="D51" s="122"/>
-      <c r="E51" s="122"/>
-      <c r="F51" s="122"/>
-      <c r="G51" s="122"/>
-      <c r="H51" s="122"/>
-      <c r="I51" s="122"/>
-      <c r="J51" s="122"/>
-      <c r="K51" s="122"/>
-      <c r="L51" s="122"/>
-      <c r="M51" s="122"/>
-      <c r="N51" s="122"/>
-      <c r="O51" s="122"/>
-      <c r="P51" s="122"/>
-      <c r="Q51" s="122"/>
-      <c r="R51" s="122"/>
-      <c r="S51" s="122"/>
-      <c r="T51" s="122"/>
-      <c r="U51" s="122"/>
-      <c r="V51" s="122"/>
-      <c r="W51" s="122"/>
-      <c r="X51" s="122"/>
-      <c r="Y51" s="122"/>
-      <c r="Z51" s="122"/>
-      <c r="AA51" s="122"/>
-      <c r="AB51" s="122"/>
-      <c r="AC51" s="122"/>
-      <c r="AD51" s="122"/>
-      <c r="AE51" s="123"/>
-      <c r="AF51" s="115">
+      <c r="B51" s="100"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="100"/>
+      <c r="J51" s="100"/>
+      <c r="K51" s="100"/>
+      <c r="L51" s="100"/>
+      <c r="M51" s="100"/>
+      <c r="N51" s="100"/>
+      <c r="O51" s="100"/>
+      <c r="P51" s="100"/>
+      <c r="Q51" s="100"/>
+      <c r="R51" s="100"/>
+      <c r="S51" s="100"/>
+      <c r="T51" s="100"/>
+      <c r="U51" s="100"/>
+      <c r="V51" s="100"/>
+      <c r="W51" s="100"/>
+      <c r="X51" s="100"/>
+      <c r="Y51" s="100"/>
+      <c r="Z51" s="100"/>
+      <c r="AA51" s="100"/>
+      <c r="AB51" s="100"/>
+      <c r="AC51" s="100"/>
+      <c r="AD51" s="100"/>
+      <c r="AE51" s="101"/>
+      <c r="AF51" s="92">
         <f>AG50-AF50</f>
-        <v>13</v>
-      </c>
-      <c r="AG51" s="116"/>
+        <v>10</v>
+      </c>
+      <c r="AG51" s="93"/>
       <c r="AH51" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="A50:AE50"/>
+    <mergeCell ref="A51:AE51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -8648,33 +8684,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AD49:AE49"/>
-    <mergeCell ref="A50:AE50"/>
-    <mergeCell ref="A51:AE51"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="Z49:AA49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
@@ -1060,7 +1060,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="63">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1246,6 +1246,9 @@
   </si>
   <si>
     <t>Hải vui</t>
+  </si>
+  <si>
+    <t>Xuất Quỳnh trang nhập đơn anh giáp</t>
   </si>
 </sst>
 </file>
@@ -1735,70 +1738,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1830,6 +1770,69 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2159,11 +2162,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
+      <c r="A1" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
       <c r="D1" s="75"/>
       <c r="E1" s="75"/>
       <c r="F1" s="75"/>
@@ -2199,11 +2202,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
       <c r="D2" s="76"/>
       <c r="E2" s="76"/>
       <c r="F2" s="76"/>
@@ -2239,235 +2242,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="116"/>
-      <c r="U3" s="116"/>
-      <c r="V3" s="116"/>
-      <c r="W3" s="116"/>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="116"/>
-      <c r="AH3" s="116"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="95"/>
+      <c r="V3" s="95"/>
+      <c r="W3" s="95"/>
+      <c r="X3" s="95"/>
+      <c r="Y3" s="95"/>
+      <c r="Z3" s="95"/>
+      <c r="AA3" s="95"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="95"/>
+      <c r="AD3" s="95"/>
+      <c r="AE3" s="95"/>
+      <c r="AF3" s="95"/>
+      <c r="AG3" s="95"/>
+      <c r="AH3" s="95"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="116"/>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="116"/>
-      <c r="AD4" s="116"/>
-      <c r="AE4" s="116"/>
-      <c r="AF4" s="116"/>
-      <c r="AG4" s="116"/>
-      <c r="AH4" s="116"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="95"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="116"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
-      <c r="U5" s="116"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="116"/>
-      <c r="X5" s="116"/>
-      <c r="Y5" s="116"/>
-      <c r="Z5" s="116"/>
-      <c r="AA5" s="116"/>
-      <c r="AB5" s="116"/>
-      <c r="AC5" s="116"/>
-      <c r="AD5" s="116"/>
-      <c r="AE5" s="116"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="95"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="95"/>
+      <c r="AA5" s="95"/>
+      <c r="AB5" s="95"/>
+      <c r="AC5" s="95"/>
+      <c r="AD5" s="95"/>
+      <c r="AE5" s="95"/>
       <c r="AF5" s="77"/>
       <c r="AG5" s="77"/>
       <c r="AH5" s="77"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="118" t="s">
+      <c r="D6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119"/>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="119"/>
-      <c r="T6" s="119"/>
-      <c r="U6" s="119"/>
-      <c r="V6" s="119"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="119"/>
-      <c r="Y6" s="119"/>
-      <c r="Z6" s="119"/>
-      <c r="AA6" s="119"/>
-      <c r="AB6" s="119"/>
-      <c r="AC6" s="119"/>
-      <c r="AD6" s="119"/>
-      <c r="AE6" s="119"/>
-      <c r="AF6" s="119"/>
-      <c r="AG6" s="120"/>
-      <c r="AH6" s="103" t="s">
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="98"/>
+      <c r="R6" s="98"/>
+      <c r="S6" s="98"/>
+      <c r="T6" s="98"/>
+      <c r="U6" s="98"/>
+      <c r="V6" s="98"/>
+      <c r="W6" s="98"/>
+      <c r="X6" s="98"/>
+      <c r="Y6" s="98"/>
+      <c r="Z6" s="98"/>
+      <c r="AA6" s="98"/>
+      <c r="AB6" s="98"/>
+      <c r="AC6" s="98"/>
+      <c r="AD6" s="98"/>
+      <c r="AE6" s="98"/>
+      <c r="AF6" s="98"/>
+      <c r="AG6" s="99"/>
+      <c r="AH6" s="92" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="103"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="121" t="s">
+      <c r="A7" s="92"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="103" t="s">
+      <c r="E7" s="100"/>
+      <c r="F7" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="103"/>
-      <c r="H7" s="122" t="s">
+      <c r="G7" s="92"/>
+      <c r="H7" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="122"/>
-      <c r="J7" s="103" t="s">
+      <c r="I7" s="101"/>
+      <c r="J7" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="103"/>
-      <c r="L7" s="123" t="s">
+      <c r="K7" s="92"/>
+      <c r="L7" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="123"/>
-      <c r="N7" s="103" t="s">
+      <c r="M7" s="102"/>
+      <c r="N7" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="103"/>
-      <c r="P7" s="111" t="s">
+      <c r="O7" s="92"/>
+      <c r="P7" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="103" t="s">
+      <c r="Q7" s="112"/>
+      <c r="R7" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="103"/>
-      <c r="T7" s="112" t="s">
+      <c r="S7" s="92"/>
+      <c r="T7" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="112"/>
-      <c r="V7" s="103" t="s">
+      <c r="U7" s="113"/>
+      <c r="V7" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="103"/>
-      <c r="X7" s="113" t="s">
+      <c r="W7" s="92"/>
+      <c r="X7" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="113"/>
-      <c r="Z7" s="103" t="s">
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="103"/>
-      <c r="AB7" s="102" t="s">
+      <c r="AA7" s="92"/>
+      <c r="AB7" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="102"/>
-      <c r="AD7" s="103" t="s">
+      <c r="AC7" s="103"/>
+      <c r="AD7" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="103"/>
+      <c r="AE7" s="92"/>
       <c r="AF7" s="104" t="s">
         <v>24</v>
       </c>
       <c r="AG7" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="103"/>
+      <c r="AH7" s="92"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="103"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="103"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="78" t="s">
         <v>26</v>
       </c>
@@ -2554,7 +2557,7 @@
       </c>
       <c r="AF8" s="105"/>
       <c r="AG8" s="105"/>
-      <c r="AH8" s="103"/>
+      <c r="AH8" s="92"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -3643,71 +3646,71 @@
         <v>0</v>
       </c>
       <c r="E30" s="108"/>
-      <c r="F30" s="94">
+      <c r="F30" s="109">
         <f>SUM(F9:F28)-SUM(G9:G28)</f>
         <v>4</v>
       </c>
-      <c r="G30" s="94"/>
-      <c r="H30" s="109">
+      <c r="G30" s="109"/>
+      <c r="H30" s="110">
         <f>SUM(H9:H28)-SUM(I9:I28)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="109"/>
-      <c r="J30" s="94">
+      <c r="I30" s="110"/>
+      <c r="J30" s="109">
         <f>SUM(J9:J28)-SUM(K9:K28)</f>
         <v>1</v>
       </c>
-      <c r="K30" s="94"/>
-      <c r="L30" s="110">
+      <c r="K30" s="109"/>
+      <c r="L30" s="111">
         <f>SUM(L9:L28)-SUM(M9:M28)</f>
         <v>0</v>
       </c>
-      <c r="M30" s="110"/>
-      <c r="N30" s="94">
+      <c r="M30" s="111"/>
+      <c r="N30" s="109">
         <f>SUM(N9:N28)-SUM(O9:O28)</f>
         <v>2</v>
       </c>
-      <c r="O30" s="94"/>
-      <c r="P30" s="95">
+      <c r="O30" s="109"/>
+      <c r="P30" s="117">
         <f>SUM(P9:P28)-SUM(Q9:Q28)</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="94">
+      <c r="Q30" s="117"/>
+      <c r="R30" s="109">
         <f>SUM(R9:R28)-SUM(S9:S28)</f>
         <v>2</v>
       </c>
-      <c r="S30" s="94"/>
-      <c r="T30" s="96">
+      <c r="S30" s="109"/>
+      <c r="T30" s="118">
         <f>SUM(T9:T28)-SUM(U9:U28)</f>
         <v>0</v>
       </c>
-      <c r="U30" s="96"/>
-      <c r="V30" s="94">
+      <c r="U30" s="118"/>
+      <c r="V30" s="109">
         <f>SUM(V9:V28)-SUM(W9:W28)</f>
         <v>0</v>
       </c>
-      <c r="W30" s="94"/>
-      <c r="X30" s="97">
+      <c r="W30" s="109"/>
+      <c r="X30" s="119">
         <f>SUM(X9:X28)-SUM(Y9:Y28)</f>
         <v>5</v>
       </c>
-      <c r="Y30" s="97"/>
-      <c r="Z30" s="94">
+      <c r="Y30" s="119"/>
+      <c r="Z30" s="109">
         <f>SUM(Z9:Z28)-SUM(AA9:AA28)</f>
         <v>0</v>
       </c>
-      <c r="AA30" s="94"/>
-      <c r="AB30" s="98">
+      <c r="AA30" s="109"/>
+      <c r="AB30" s="120">
         <f>SUM(AB9:AB28)-SUM(AC9:AC28)</f>
         <v>3</v>
       </c>
-      <c r="AC30" s="98"/>
-      <c r="AD30" s="94">
+      <c r="AC30" s="120"/>
+      <c r="AD30" s="109">
         <f>SUM(AD9:AD28)-SUM(AE9:AE28)</f>
         <v>0</v>
       </c>
-      <c r="AE30" s="94"/>
+      <c r="AE30" s="109"/>
       <c r="AF30" s="20"/>
       <c r="AG30" s="9">
         <f t="shared" si="1"/>
@@ -3716,39 +3719,39 @@
       <c r="AH30" s="21"/>
     </row>
     <row r="31" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="99" t="s">
+      <c r="A31" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="100"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="100"/>
-      <c r="M31" s="100"/>
-      <c r="N31" s="100"/>
-      <c r="O31" s="100"/>
-      <c r="P31" s="100"/>
-      <c r="Q31" s="100"/>
-      <c r="R31" s="100"/>
-      <c r="S31" s="100"/>
-      <c r="T31" s="100"/>
-      <c r="U31" s="100"/>
-      <c r="V31" s="100"/>
-      <c r="W31" s="100"/>
-      <c r="X31" s="100"/>
-      <c r="Y31" s="100"/>
-      <c r="Z31" s="100"/>
-      <c r="AA31" s="100"/>
-      <c r="AB31" s="100"/>
-      <c r="AC31" s="100"/>
-      <c r="AD31" s="100"/>
-      <c r="AE31" s="101"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="122"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="122"/>
+      <c r="M31" s="122"/>
+      <c r="N31" s="122"/>
+      <c r="O31" s="122"/>
+      <c r="P31" s="122"/>
+      <c r="Q31" s="122"/>
+      <c r="R31" s="122"/>
+      <c r="S31" s="122"/>
+      <c r="T31" s="122"/>
+      <c r="U31" s="122"/>
+      <c r="V31" s="122"/>
+      <c r="W31" s="122"/>
+      <c r="X31" s="122"/>
+      <c r="Y31" s="122"/>
+      <c r="Z31" s="122"/>
+      <c r="AA31" s="122"/>
+      <c r="AB31" s="122"/>
+      <c r="AC31" s="122"/>
+      <c r="AD31" s="122"/>
+      <c r="AE31" s="123"/>
       <c r="AF31" s="22">
         <f>SUM(AF9:AF28)</f>
         <v>79</v>
@@ -3760,48 +3763,76 @@
       <c r="AH31" s="23"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="99" t="s">
+      <c r="A32" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="100"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="100"/>
-      <c r="N32" s="100"/>
-      <c r="O32" s="100"/>
-      <c r="P32" s="100"/>
-      <c r="Q32" s="100"/>
-      <c r="R32" s="100"/>
-      <c r="S32" s="100"/>
-      <c r="T32" s="100"/>
-      <c r="U32" s="100"/>
-      <c r="V32" s="100"/>
-      <c r="W32" s="100"/>
-      <c r="X32" s="100"/>
-      <c r="Y32" s="100"/>
-      <c r="Z32" s="100"/>
-      <c r="AA32" s="100"/>
-      <c r="AB32" s="100"/>
-      <c r="AC32" s="100"/>
-      <c r="AD32" s="100"/>
-      <c r="AE32" s="101"/>
-      <c r="AF32" s="92">
+      <c r="B32" s="122"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="122"/>
+      <c r="K32" s="122"/>
+      <c r="L32" s="122"/>
+      <c r="M32" s="122"/>
+      <c r="N32" s="122"/>
+      <c r="O32" s="122"/>
+      <c r="P32" s="122"/>
+      <c r="Q32" s="122"/>
+      <c r="R32" s="122"/>
+      <c r="S32" s="122"/>
+      <c r="T32" s="122"/>
+      <c r="U32" s="122"/>
+      <c r="V32" s="122"/>
+      <c r="W32" s="122"/>
+      <c r="X32" s="122"/>
+      <c r="Y32" s="122"/>
+      <c r="Z32" s="122"/>
+      <c r="AA32" s="122"/>
+      <c r="AB32" s="122"/>
+      <c r="AC32" s="122"/>
+      <c r="AD32" s="122"/>
+      <c r="AE32" s="123"/>
+      <c r="AF32" s="115">
         <f>AG31-AF31</f>
         <v>17</v>
       </c>
-      <c r="AG32" s="93"/>
+      <c r="AG32" s="116"/>
       <c r="AH32" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="A31:AE31"/>
+    <mergeCell ref="A32:AE32"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -3818,34 +3849,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="A31:AE31"/>
-    <mergeCell ref="A32:AE32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3875,11 +3878,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
+      <c r="A1" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
       <c r="D1" s="54"/>
       <c r="E1" s="54"/>
       <c r="F1" s="54"/>
@@ -3915,11 +3918,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
       <c r="F2" s="55"/>
@@ -3955,235 +3958,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="116"/>
-      <c r="U3" s="116"/>
-      <c r="V3" s="116"/>
-      <c r="W3" s="116"/>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="116"/>
-      <c r="AH3" s="116"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="95"/>
+      <c r="V3" s="95"/>
+      <c r="W3" s="95"/>
+      <c r="X3" s="95"/>
+      <c r="Y3" s="95"/>
+      <c r="Z3" s="95"/>
+      <c r="AA3" s="95"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="95"/>
+      <c r="AD3" s="95"/>
+      <c r="AE3" s="95"/>
+      <c r="AF3" s="95"/>
+      <c r="AG3" s="95"/>
+      <c r="AH3" s="95"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="116"/>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="116"/>
-      <c r="AD4" s="116"/>
-      <c r="AE4" s="116"/>
-      <c r="AF4" s="116"/>
-      <c r="AG4" s="116"/>
-      <c r="AH4" s="116"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="95"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="116"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
-      <c r="U5" s="116"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="116"/>
-      <c r="X5" s="116"/>
-      <c r="Y5" s="116"/>
-      <c r="Z5" s="116"/>
-      <c r="AA5" s="116"/>
-      <c r="AB5" s="116"/>
-      <c r="AC5" s="116"/>
-      <c r="AD5" s="116"/>
-      <c r="AE5" s="116"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="95"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="95"/>
+      <c r="AA5" s="95"/>
+      <c r="AB5" s="95"/>
+      <c r="AC5" s="95"/>
+      <c r="AD5" s="95"/>
+      <c r="AE5" s="95"/>
       <c r="AF5" s="56"/>
       <c r="AG5" s="56"/>
       <c r="AH5" s="56"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="118" t="s">
+      <c r="D6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119"/>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="119"/>
-      <c r="T6" s="119"/>
-      <c r="U6" s="119"/>
-      <c r="V6" s="119"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="119"/>
-      <c r="Y6" s="119"/>
-      <c r="Z6" s="119"/>
-      <c r="AA6" s="119"/>
-      <c r="AB6" s="119"/>
-      <c r="AC6" s="119"/>
-      <c r="AD6" s="119"/>
-      <c r="AE6" s="119"/>
-      <c r="AF6" s="119"/>
-      <c r="AG6" s="120"/>
-      <c r="AH6" s="103" t="s">
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="98"/>
+      <c r="R6" s="98"/>
+      <c r="S6" s="98"/>
+      <c r="T6" s="98"/>
+      <c r="U6" s="98"/>
+      <c r="V6" s="98"/>
+      <c r="W6" s="98"/>
+      <c r="X6" s="98"/>
+      <c r="Y6" s="98"/>
+      <c r="Z6" s="98"/>
+      <c r="AA6" s="98"/>
+      <c r="AB6" s="98"/>
+      <c r="AC6" s="98"/>
+      <c r="AD6" s="98"/>
+      <c r="AE6" s="98"/>
+      <c r="AF6" s="98"/>
+      <c r="AG6" s="99"/>
+      <c r="AH6" s="92" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="103"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="121" t="s">
+      <c r="A7" s="92"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="103" t="s">
+      <c r="E7" s="100"/>
+      <c r="F7" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="103"/>
-      <c r="H7" s="122" t="s">
+      <c r="G7" s="92"/>
+      <c r="H7" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="122"/>
-      <c r="J7" s="103" t="s">
+      <c r="I7" s="101"/>
+      <c r="J7" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="103"/>
-      <c r="L7" s="123" t="s">
+      <c r="K7" s="92"/>
+      <c r="L7" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="123"/>
-      <c r="N7" s="103" t="s">
+      <c r="M7" s="102"/>
+      <c r="N7" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="103"/>
-      <c r="P7" s="111" t="s">
+      <c r="O7" s="92"/>
+      <c r="P7" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="103" t="s">
+      <c r="Q7" s="112"/>
+      <c r="R7" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="103"/>
-      <c r="T7" s="112" t="s">
+      <c r="S7" s="92"/>
+      <c r="T7" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="112"/>
-      <c r="V7" s="103" t="s">
+      <c r="U7" s="113"/>
+      <c r="V7" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="103"/>
-      <c r="X7" s="113" t="s">
+      <c r="W7" s="92"/>
+      <c r="X7" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="113"/>
-      <c r="Z7" s="103" t="s">
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="103"/>
-      <c r="AB7" s="102" t="s">
+      <c r="AA7" s="92"/>
+      <c r="AB7" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="102"/>
-      <c r="AD7" s="103" t="s">
+      <c r="AC7" s="103"/>
+      <c r="AD7" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="103"/>
+      <c r="AE7" s="92"/>
       <c r="AF7" s="104" t="s">
         <v>24</v>
       </c>
       <c r="AG7" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="103"/>
+      <c r="AH7" s="92"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="103"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="103"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="57" t="s">
         <v>26</v>
       </c>
@@ -4270,7 +4273,7 @@
       </c>
       <c r="AF8" s="124"/>
       <c r="AG8" s="124"/>
-      <c r="AH8" s="103"/>
+      <c r="AH8" s="92"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -6097,71 +6100,71 @@
         <v>3</v>
       </c>
       <c r="E49" s="108"/>
-      <c r="F49" s="94">
+      <c r="F49" s="109">
         <f>SUM(F9:F48)-SUM(G9:G48)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="94"/>
-      <c r="H49" s="109">
+      <c r="G49" s="109"/>
+      <c r="H49" s="110">
         <f>SUM(H9:H48)-SUM(I9:I48)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="109"/>
-      <c r="J49" s="94">
+      <c r="I49" s="110"/>
+      <c r="J49" s="109">
         <f>SUM(J9:J48)-SUM(K9:K48)</f>
         <v>0</v>
       </c>
-      <c r="K49" s="94"/>
-      <c r="L49" s="110">
+      <c r="K49" s="109"/>
+      <c r="L49" s="111">
         <f>SUM(L9:L48)-SUM(M9:M48)</f>
         <v>0</v>
       </c>
-      <c r="M49" s="110"/>
-      <c r="N49" s="94">
+      <c r="M49" s="111"/>
+      <c r="N49" s="109">
         <f>SUM(N9:N48)-SUM(O9:O48)</f>
         <v>1</v>
       </c>
-      <c r="O49" s="94"/>
-      <c r="P49" s="95">
+      <c r="O49" s="109"/>
+      <c r="P49" s="117">
         <f>SUM(P9:P48)-SUM(Q9:Q48)</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="95"/>
-      <c r="R49" s="94">
+      <c r="Q49" s="117"/>
+      <c r="R49" s="109">
         <f>SUM(R9:R48)-SUM(S9:S48)</f>
         <v>2</v>
       </c>
-      <c r="S49" s="94"/>
-      <c r="T49" s="96">
+      <c r="S49" s="109"/>
+      <c r="T49" s="118">
         <f>SUM(T9:T48)-SUM(U9:U48)</f>
         <v>0</v>
       </c>
-      <c r="U49" s="96"/>
-      <c r="V49" s="94">
+      <c r="U49" s="118"/>
+      <c r="V49" s="109">
         <f>SUM(V9:V48)-SUM(W9:W48)</f>
         <v>0</v>
       </c>
-      <c r="W49" s="94"/>
-      <c r="X49" s="97">
+      <c r="W49" s="109"/>
+      <c r="X49" s="119">
         <f>SUM(X9:X48)-SUM(Y9:Y48)</f>
         <v>4</v>
       </c>
-      <c r="Y49" s="97"/>
-      <c r="Z49" s="94">
+      <c r="Y49" s="119"/>
+      <c r="Z49" s="109">
         <f>SUM(Z9:Z48)-SUM(AA9:AA48)</f>
         <v>3</v>
       </c>
-      <c r="AA49" s="94"/>
-      <c r="AB49" s="98">
+      <c r="AA49" s="109"/>
+      <c r="AB49" s="120">
         <f>SUM(AB9:AB48)-SUM(AC9:AC48)</f>
         <v>3</v>
       </c>
-      <c r="AC49" s="98"/>
-      <c r="AD49" s="94">
+      <c r="AC49" s="120"/>
+      <c r="AD49" s="109">
         <f>SUM(AD9:AD48)-SUM(AE9:AE48)</f>
         <v>0</v>
       </c>
-      <c r="AE49" s="94"/>
+      <c r="AE49" s="109"/>
       <c r="AF49" s="20"/>
       <c r="AG49" s="9">
         <f>D49+F49+H49+J49+L49+N49+P49+R49+T49+V49+X49+Z49+AB49+AD49</f>
@@ -6170,39 +6173,39 @@
       <c r="AH49" s="21"/>
     </row>
     <row r="50" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="99" t="s">
+      <c r="A50" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="100"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="100"/>
-      <c r="E50" s="100"/>
-      <c r="F50" s="100"/>
-      <c r="G50" s="100"/>
-      <c r="H50" s="100"/>
-      <c r="I50" s="100"/>
-      <c r="J50" s="100"/>
-      <c r="K50" s="100"/>
-      <c r="L50" s="100"/>
-      <c r="M50" s="100"/>
-      <c r="N50" s="100"/>
-      <c r="O50" s="100"/>
-      <c r="P50" s="100"/>
-      <c r="Q50" s="100"/>
-      <c r="R50" s="100"/>
-      <c r="S50" s="100"/>
-      <c r="T50" s="100"/>
-      <c r="U50" s="100"/>
-      <c r="V50" s="100"/>
-      <c r="W50" s="100"/>
-      <c r="X50" s="100"/>
-      <c r="Y50" s="100"/>
-      <c r="Z50" s="100"/>
-      <c r="AA50" s="100"/>
-      <c r="AB50" s="100"/>
-      <c r="AC50" s="100"/>
-      <c r="AD50" s="100"/>
-      <c r="AE50" s="101"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="122"/>
+      <c r="E50" s="122"/>
+      <c r="F50" s="122"/>
+      <c r="G50" s="122"/>
+      <c r="H50" s="122"/>
+      <c r="I50" s="122"/>
+      <c r="J50" s="122"/>
+      <c r="K50" s="122"/>
+      <c r="L50" s="122"/>
+      <c r="M50" s="122"/>
+      <c r="N50" s="122"/>
+      <c r="O50" s="122"/>
+      <c r="P50" s="122"/>
+      <c r="Q50" s="122"/>
+      <c r="R50" s="122"/>
+      <c r="S50" s="122"/>
+      <c r="T50" s="122"/>
+      <c r="U50" s="122"/>
+      <c r="V50" s="122"/>
+      <c r="W50" s="122"/>
+      <c r="X50" s="122"/>
+      <c r="Y50" s="122"/>
+      <c r="Z50" s="122"/>
+      <c r="AA50" s="122"/>
+      <c r="AB50" s="122"/>
+      <c r="AC50" s="122"/>
+      <c r="AD50" s="122"/>
+      <c r="AE50" s="123"/>
       <c r="AF50" s="22">
         <f>SUM(AF9:AF48)</f>
         <v>18</v>
@@ -6214,59 +6217,64 @@
       <c r="AH50" s="23"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="99" t="s">
+      <c r="A51" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="100"/>
-      <c r="C51" s="100"/>
-      <c r="D51" s="100"/>
-      <c r="E51" s="100"/>
-      <c r="F51" s="100"/>
-      <c r="G51" s="100"/>
-      <c r="H51" s="100"/>
-      <c r="I51" s="100"/>
-      <c r="J51" s="100"/>
-      <c r="K51" s="100"/>
-      <c r="L51" s="100"/>
-      <c r="M51" s="100"/>
-      <c r="N51" s="100"/>
-      <c r="O51" s="100"/>
-      <c r="P51" s="100"/>
-      <c r="Q51" s="100"/>
-      <c r="R51" s="100"/>
-      <c r="S51" s="100"/>
-      <c r="T51" s="100"/>
-      <c r="U51" s="100"/>
-      <c r="V51" s="100"/>
-      <c r="W51" s="100"/>
-      <c r="X51" s="100"/>
-      <c r="Y51" s="100"/>
-      <c r="Z51" s="100"/>
-      <c r="AA51" s="100"/>
-      <c r="AB51" s="100"/>
-      <c r="AC51" s="100"/>
-      <c r="AD51" s="100"/>
-      <c r="AE51" s="101"/>
-      <c r="AF51" s="92">
+      <c r="B51" s="122"/>
+      <c r="C51" s="122"/>
+      <c r="D51" s="122"/>
+      <c r="E51" s="122"/>
+      <c r="F51" s="122"/>
+      <c r="G51" s="122"/>
+      <c r="H51" s="122"/>
+      <c r="I51" s="122"/>
+      <c r="J51" s="122"/>
+      <c r="K51" s="122"/>
+      <c r="L51" s="122"/>
+      <c r="M51" s="122"/>
+      <c r="N51" s="122"/>
+      <c r="O51" s="122"/>
+      <c r="P51" s="122"/>
+      <c r="Q51" s="122"/>
+      <c r="R51" s="122"/>
+      <c r="S51" s="122"/>
+      <c r="T51" s="122"/>
+      <c r="U51" s="122"/>
+      <c r="V51" s="122"/>
+      <c r="W51" s="122"/>
+      <c r="X51" s="122"/>
+      <c r="Y51" s="122"/>
+      <c r="Z51" s="122"/>
+      <c r="AA51" s="122"/>
+      <c r="AB51" s="122"/>
+      <c r="AC51" s="122"/>
+      <c r="AD51" s="122"/>
+      <c r="AE51" s="123"/>
+      <c r="AF51" s="115">
         <f>AG50-AF50</f>
         <v>16</v>
       </c>
-      <c r="AG51" s="93"/>
+      <c r="AG51" s="116"/>
       <c r="AH51" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AD49:AE49"/>
-    <mergeCell ref="A50:AE50"/>
-    <mergeCell ref="A51:AE51"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AF8"/>
@@ -6283,22 +6291,17 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="A50:AE50"/>
+    <mergeCell ref="A51:AE51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="Z49:AA49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6309,8 +6312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="X49" sqref="X49:Y49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6326,11 +6329,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
+      <c r="A1" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
       <c r="D1" s="82"/>
       <c r="E1" s="82"/>
       <c r="F1" s="82"/>
@@ -6366,11 +6369,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
       <c r="D2" s="83"/>
       <c r="E2" s="83"/>
       <c r="F2" s="83"/>
@@ -6406,235 +6409,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="116"/>
-      <c r="U3" s="116"/>
-      <c r="V3" s="116"/>
-      <c r="W3" s="116"/>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="116"/>
-      <c r="AH3" s="116"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="95"/>
+      <c r="V3" s="95"/>
+      <c r="W3" s="95"/>
+      <c r="X3" s="95"/>
+      <c r="Y3" s="95"/>
+      <c r="Z3" s="95"/>
+      <c r="AA3" s="95"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="95"/>
+      <c r="AD3" s="95"/>
+      <c r="AE3" s="95"/>
+      <c r="AF3" s="95"/>
+      <c r="AG3" s="95"/>
+      <c r="AH3" s="95"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="116"/>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="116"/>
-      <c r="AD4" s="116"/>
-      <c r="AE4" s="116"/>
-      <c r="AF4" s="116"/>
-      <c r="AG4" s="116"/>
-      <c r="AH4" s="116"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="95"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="116"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
-      <c r="U5" s="116"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="116"/>
-      <c r="X5" s="116"/>
-      <c r="Y5" s="116"/>
-      <c r="Z5" s="116"/>
-      <c r="AA5" s="116"/>
-      <c r="AB5" s="116"/>
-      <c r="AC5" s="116"/>
-      <c r="AD5" s="116"/>
-      <c r="AE5" s="116"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="95"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="95"/>
+      <c r="AA5" s="95"/>
+      <c r="AB5" s="95"/>
+      <c r="AC5" s="95"/>
+      <c r="AD5" s="95"/>
+      <c r="AE5" s="95"/>
       <c r="AF5" s="84"/>
       <c r="AG5" s="84"/>
       <c r="AH5" s="84"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="118" t="s">
+      <c r="D6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119"/>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="119"/>
-      <c r="T6" s="119"/>
-      <c r="U6" s="119"/>
-      <c r="V6" s="119"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="119"/>
-      <c r="Y6" s="119"/>
-      <c r="Z6" s="119"/>
-      <c r="AA6" s="119"/>
-      <c r="AB6" s="119"/>
-      <c r="AC6" s="119"/>
-      <c r="AD6" s="119"/>
-      <c r="AE6" s="119"/>
-      <c r="AF6" s="119"/>
-      <c r="AG6" s="120"/>
-      <c r="AH6" s="103" t="s">
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="98"/>
+      <c r="R6" s="98"/>
+      <c r="S6" s="98"/>
+      <c r="T6" s="98"/>
+      <c r="U6" s="98"/>
+      <c r="V6" s="98"/>
+      <c r="W6" s="98"/>
+      <c r="X6" s="98"/>
+      <c r="Y6" s="98"/>
+      <c r="Z6" s="98"/>
+      <c r="AA6" s="98"/>
+      <c r="AB6" s="98"/>
+      <c r="AC6" s="98"/>
+      <c r="AD6" s="98"/>
+      <c r="AE6" s="98"/>
+      <c r="AF6" s="98"/>
+      <c r="AG6" s="99"/>
+      <c r="AH6" s="92" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="103"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="121" t="s">
+      <c r="A7" s="92"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="103" t="s">
+      <c r="E7" s="100"/>
+      <c r="F7" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="103"/>
-      <c r="H7" s="122" t="s">
+      <c r="G7" s="92"/>
+      <c r="H7" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="122"/>
-      <c r="J7" s="103" t="s">
+      <c r="I7" s="101"/>
+      <c r="J7" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="103"/>
-      <c r="L7" s="123" t="s">
+      <c r="K7" s="92"/>
+      <c r="L7" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="123"/>
-      <c r="N7" s="103" t="s">
+      <c r="M7" s="102"/>
+      <c r="N7" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="103"/>
-      <c r="P7" s="111" t="s">
+      <c r="O7" s="92"/>
+      <c r="P7" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="103" t="s">
+      <c r="Q7" s="112"/>
+      <c r="R7" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="103"/>
-      <c r="T7" s="112" t="s">
+      <c r="S7" s="92"/>
+      <c r="T7" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="112"/>
-      <c r="V7" s="103" t="s">
+      <c r="U7" s="113"/>
+      <c r="V7" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="103"/>
-      <c r="X7" s="113" t="s">
+      <c r="W7" s="92"/>
+      <c r="X7" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="113"/>
-      <c r="Z7" s="103" t="s">
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="103"/>
-      <c r="AB7" s="102" t="s">
+      <c r="AA7" s="92"/>
+      <c r="AB7" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="102"/>
-      <c r="AD7" s="103" t="s">
+      <c r="AC7" s="103"/>
+      <c r="AD7" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="103"/>
+      <c r="AE7" s="92"/>
       <c r="AF7" s="104" t="s">
         <v>24</v>
       </c>
       <c r="AG7" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="103"/>
+      <c r="AH7" s="92"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="103"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="103"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="85" t="s">
         <v>26</v>
       </c>
@@ -6721,7 +6724,7 @@
       </c>
       <c r="AF8" s="124"/>
       <c r="AG8" s="124"/>
-      <c r="AH8" s="103"/>
+      <c r="AH8" s="92"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
@@ -6883,8 +6886,12 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="13">
+        <v>44027</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
       <c r="F12" s="14"/>
@@ -6910,12 +6917,14 @@
       <c r="Z12" s="14"/>
       <c r="AA12" s="14"/>
       <c r="AB12" s="35"/>
-      <c r="AC12" s="35"/>
+      <c r="AC12" s="35">
+        <v>3</v>
+      </c>
       <c r="AD12" s="14"/>
       <c r="AE12" s="14"/>
       <c r="AF12" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG12" s="14">
         <f t="shared" si="1"/>
@@ -8482,115 +8491,115 @@
         <v>0</v>
       </c>
       <c r="E49" s="108"/>
-      <c r="F49" s="94">
+      <c r="F49" s="109">
         <f>SUM(F9:F48)-SUM(G9:G48)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="94"/>
-      <c r="H49" s="109">
+      <c r="G49" s="109"/>
+      <c r="H49" s="110">
         <f>SUM(H9:H48)-SUM(I9:I48)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="109"/>
-      <c r="J49" s="94">
+      <c r="I49" s="110"/>
+      <c r="J49" s="109">
         <f>SUM(J9:J48)-SUM(K9:K48)</f>
         <v>0</v>
       </c>
-      <c r="K49" s="94"/>
-      <c r="L49" s="110">
+      <c r="K49" s="109"/>
+      <c r="L49" s="111">
         <f>SUM(L9:L48)-SUM(M9:M48)</f>
         <v>0</v>
       </c>
-      <c r="M49" s="110"/>
-      <c r="N49" s="94">
+      <c r="M49" s="111"/>
+      <c r="N49" s="109">
         <f>SUM(N9:N48)-SUM(O9:O48)</f>
         <v>0</v>
       </c>
-      <c r="O49" s="94"/>
-      <c r="P49" s="95">
+      <c r="O49" s="109"/>
+      <c r="P49" s="117">
         <f>SUM(P9:P48)-SUM(Q9:Q48)</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="95"/>
-      <c r="R49" s="94">
+      <c r="Q49" s="117"/>
+      <c r="R49" s="109">
         <f>SUM(R9:R48)-SUM(S9:S48)</f>
         <v>1</v>
       </c>
-      <c r="S49" s="94"/>
-      <c r="T49" s="96">
+      <c r="S49" s="109"/>
+      <c r="T49" s="118">
         <f>SUM(T9:T48)-SUM(U9:U48)</f>
         <v>0</v>
       </c>
-      <c r="U49" s="96"/>
-      <c r="V49" s="94">
+      <c r="U49" s="118"/>
+      <c r="V49" s="109">
         <f>SUM(V9:V48)-SUM(W9:W48)</f>
         <v>0</v>
       </c>
-      <c r="W49" s="94"/>
-      <c r="X49" s="97">
+      <c r="W49" s="109"/>
+      <c r="X49" s="119">
         <f>SUM(X9:X48)-SUM(Y9:Y48)</f>
         <v>3</v>
       </c>
-      <c r="Y49" s="97"/>
-      <c r="Z49" s="94">
+      <c r="Y49" s="119"/>
+      <c r="Z49" s="109">
         <f>SUM(Z9:Z48)-SUM(AA9:AA48)</f>
         <v>3</v>
       </c>
-      <c r="AA49" s="94"/>
-      <c r="AB49" s="98">
+      <c r="AA49" s="109"/>
+      <c r="AB49" s="120">
         <f>SUM(AB9:AB48)-SUM(AC9:AC48)</f>
-        <v>3</v>
-      </c>
-      <c r="AC49" s="98"/>
-      <c r="AD49" s="94">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="120"/>
+      <c r="AD49" s="109">
         <f>SUM(AD9:AD48)-SUM(AE9:AE48)</f>
         <v>0</v>
       </c>
-      <c r="AE49" s="94"/>
+      <c r="AE49" s="109"/>
       <c r="AF49" s="20"/>
       <c r="AG49" s="9">
         <f>D49+F49+H49+J49+L49+N49+P49+R49+T49+V49+X49+Z49+AB49+AD49</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AH49" s="21"/>
     </row>
     <row r="50" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="99" t="s">
+      <c r="A50" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="100"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="100"/>
-      <c r="E50" s="100"/>
-      <c r="F50" s="100"/>
-      <c r="G50" s="100"/>
-      <c r="H50" s="100"/>
-      <c r="I50" s="100"/>
-      <c r="J50" s="100"/>
-      <c r="K50" s="100"/>
-      <c r="L50" s="100"/>
-      <c r="M50" s="100"/>
-      <c r="N50" s="100"/>
-      <c r="O50" s="100"/>
-      <c r="P50" s="100"/>
-      <c r="Q50" s="100"/>
-      <c r="R50" s="100"/>
-      <c r="S50" s="100"/>
-      <c r="T50" s="100"/>
-      <c r="U50" s="100"/>
-      <c r="V50" s="100"/>
-      <c r="W50" s="100"/>
-      <c r="X50" s="100"/>
-      <c r="Y50" s="100"/>
-      <c r="Z50" s="100"/>
-      <c r="AA50" s="100"/>
-      <c r="AB50" s="100"/>
-      <c r="AC50" s="100"/>
-      <c r="AD50" s="100"/>
-      <c r="AE50" s="101"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="122"/>
+      <c r="E50" s="122"/>
+      <c r="F50" s="122"/>
+      <c r="G50" s="122"/>
+      <c r="H50" s="122"/>
+      <c r="I50" s="122"/>
+      <c r="J50" s="122"/>
+      <c r="K50" s="122"/>
+      <c r="L50" s="122"/>
+      <c r="M50" s="122"/>
+      <c r="N50" s="122"/>
+      <c r="O50" s="122"/>
+      <c r="P50" s="122"/>
+      <c r="Q50" s="122"/>
+      <c r="R50" s="122"/>
+      <c r="S50" s="122"/>
+      <c r="T50" s="122"/>
+      <c r="U50" s="122"/>
+      <c r="V50" s="122"/>
+      <c r="W50" s="122"/>
+      <c r="X50" s="122"/>
+      <c r="Y50" s="122"/>
+      <c r="Z50" s="122"/>
+      <c r="AA50" s="122"/>
+      <c r="AB50" s="122"/>
+      <c r="AC50" s="122"/>
+      <c r="AD50" s="122"/>
+      <c r="AE50" s="123"/>
       <c r="AF50" s="22">
         <f>SUM(AF9:AF48)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AG50" s="22">
         <f>SUM(AG9:AG48)</f>
@@ -8599,59 +8608,64 @@
       <c r="AH50" s="23"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="99" t="s">
+      <c r="A51" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="100"/>
-      <c r="C51" s="100"/>
-      <c r="D51" s="100"/>
-      <c r="E51" s="100"/>
-      <c r="F51" s="100"/>
-      <c r="G51" s="100"/>
-      <c r="H51" s="100"/>
-      <c r="I51" s="100"/>
-      <c r="J51" s="100"/>
-      <c r="K51" s="100"/>
-      <c r="L51" s="100"/>
-      <c r="M51" s="100"/>
-      <c r="N51" s="100"/>
-      <c r="O51" s="100"/>
-      <c r="P51" s="100"/>
-      <c r="Q51" s="100"/>
-      <c r="R51" s="100"/>
-      <c r="S51" s="100"/>
-      <c r="T51" s="100"/>
-      <c r="U51" s="100"/>
-      <c r="V51" s="100"/>
-      <c r="W51" s="100"/>
-      <c r="X51" s="100"/>
-      <c r="Y51" s="100"/>
-      <c r="Z51" s="100"/>
-      <c r="AA51" s="100"/>
-      <c r="AB51" s="100"/>
-      <c r="AC51" s="100"/>
-      <c r="AD51" s="100"/>
-      <c r="AE51" s="101"/>
-      <c r="AF51" s="92">
+      <c r="B51" s="122"/>
+      <c r="C51" s="122"/>
+      <c r="D51" s="122"/>
+      <c r="E51" s="122"/>
+      <c r="F51" s="122"/>
+      <c r="G51" s="122"/>
+      <c r="H51" s="122"/>
+      <c r="I51" s="122"/>
+      <c r="J51" s="122"/>
+      <c r="K51" s="122"/>
+      <c r="L51" s="122"/>
+      <c r="M51" s="122"/>
+      <c r="N51" s="122"/>
+      <c r="O51" s="122"/>
+      <c r="P51" s="122"/>
+      <c r="Q51" s="122"/>
+      <c r="R51" s="122"/>
+      <c r="S51" s="122"/>
+      <c r="T51" s="122"/>
+      <c r="U51" s="122"/>
+      <c r="V51" s="122"/>
+      <c r="W51" s="122"/>
+      <c r="X51" s="122"/>
+      <c r="Y51" s="122"/>
+      <c r="Z51" s="122"/>
+      <c r="AA51" s="122"/>
+      <c r="AB51" s="122"/>
+      <c r="AC51" s="122"/>
+      <c r="AD51" s="122"/>
+      <c r="AE51" s="123"/>
+      <c r="AF51" s="115">
         <f>AG50-AF50</f>
-        <v>10</v>
-      </c>
-      <c r="AG51" s="93"/>
+        <v>7</v>
+      </c>
+      <c r="AG51" s="116"/>
       <c r="AH51" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AD49:AE49"/>
-    <mergeCell ref="A50:AE50"/>
-    <mergeCell ref="A51:AE51"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AF8"/>
@@ -8668,22 +8682,17 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="A50:AE50"/>
+    <mergeCell ref="A51:AE51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="Z49:AA49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
@@ -1060,7 +1060,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="64">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1249,6 +1249,9 @@
   </si>
   <si>
     <t>Xuất Quỳnh trang nhập đơn anh giáp</t>
+  </si>
+  <si>
+    <t>ChỊ Hồng Sơn La</t>
   </si>
 </sst>
 </file>
@@ -1738,7 +1741,70 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1770,69 +1836,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2162,11 +2165,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
+      <c r="A1" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
       <c r="D1" s="75"/>
       <c r="E1" s="75"/>
       <c r="F1" s="75"/>
@@ -2202,11 +2205,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
       <c r="D2" s="76"/>
       <c r="E2" s="76"/>
       <c r="F2" s="76"/>
@@ -2242,235 +2245,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="95"/>
-      <c r="AD3" s="95"/>
-      <c r="AE3" s="95"/>
-      <c r="AF3" s="95"/>
-      <c r="AG3" s="95"/>
-      <c r="AH3" s="95"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="116"/>
+      <c r="AG3" s="116"/>
+      <c r="AH3" s="116"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="95"/>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="95"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="116"/>
+      <c r="Z4" s="116"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="116"/>
+      <c r="AC4" s="116"/>
+      <c r="AD4" s="116"/>
+      <c r="AE4" s="116"/>
+      <c r="AF4" s="116"/>
+      <c r="AG4" s="116"/>
+      <c r="AH4" s="116"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="95"/>
-      <c r="U5" s="95"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="95"/>
-      <c r="Z5" s="95"/>
-      <c r="AA5" s="95"/>
-      <c r="AB5" s="95"/>
-      <c r="AC5" s="95"/>
-      <c r="AD5" s="95"/>
-      <c r="AE5" s="95"/>
+      <c r="A5" s="116"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116"/>
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="116"/>
+      <c r="AC5" s="116"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="116"/>
       <c r="AF5" s="77"/>
       <c r="AG5" s="77"/>
       <c r="AH5" s="77"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="98"/>
-      <c r="R6" s="98"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="98"/>
-      <c r="V6" s="98"/>
-      <c r="W6" s="98"/>
-      <c r="X6" s="98"/>
-      <c r="Y6" s="98"/>
-      <c r="Z6" s="98"/>
-      <c r="AA6" s="98"/>
-      <c r="AB6" s="98"/>
-      <c r="AC6" s="98"/>
-      <c r="AD6" s="98"/>
-      <c r="AE6" s="98"/>
-      <c r="AF6" s="98"/>
-      <c r="AG6" s="99"/>
-      <c r="AH6" s="92" t="s">
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="119"/>
+      <c r="AC6" s="119"/>
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="119"/>
+      <c r="AF6" s="119"/>
+      <c r="AG6" s="120"/>
+      <c r="AH6" s="103" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="92"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="100" t="s">
+      <c r="A7" s="103"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="92" t="s">
+      <c r="E7" s="121"/>
+      <c r="F7" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="101" t="s">
+      <c r="G7" s="103"/>
+      <c r="H7" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="101"/>
-      <c r="J7" s="92" t="s">
+      <c r="I7" s="122"/>
+      <c r="J7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="92"/>
-      <c r="L7" s="102" t="s">
+      <c r="K7" s="103"/>
+      <c r="L7" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="102"/>
-      <c r="N7" s="92" t="s">
+      <c r="M7" s="123"/>
+      <c r="N7" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="92"/>
-      <c r="P7" s="112" t="s">
+      <c r="O7" s="103"/>
+      <c r="P7" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="92" t="s">
+      <c r="Q7" s="111"/>
+      <c r="R7" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="92"/>
-      <c r="T7" s="113" t="s">
+      <c r="S7" s="103"/>
+      <c r="T7" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="113"/>
-      <c r="V7" s="92" t="s">
+      <c r="U7" s="112"/>
+      <c r="V7" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="92"/>
-      <c r="X7" s="114" t="s">
+      <c r="W7" s="103"/>
+      <c r="X7" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="114"/>
-      <c r="Z7" s="92" t="s">
+      <c r="Y7" s="113"/>
+      <c r="Z7" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="103" t="s">
+      <c r="AA7" s="103"/>
+      <c r="AB7" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="103"/>
-      <c r="AD7" s="92" t="s">
+      <c r="AC7" s="102"/>
+      <c r="AD7" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="92"/>
+      <c r="AE7" s="103"/>
       <c r="AF7" s="104" t="s">
         <v>24</v>
       </c>
       <c r="AG7" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="92"/>
+      <c r="AH7" s="103"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="92"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="92"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="78" t="s">
         <v>26</v>
       </c>
@@ -2557,7 +2560,7 @@
       </c>
       <c r="AF8" s="105"/>
       <c r="AG8" s="105"/>
-      <c r="AH8" s="92"/>
+      <c r="AH8" s="103"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -3646,71 +3649,71 @@
         <v>0</v>
       </c>
       <c r="E30" s="108"/>
-      <c r="F30" s="109">
+      <c r="F30" s="94">
         <f>SUM(F9:F28)-SUM(G9:G28)</f>
         <v>4</v>
       </c>
-      <c r="G30" s="109"/>
-      <c r="H30" s="110">
+      <c r="G30" s="94"/>
+      <c r="H30" s="109">
         <f>SUM(H9:H28)-SUM(I9:I28)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="110"/>
-      <c r="J30" s="109">
+      <c r="I30" s="109"/>
+      <c r="J30" s="94">
         <f>SUM(J9:J28)-SUM(K9:K28)</f>
         <v>1</v>
       </c>
-      <c r="K30" s="109"/>
-      <c r="L30" s="111">
+      <c r="K30" s="94"/>
+      <c r="L30" s="110">
         <f>SUM(L9:L28)-SUM(M9:M28)</f>
         <v>0</v>
       </c>
-      <c r="M30" s="111"/>
-      <c r="N30" s="109">
+      <c r="M30" s="110"/>
+      <c r="N30" s="94">
         <f>SUM(N9:N28)-SUM(O9:O28)</f>
         <v>2</v>
       </c>
-      <c r="O30" s="109"/>
-      <c r="P30" s="117">
+      <c r="O30" s="94"/>
+      <c r="P30" s="95">
         <f>SUM(P9:P28)-SUM(Q9:Q28)</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="117"/>
-      <c r="R30" s="109">
+      <c r="Q30" s="95"/>
+      <c r="R30" s="94">
         <f>SUM(R9:R28)-SUM(S9:S28)</f>
         <v>2</v>
       </c>
-      <c r="S30" s="109"/>
-      <c r="T30" s="118">
+      <c r="S30" s="94"/>
+      <c r="T30" s="96">
         <f>SUM(T9:T28)-SUM(U9:U28)</f>
         <v>0</v>
       </c>
-      <c r="U30" s="118"/>
-      <c r="V30" s="109">
+      <c r="U30" s="96"/>
+      <c r="V30" s="94">
         <f>SUM(V9:V28)-SUM(W9:W28)</f>
         <v>0</v>
       </c>
-      <c r="W30" s="109"/>
-      <c r="X30" s="119">
+      <c r="W30" s="94"/>
+      <c r="X30" s="97">
         <f>SUM(X9:X28)-SUM(Y9:Y28)</f>
         <v>5</v>
       </c>
-      <c r="Y30" s="119"/>
-      <c r="Z30" s="109">
+      <c r="Y30" s="97"/>
+      <c r="Z30" s="94">
         <f>SUM(Z9:Z28)-SUM(AA9:AA28)</f>
         <v>0</v>
       </c>
-      <c r="AA30" s="109"/>
-      <c r="AB30" s="120">
+      <c r="AA30" s="94"/>
+      <c r="AB30" s="98">
         <f>SUM(AB9:AB28)-SUM(AC9:AC28)</f>
         <v>3</v>
       </c>
-      <c r="AC30" s="120"/>
-      <c r="AD30" s="109">
+      <c r="AC30" s="98"/>
+      <c r="AD30" s="94">
         <f>SUM(AD9:AD28)-SUM(AE9:AE28)</f>
         <v>0</v>
       </c>
-      <c r="AE30" s="109"/>
+      <c r="AE30" s="94"/>
       <c r="AF30" s="20"/>
       <c r="AG30" s="9">
         <f t="shared" si="1"/>
@@ -3719,39 +3722,39 @@
       <c r="AH30" s="21"/>
     </row>
     <row r="31" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="121" t="s">
+      <c r="A31" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="122"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="122"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="122"/>
-      <c r="K31" s="122"/>
-      <c r="L31" s="122"/>
-      <c r="M31" s="122"/>
-      <c r="N31" s="122"/>
-      <c r="O31" s="122"/>
-      <c r="P31" s="122"/>
-      <c r="Q31" s="122"/>
-      <c r="R31" s="122"/>
-      <c r="S31" s="122"/>
-      <c r="T31" s="122"/>
-      <c r="U31" s="122"/>
-      <c r="V31" s="122"/>
-      <c r="W31" s="122"/>
-      <c r="X31" s="122"/>
-      <c r="Y31" s="122"/>
-      <c r="Z31" s="122"/>
-      <c r="AA31" s="122"/>
-      <c r="AB31" s="122"/>
-      <c r="AC31" s="122"/>
-      <c r="AD31" s="122"/>
-      <c r="AE31" s="123"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="100"/>
+      <c r="N31" s="100"/>
+      <c r="O31" s="100"/>
+      <c r="P31" s="100"/>
+      <c r="Q31" s="100"/>
+      <c r="R31" s="100"/>
+      <c r="S31" s="100"/>
+      <c r="T31" s="100"/>
+      <c r="U31" s="100"/>
+      <c r="V31" s="100"/>
+      <c r="W31" s="100"/>
+      <c r="X31" s="100"/>
+      <c r="Y31" s="100"/>
+      <c r="Z31" s="100"/>
+      <c r="AA31" s="100"/>
+      <c r="AB31" s="100"/>
+      <c r="AC31" s="100"/>
+      <c r="AD31" s="100"/>
+      <c r="AE31" s="101"/>
       <c r="AF31" s="22">
         <f>SUM(AF9:AF28)</f>
         <v>79</v>
@@ -3763,60 +3766,64 @@
       <c r="AH31" s="23"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="121" t="s">
+      <c r="A32" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="122"/>
-      <c r="C32" s="122"/>
-      <c r="D32" s="122"/>
-      <c r="E32" s="122"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="122"/>
-      <c r="H32" s="122"/>
-      <c r="I32" s="122"/>
-      <c r="J32" s="122"/>
-      <c r="K32" s="122"/>
-      <c r="L32" s="122"/>
-      <c r="M32" s="122"/>
-      <c r="N32" s="122"/>
-      <c r="O32" s="122"/>
-      <c r="P32" s="122"/>
-      <c r="Q32" s="122"/>
-      <c r="R32" s="122"/>
-      <c r="S32" s="122"/>
-      <c r="T32" s="122"/>
-      <c r="U32" s="122"/>
-      <c r="V32" s="122"/>
-      <c r="W32" s="122"/>
-      <c r="X32" s="122"/>
-      <c r="Y32" s="122"/>
-      <c r="Z32" s="122"/>
-      <c r="AA32" s="122"/>
-      <c r="AB32" s="122"/>
-      <c r="AC32" s="122"/>
-      <c r="AD32" s="122"/>
-      <c r="AE32" s="123"/>
-      <c r="AF32" s="115">
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="100"/>
+      <c r="Q32" s="100"/>
+      <c r="R32" s="100"/>
+      <c r="S32" s="100"/>
+      <c r="T32" s="100"/>
+      <c r="U32" s="100"/>
+      <c r="V32" s="100"/>
+      <c r="W32" s="100"/>
+      <c r="X32" s="100"/>
+      <c r="Y32" s="100"/>
+      <c r="Z32" s="100"/>
+      <c r="AA32" s="100"/>
+      <c r="AB32" s="100"/>
+      <c r="AC32" s="100"/>
+      <c r="AD32" s="100"/>
+      <c r="AE32" s="101"/>
+      <c r="AF32" s="92">
         <f>AG31-AF31</f>
         <v>17</v>
       </c>
-      <c r="AG32" s="116"/>
+      <c r="AG32" s="93"/>
       <c r="AH32" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="A31:AE31"/>
-    <mergeCell ref="A32:AE32"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AF8"/>
@@ -3833,22 +3840,18 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="A31:AE31"/>
+    <mergeCell ref="A32:AE32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3878,11 +3881,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
+      <c r="A1" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
       <c r="D1" s="54"/>
       <c r="E1" s="54"/>
       <c r="F1" s="54"/>
@@ -3918,11 +3921,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
       <c r="F2" s="55"/>
@@ -3958,235 +3961,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="95"/>
-      <c r="AD3" s="95"/>
-      <c r="AE3" s="95"/>
-      <c r="AF3" s="95"/>
-      <c r="AG3" s="95"/>
-      <c r="AH3" s="95"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="116"/>
+      <c r="AG3" s="116"/>
+      <c r="AH3" s="116"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="95"/>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="95"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="116"/>
+      <c r="Z4" s="116"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="116"/>
+      <c r="AC4" s="116"/>
+      <c r="AD4" s="116"/>
+      <c r="AE4" s="116"/>
+      <c r="AF4" s="116"/>
+      <c r="AG4" s="116"/>
+      <c r="AH4" s="116"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="95"/>
-      <c r="U5" s="95"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="95"/>
-      <c r="Z5" s="95"/>
-      <c r="AA5" s="95"/>
-      <c r="AB5" s="95"/>
-      <c r="AC5" s="95"/>
-      <c r="AD5" s="95"/>
-      <c r="AE5" s="95"/>
+      <c r="A5" s="116"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116"/>
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="116"/>
+      <c r="AC5" s="116"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="116"/>
       <c r="AF5" s="56"/>
       <c r="AG5" s="56"/>
       <c r="AH5" s="56"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="98"/>
-      <c r="R6" s="98"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="98"/>
-      <c r="V6" s="98"/>
-      <c r="W6" s="98"/>
-      <c r="X6" s="98"/>
-      <c r="Y6" s="98"/>
-      <c r="Z6" s="98"/>
-      <c r="AA6" s="98"/>
-      <c r="AB6" s="98"/>
-      <c r="AC6" s="98"/>
-      <c r="AD6" s="98"/>
-      <c r="AE6" s="98"/>
-      <c r="AF6" s="98"/>
-      <c r="AG6" s="99"/>
-      <c r="AH6" s="92" t="s">
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="119"/>
+      <c r="AC6" s="119"/>
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="119"/>
+      <c r="AF6" s="119"/>
+      <c r="AG6" s="120"/>
+      <c r="AH6" s="103" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="92"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="100" t="s">
+      <c r="A7" s="103"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="92" t="s">
+      <c r="E7" s="121"/>
+      <c r="F7" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="101" t="s">
+      <c r="G7" s="103"/>
+      <c r="H7" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="101"/>
-      <c r="J7" s="92" t="s">
+      <c r="I7" s="122"/>
+      <c r="J7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="92"/>
-      <c r="L7" s="102" t="s">
+      <c r="K7" s="103"/>
+      <c r="L7" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="102"/>
-      <c r="N7" s="92" t="s">
+      <c r="M7" s="123"/>
+      <c r="N7" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="92"/>
-      <c r="P7" s="112" t="s">
+      <c r="O7" s="103"/>
+      <c r="P7" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="92" t="s">
+      <c r="Q7" s="111"/>
+      <c r="R7" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="92"/>
-      <c r="T7" s="113" t="s">
+      <c r="S7" s="103"/>
+      <c r="T7" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="113"/>
-      <c r="V7" s="92" t="s">
+      <c r="U7" s="112"/>
+      <c r="V7" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="92"/>
-      <c r="X7" s="114" t="s">
+      <c r="W7" s="103"/>
+      <c r="X7" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="114"/>
-      <c r="Z7" s="92" t="s">
+      <c r="Y7" s="113"/>
+      <c r="Z7" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="103" t="s">
+      <c r="AA7" s="103"/>
+      <c r="AB7" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="103"/>
-      <c r="AD7" s="92" t="s">
+      <c r="AC7" s="102"/>
+      <c r="AD7" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="92"/>
+      <c r="AE7" s="103"/>
       <c r="AF7" s="104" t="s">
         <v>24</v>
       </c>
       <c r="AG7" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="92"/>
+      <c r="AH7" s="103"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="92"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="92"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="57" t="s">
         <v>26</v>
       </c>
@@ -4273,7 +4276,7 @@
       </c>
       <c r="AF8" s="124"/>
       <c r="AG8" s="124"/>
-      <c r="AH8" s="92"/>
+      <c r="AH8" s="103"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -6100,71 +6103,71 @@
         <v>3</v>
       </c>
       <c r="E49" s="108"/>
-      <c r="F49" s="109">
+      <c r="F49" s="94">
         <f>SUM(F9:F48)-SUM(G9:G48)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="109"/>
-      <c r="H49" s="110">
+      <c r="G49" s="94"/>
+      <c r="H49" s="109">
         <f>SUM(H9:H48)-SUM(I9:I48)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="110"/>
-      <c r="J49" s="109">
+      <c r="I49" s="109"/>
+      <c r="J49" s="94">
         <f>SUM(J9:J48)-SUM(K9:K48)</f>
         <v>0</v>
       </c>
-      <c r="K49" s="109"/>
-      <c r="L49" s="111">
+      <c r="K49" s="94"/>
+      <c r="L49" s="110">
         <f>SUM(L9:L48)-SUM(M9:M48)</f>
         <v>0</v>
       </c>
-      <c r="M49" s="111"/>
-      <c r="N49" s="109">
+      <c r="M49" s="110"/>
+      <c r="N49" s="94">
         <f>SUM(N9:N48)-SUM(O9:O48)</f>
         <v>1</v>
       </c>
-      <c r="O49" s="109"/>
-      <c r="P49" s="117">
+      <c r="O49" s="94"/>
+      <c r="P49" s="95">
         <f>SUM(P9:P48)-SUM(Q9:Q48)</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="117"/>
-      <c r="R49" s="109">
+      <c r="Q49" s="95"/>
+      <c r="R49" s="94">
         <f>SUM(R9:R48)-SUM(S9:S48)</f>
         <v>2</v>
       </c>
-      <c r="S49" s="109"/>
-      <c r="T49" s="118">
+      <c r="S49" s="94"/>
+      <c r="T49" s="96">
         <f>SUM(T9:T48)-SUM(U9:U48)</f>
         <v>0</v>
       </c>
-      <c r="U49" s="118"/>
-      <c r="V49" s="109">
+      <c r="U49" s="96"/>
+      <c r="V49" s="94">
         <f>SUM(V9:V48)-SUM(W9:W48)</f>
         <v>0</v>
       </c>
-      <c r="W49" s="109"/>
-      <c r="X49" s="119">
+      <c r="W49" s="94"/>
+      <c r="X49" s="97">
         <f>SUM(X9:X48)-SUM(Y9:Y48)</f>
         <v>4</v>
       </c>
-      <c r="Y49" s="119"/>
-      <c r="Z49" s="109">
+      <c r="Y49" s="97"/>
+      <c r="Z49" s="94">
         <f>SUM(Z9:Z48)-SUM(AA9:AA48)</f>
         <v>3</v>
       </c>
-      <c r="AA49" s="109"/>
-      <c r="AB49" s="120">
+      <c r="AA49" s="94"/>
+      <c r="AB49" s="98">
         <f>SUM(AB9:AB48)-SUM(AC9:AC48)</f>
         <v>3</v>
       </c>
-      <c r="AC49" s="120"/>
-      <c r="AD49" s="109">
+      <c r="AC49" s="98"/>
+      <c r="AD49" s="94">
         <f>SUM(AD9:AD48)-SUM(AE9:AE48)</f>
         <v>0</v>
       </c>
-      <c r="AE49" s="109"/>
+      <c r="AE49" s="94"/>
       <c r="AF49" s="20"/>
       <c r="AG49" s="9">
         <f>D49+F49+H49+J49+L49+N49+P49+R49+T49+V49+X49+Z49+AB49+AD49</f>
@@ -6173,39 +6176,39 @@
       <c r="AH49" s="21"/>
     </row>
     <row r="50" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="121" t="s">
+      <c r="A50" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="122"/>
-      <c r="C50" s="122"/>
-      <c r="D50" s="122"/>
-      <c r="E50" s="122"/>
-      <c r="F50" s="122"/>
-      <c r="G50" s="122"/>
-      <c r="H50" s="122"/>
-      <c r="I50" s="122"/>
-      <c r="J50" s="122"/>
-      <c r="K50" s="122"/>
-      <c r="L50" s="122"/>
-      <c r="M50" s="122"/>
-      <c r="N50" s="122"/>
-      <c r="O50" s="122"/>
-      <c r="P50" s="122"/>
-      <c r="Q50" s="122"/>
-      <c r="R50" s="122"/>
-      <c r="S50" s="122"/>
-      <c r="T50" s="122"/>
-      <c r="U50" s="122"/>
-      <c r="V50" s="122"/>
-      <c r="W50" s="122"/>
-      <c r="X50" s="122"/>
-      <c r="Y50" s="122"/>
-      <c r="Z50" s="122"/>
-      <c r="AA50" s="122"/>
-      <c r="AB50" s="122"/>
-      <c r="AC50" s="122"/>
-      <c r="AD50" s="122"/>
-      <c r="AE50" s="123"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="100"/>
+      <c r="K50" s="100"/>
+      <c r="L50" s="100"/>
+      <c r="M50" s="100"/>
+      <c r="N50" s="100"/>
+      <c r="O50" s="100"/>
+      <c r="P50" s="100"/>
+      <c r="Q50" s="100"/>
+      <c r="R50" s="100"/>
+      <c r="S50" s="100"/>
+      <c r="T50" s="100"/>
+      <c r="U50" s="100"/>
+      <c r="V50" s="100"/>
+      <c r="W50" s="100"/>
+      <c r="X50" s="100"/>
+      <c r="Y50" s="100"/>
+      <c r="Z50" s="100"/>
+      <c r="AA50" s="100"/>
+      <c r="AB50" s="100"/>
+      <c r="AC50" s="100"/>
+      <c r="AD50" s="100"/>
+      <c r="AE50" s="101"/>
       <c r="AF50" s="22">
         <f>SUM(AF9:AF48)</f>
         <v>18</v>
@@ -6217,48 +6220,75 @@
       <c r="AH50" s="23"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="121" t="s">
+      <c r="A51" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="122"/>
-      <c r="C51" s="122"/>
-      <c r="D51" s="122"/>
-      <c r="E51" s="122"/>
-      <c r="F51" s="122"/>
-      <c r="G51" s="122"/>
-      <c r="H51" s="122"/>
-      <c r="I51" s="122"/>
-      <c r="J51" s="122"/>
-      <c r="K51" s="122"/>
-      <c r="L51" s="122"/>
-      <c r="M51" s="122"/>
-      <c r="N51" s="122"/>
-      <c r="O51" s="122"/>
-      <c r="P51" s="122"/>
-      <c r="Q51" s="122"/>
-      <c r="R51" s="122"/>
-      <c r="S51" s="122"/>
-      <c r="T51" s="122"/>
-      <c r="U51" s="122"/>
-      <c r="V51" s="122"/>
-      <c r="W51" s="122"/>
-      <c r="X51" s="122"/>
-      <c r="Y51" s="122"/>
-      <c r="Z51" s="122"/>
-      <c r="AA51" s="122"/>
-      <c r="AB51" s="122"/>
-      <c r="AC51" s="122"/>
-      <c r="AD51" s="122"/>
-      <c r="AE51" s="123"/>
-      <c r="AF51" s="115">
+      <c r="B51" s="100"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="100"/>
+      <c r="J51" s="100"/>
+      <c r="K51" s="100"/>
+      <c r="L51" s="100"/>
+      <c r="M51" s="100"/>
+      <c r="N51" s="100"/>
+      <c r="O51" s="100"/>
+      <c r="P51" s="100"/>
+      <c r="Q51" s="100"/>
+      <c r="R51" s="100"/>
+      <c r="S51" s="100"/>
+      <c r="T51" s="100"/>
+      <c r="U51" s="100"/>
+      <c r="V51" s="100"/>
+      <c r="W51" s="100"/>
+      <c r="X51" s="100"/>
+      <c r="Y51" s="100"/>
+      <c r="Z51" s="100"/>
+      <c r="AA51" s="100"/>
+      <c r="AB51" s="100"/>
+      <c r="AC51" s="100"/>
+      <c r="AD51" s="100"/>
+      <c r="AE51" s="101"/>
+      <c r="AF51" s="92">
         <f>AG50-AF50</f>
         <v>16</v>
       </c>
-      <c r="AG51" s="116"/>
+      <c r="AG51" s="93"/>
       <c r="AH51" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="A50:AE50"/>
+    <mergeCell ref="A51:AE51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -6275,33 +6305,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AD49:AE49"/>
-    <mergeCell ref="A50:AE50"/>
-    <mergeCell ref="A51:AE51"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="Z49:AA49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6313,7 +6316,7 @@
   <dimension ref="A1:AH51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="X49" sqref="X49:Y49"/>
+      <selection activeCell="R49" sqref="R49:S49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6329,11 +6332,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
+      <c r="A1" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
       <c r="D1" s="82"/>
       <c r="E1" s="82"/>
       <c r="F1" s="82"/>
@@ -6369,11 +6372,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
       <c r="D2" s="83"/>
       <c r="E2" s="83"/>
       <c r="F2" s="83"/>
@@ -6409,235 +6412,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="95"/>
-      <c r="AD3" s="95"/>
-      <c r="AE3" s="95"/>
-      <c r="AF3" s="95"/>
-      <c r="AG3" s="95"/>
-      <c r="AH3" s="95"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="116"/>
+      <c r="AG3" s="116"/>
+      <c r="AH3" s="116"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="95"/>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="95"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="116"/>
+      <c r="Z4" s="116"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="116"/>
+      <c r="AC4" s="116"/>
+      <c r="AD4" s="116"/>
+      <c r="AE4" s="116"/>
+      <c r="AF4" s="116"/>
+      <c r="AG4" s="116"/>
+      <c r="AH4" s="116"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="95"/>
-      <c r="U5" s="95"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="95"/>
-      <c r="Z5" s="95"/>
-      <c r="AA5" s="95"/>
-      <c r="AB5" s="95"/>
-      <c r="AC5" s="95"/>
-      <c r="AD5" s="95"/>
-      <c r="AE5" s="95"/>
+      <c r="A5" s="116"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116"/>
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="116"/>
+      <c r="AC5" s="116"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="116"/>
       <c r="AF5" s="84"/>
       <c r="AG5" s="84"/>
       <c r="AH5" s="84"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="98"/>
-      <c r="R6" s="98"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="98"/>
-      <c r="V6" s="98"/>
-      <c r="W6" s="98"/>
-      <c r="X6" s="98"/>
-      <c r="Y6" s="98"/>
-      <c r="Z6" s="98"/>
-      <c r="AA6" s="98"/>
-      <c r="AB6" s="98"/>
-      <c r="AC6" s="98"/>
-      <c r="AD6" s="98"/>
-      <c r="AE6" s="98"/>
-      <c r="AF6" s="98"/>
-      <c r="AG6" s="99"/>
-      <c r="AH6" s="92" t="s">
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="119"/>
+      <c r="AC6" s="119"/>
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="119"/>
+      <c r="AF6" s="119"/>
+      <c r="AG6" s="120"/>
+      <c r="AH6" s="103" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="92"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="100" t="s">
+      <c r="A7" s="103"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="92" t="s">
+      <c r="E7" s="121"/>
+      <c r="F7" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="101" t="s">
+      <c r="G7" s="103"/>
+      <c r="H7" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="101"/>
-      <c r="J7" s="92" t="s">
+      <c r="I7" s="122"/>
+      <c r="J7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="92"/>
-      <c r="L7" s="102" t="s">
+      <c r="K7" s="103"/>
+      <c r="L7" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="102"/>
-      <c r="N7" s="92" t="s">
+      <c r="M7" s="123"/>
+      <c r="N7" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="92"/>
-      <c r="P7" s="112" t="s">
+      <c r="O7" s="103"/>
+      <c r="P7" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="92" t="s">
+      <c r="Q7" s="111"/>
+      <c r="R7" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="92"/>
-      <c r="T7" s="113" t="s">
+      <c r="S7" s="103"/>
+      <c r="T7" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="113"/>
-      <c r="V7" s="92" t="s">
+      <c r="U7" s="112"/>
+      <c r="V7" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="92"/>
-      <c r="X7" s="114" t="s">
+      <c r="W7" s="103"/>
+      <c r="X7" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="114"/>
-      <c r="Z7" s="92" t="s">
+      <c r="Y7" s="113"/>
+      <c r="Z7" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="103" t="s">
+      <c r="AA7" s="103"/>
+      <c r="AB7" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="103"/>
-      <c r="AD7" s="92" t="s">
+      <c r="AC7" s="102"/>
+      <c r="AD7" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="92"/>
+      <c r="AE7" s="103"/>
       <c r="AF7" s="104" t="s">
         <v>24</v>
       </c>
       <c r="AG7" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="92"/>
+      <c r="AH7" s="103"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="92"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="92"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="85" t="s">
         <v>26</v>
       </c>
@@ -6724,7 +6727,7 @@
       </c>
       <c r="AF8" s="124"/>
       <c r="AG8" s="124"/>
-      <c r="AH8" s="92"/>
+      <c r="AH8" s="103"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
@@ -6934,8 +6937,12 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="13">
+        <v>44042</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
       <c r="F13" s="14"/>
@@ -6999,7 +7006,9 @@
       <c r="V14" s="16"/>
       <c r="W14" s="16"/>
       <c r="X14" s="52"/>
-      <c r="Y14" s="52"/>
+      <c r="Y14" s="52">
+        <v>2</v>
+      </c>
       <c r="Z14" s="16"/>
       <c r="AA14" s="16"/>
       <c r="AB14" s="36"/>
@@ -7008,7 +7017,7 @@
       <c r="AE14" s="16"/>
       <c r="AF14" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG14" s="14">
         <f t="shared" si="1"/>
@@ -8491,115 +8500,115 @@
         <v>0</v>
       </c>
       <c r="E49" s="108"/>
-      <c r="F49" s="109">
+      <c r="F49" s="94">
         <f>SUM(F9:F48)-SUM(G9:G48)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="109"/>
-      <c r="H49" s="110">
+      <c r="G49" s="94"/>
+      <c r="H49" s="109">
         <f>SUM(H9:H48)-SUM(I9:I48)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="110"/>
-      <c r="J49" s="109">
+      <c r="I49" s="109"/>
+      <c r="J49" s="94">
         <f>SUM(J9:J48)-SUM(K9:K48)</f>
         <v>0</v>
       </c>
-      <c r="K49" s="109"/>
-      <c r="L49" s="111">
+      <c r="K49" s="94"/>
+      <c r="L49" s="110">
         <f>SUM(L9:L48)-SUM(M9:M48)</f>
         <v>0</v>
       </c>
-      <c r="M49" s="111"/>
-      <c r="N49" s="109">
+      <c r="M49" s="110"/>
+      <c r="N49" s="94">
         <f>SUM(N9:N48)-SUM(O9:O48)</f>
         <v>0</v>
       </c>
-      <c r="O49" s="109"/>
-      <c r="P49" s="117">
+      <c r="O49" s="94"/>
+      <c r="P49" s="95">
         <f>SUM(P9:P48)-SUM(Q9:Q48)</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="117"/>
-      <c r="R49" s="109">
+      <c r="Q49" s="95"/>
+      <c r="R49" s="94">
         <f>SUM(R9:R48)-SUM(S9:S48)</f>
         <v>1</v>
       </c>
-      <c r="S49" s="109"/>
-      <c r="T49" s="118">
+      <c r="S49" s="94"/>
+      <c r="T49" s="96">
         <f>SUM(T9:T48)-SUM(U9:U48)</f>
         <v>0</v>
       </c>
-      <c r="U49" s="118"/>
-      <c r="V49" s="109">
+      <c r="U49" s="96"/>
+      <c r="V49" s="94">
         <f>SUM(V9:V48)-SUM(W9:W48)</f>
         <v>0</v>
       </c>
-      <c r="W49" s="109"/>
-      <c r="X49" s="119">
+      <c r="W49" s="94"/>
+      <c r="X49" s="97">
         <f>SUM(X9:X48)-SUM(Y9:Y48)</f>
-        <v>3</v>
-      </c>
-      <c r="Y49" s="119"/>
-      <c r="Z49" s="109">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="97"/>
+      <c r="Z49" s="94">
         <f>SUM(Z9:Z48)-SUM(AA9:AA48)</f>
         <v>3</v>
       </c>
-      <c r="AA49" s="109"/>
-      <c r="AB49" s="120">
+      <c r="AA49" s="94"/>
+      <c r="AB49" s="98">
         <f>SUM(AB9:AB48)-SUM(AC9:AC48)</f>
         <v>0</v>
       </c>
-      <c r="AC49" s="120"/>
-      <c r="AD49" s="109">
+      <c r="AC49" s="98"/>
+      <c r="AD49" s="94">
         <f>SUM(AD9:AD48)-SUM(AE9:AE48)</f>
         <v>0</v>
       </c>
-      <c r="AE49" s="109"/>
+      <c r="AE49" s="94"/>
       <c r="AF49" s="20"/>
       <c r="AG49" s="9">
         <f>D49+F49+H49+J49+L49+N49+P49+R49+T49+V49+X49+Z49+AB49+AD49</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH49" s="21"/>
     </row>
     <row r="50" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="121" t="s">
+      <c r="A50" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="122"/>
-      <c r="C50" s="122"/>
-      <c r="D50" s="122"/>
-      <c r="E50" s="122"/>
-      <c r="F50" s="122"/>
-      <c r="G50" s="122"/>
-      <c r="H50" s="122"/>
-      <c r="I50" s="122"/>
-      <c r="J50" s="122"/>
-      <c r="K50" s="122"/>
-      <c r="L50" s="122"/>
-      <c r="M50" s="122"/>
-      <c r="N50" s="122"/>
-      <c r="O50" s="122"/>
-      <c r="P50" s="122"/>
-      <c r="Q50" s="122"/>
-      <c r="R50" s="122"/>
-      <c r="S50" s="122"/>
-      <c r="T50" s="122"/>
-      <c r="U50" s="122"/>
-      <c r="V50" s="122"/>
-      <c r="W50" s="122"/>
-      <c r="X50" s="122"/>
-      <c r="Y50" s="122"/>
-      <c r="Z50" s="122"/>
-      <c r="AA50" s="122"/>
-      <c r="AB50" s="122"/>
-      <c r="AC50" s="122"/>
-      <c r="AD50" s="122"/>
-      <c r="AE50" s="123"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="100"/>
+      <c r="K50" s="100"/>
+      <c r="L50" s="100"/>
+      <c r="M50" s="100"/>
+      <c r="N50" s="100"/>
+      <c r="O50" s="100"/>
+      <c r="P50" s="100"/>
+      <c r="Q50" s="100"/>
+      <c r="R50" s="100"/>
+      <c r="S50" s="100"/>
+      <c r="T50" s="100"/>
+      <c r="U50" s="100"/>
+      <c r="V50" s="100"/>
+      <c r="W50" s="100"/>
+      <c r="X50" s="100"/>
+      <c r="Y50" s="100"/>
+      <c r="Z50" s="100"/>
+      <c r="AA50" s="100"/>
+      <c r="AB50" s="100"/>
+      <c r="AC50" s="100"/>
+      <c r="AD50" s="100"/>
+      <c r="AE50" s="101"/>
       <c r="AF50" s="22">
         <f>SUM(AF9:AF48)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG50" s="22">
         <f>SUM(AG9:AG48)</f>
@@ -8608,48 +8617,75 @@
       <c r="AH50" s="23"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="121" t="s">
+      <c r="A51" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="122"/>
-      <c r="C51" s="122"/>
-      <c r="D51" s="122"/>
-      <c r="E51" s="122"/>
-      <c r="F51" s="122"/>
-      <c r="G51" s="122"/>
-      <c r="H51" s="122"/>
-      <c r="I51" s="122"/>
-      <c r="J51" s="122"/>
-      <c r="K51" s="122"/>
-      <c r="L51" s="122"/>
-      <c r="M51" s="122"/>
-      <c r="N51" s="122"/>
-      <c r="O51" s="122"/>
-      <c r="P51" s="122"/>
-      <c r="Q51" s="122"/>
-      <c r="R51" s="122"/>
-      <c r="S51" s="122"/>
-      <c r="T51" s="122"/>
-      <c r="U51" s="122"/>
-      <c r="V51" s="122"/>
-      <c r="W51" s="122"/>
-      <c r="X51" s="122"/>
-      <c r="Y51" s="122"/>
-      <c r="Z51" s="122"/>
-      <c r="AA51" s="122"/>
-      <c r="AB51" s="122"/>
-      <c r="AC51" s="122"/>
-      <c r="AD51" s="122"/>
-      <c r="AE51" s="123"/>
-      <c r="AF51" s="115">
+      <c r="B51" s="100"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="100"/>
+      <c r="J51" s="100"/>
+      <c r="K51" s="100"/>
+      <c r="L51" s="100"/>
+      <c r="M51" s="100"/>
+      <c r="N51" s="100"/>
+      <c r="O51" s="100"/>
+      <c r="P51" s="100"/>
+      <c r="Q51" s="100"/>
+      <c r="R51" s="100"/>
+      <c r="S51" s="100"/>
+      <c r="T51" s="100"/>
+      <c r="U51" s="100"/>
+      <c r="V51" s="100"/>
+      <c r="W51" s="100"/>
+      <c r="X51" s="100"/>
+      <c r="Y51" s="100"/>
+      <c r="Z51" s="100"/>
+      <c r="AA51" s="100"/>
+      <c r="AB51" s="100"/>
+      <c r="AC51" s="100"/>
+      <c r="AD51" s="100"/>
+      <c r="AE51" s="101"/>
+      <c r="AF51" s="92">
         <f>AG50-AF50</f>
-        <v>7</v>
-      </c>
-      <c r="AG51" s="116"/>
+        <v>5</v>
+      </c>
+      <c r="AG51" s="93"/>
       <c r="AH51" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="A50:AE50"/>
+    <mergeCell ref="A51:AE51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -8666,33 +8702,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AD49:AE49"/>
-    <mergeCell ref="A50:AE50"/>
-    <mergeCell ref="A51:AE51"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="Z49:AA49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
@@ -1060,7 +1060,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="67">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1252,6 +1252,15 @@
   </si>
   <si>
     <t>ChỊ Hồng Sơn La</t>
+  </si>
+  <si>
+    <t>Gộp đơn 3s tử du</t>
+  </si>
+  <si>
+    <t>Chị Thảo tp Việt Trì trả hàng</t>
+  </si>
+  <si>
+    <t>Chị Hải Lào Cai trả hàng</t>
   </si>
 </sst>
 </file>
@@ -1570,7 +1579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1741,70 +1750,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1837,9 +1783,73 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2165,11 +2175,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
+      <c r="A1" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
       <c r="D1" s="75"/>
       <c r="E1" s="75"/>
       <c r="F1" s="75"/>
@@ -2205,11 +2215,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
       <c r="D2" s="76"/>
       <c r="E2" s="76"/>
       <c r="F2" s="76"/>
@@ -2245,235 +2255,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="116"/>
-      <c r="U3" s="116"/>
-      <c r="V3" s="116"/>
-      <c r="W3" s="116"/>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="116"/>
-      <c r="AH3" s="116"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="95"/>
+      <c r="V3" s="95"/>
+      <c r="W3" s="95"/>
+      <c r="X3" s="95"/>
+      <c r="Y3" s="95"/>
+      <c r="Z3" s="95"/>
+      <c r="AA3" s="95"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="95"/>
+      <c r="AD3" s="95"/>
+      <c r="AE3" s="95"/>
+      <c r="AF3" s="95"/>
+      <c r="AG3" s="95"/>
+      <c r="AH3" s="95"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="116"/>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="116"/>
-      <c r="AD4" s="116"/>
-      <c r="AE4" s="116"/>
-      <c r="AF4" s="116"/>
-      <c r="AG4" s="116"/>
-      <c r="AH4" s="116"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="95"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="116"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
-      <c r="U5" s="116"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="116"/>
-      <c r="X5" s="116"/>
-      <c r="Y5" s="116"/>
-      <c r="Z5" s="116"/>
-      <c r="AA5" s="116"/>
-      <c r="AB5" s="116"/>
-      <c r="AC5" s="116"/>
-      <c r="AD5" s="116"/>
-      <c r="AE5" s="116"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="95"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="95"/>
+      <c r="AA5" s="95"/>
+      <c r="AB5" s="95"/>
+      <c r="AC5" s="95"/>
+      <c r="AD5" s="95"/>
+      <c r="AE5" s="95"/>
       <c r="AF5" s="77"/>
       <c r="AG5" s="77"/>
       <c r="AH5" s="77"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="118" t="s">
+      <c r="D6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119"/>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="119"/>
-      <c r="T6" s="119"/>
-      <c r="U6" s="119"/>
-      <c r="V6" s="119"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="119"/>
-      <c r="Y6" s="119"/>
-      <c r="Z6" s="119"/>
-      <c r="AA6" s="119"/>
-      <c r="AB6" s="119"/>
-      <c r="AC6" s="119"/>
-      <c r="AD6" s="119"/>
-      <c r="AE6" s="119"/>
-      <c r="AF6" s="119"/>
-      <c r="AG6" s="120"/>
-      <c r="AH6" s="103" t="s">
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="98"/>
+      <c r="R6" s="98"/>
+      <c r="S6" s="98"/>
+      <c r="T6" s="98"/>
+      <c r="U6" s="98"/>
+      <c r="V6" s="98"/>
+      <c r="W6" s="98"/>
+      <c r="X6" s="98"/>
+      <c r="Y6" s="98"/>
+      <c r="Z6" s="98"/>
+      <c r="AA6" s="98"/>
+      <c r="AB6" s="98"/>
+      <c r="AC6" s="98"/>
+      <c r="AD6" s="98"/>
+      <c r="AE6" s="98"/>
+      <c r="AF6" s="98"/>
+      <c r="AG6" s="99"/>
+      <c r="AH6" s="92" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="103"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="121" t="s">
+      <c r="A7" s="92"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="103" t="s">
+      <c r="E7" s="100"/>
+      <c r="F7" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="103"/>
-      <c r="H7" s="122" t="s">
+      <c r="G7" s="92"/>
+      <c r="H7" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="122"/>
-      <c r="J7" s="103" t="s">
+      <c r="I7" s="101"/>
+      <c r="J7" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="103"/>
-      <c r="L7" s="123" t="s">
+      <c r="K7" s="92"/>
+      <c r="L7" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="123"/>
-      <c r="N7" s="103" t="s">
+      <c r="M7" s="102"/>
+      <c r="N7" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="103"/>
-      <c r="P7" s="111" t="s">
+      <c r="O7" s="92"/>
+      <c r="P7" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="103" t="s">
+      <c r="Q7" s="112"/>
+      <c r="R7" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="103"/>
-      <c r="T7" s="112" t="s">
+      <c r="S7" s="92"/>
+      <c r="T7" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="112"/>
-      <c r="V7" s="103" t="s">
+      <c r="U7" s="113"/>
+      <c r="V7" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="103"/>
-      <c r="X7" s="113" t="s">
+      <c r="W7" s="92"/>
+      <c r="X7" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="113"/>
-      <c r="Z7" s="103" t="s">
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="103"/>
-      <c r="AB7" s="102" t="s">
+      <c r="AA7" s="92"/>
+      <c r="AB7" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="102"/>
-      <c r="AD7" s="103" t="s">
+      <c r="AC7" s="103"/>
+      <c r="AD7" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="103"/>
+      <c r="AE7" s="92"/>
       <c r="AF7" s="104" t="s">
         <v>24</v>
       </c>
       <c r="AG7" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="103"/>
+      <c r="AH7" s="92"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="103"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="103"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="78" t="s">
         <v>26</v>
       </c>
@@ -2560,7 +2570,7 @@
       </c>
       <c r="AF8" s="105"/>
       <c r="AG8" s="105"/>
-      <c r="AH8" s="103"/>
+      <c r="AH8" s="92"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -3649,71 +3659,71 @@
         <v>0</v>
       </c>
       <c r="E30" s="108"/>
-      <c r="F30" s="94">
+      <c r="F30" s="109">
         <f>SUM(F9:F28)-SUM(G9:G28)</f>
         <v>4</v>
       </c>
-      <c r="G30" s="94"/>
-      <c r="H30" s="109">
+      <c r="G30" s="109"/>
+      <c r="H30" s="110">
         <f>SUM(H9:H28)-SUM(I9:I28)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="109"/>
-      <c r="J30" s="94">
+      <c r="I30" s="110"/>
+      <c r="J30" s="109">
         <f>SUM(J9:J28)-SUM(K9:K28)</f>
         <v>1</v>
       </c>
-      <c r="K30" s="94"/>
-      <c r="L30" s="110">
+      <c r="K30" s="109"/>
+      <c r="L30" s="111">
         <f>SUM(L9:L28)-SUM(M9:M28)</f>
         <v>0</v>
       </c>
-      <c r="M30" s="110"/>
-      <c r="N30" s="94">
+      <c r="M30" s="111"/>
+      <c r="N30" s="109">
         <f>SUM(N9:N28)-SUM(O9:O28)</f>
         <v>2</v>
       </c>
-      <c r="O30" s="94"/>
-      <c r="P30" s="95">
+      <c r="O30" s="109"/>
+      <c r="P30" s="117">
         <f>SUM(P9:P28)-SUM(Q9:Q28)</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="94">
+      <c r="Q30" s="117"/>
+      <c r="R30" s="109">
         <f>SUM(R9:R28)-SUM(S9:S28)</f>
         <v>2</v>
       </c>
-      <c r="S30" s="94"/>
-      <c r="T30" s="96">
+      <c r="S30" s="109"/>
+      <c r="T30" s="118">
         <f>SUM(T9:T28)-SUM(U9:U28)</f>
         <v>0</v>
       </c>
-      <c r="U30" s="96"/>
-      <c r="V30" s="94">
+      <c r="U30" s="118"/>
+      <c r="V30" s="109">
         <f>SUM(V9:V28)-SUM(W9:W28)</f>
         <v>0</v>
       </c>
-      <c r="W30" s="94"/>
-      <c r="X30" s="97">
+      <c r="W30" s="109"/>
+      <c r="X30" s="119">
         <f>SUM(X9:X28)-SUM(Y9:Y28)</f>
         <v>5</v>
       </c>
-      <c r="Y30" s="97"/>
-      <c r="Z30" s="94">
+      <c r="Y30" s="119"/>
+      <c r="Z30" s="109">
         <f>SUM(Z9:Z28)-SUM(AA9:AA28)</f>
         <v>0</v>
       </c>
-      <c r="AA30" s="94"/>
-      <c r="AB30" s="98">
+      <c r="AA30" s="109"/>
+      <c r="AB30" s="120">
         <f>SUM(AB9:AB28)-SUM(AC9:AC28)</f>
         <v>3</v>
       </c>
-      <c r="AC30" s="98"/>
-      <c r="AD30" s="94">
+      <c r="AC30" s="120"/>
+      <c r="AD30" s="109">
         <f>SUM(AD9:AD28)-SUM(AE9:AE28)</f>
         <v>0</v>
       </c>
-      <c r="AE30" s="94"/>
+      <c r="AE30" s="109"/>
       <c r="AF30" s="20"/>
       <c r="AG30" s="9">
         <f t="shared" si="1"/>
@@ -3722,39 +3732,39 @@
       <c r="AH30" s="21"/>
     </row>
     <row r="31" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="99" t="s">
+      <c r="A31" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="100"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="100"/>
-      <c r="M31" s="100"/>
-      <c r="N31" s="100"/>
-      <c r="O31" s="100"/>
-      <c r="P31" s="100"/>
-      <c r="Q31" s="100"/>
-      <c r="R31" s="100"/>
-      <c r="S31" s="100"/>
-      <c r="T31" s="100"/>
-      <c r="U31" s="100"/>
-      <c r="V31" s="100"/>
-      <c r="W31" s="100"/>
-      <c r="X31" s="100"/>
-      <c r="Y31" s="100"/>
-      <c r="Z31" s="100"/>
-      <c r="AA31" s="100"/>
-      <c r="AB31" s="100"/>
-      <c r="AC31" s="100"/>
-      <c r="AD31" s="100"/>
-      <c r="AE31" s="101"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="122"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="122"/>
+      <c r="M31" s="122"/>
+      <c r="N31" s="122"/>
+      <c r="O31" s="122"/>
+      <c r="P31" s="122"/>
+      <c r="Q31" s="122"/>
+      <c r="R31" s="122"/>
+      <c r="S31" s="122"/>
+      <c r="T31" s="122"/>
+      <c r="U31" s="122"/>
+      <c r="V31" s="122"/>
+      <c r="W31" s="122"/>
+      <c r="X31" s="122"/>
+      <c r="Y31" s="122"/>
+      <c r="Z31" s="122"/>
+      <c r="AA31" s="122"/>
+      <c r="AB31" s="122"/>
+      <c r="AC31" s="122"/>
+      <c r="AD31" s="122"/>
+      <c r="AE31" s="123"/>
       <c r="AF31" s="22">
         <f>SUM(AF9:AF28)</f>
         <v>79</v>
@@ -3766,48 +3776,76 @@
       <c r="AH31" s="23"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="99" t="s">
+      <c r="A32" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="100"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="100"/>
-      <c r="N32" s="100"/>
-      <c r="O32" s="100"/>
-      <c r="P32" s="100"/>
-      <c r="Q32" s="100"/>
-      <c r="R32" s="100"/>
-      <c r="S32" s="100"/>
-      <c r="T32" s="100"/>
-      <c r="U32" s="100"/>
-      <c r="V32" s="100"/>
-      <c r="W32" s="100"/>
-      <c r="X32" s="100"/>
-      <c r="Y32" s="100"/>
-      <c r="Z32" s="100"/>
-      <c r="AA32" s="100"/>
-      <c r="AB32" s="100"/>
-      <c r="AC32" s="100"/>
-      <c r="AD32" s="100"/>
-      <c r="AE32" s="101"/>
-      <c r="AF32" s="92">
+      <c r="B32" s="122"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="122"/>
+      <c r="K32" s="122"/>
+      <c r="L32" s="122"/>
+      <c r="M32" s="122"/>
+      <c r="N32" s="122"/>
+      <c r="O32" s="122"/>
+      <c r="P32" s="122"/>
+      <c r="Q32" s="122"/>
+      <c r="R32" s="122"/>
+      <c r="S32" s="122"/>
+      <c r="T32" s="122"/>
+      <c r="U32" s="122"/>
+      <c r="V32" s="122"/>
+      <c r="W32" s="122"/>
+      <c r="X32" s="122"/>
+      <c r="Y32" s="122"/>
+      <c r="Z32" s="122"/>
+      <c r="AA32" s="122"/>
+      <c r="AB32" s="122"/>
+      <c r="AC32" s="122"/>
+      <c r="AD32" s="122"/>
+      <c r="AE32" s="123"/>
+      <c r="AF32" s="115">
         <f>AG31-AF31</f>
         <v>17</v>
       </c>
-      <c r="AG32" s="93"/>
+      <c r="AG32" s="116"/>
       <c r="AH32" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="A31:AE31"/>
+    <mergeCell ref="A32:AE32"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -3824,34 +3862,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="A31:AE31"/>
-    <mergeCell ref="A32:AE32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3881,11 +3891,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
+      <c r="A1" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
       <c r="D1" s="54"/>
       <c r="E1" s="54"/>
       <c r="F1" s="54"/>
@@ -3921,11 +3931,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
       <c r="F2" s="55"/>
@@ -3961,235 +3971,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="116"/>
-      <c r="U3" s="116"/>
-      <c r="V3" s="116"/>
-      <c r="W3" s="116"/>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="116"/>
-      <c r="AH3" s="116"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="95"/>
+      <c r="V3" s="95"/>
+      <c r="W3" s="95"/>
+      <c r="X3" s="95"/>
+      <c r="Y3" s="95"/>
+      <c r="Z3" s="95"/>
+      <c r="AA3" s="95"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="95"/>
+      <c r="AD3" s="95"/>
+      <c r="AE3" s="95"/>
+      <c r="AF3" s="95"/>
+      <c r="AG3" s="95"/>
+      <c r="AH3" s="95"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="116"/>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="116"/>
-      <c r="AD4" s="116"/>
-      <c r="AE4" s="116"/>
-      <c r="AF4" s="116"/>
-      <c r="AG4" s="116"/>
-      <c r="AH4" s="116"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="95"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="116"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
-      <c r="U5" s="116"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="116"/>
-      <c r="X5" s="116"/>
-      <c r="Y5" s="116"/>
-      <c r="Z5" s="116"/>
-      <c r="AA5" s="116"/>
-      <c r="AB5" s="116"/>
-      <c r="AC5" s="116"/>
-      <c r="AD5" s="116"/>
-      <c r="AE5" s="116"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="95"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="95"/>
+      <c r="AA5" s="95"/>
+      <c r="AB5" s="95"/>
+      <c r="AC5" s="95"/>
+      <c r="AD5" s="95"/>
+      <c r="AE5" s="95"/>
       <c r="AF5" s="56"/>
       <c r="AG5" s="56"/>
       <c r="AH5" s="56"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="118" t="s">
+      <c r="D6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119"/>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="119"/>
-      <c r="T6" s="119"/>
-      <c r="U6" s="119"/>
-      <c r="V6" s="119"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="119"/>
-      <c r="Y6" s="119"/>
-      <c r="Z6" s="119"/>
-      <c r="AA6" s="119"/>
-      <c r="AB6" s="119"/>
-      <c r="AC6" s="119"/>
-      <c r="AD6" s="119"/>
-      <c r="AE6" s="119"/>
-      <c r="AF6" s="119"/>
-      <c r="AG6" s="120"/>
-      <c r="AH6" s="103" t="s">
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="98"/>
+      <c r="R6" s="98"/>
+      <c r="S6" s="98"/>
+      <c r="T6" s="98"/>
+      <c r="U6" s="98"/>
+      <c r="V6" s="98"/>
+      <c r="W6" s="98"/>
+      <c r="X6" s="98"/>
+      <c r="Y6" s="98"/>
+      <c r="Z6" s="98"/>
+      <c r="AA6" s="98"/>
+      <c r="AB6" s="98"/>
+      <c r="AC6" s="98"/>
+      <c r="AD6" s="98"/>
+      <c r="AE6" s="98"/>
+      <c r="AF6" s="98"/>
+      <c r="AG6" s="99"/>
+      <c r="AH6" s="92" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="103"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="121" t="s">
+      <c r="A7" s="92"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="103" t="s">
+      <c r="E7" s="100"/>
+      <c r="F7" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="103"/>
-      <c r="H7" s="122" t="s">
+      <c r="G7" s="92"/>
+      <c r="H7" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="122"/>
-      <c r="J7" s="103" t="s">
+      <c r="I7" s="101"/>
+      <c r="J7" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="103"/>
-      <c r="L7" s="123" t="s">
+      <c r="K7" s="92"/>
+      <c r="L7" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="123"/>
-      <c r="N7" s="103" t="s">
+      <c r="M7" s="102"/>
+      <c r="N7" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="103"/>
-      <c r="P7" s="111" t="s">
+      <c r="O7" s="92"/>
+      <c r="P7" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="103" t="s">
+      <c r="Q7" s="112"/>
+      <c r="R7" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="103"/>
-      <c r="T7" s="112" t="s">
+      <c r="S7" s="92"/>
+      <c r="T7" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="112"/>
-      <c r="V7" s="103" t="s">
+      <c r="U7" s="113"/>
+      <c r="V7" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="103"/>
-      <c r="X7" s="113" t="s">
+      <c r="W7" s="92"/>
+      <c r="X7" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="113"/>
-      <c r="Z7" s="103" t="s">
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="103"/>
-      <c r="AB7" s="102" t="s">
+      <c r="AA7" s="92"/>
+      <c r="AB7" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="102"/>
-      <c r="AD7" s="103" t="s">
+      <c r="AC7" s="103"/>
+      <c r="AD7" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="103"/>
+      <c r="AE7" s="92"/>
       <c r="AF7" s="104" t="s">
         <v>24</v>
       </c>
       <c r="AG7" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="103"/>
+      <c r="AH7" s="92"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="103"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="103"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="57" t="s">
         <v>26</v>
       </c>
@@ -4276,7 +4286,7 @@
       </c>
       <c r="AF8" s="124"/>
       <c r="AG8" s="124"/>
-      <c r="AH8" s="103"/>
+      <c r="AH8" s="92"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -6103,71 +6113,71 @@
         <v>3</v>
       </c>
       <c r="E49" s="108"/>
-      <c r="F49" s="94">
+      <c r="F49" s="109">
         <f>SUM(F9:F48)-SUM(G9:G48)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="94"/>
-      <c r="H49" s="109">
+      <c r="G49" s="109"/>
+      <c r="H49" s="110">
         <f>SUM(H9:H48)-SUM(I9:I48)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="109"/>
-      <c r="J49" s="94">
+      <c r="I49" s="110"/>
+      <c r="J49" s="109">
         <f>SUM(J9:J48)-SUM(K9:K48)</f>
         <v>0</v>
       </c>
-      <c r="K49" s="94"/>
-      <c r="L49" s="110">
+      <c r="K49" s="109"/>
+      <c r="L49" s="111">
         <f>SUM(L9:L48)-SUM(M9:M48)</f>
         <v>0</v>
       </c>
-      <c r="M49" s="110"/>
-      <c r="N49" s="94">
+      <c r="M49" s="111"/>
+      <c r="N49" s="109">
         <f>SUM(N9:N48)-SUM(O9:O48)</f>
         <v>1</v>
       </c>
-      <c r="O49" s="94"/>
-      <c r="P49" s="95">
+      <c r="O49" s="109"/>
+      <c r="P49" s="117">
         <f>SUM(P9:P48)-SUM(Q9:Q48)</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="95"/>
-      <c r="R49" s="94">
+      <c r="Q49" s="117"/>
+      <c r="R49" s="109">
         <f>SUM(R9:R48)-SUM(S9:S48)</f>
         <v>2</v>
       </c>
-      <c r="S49" s="94"/>
-      <c r="T49" s="96">
+      <c r="S49" s="109"/>
+      <c r="T49" s="118">
         <f>SUM(T9:T48)-SUM(U9:U48)</f>
         <v>0</v>
       </c>
-      <c r="U49" s="96"/>
-      <c r="V49" s="94">
+      <c r="U49" s="118"/>
+      <c r="V49" s="109">
         <f>SUM(V9:V48)-SUM(W9:W48)</f>
         <v>0</v>
       </c>
-      <c r="W49" s="94"/>
-      <c r="X49" s="97">
+      <c r="W49" s="109"/>
+      <c r="X49" s="119">
         <f>SUM(X9:X48)-SUM(Y9:Y48)</f>
         <v>4</v>
       </c>
-      <c r="Y49" s="97"/>
-      <c r="Z49" s="94">
+      <c r="Y49" s="119"/>
+      <c r="Z49" s="109">
         <f>SUM(Z9:Z48)-SUM(AA9:AA48)</f>
         <v>3</v>
       </c>
-      <c r="AA49" s="94"/>
-      <c r="AB49" s="98">
+      <c r="AA49" s="109"/>
+      <c r="AB49" s="120">
         <f>SUM(AB9:AB48)-SUM(AC9:AC48)</f>
         <v>3</v>
       </c>
-      <c r="AC49" s="98"/>
-      <c r="AD49" s="94">
+      <c r="AC49" s="120"/>
+      <c r="AD49" s="109">
         <f>SUM(AD9:AD48)-SUM(AE9:AE48)</f>
         <v>0</v>
       </c>
-      <c r="AE49" s="94"/>
+      <c r="AE49" s="109"/>
       <c r="AF49" s="20"/>
       <c r="AG49" s="9">
         <f>D49+F49+H49+J49+L49+N49+P49+R49+T49+V49+X49+Z49+AB49+AD49</f>
@@ -6176,39 +6186,39 @@
       <c r="AH49" s="21"/>
     </row>
     <row r="50" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="99" t="s">
+      <c r="A50" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="100"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="100"/>
-      <c r="E50" s="100"/>
-      <c r="F50" s="100"/>
-      <c r="G50" s="100"/>
-      <c r="H50" s="100"/>
-      <c r="I50" s="100"/>
-      <c r="J50" s="100"/>
-      <c r="K50" s="100"/>
-      <c r="L50" s="100"/>
-      <c r="M50" s="100"/>
-      <c r="N50" s="100"/>
-      <c r="O50" s="100"/>
-      <c r="P50" s="100"/>
-      <c r="Q50" s="100"/>
-      <c r="R50" s="100"/>
-      <c r="S50" s="100"/>
-      <c r="T50" s="100"/>
-      <c r="U50" s="100"/>
-      <c r="V50" s="100"/>
-      <c r="W50" s="100"/>
-      <c r="X50" s="100"/>
-      <c r="Y50" s="100"/>
-      <c r="Z50" s="100"/>
-      <c r="AA50" s="100"/>
-      <c r="AB50" s="100"/>
-      <c r="AC50" s="100"/>
-      <c r="AD50" s="100"/>
-      <c r="AE50" s="101"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="122"/>
+      <c r="E50" s="122"/>
+      <c r="F50" s="122"/>
+      <c r="G50" s="122"/>
+      <c r="H50" s="122"/>
+      <c r="I50" s="122"/>
+      <c r="J50" s="122"/>
+      <c r="K50" s="122"/>
+      <c r="L50" s="122"/>
+      <c r="M50" s="122"/>
+      <c r="N50" s="122"/>
+      <c r="O50" s="122"/>
+      <c r="P50" s="122"/>
+      <c r="Q50" s="122"/>
+      <c r="R50" s="122"/>
+      <c r="S50" s="122"/>
+      <c r="T50" s="122"/>
+      <c r="U50" s="122"/>
+      <c r="V50" s="122"/>
+      <c r="W50" s="122"/>
+      <c r="X50" s="122"/>
+      <c r="Y50" s="122"/>
+      <c r="Z50" s="122"/>
+      <c r="AA50" s="122"/>
+      <c r="AB50" s="122"/>
+      <c r="AC50" s="122"/>
+      <c r="AD50" s="122"/>
+      <c r="AE50" s="123"/>
       <c r="AF50" s="22">
         <f>SUM(AF9:AF48)</f>
         <v>18</v>
@@ -6220,59 +6230,64 @@
       <c r="AH50" s="23"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="99" t="s">
+      <c r="A51" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="100"/>
-      <c r="C51" s="100"/>
-      <c r="D51" s="100"/>
-      <c r="E51" s="100"/>
-      <c r="F51" s="100"/>
-      <c r="G51" s="100"/>
-      <c r="H51" s="100"/>
-      <c r="I51" s="100"/>
-      <c r="J51" s="100"/>
-      <c r="K51" s="100"/>
-      <c r="L51" s="100"/>
-      <c r="M51" s="100"/>
-      <c r="N51" s="100"/>
-      <c r="O51" s="100"/>
-      <c r="P51" s="100"/>
-      <c r="Q51" s="100"/>
-      <c r="R51" s="100"/>
-      <c r="S51" s="100"/>
-      <c r="T51" s="100"/>
-      <c r="U51" s="100"/>
-      <c r="V51" s="100"/>
-      <c r="W51" s="100"/>
-      <c r="X51" s="100"/>
-      <c r="Y51" s="100"/>
-      <c r="Z51" s="100"/>
-      <c r="AA51" s="100"/>
-      <c r="AB51" s="100"/>
-      <c r="AC51" s="100"/>
-      <c r="AD51" s="100"/>
-      <c r="AE51" s="101"/>
-      <c r="AF51" s="92">
+      <c r="B51" s="122"/>
+      <c r="C51" s="122"/>
+      <c r="D51" s="122"/>
+      <c r="E51" s="122"/>
+      <c r="F51" s="122"/>
+      <c r="G51" s="122"/>
+      <c r="H51" s="122"/>
+      <c r="I51" s="122"/>
+      <c r="J51" s="122"/>
+      <c r="K51" s="122"/>
+      <c r="L51" s="122"/>
+      <c r="M51" s="122"/>
+      <c r="N51" s="122"/>
+      <c r="O51" s="122"/>
+      <c r="P51" s="122"/>
+      <c r="Q51" s="122"/>
+      <c r="R51" s="122"/>
+      <c r="S51" s="122"/>
+      <c r="T51" s="122"/>
+      <c r="U51" s="122"/>
+      <c r="V51" s="122"/>
+      <c r="W51" s="122"/>
+      <c r="X51" s="122"/>
+      <c r="Y51" s="122"/>
+      <c r="Z51" s="122"/>
+      <c r="AA51" s="122"/>
+      <c r="AB51" s="122"/>
+      <c r="AC51" s="122"/>
+      <c r="AD51" s="122"/>
+      <c r="AE51" s="123"/>
+      <c r="AF51" s="115">
         <f>AG50-AF50</f>
         <v>16</v>
       </c>
-      <c r="AG51" s="93"/>
+      <c r="AG51" s="116"/>
       <c r="AH51" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AD49:AE49"/>
-    <mergeCell ref="A50:AE50"/>
-    <mergeCell ref="A51:AE51"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AF8"/>
@@ -6289,22 +6304,17 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="A50:AE50"/>
+    <mergeCell ref="A51:AE51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="Z49:AA49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6315,15 +6325,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R49" sqref="R49:S49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="5" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="5" customWidth="1"/>
     <col min="4" max="31" width="3.28515625" style="5" customWidth="1"/>
     <col min="32" max="32" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
@@ -6332,11 +6342,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
+      <c r="A1" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
       <c r="D1" s="82"/>
       <c r="E1" s="82"/>
       <c r="F1" s="82"/>
@@ -6372,11 +6382,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
       <c r="D2" s="83"/>
       <c r="E2" s="83"/>
       <c r="F2" s="83"/>
@@ -6412,235 +6422,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="116"/>
-      <c r="U3" s="116"/>
-      <c r="V3" s="116"/>
-      <c r="W3" s="116"/>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="116"/>
-      <c r="AH3" s="116"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="95"/>
+      <c r="V3" s="95"/>
+      <c r="W3" s="95"/>
+      <c r="X3" s="95"/>
+      <c r="Y3" s="95"/>
+      <c r="Z3" s="95"/>
+      <c r="AA3" s="95"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="95"/>
+      <c r="AD3" s="95"/>
+      <c r="AE3" s="95"/>
+      <c r="AF3" s="95"/>
+      <c r="AG3" s="95"/>
+      <c r="AH3" s="95"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="116"/>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="116"/>
-      <c r="AD4" s="116"/>
-      <c r="AE4" s="116"/>
-      <c r="AF4" s="116"/>
-      <c r="AG4" s="116"/>
-      <c r="AH4" s="116"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="95"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="116"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
-      <c r="U5" s="116"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="116"/>
-      <c r="X5" s="116"/>
-      <c r="Y5" s="116"/>
-      <c r="Z5" s="116"/>
-      <c r="AA5" s="116"/>
-      <c r="AB5" s="116"/>
-      <c r="AC5" s="116"/>
-      <c r="AD5" s="116"/>
-      <c r="AE5" s="116"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="95"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="95"/>
+      <c r="AA5" s="95"/>
+      <c r="AB5" s="95"/>
+      <c r="AC5" s="95"/>
+      <c r="AD5" s="95"/>
+      <c r="AE5" s="95"/>
       <c r="AF5" s="84"/>
       <c r="AG5" s="84"/>
       <c r="AH5" s="84"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="118" t="s">
+      <c r="D6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119"/>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="119"/>
-      <c r="T6" s="119"/>
-      <c r="U6" s="119"/>
-      <c r="V6" s="119"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="119"/>
-      <c r="Y6" s="119"/>
-      <c r="Z6" s="119"/>
-      <c r="AA6" s="119"/>
-      <c r="AB6" s="119"/>
-      <c r="AC6" s="119"/>
-      <c r="AD6" s="119"/>
-      <c r="AE6" s="119"/>
-      <c r="AF6" s="119"/>
-      <c r="AG6" s="120"/>
-      <c r="AH6" s="103" t="s">
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="98"/>
+      <c r="R6" s="98"/>
+      <c r="S6" s="98"/>
+      <c r="T6" s="98"/>
+      <c r="U6" s="98"/>
+      <c r="V6" s="98"/>
+      <c r="W6" s="98"/>
+      <c r="X6" s="98"/>
+      <c r="Y6" s="98"/>
+      <c r="Z6" s="98"/>
+      <c r="AA6" s="98"/>
+      <c r="AB6" s="98"/>
+      <c r="AC6" s="98"/>
+      <c r="AD6" s="98"/>
+      <c r="AE6" s="98"/>
+      <c r="AF6" s="98"/>
+      <c r="AG6" s="99"/>
+      <c r="AH6" s="92" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="103"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="121" t="s">
+      <c r="A7" s="92"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="103" t="s">
+      <c r="E7" s="100"/>
+      <c r="F7" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="103"/>
-      <c r="H7" s="122" t="s">
+      <c r="G7" s="92"/>
+      <c r="H7" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="122"/>
-      <c r="J7" s="103" t="s">
+      <c r="I7" s="101"/>
+      <c r="J7" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="103"/>
-      <c r="L7" s="123" t="s">
+      <c r="K7" s="92"/>
+      <c r="L7" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="123"/>
-      <c r="N7" s="103" t="s">
+      <c r="M7" s="102"/>
+      <c r="N7" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="103"/>
-      <c r="P7" s="111" t="s">
+      <c r="O7" s="92"/>
+      <c r="P7" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="103" t="s">
+      <c r="Q7" s="112"/>
+      <c r="R7" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="103"/>
-      <c r="T7" s="112" t="s">
+      <c r="S7" s="92"/>
+      <c r="T7" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="112"/>
-      <c r="V7" s="103" t="s">
+      <c r="U7" s="113"/>
+      <c r="V7" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="103"/>
-      <c r="X7" s="113" t="s">
+      <c r="W7" s="92"/>
+      <c r="X7" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="113"/>
-      <c r="Z7" s="103" t="s">
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="103"/>
-      <c r="AB7" s="102" t="s">
+      <c r="AA7" s="92"/>
+      <c r="AB7" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="102"/>
-      <c r="AD7" s="103" t="s">
+      <c r="AC7" s="103"/>
+      <c r="AD7" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="103"/>
+      <c r="AE7" s="92"/>
       <c r="AF7" s="104" t="s">
         <v>24</v>
       </c>
       <c r="AG7" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="103"/>
+      <c r="AH7" s="92"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="103"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="103"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="85" t="s">
         <v>26</v>
       </c>
@@ -6727,7 +6737,7 @@
       </c>
       <c r="AF8" s="124"/>
       <c r="AG8" s="124"/>
-      <c r="AH8" s="103"/>
+      <c r="AH8" s="92"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
@@ -6964,7 +6974,9 @@
       <c r="V13" s="14"/>
       <c r="W13" s="14"/>
       <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
+      <c r="Y13" s="51">
+        <v>2</v>
+      </c>
       <c r="Z13" s="14"/>
       <c r="AA13" s="14"/>
       <c r="AB13" s="35"/>
@@ -6973,7 +6985,7 @@
       <c r="AE13" s="14"/>
       <c r="AF13" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG13" s="14">
         <f t="shared" si="1"/>
@@ -6983,8 +6995,12 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
+      <c r="B14" s="15">
+        <v>44056</v>
+      </c>
+      <c r="C14" s="125" t="s">
+        <v>64</v>
+      </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="16"/>
@@ -7007,17 +7023,19 @@
       <c r="W14" s="16"/>
       <c r="X14" s="52"/>
       <c r="Y14" s="52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z14" s="16"/>
       <c r="AA14" s="16"/>
       <c r="AB14" s="36"/>
-      <c r="AC14" s="36"/>
+      <c r="AC14" s="36">
+        <v>22</v>
+      </c>
       <c r="AD14" s="16"/>
       <c r="AE14" s="16"/>
       <c r="AF14" s="14">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="AG14" s="14">
         <f t="shared" si="1"/>
@@ -7027,8 +7045,12 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="15">
+        <v>44046</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
       <c r="F15" s="16"/>
@@ -7053,7 +7075,9 @@
       <c r="Y15" s="52"/>
       <c r="Z15" s="16"/>
       <c r="AA15" s="16"/>
-      <c r="AB15" s="36"/>
+      <c r="AB15" s="36">
+        <v>22</v>
+      </c>
       <c r="AC15" s="36"/>
       <c r="AD15" s="16"/>
       <c r="AE15" s="16"/>
@@ -7063,21 +7087,27 @@
       </c>
       <c r="AG15" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AH15" s="14"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
+      <c r="B16" s="15">
+        <v>44056</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="32"/>
       <c r="I16" s="32"/>
-      <c r="J16" s="16"/>
+      <c r="J16" s="16">
+        <v>12</v>
+      </c>
       <c r="K16" s="16"/>
       <c r="L16" s="40"/>
       <c r="M16" s="40"/>
@@ -7105,7 +7135,7 @@
       </c>
       <c r="AG16" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH16" s="14"/>
     </row>
@@ -8500,176 +8530,181 @@
         <v>0</v>
       </c>
       <c r="E49" s="108"/>
-      <c r="F49" s="94">
+      <c r="F49" s="109">
         <f>SUM(F9:F48)-SUM(G9:G48)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="94"/>
-      <c r="H49" s="109">
+      <c r="G49" s="109"/>
+      <c r="H49" s="110">
         <f>SUM(H9:H48)-SUM(I9:I48)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="109"/>
-      <c r="J49" s="94">
+      <c r="I49" s="110"/>
+      <c r="J49" s="109">
         <f>SUM(J9:J48)-SUM(K9:K48)</f>
-        <v>0</v>
-      </c>
-      <c r="K49" s="94"/>
-      <c r="L49" s="110">
+        <v>12</v>
+      </c>
+      <c r="K49" s="109"/>
+      <c r="L49" s="111">
         <f>SUM(L9:L48)-SUM(M9:M48)</f>
         <v>0</v>
       </c>
-      <c r="M49" s="110"/>
-      <c r="N49" s="94">
+      <c r="M49" s="111"/>
+      <c r="N49" s="109">
         <f>SUM(N9:N48)-SUM(O9:O48)</f>
         <v>0</v>
       </c>
-      <c r="O49" s="94"/>
-      <c r="P49" s="95">
+      <c r="O49" s="109"/>
+      <c r="P49" s="117">
         <f>SUM(P9:P48)-SUM(Q9:Q48)</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="95"/>
-      <c r="R49" s="94">
+      <c r="Q49" s="117"/>
+      <c r="R49" s="109">
         <f>SUM(R9:R48)-SUM(S9:S48)</f>
         <v>1</v>
       </c>
-      <c r="S49" s="94"/>
-      <c r="T49" s="96">
+      <c r="S49" s="109"/>
+      <c r="T49" s="118">
         <f>SUM(T9:T48)-SUM(U9:U48)</f>
         <v>0</v>
       </c>
-      <c r="U49" s="96"/>
-      <c r="V49" s="94">
+      <c r="U49" s="118"/>
+      <c r="V49" s="109">
         <f>SUM(V9:V48)-SUM(W9:W48)</f>
         <v>0</v>
       </c>
-      <c r="W49" s="94"/>
-      <c r="X49" s="97">
+      <c r="W49" s="109"/>
+      <c r="X49" s="119">
         <f>SUM(X9:X48)-SUM(Y9:Y48)</f>
-        <v>1</v>
-      </c>
-      <c r="Y49" s="97"/>
-      <c r="Z49" s="94">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="119"/>
+      <c r="Z49" s="109">
         <f>SUM(Z9:Z48)-SUM(AA9:AA48)</f>
         <v>3</v>
       </c>
-      <c r="AA49" s="94"/>
-      <c r="AB49" s="98">
+      <c r="AA49" s="109"/>
+      <c r="AB49" s="120">
         <f>SUM(AB9:AB48)-SUM(AC9:AC48)</f>
         <v>0</v>
       </c>
-      <c r="AC49" s="98"/>
-      <c r="AD49" s="94">
+      <c r="AC49" s="120"/>
+      <c r="AD49" s="109">
         <f>SUM(AD9:AD48)-SUM(AE9:AE48)</f>
         <v>0</v>
       </c>
-      <c r="AE49" s="94"/>
+      <c r="AE49" s="109"/>
       <c r="AF49" s="20"/>
       <c r="AG49" s="9">
         <f>D49+F49+H49+J49+L49+N49+P49+R49+T49+V49+X49+Z49+AB49+AD49</f>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AH49" s="21"/>
     </row>
     <row r="50" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="99" t="s">
+      <c r="A50" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="100"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="100"/>
-      <c r="E50" s="100"/>
-      <c r="F50" s="100"/>
-      <c r="G50" s="100"/>
-      <c r="H50" s="100"/>
-      <c r="I50" s="100"/>
-      <c r="J50" s="100"/>
-      <c r="K50" s="100"/>
-      <c r="L50" s="100"/>
-      <c r="M50" s="100"/>
-      <c r="N50" s="100"/>
-      <c r="O50" s="100"/>
-      <c r="P50" s="100"/>
-      <c r="Q50" s="100"/>
-      <c r="R50" s="100"/>
-      <c r="S50" s="100"/>
-      <c r="T50" s="100"/>
-      <c r="U50" s="100"/>
-      <c r="V50" s="100"/>
-      <c r="W50" s="100"/>
-      <c r="X50" s="100"/>
-      <c r="Y50" s="100"/>
-      <c r="Z50" s="100"/>
-      <c r="AA50" s="100"/>
-      <c r="AB50" s="100"/>
-      <c r="AC50" s="100"/>
-      <c r="AD50" s="100"/>
-      <c r="AE50" s="101"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="122"/>
+      <c r="E50" s="122"/>
+      <c r="F50" s="122"/>
+      <c r="G50" s="122"/>
+      <c r="H50" s="122"/>
+      <c r="I50" s="122"/>
+      <c r="J50" s="122"/>
+      <c r="K50" s="122"/>
+      <c r="L50" s="122"/>
+      <c r="M50" s="122"/>
+      <c r="N50" s="122"/>
+      <c r="O50" s="122"/>
+      <c r="P50" s="122"/>
+      <c r="Q50" s="122"/>
+      <c r="R50" s="122"/>
+      <c r="S50" s="122"/>
+      <c r="T50" s="122"/>
+      <c r="U50" s="122"/>
+      <c r="V50" s="122"/>
+      <c r="W50" s="122"/>
+      <c r="X50" s="122"/>
+      <c r="Y50" s="122"/>
+      <c r="Z50" s="122"/>
+      <c r="AA50" s="122"/>
+      <c r="AB50" s="122"/>
+      <c r="AC50" s="122"/>
+      <c r="AD50" s="122"/>
+      <c r="AE50" s="123"/>
       <c r="AF50" s="22">
         <f>SUM(AF9:AF48)</f>
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AG50" s="22">
         <f>SUM(AG9:AG48)</f>
+        <v>50</v>
+      </c>
+      <c r="AH50" s="23"/>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A51" s="121" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="122"/>
+      <c r="C51" s="122"/>
+      <c r="D51" s="122"/>
+      <c r="E51" s="122"/>
+      <c r="F51" s="122"/>
+      <c r="G51" s="122"/>
+      <c r="H51" s="122"/>
+      <c r="I51" s="122"/>
+      <c r="J51" s="122"/>
+      <c r="K51" s="122"/>
+      <c r="L51" s="122"/>
+      <c r="M51" s="122"/>
+      <c r="N51" s="122"/>
+      <c r="O51" s="122"/>
+      <c r="P51" s="122"/>
+      <c r="Q51" s="122"/>
+      <c r="R51" s="122"/>
+      <c r="S51" s="122"/>
+      <c r="T51" s="122"/>
+      <c r="U51" s="122"/>
+      <c r="V51" s="122"/>
+      <c r="W51" s="122"/>
+      <c r="X51" s="122"/>
+      <c r="Y51" s="122"/>
+      <c r="Z51" s="122"/>
+      <c r="AA51" s="122"/>
+      <c r="AB51" s="122"/>
+      <c r="AC51" s="122"/>
+      <c r="AD51" s="122"/>
+      <c r="AE51" s="123"/>
+      <c r="AF51" s="115">
+        <f>AG50-AF50</f>
         <v>16</v>
       </c>
-      <c r="AH50" s="23"/>
-    </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="99" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51" s="100"/>
-      <c r="C51" s="100"/>
-      <c r="D51" s="100"/>
-      <c r="E51" s="100"/>
-      <c r="F51" s="100"/>
-      <c r="G51" s="100"/>
-      <c r="H51" s="100"/>
-      <c r="I51" s="100"/>
-      <c r="J51" s="100"/>
-      <c r="K51" s="100"/>
-      <c r="L51" s="100"/>
-      <c r="M51" s="100"/>
-      <c r="N51" s="100"/>
-      <c r="O51" s="100"/>
-      <c r="P51" s="100"/>
-      <c r="Q51" s="100"/>
-      <c r="R51" s="100"/>
-      <c r="S51" s="100"/>
-      <c r="T51" s="100"/>
-      <c r="U51" s="100"/>
-      <c r="V51" s="100"/>
-      <c r="W51" s="100"/>
-      <c r="X51" s="100"/>
-      <c r="Y51" s="100"/>
-      <c r="Z51" s="100"/>
-      <c r="AA51" s="100"/>
-      <c r="AB51" s="100"/>
-      <c r="AC51" s="100"/>
-      <c r="AD51" s="100"/>
-      <c r="AE51" s="101"/>
-      <c r="AF51" s="92">
-        <f>AG50-AF50</f>
-        <v>5</v>
-      </c>
-      <c r="AG51" s="93"/>
+      <c r="AG51" s="116"/>
       <c r="AH51" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AD49:AE49"/>
-    <mergeCell ref="A50:AE50"/>
-    <mergeCell ref="A51:AE51"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AF8"/>
@@ -8686,22 +8721,17 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="A50:AE50"/>
+    <mergeCell ref="A51:AE51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="Z49:AA49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
@@ -1060,7 +1060,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="66">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1258,9 +1258,6 @@
   </si>
   <si>
     <t>Chị Thảo tp Việt Trì trả hàng</t>
-  </si>
-  <si>
-    <t>Chị Hải Lào Cai trả hàng</t>
   </si>
 </sst>
 </file>
@@ -1750,7 +1747,71 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1783,73 +1844,9 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2175,11 +2172,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
+      <c r="A1" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
       <c r="D1" s="75"/>
       <c r="E1" s="75"/>
       <c r="F1" s="75"/>
@@ -2215,11 +2212,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
       <c r="D2" s="76"/>
       <c r="E2" s="76"/>
       <c r="F2" s="76"/>
@@ -2255,235 +2252,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="95"/>
-      <c r="AD3" s="95"/>
-      <c r="AE3" s="95"/>
-      <c r="AF3" s="95"/>
-      <c r="AG3" s="95"/>
-      <c r="AH3" s="95"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="117"/>
+      <c r="AA3" s="117"/>
+      <c r="AB3" s="117"/>
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="117"/>
+      <c r="AE3" s="117"/>
+      <c r="AF3" s="117"/>
+      <c r="AG3" s="117"/>
+      <c r="AH3" s="117"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="95"/>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="95"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="117"/>
+      <c r="Z4" s="117"/>
+      <c r="AA4" s="117"/>
+      <c r="AB4" s="117"/>
+      <c r="AC4" s="117"/>
+      <c r="AD4" s="117"/>
+      <c r="AE4" s="117"/>
+      <c r="AF4" s="117"/>
+      <c r="AG4" s="117"/>
+      <c r="AH4" s="117"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="95"/>
-      <c r="U5" s="95"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="95"/>
-      <c r="Z5" s="95"/>
-      <c r="AA5" s="95"/>
-      <c r="AB5" s="95"/>
-      <c r="AC5" s="95"/>
-      <c r="AD5" s="95"/>
-      <c r="AE5" s="95"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
+      <c r="U5" s="117"/>
+      <c r="V5" s="117"/>
+      <c r="W5" s="117"/>
+      <c r="X5" s="117"/>
+      <c r="Y5" s="117"/>
+      <c r="Z5" s="117"/>
+      <c r="AA5" s="117"/>
+      <c r="AB5" s="117"/>
+      <c r="AC5" s="117"/>
+      <c r="AD5" s="117"/>
+      <c r="AE5" s="117"/>
       <c r="AF5" s="77"/>
       <c r="AG5" s="77"/>
       <c r="AH5" s="77"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="98"/>
-      <c r="R6" s="98"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="98"/>
-      <c r="V6" s="98"/>
-      <c r="W6" s="98"/>
-      <c r="X6" s="98"/>
-      <c r="Y6" s="98"/>
-      <c r="Z6" s="98"/>
-      <c r="AA6" s="98"/>
-      <c r="AB6" s="98"/>
-      <c r="AC6" s="98"/>
-      <c r="AD6" s="98"/>
-      <c r="AE6" s="98"/>
-      <c r="AF6" s="98"/>
-      <c r="AG6" s="99"/>
-      <c r="AH6" s="92" t="s">
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="120"/>
+      <c r="P6" s="120"/>
+      <c r="Q6" s="120"/>
+      <c r="R6" s="120"/>
+      <c r="S6" s="120"/>
+      <c r="T6" s="120"/>
+      <c r="U6" s="120"/>
+      <c r="V6" s="120"/>
+      <c r="W6" s="120"/>
+      <c r="X6" s="120"/>
+      <c r="Y6" s="120"/>
+      <c r="Z6" s="120"/>
+      <c r="AA6" s="120"/>
+      <c r="AB6" s="120"/>
+      <c r="AC6" s="120"/>
+      <c r="AD6" s="120"/>
+      <c r="AE6" s="120"/>
+      <c r="AF6" s="120"/>
+      <c r="AG6" s="121"/>
+      <c r="AH6" s="104" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="92"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="100" t="s">
+      <c r="A7" s="104"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="92" t="s">
+      <c r="E7" s="122"/>
+      <c r="F7" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="101" t="s">
+      <c r="G7" s="104"/>
+      <c r="H7" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="101"/>
-      <c r="J7" s="92" t="s">
+      <c r="I7" s="123"/>
+      <c r="J7" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="92"/>
-      <c r="L7" s="102" t="s">
+      <c r="K7" s="104"/>
+      <c r="L7" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="102"/>
-      <c r="N7" s="92" t="s">
+      <c r="M7" s="124"/>
+      <c r="N7" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="92"/>
+      <c r="O7" s="104"/>
       <c r="P7" s="112" t="s">
         <v>16</v>
       </c>
       <c r="Q7" s="112"/>
-      <c r="R7" s="92" t="s">
+      <c r="R7" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="92"/>
+      <c r="S7" s="104"/>
       <c r="T7" s="113" t="s">
         <v>18</v>
       </c>
       <c r="U7" s="113"/>
-      <c r="V7" s="92" t="s">
+      <c r="V7" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="92"/>
+      <c r="W7" s="104"/>
       <c r="X7" s="114" t="s">
         <v>20</v>
       </c>
       <c r="Y7" s="114"/>
-      <c r="Z7" s="92" t="s">
+      <c r="Z7" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="92"/>
+      <c r="AA7" s="104"/>
       <c r="AB7" s="103" t="s">
         <v>22</v>
       </c>
       <c r="AC7" s="103"/>
-      <c r="AD7" s="92" t="s">
+      <c r="AD7" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="92"/>
-      <c r="AF7" s="104" t="s">
+      <c r="AE7" s="104"/>
+      <c r="AF7" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="104" t="s">
+      <c r="AG7" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="92"/>
+      <c r="AH7" s="104"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="92"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="92"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="104"/>
       <c r="D8" s="78" t="s">
         <v>26</v>
       </c>
@@ -2568,9 +2565,9 @@
       <c r="AE8" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="AF8" s="105"/>
-      <c r="AG8" s="105"/>
-      <c r="AH8" s="92"/>
+      <c r="AF8" s="106"/>
+      <c r="AG8" s="106"/>
+      <c r="AH8" s="104"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -3652,78 +3649,78 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
-      <c r="B30" s="106"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="108">
+      <c r="B30" s="107"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="109">
         <f>SUM(D9:D28)-SUM(E9:E28)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="108"/>
-      <c r="F30" s="109">
+      <c r="E30" s="109"/>
+      <c r="F30" s="95">
         <f>SUM(F9:F28)-SUM(G9:G28)</f>
         <v>4</v>
       </c>
-      <c r="G30" s="109"/>
+      <c r="G30" s="95"/>
       <c r="H30" s="110">
         <f>SUM(H9:H28)-SUM(I9:I28)</f>
         <v>0</v>
       </c>
       <c r="I30" s="110"/>
-      <c r="J30" s="109">
+      <c r="J30" s="95">
         <f>SUM(J9:J28)-SUM(K9:K28)</f>
         <v>1</v>
       </c>
-      <c r="K30" s="109"/>
+      <c r="K30" s="95"/>
       <c r="L30" s="111">
         <f>SUM(L9:L28)-SUM(M9:M28)</f>
         <v>0</v>
       </c>
       <c r="M30" s="111"/>
-      <c r="N30" s="109">
+      <c r="N30" s="95">
         <f>SUM(N9:N28)-SUM(O9:O28)</f>
         <v>2</v>
       </c>
-      <c r="O30" s="109"/>
-      <c r="P30" s="117">
+      <c r="O30" s="95"/>
+      <c r="P30" s="96">
         <f>SUM(P9:P28)-SUM(Q9:Q28)</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="117"/>
-      <c r="R30" s="109">
+      <c r="Q30" s="96"/>
+      <c r="R30" s="95">
         <f>SUM(R9:R28)-SUM(S9:S28)</f>
         <v>2</v>
       </c>
-      <c r="S30" s="109"/>
-      <c r="T30" s="118">
+      <c r="S30" s="95"/>
+      <c r="T30" s="97">
         <f>SUM(T9:T28)-SUM(U9:U28)</f>
         <v>0</v>
       </c>
-      <c r="U30" s="118"/>
-      <c r="V30" s="109">
+      <c r="U30" s="97"/>
+      <c r="V30" s="95">
         <f>SUM(V9:V28)-SUM(W9:W28)</f>
         <v>0</v>
       </c>
-      <c r="W30" s="109"/>
-      <c r="X30" s="119">
+      <c r="W30" s="95"/>
+      <c r="X30" s="98">
         <f>SUM(X9:X28)-SUM(Y9:Y28)</f>
         <v>5</v>
       </c>
-      <c r="Y30" s="119"/>
-      <c r="Z30" s="109">
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="95">
         <f>SUM(Z9:Z28)-SUM(AA9:AA28)</f>
         <v>0</v>
       </c>
-      <c r="AA30" s="109"/>
-      <c r="AB30" s="120">
+      <c r="AA30" s="95"/>
+      <c r="AB30" s="99">
         <f>SUM(AB9:AB28)-SUM(AC9:AC28)</f>
         <v>3</v>
       </c>
-      <c r="AC30" s="120"/>
-      <c r="AD30" s="109">
+      <c r="AC30" s="99"/>
+      <c r="AD30" s="95">
         <f>SUM(AD9:AD28)-SUM(AE9:AE28)</f>
         <v>0</v>
       </c>
-      <c r="AE30" s="109"/>
+      <c r="AE30" s="95"/>
       <c r="AF30" s="20"/>
       <c r="AG30" s="9">
         <f t="shared" si="1"/>
@@ -3732,39 +3729,39 @@
       <c r="AH30" s="21"/>
     </row>
     <row r="31" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="121" t="s">
+      <c r="A31" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="122"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="122"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="122"/>
-      <c r="K31" s="122"/>
-      <c r="L31" s="122"/>
-      <c r="M31" s="122"/>
-      <c r="N31" s="122"/>
-      <c r="O31" s="122"/>
-      <c r="P31" s="122"/>
-      <c r="Q31" s="122"/>
-      <c r="R31" s="122"/>
-      <c r="S31" s="122"/>
-      <c r="T31" s="122"/>
-      <c r="U31" s="122"/>
-      <c r="V31" s="122"/>
-      <c r="W31" s="122"/>
-      <c r="X31" s="122"/>
-      <c r="Y31" s="122"/>
-      <c r="Z31" s="122"/>
-      <c r="AA31" s="122"/>
-      <c r="AB31" s="122"/>
-      <c r="AC31" s="122"/>
-      <c r="AD31" s="122"/>
-      <c r="AE31" s="123"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="101"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="101"/>
+      <c r="O31" s="101"/>
+      <c r="P31" s="101"/>
+      <c r="Q31" s="101"/>
+      <c r="R31" s="101"/>
+      <c r="S31" s="101"/>
+      <c r="T31" s="101"/>
+      <c r="U31" s="101"/>
+      <c r="V31" s="101"/>
+      <c r="W31" s="101"/>
+      <c r="X31" s="101"/>
+      <c r="Y31" s="101"/>
+      <c r="Z31" s="101"/>
+      <c r="AA31" s="101"/>
+      <c r="AB31" s="101"/>
+      <c r="AC31" s="101"/>
+      <c r="AD31" s="101"/>
+      <c r="AE31" s="102"/>
       <c r="AF31" s="22">
         <f>SUM(AF9:AF28)</f>
         <v>79</v>
@@ -3776,60 +3773,64 @@
       <c r="AH31" s="23"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="121" t="s">
+      <c r="A32" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="122"/>
-      <c r="C32" s="122"/>
-      <c r="D32" s="122"/>
-      <c r="E32" s="122"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="122"/>
-      <c r="H32" s="122"/>
-      <c r="I32" s="122"/>
-      <c r="J32" s="122"/>
-      <c r="K32" s="122"/>
-      <c r="L32" s="122"/>
-      <c r="M32" s="122"/>
-      <c r="N32" s="122"/>
-      <c r="O32" s="122"/>
-      <c r="P32" s="122"/>
-      <c r="Q32" s="122"/>
-      <c r="R32" s="122"/>
-      <c r="S32" s="122"/>
-      <c r="T32" s="122"/>
-      <c r="U32" s="122"/>
-      <c r="V32" s="122"/>
-      <c r="W32" s="122"/>
-      <c r="X32" s="122"/>
-      <c r="Y32" s="122"/>
-      <c r="Z32" s="122"/>
-      <c r="AA32" s="122"/>
-      <c r="AB32" s="122"/>
-      <c r="AC32" s="122"/>
-      <c r="AD32" s="122"/>
-      <c r="AE32" s="123"/>
-      <c r="AF32" s="115">
+      <c r="B32" s="101"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="101"/>
+      <c r="J32" s="101"/>
+      <c r="K32" s="101"/>
+      <c r="L32" s="101"/>
+      <c r="M32" s="101"/>
+      <c r="N32" s="101"/>
+      <c r="O32" s="101"/>
+      <c r="P32" s="101"/>
+      <c r="Q32" s="101"/>
+      <c r="R32" s="101"/>
+      <c r="S32" s="101"/>
+      <c r="T32" s="101"/>
+      <c r="U32" s="101"/>
+      <c r="V32" s="101"/>
+      <c r="W32" s="101"/>
+      <c r="X32" s="101"/>
+      <c r="Y32" s="101"/>
+      <c r="Z32" s="101"/>
+      <c r="AA32" s="101"/>
+      <c r="AB32" s="101"/>
+      <c r="AC32" s="101"/>
+      <c r="AD32" s="101"/>
+      <c r="AE32" s="102"/>
+      <c r="AF32" s="93">
         <f>AG31-AF31</f>
         <v>17</v>
       </c>
-      <c r="AG32" s="116"/>
+      <c r="AG32" s="94"/>
       <c r="AH32" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="A31:AE31"/>
-    <mergeCell ref="A32:AE32"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AF8"/>
@@ -3846,22 +3847,18 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="A31:AE31"/>
+    <mergeCell ref="A32:AE32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3891,11 +3888,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
+      <c r="A1" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
       <c r="D1" s="54"/>
       <c r="E1" s="54"/>
       <c r="F1" s="54"/>
@@ -3931,11 +3928,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
       <c r="F2" s="55"/>
@@ -3971,235 +3968,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="95"/>
-      <c r="AD3" s="95"/>
-      <c r="AE3" s="95"/>
-      <c r="AF3" s="95"/>
-      <c r="AG3" s="95"/>
-      <c r="AH3" s="95"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="117"/>
+      <c r="AA3" s="117"/>
+      <c r="AB3" s="117"/>
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="117"/>
+      <c r="AE3" s="117"/>
+      <c r="AF3" s="117"/>
+      <c r="AG3" s="117"/>
+      <c r="AH3" s="117"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="95"/>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="95"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="117"/>
+      <c r="Z4" s="117"/>
+      <c r="AA4" s="117"/>
+      <c r="AB4" s="117"/>
+      <c r="AC4" s="117"/>
+      <c r="AD4" s="117"/>
+      <c r="AE4" s="117"/>
+      <c r="AF4" s="117"/>
+      <c r="AG4" s="117"/>
+      <c r="AH4" s="117"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="95"/>
-      <c r="U5" s="95"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="95"/>
-      <c r="Z5" s="95"/>
-      <c r="AA5" s="95"/>
-      <c r="AB5" s="95"/>
-      <c r="AC5" s="95"/>
-      <c r="AD5" s="95"/>
-      <c r="AE5" s="95"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
+      <c r="U5" s="117"/>
+      <c r="V5" s="117"/>
+      <c r="W5" s="117"/>
+      <c r="X5" s="117"/>
+      <c r="Y5" s="117"/>
+      <c r="Z5" s="117"/>
+      <c r="AA5" s="117"/>
+      <c r="AB5" s="117"/>
+      <c r="AC5" s="117"/>
+      <c r="AD5" s="117"/>
+      <c r="AE5" s="117"/>
       <c r="AF5" s="56"/>
       <c r="AG5" s="56"/>
       <c r="AH5" s="56"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="98"/>
-      <c r="R6" s="98"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="98"/>
-      <c r="V6" s="98"/>
-      <c r="W6" s="98"/>
-      <c r="X6" s="98"/>
-      <c r="Y6" s="98"/>
-      <c r="Z6" s="98"/>
-      <c r="AA6" s="98"/>
-      <c r="AB6" s="98"/>
-      <c r="AC6" s="98"/>
-      <c r="AD6" s="98"/>
-      <c r="AE6" s="98"/>
-      <c r="AF6" s="98"/>
-      <c r="AG6" s="99"/>
-      <c r="AH6" s="92" t="s">
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="120"/>
+      <c r="P6" s="120"/>
+      <c r="Q6" s="120"/>
+      <c r="R6" s="120"/>
+      <c r="S6" s="120"/>
+      <c r="T6" s="120"/>
+      <c r="U6" s="120"/>
+      <c r="V6" s="120"/>
+      <c r="W6" s="120"/>
+      <c r="X6" s="120"/>
+      <c r="Y6" s="120"/>
+      <c r="Z6" s="120"/>
+      <c r="AA6" s="120"/>
+      <c r="AB6" s="120"/>
+      <c r="AC6" s="120"/>
+      <c r="AD6" s="120"/>
+      <c r="AE6" s="120"/>
+      <c r="AF6" s="120"/>
+      <c r="AG6" s="121"/>
+      <c r="AH6" s="104" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="92"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="100" t="s">
+      <c r="A7" s="104"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="92" t="s">
+      <c r="E7" s="122"/>
+      <c r="F7" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="101" t="s">
+      <c r="G7" s="104"/>
+      <c r="H7" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="101"/>
-      <c r="J7" s="92" t="s">
+      <c r="I7" s="123"/>
+      <c r="J7" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="92"/>
-      <c r="L7" s="102" t="s">
+      <c r="K7" s="104"/>
+      <c r="L7" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="102"/>
-      <c r="N7" s="92" t="s">
+      <c r="M7" s="124"/>
+      <c r="N7" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="92"/>
+      <c r="O7" s="104"/>
       <c r="P7" s="112" t="s">
         <v>16</v>
       </c>
       <c r="Q7" s="112"/>
-      <c r="R7" s="92" t="s">
+      <c r="R7" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="92"/>
+      <c r="S7" s="104"/>
       <c r="T7" s="113" t="s">
         <v>18</v>
       </c>
       <c r="U7" s="113"/>
-      <c r="V7" s="92" t="s">
+      <c r="V7" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="92"/>
+      <c r="W7" s="104"/>
       <c r="X7" s="114" t="s">
         <v>20</v>
       </c>
       <c r="Y7" s="114"/>
-      <c r="Z7" s="92" t="s">
+      <c r="Z7" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="92"/>
+      <c r="AA7" s="104"/>
       <c r="AB7" s="103" t="s">
         <v>22</v>
       </c>
       <c r="AC7" s="103"/>
-      <c r="AD7" s="92" t="s">
+      <c r="AD7" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="92"/>
-      <c r="AF7" s="104" t="s">
+      <c r="AE7" s="104"/>
+      <c r="AF7" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="104" t="s">
+      <c r="AG7" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="92"/>
+      <c r="AH7" s="104"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="92"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="92"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="104"/>
       <c r="D8" s="57" t="s">
         <v>26</v>
       </c>
@@ -4284,9 +4281,9 @@
       <c r="AE8" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AF8" s="124"/>
-      <c r="AG8" s="124"/>
-      <c r="AH8" s="92"/>
+      <c r="AF8" s="125"/>
+      <c r="AG8" s="125"/>
+      <c r="AH8" s="104"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -6108,76 +6105,76 @@
       <c r="A49" s="17"/>
       <c r="B49" s="18"/>
       <c r="C49" s="19"/>
-      <c r="D49" s="108">
+      <c r="D49" s="109">
         <f>SUM(D9:D48)-SUM(E9:E48)</f>
         <v>3</v>
       </c>
-      <c r="E49" s="108"/>
-      <c r="F49" s="109">
+      <c r="E49" s="109"/>
+      <c r="F49" s="95">
         <f>SUM(F9:F48)-SUM(G9:G48)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="109"/>
+      <c r="G49" s="95"/>
       <c r="H49" s="110">
         <f>SUM(H9:H48)-SUM(I9:I48)</f>
         <v>0</v>
       </c>
       <c r="I49" s="110"/>
-      <c r="J49" s="109">
+      <c r="J49" s="95">
         <f>SUM(J9:J48)-SUM(K9:K48)</f>
         <v>0</v>
       </c>
-      <c r="K49" s="109"/>
+      <c r="K49" s="95"/>
       <c r="L49" s="111">
         <f>SUM(L9:L48)-SUM(M9:M48)</f>
         <v>0</v>
       </c>
       <c r="M49" s="111"/>
-      <c r="N49" s="109">
+      <c r="N49" s="95">
         <f>SUM(N9:N48)-SUM(O9:O48)</f>
         <v>1</v>
       </c>
-      <c r="O49" s="109"/>
-      <c r="P49" s="117">
+      <c r="O49" s="95"/>
+      <c r="P49" s="96">
         <f>SUM(P9:P48)-SUM(Q9:Q48)</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="117"/>
-      <c r="R49" s="109">
+      <c r="Q49" s="96"/>
+      <c r="R49" s="95">
         <f>SUM(R9:R48)-SUM(S9:S48)</f>
         <v>2</v>
       </c>
-      <c r="S49" s="109"/>
-      <c r="T49" s="118">
+      <c r="S49" s="95"/>
+      <c r="T49" s="97">
         <f>SUM(T9:T48)-SUM(U9:U48)</f>
         <v>0</v>
       </c>
-      <c r="U49" s="118"/>
-      <c r="V49" s="109">
+      <c r="U49" s="97"/>
+      <c r="V49" s="95">
         <f>SUM(V9:V48)-SUM(W9:W48)</f>
         <v>0</v>
       </c>
-      <c r="W49" s="109"/>
-      <c r="X49" s="119">
+      <c r="W49" s="95"/>
+      <c r="X49" s="98">
         <f>SUM(X9:X48)-SUM(Y9:Y48)</f>
         <v>4</v>
       </c>
-      <c r="Y49" s="119"/>
-      <c r="Z49" s="109">
+      <c r="Y49" s="98"/>
+      <c r="Z49" s="95">
         <f>SUM(Z9:Z48)-SUM(AA9:AA48)</f>
         <v>3</v>
       </c>
-      <c r="AA49" s="109"/>
-      <c r="AB49" s="120">
+      <c r="AA49" s="95"/>
+      <c r="AB49" s="99">
         <f>SUM(AB9:AB48)-SUM(AC9:AC48)</f>
         <v>3</v>
       </c>
-      <c r="AC49" s="120"/>
-      <c r="AD49" s="109">
+      <c r="AC49" s="99"/>
+      <c r="AD49" s="95">
         <f>SUM(AD9:AD48)-SUM(AE9:AE48)</f>
         <v>0</v>
       </c>
-      <c r="AE49" s="109"/>
+      <c r="AE49" s="95"/>
       <c r="AF49" s="20"/>
       <c r="AG49" s="9">
         <f>D49+F49+H49+J49+L49+N49+P49+R49+T49+V49+X49+Z49+AB49+AD49</f>
@@ -6186,39 +6183,39 @@
       <c r="AH49" s="21"/>
     </row>
     <row r="50" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="121" t="s">
+      <c r="A50" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="122"/>
-      <c r="C50" s="122"/>
-      <c r="D50" s="122"/>
-      <c r="E50" s="122"/>
-      <c r="F50" s="122"/>
-      <c r="G50" s="122"/>
-      <c r="H50" s="122"/>
-      <c r="I50" s="122"/>
-      <c r="J50" s="122"/>
-      <c r="K50" s="122"/>
-      <c r="L50" s="122"/>
-      <c r="M50" s="122"/>
-      <c r="N50" s="122"/>
-      <c r="O50" s="122"/>
-      <c r="P50" s="122"/>
-      <c r="Q50" s="122"/>
-      <c r="R50" s="122"/>
-      <c r="S50" s="122"/>
-      <c r="T50" s="122"/>
-      <c r="U50" s="122"/>
-      <c r="V50" s="122"/>
-      <c r="W50" s="122"/>
-      <c r="X50" s="122"/>
-      <c r="Y50" s="122"/>
-      <c r="Z50" s="122"/>
-      <c r="AA50" s="122"/>
-      <c r="AB50" s="122"/>
-      <c r="AC50" s="122"/>
-      <c r="AD50" s="122"/>
-      <c r="AE50" s="123"/>
+      <c r="B50" s="101"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="101"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="101"/>
+      <c r="J50" s="101"/>
+      <c r="K50" s="101"/>
+      <c r="L50" s="101"/>
+      <c r="M50" s="101"/>
+      <c r="N50" s="101"/>
+      <c r="O50" s="101"/>
+      <c r="P50" s="101"/>
+      <c r="Q50" s="101"/>
+      <c r="R50" s="101"/>
+      <c r="S50" s="101"/>
+      <c r="T50" s="101"/>
+      <c r="U50" s="101"/>
+      <c r="V50" s="101"/>
+      <c r="W50" s="101"/>
+      <c r="X50" s="101"/>
+      <c r="Y50" s="101"/>
+      <c r="Z50" s="101"/>
+      <c r="AA50" s="101"/>
+      <c r="AB50" s="101"/>
+      <c r="AC50" s="101"/>
+      <c r="AD50" s="101"/>
+      <c r="AE50" s="102"/>
       <c r="AF50" s="22">
         <f>SUM(AF9:AF48)</f>
         <v>18</v>
@@ -6230,48 +6227,75 @@
       <c r="AH50" s="23"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="121" t="s">
+      <c r="A51" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="122"/>
-      <c r="C51" s="122"/>
-      <c r="D51" s="122"/>
-      <c r="E51" s="122"/>
-      <c r="F51" s="122"/>
-      <c r="G51" s="122"/>
-      <c r="H51" s="122"/>
-      <c r="I51" s="122"/>
-      <c r="J51" s="122"/>
-      <c r="K51" s="122"/>
-      <c r="L51" s="122"/>
-      <c r="M51" s="122"/>
-      <c r="N51" s="122"/>
-      <c r="O51" s="122"/>
-      <c r="P51" s="122"/>
-      <c r="Q51" s="122"/>
-      <c r="R51" s="122"/>
-      <c r="S51" s="122"/>
-      <c r="T51" s="122"/>
-      <c r="U51" s="122"/>
-      <c r="V51" s="122"/>
-      <c r="W51" s="122"/>
-      <c r="X51" s="122"/>
-      <c r="Y51" s="122"/>
-      <c r="Z51" s="122"/>
-      <c r="AA51" s="122"/>
-      <c r="AB51" s="122"/>
-      <c r="AC51" s="122"/>
-      <c r="AD51" s="122"/>
-      <c r="AE51" s="123"/>
-      <c r="AF51" s="115">
+      <c r="B51" s="101"/>
+      <c r="C51" s="101"/>
+      <c r="D51" s="101"/>
+      <c r="E51" s="101"/>
+      <c r="F51" s="101"/>
+      <c r="G51" s="101"/>
+      <c r="H51" s="101"/>
+      <c r="I51" s="101"/>
+      <c r="J51" s="101"/>
+      <c r="K51" s="101"/>
+      <c r="L51" s="101"/>
+      <c r="M51" s="101"/>
+      <c r="N51" s="101"/>
+      <c r="O51" s="101"/>
+      <c r="P51" s="101"/>
+      <c r="Q51" s="101"/>
+      <c r="R51" s="101"/>
+      <c r="S51" s="101"/>
+      <c r="T51" s="101"/>
+      <c r="U51" s="101"/>
+      <c r="V51" s="101"/>
+      <c r="W51" s="101"/>
+      <c r="X51" s="101"/>
+      <c r="Y51" s="101"/>
+      <c r="Z51" s="101"/>
+      <c r="AA51" s="101"/>
+      <c r="AB51" s="101"/>
+      <c r="AC51" s="101"/>
+      <c r="AD51" s="101"/>
+      <c r="AE51" s="102"/>
+      <c r="AF51" s="93">
         <f>AG50-AF50</f>
         <v>16</v>
       </c>
-      <c r="AG51" s="116"/>
+      <c r="AG51" s="94"/>
       <c r="AH51" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="A50:AE50"/>
+    <mergeCell ref="A51:AE51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -6288,33 +6312,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AD49:AE49"/>
-    <mergeCell ref="A50:AE50"/>
-    <mergeCell ref="A51:AE51"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="Z49:AA49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6326,7 +6323,7 @@
   <dimension ref="A1:AH51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6342,11 +6339,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
+      <c r="A1" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
       <c r="D1" s="82"/>
       <c r="E1" s="82"/>
       <c r="F1" s="82"/>
@@ -6382,11 +6379,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
       <c r="D2" s="83"/>
       <c r="E2" s="83"/>
       <c r="F2" s="83"/>
@@ -6422,235 +6419,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="95"/>
-      <c r="AD3" s="95"/>
-      <c r="AE3" s="95"/>
-      <c r="AF3" s="95"/>
-      <c r="AG3" s="95"/>
-      <c r="AH3" s="95"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="117"/>
+      <c r="AA3" s="117"/>
+      <c r="AB3" s="117"/>
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="117"/>
+      <c r="AE3" s="117"/>
+      <c r="AF3" s="117"/>
+      <c r="AG3" s="117"/>
+      <c r="AH3" s="117"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="95"/>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="95"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="117"/>
+      <c r="Z4" s="117"/>
+      <c r="AA4" s="117"/>
+      <c r="AB4" s="117"/>
+      <c r="AC4" s="117"/>
+      <c r="AD4" s="117"/>
+      <c r="AE4" s="117"/>
+      <c r="AF4" s="117"/>
+      <c r="AG4" s="117"/>
+      <c r="AH4" s="117"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="95"/>
-      <c r="U5" s="95"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="95"/>
-      <c r="Z5" s="95"/>
-      <c r="AA5" s="95"/>
-      <c r="AB5" s="95"/>
-      <c r="AC5" s="95"/>
-      <c r="AD5" s="95"/>
-      <c r="AE5" s="95"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
+      <c r="U5" s="117"/>
+      <c r="V5" s="117"/>
+      <c r="W5" s="117"/>
+      <c r="X5" s="117"/>
+      <c r="Y5" s="117"/>
+      <c r="Z5" s="117"/>
+      <c r="AA5" s="117"/>
+      <c r="AB5" s="117"/>
+      <c r="AC5" s="117"/>
+      <c r="AD5" s="117"/>
+      <c r="AE5" s="117"/>
       <c r="AF5" s="84"/>
       <c r="AG5" s="84"/>
       <c r="AH5" s="84"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="98"/>
-      <c r="R6" s="98"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="98"/>
-      <c r="V6" s="98"/>
-      <c r="W6" s="98"/>
-      <c r="X6" s="98"/>
-      <c r="Y6" s="98"/>
-      <c r="Z6" s="98"/>
-      <c r="AA6" s="98"/>
-      <c r="AB6" s="98"/>
-      <c r="AC6" s="98"/>
-      <c r="AD6" s="98"/>
-      <c r="AE6" s="98"/>
-      <c r="AF6" s="98"/>
-      <c r="AG6" s="99"/>
-      <c r="AH6" s="92" t="s">
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="120"/>
+      <c r="P6" s="120"/>
+      <c r="Q6" s="120"/>
+      <c r="R6" s="120"/>
+      <c r="S6" s="120"/>
+      <c r="T6" s="120"/>
+      <c r="U6" s="120"/>
+      <c r="V6" s="120"/>
+      <c r="W6" s="120"/>
+      <c r="X6" s="120"/>
+      <c r="Y6" s="120"/>
+      <c r="Z6" s="120"/>
+      <c r="AA6" s="120"/>
+      <c r="AB6" s="120"/>
+      <c r="AC6" s="120"/>
+      <c r="AD6" s="120"/>
+      <c r="AE6" s="120"/>
+      <c r="AF6" s="120"/>
+      <c r="AG6" s="121"/>
+      <c r="AH6" s="104" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="92"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="100" t="s">
+      <c r="A7" s="104"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="92" t="s">
+      <c r="E7" s="122"/>
+      <c r="F7" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="101" t="s">
+      <c r="G7" s="104"/>
+      <c r="H7" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="101"/>
-      <c r="J7" s="92" t="s">
+      <c r="I7" s="123"/>
+      <c r="J7" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="92"/>
-      <c r="L7" s="102" t="s">
+      <c r="K7" s="104"/>
+      <c r="L7" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="102"/>
-      <c r="N7" s="92" t="s">
+      <c r="M7" s="124"/>
+      <c r="N7" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="92"/>
+      <c r="O7" s="104"/>
       <c r="P7" s="112" t="s">
         <v>16</v>
       </c>
       <c r="Q7" s="112"/>
-      <c r="R7" s="92" t="s">
+      <c r="R7" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="92"/>
+      <c r="S7" s="104"/>
       <c r="T7" s="113" t="s">
         <v>18</v>
       </c>
       <c r="U7" s="113"/>
-      <c r="V7" s="92" t="s">
+      <c r="V7" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="92"/>
+      <c r="W7" s="104"/>
       <c r="X7" s="114" t="s">
         <v>20</v>
       </c>
       <c r="Y7" s="114"/>
-      <c r="Z7" s="92" t="s">
+      <c r="Z7" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="92"/>
+      <c r="AA7" s="104"/>
       <c r="AB7" s="103" t="s">
         <v>22</v>
       </c>
       <c r="AC7" s="103"/>
-      <c r="AD7" s="92" t="s">
+      <c r="AD7" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="92"/>
-      <c r="AF7" s="104" t="s">
+      <c r="AE7" s="104"/>
+      <c r="AF7" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="104" t="s">
+      <c r="AG7" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="92"/>
+      <c r="AH7" s="104"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="92"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="92"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="104"/>
       <c r="D8" s="85" t="s">
         <v>26</v>
       </c>
@@ -6735,9 +6732,9 @@
       <c r="AE8" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="AF8" s="124"/>
-      <c r="AG8" s="124"/>
-      <c r="AH8" s="92"/>
+      <c r="AF8" s="125"/>
+      <c r="AG8" s="125"/>
+      <c r="AH8" s="104"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
@@ -6998,7 +6995,7 @@
       <c r="B14" s="15">
         <v>44056</v>
       </c>
-      <c r="C14" s="125" t="s">
+      <c r="C14" s="92" t="s">
         <v>64</v>
       </c>
       <c r="D14" s="28"/>
@@ -7093,21 +7090,15 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="15">
-        <v>44056</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>66</v>
-      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="32"/>
       <c r="I16" s="32"/>
-      <c r="J16" s="16">
-        <v>12</v>
-      </c>
+      <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="40"/>
       <c r="M16" s="40"/>
@@ -7135,7 +7126,7 @@
       </c>
       <c r="AG16" s="14">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="14"/>
     </row>
@@ -8525,170 +8516,197 @@
       <c r="A49" s="17"/>
       <c r="B49" s="18"/>
       <c r="C49" s="19"/>
-      <c r="D49" s="108">
+      <c r="D49" s="109">
         <f>SUM(D9:D48)-SUM(E9:E48)</f>
         <v>0</v>
       </c>
-      <c r="E49" s="108"/>
-      <c r="F49" s="109">
+      <c r="E49" s="109"/>
+      <c r="F49" s="95">
         <f>SUM(F9:F48)-SUM(G9:G48)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="109"/>
+      <c r="G49" s="95"/>
       <c r="H49" s="110">
         <f>SUM(H9:H48)-SUM(I9:I48)</f>
         <v>0</v>
       </c>
       <c r="I49" s="110"/>
-      <c r="J49" s="109">
+      <c r="J49" s="95">
         <f>SUM(J9:J48)-SUM(K9:K48)</f>
-        <v>12</v>
-      </c>
-      <c r="K49" s="109"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="95"/>
       <c r="L49" s="111">
         <f>SUM(L9:L48)-SUM(M9:M48)</f>
         <v>0</v>
       </c>
       <c r="M49" s="111"/>
-      <c r="N49" s="109">
+      <c r="N49" s="95">
         <f>SUM(N9:N48)-SUM(O9:O48)</f>
         <v>0</v>
       </c>
-      <c r="O49" s="109"/>
-      <c r="P49" s="117">
+      <c r="O49" s="95"/>
+      <c r="P49" s="96">
         <f>SUM(P9:P48)-SUM(Q9:Q48)</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="117"/>
-      <c r="R49" s="109">
+      <c r="Q49" s="96"/>
+      <c r="R49" s="95">
         <f>SUM(R9:R48)-SUM(S9:S48)</f>
         <v>1</v>
       </c>
-      <c r="S49" s="109"/>
-      <c r="T49" s="118">
+      <c r="S49" s="95"/>
+      <c r="T49" s="97">
         <f>SUM(T9:T48)-SUM(U9:U48)</f>
         <v>0</v>
       </c>
-      <c r="U49" s="118"/>
-      <c r="V49" s="109">
+      <c r="U49" s="97"/>
+      <c r="V49" s="95">
         <f>SUM(V9:V48)-SUM(W9:W48)</f>
         <v>0</v>
       </c>
-      <c r="W49" s="109"/>
-      <c r="X49" s="119">
+      <c r="W49" s="95"/>
+      <c r="X49" s="98">
         <f>SUM(X9:X48)-SUM(Y9:Y48)</f>
         <v>0</v>
       </c>
-      <c r="Y49" s="119"/>
-      <c r="Z49" s="109">
+      <c r="Y49" s="98"/>
+      <c r="Z49" s="95">
         <f>SUM(Z9:Z48)-SUM(AA9:AA48)</f>
         <v>3</v>
       </c>
-      <c r="AA49" s="109"/>
-      <c r="AB49" s="120">
+      <c r="AA49" s="95"/>
+      <c r="AB49" s="99">
         <f>SUM(AB9:AB48)-SUM(AC9:AC48)</f>
         <v>0</v>
       </c>
-      <c r="AC49" s="120"/>
-      <c r="AD49" s="109">
+      <c r="AC49" s="99"/>
+      <c r="AD49" s="95">
         <f>SUM(AD9:AD48)-SUM(AE9:AE48)</f>
         <v>0</v>
       </c>
-      <c r="AE49" s="109"/>
+      <c r="AE49" s="95"/>
       <c r="AF49" s="20"/>
       <c r="AG49" s="9">
         <f>D49+F49+H49+J49+L49+N49+P49+R49+T49+V49+X49+Z49+AB49+AD49</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AH49" s="21"/>
     </row>
     <row r="50" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="121" t="s">
+      <c r="A50" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="122"/>
-      <c r="C50" s="122"/>
-      <c r="D50" s="122"/>
-      <c r="E50" s="122"/>
-      <c r="F50" s="122"/>
-      <c r="G50" s="122"/>
-      <c r="H50" s="122"/>
-      <c r="I50" s="122"/>
-      <c r="J50" s="122"/>
-      <c r="K50" s="122"/>
-      <c r="L50" s="122"/>
-      <c r="M50" s="122"/>
-      <c r="N50" s="122"/>
-      <c r="O50" s="122"/>
-      <c r="P50" s="122"/>
-      <c r="Q50" s="122"/>
-      <c r="R50" s="122"/>
-      <c r="S50" s="122"/>
-      <c r="T50" s="122"/>
-      <c r="U50" s="122"/>
-      <c r="V50" s="122"/>
-      <c r="W50" s="122"/>
-      <c r="X50" s="122"/>
-      <c r="Y50" s="122"/>
-      <c r="Z50" s="122"/>
-      <c r="AA50" s="122"/>
-      <c r="AB50" s="122"/>
-      <c r="AC50" s="122"/>
-      <c r="AD50" s="122"/>
-      <c r="AE50" s="123"/>
+      <c r="B50" s="101"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="101"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="101"/>
+      <c r="J50" s="101"/>
+      <c r="K50" s="101"/>
+      <c r="L50" s="101"/>
+      <c r="M50" s="101"/>
+      <c r="N50" s="101"/>
+      <c r="O50" s="101"/>
+      <c r="P50" s="101"/>
+      <c r="Q50" s="101"/>
+      <c r="R50" s="101"/>
+      <c r="S50" s="101"/>
+      <c r="T50" s="101"/>
+      <c r="U50" s="101"/>
+      <c r="V50" s="101"/>
+      <c r="W50" s="101"/>
+      <c r="X50" s="101"/>
+      <c r="Y50" s="101"/>
+      <c r="Z50" s="101"/>
+      <c r="AA50" s="101"/>
+      <c r="AB50" s="101"/>
+      <c r="AC50" s="101"/>
+      <c r="AD50" s="101"/>
+      <c r="AE50" s="102"/>
       <c r="AF50" s="22">
         <f>SUM(AF9:AF48)</f>
         <v>34</v>
       </c>
       <c r="AG50" s="22">
         <f>SUM(AG9:AG48)</f>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AH50" s="23"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="121" t="s">
+      <c r="A51" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="122"/>
-      <c r="C51" s="122"/>
-      <c r="D51" s="122"/>
-      <c r="E51" s="122"/>
-      <c r="F51" s="122"/>
-      <c r="G51" s="122"/>
-      <c r="H51" s="122"/>
-      <c r="I51" s="122"/>
-      <c r="J51" s="122"/>
-      <c r="K51" s="122"/>
-      <c r="L51" s="122"/>
-      <c r="M51" s="122"/>
-      <c r="N51" s="122"/>
-      <c r="O51" s="122"/>
-      <c r="P51" s="122"/>
-      <c r="Q51" s="122"/>
-      <c r="R51" s="122"/>
-      <c r="S51" s="122"/>
-      <c r="T51" s="122"/>
-      <c r="U51" s="122"/>
-      <c r="V51" s="122"/>
-      <c r="W51" s="122"/>
-      <c r="X51" s="122"/>
-      <c r="Y51" s="122"/>
-      <c r="Z51" s="122"/>
-      <c r="AA51" s="122"/>
-      <c r="AB51" s="122"/>
-      <c r="AC51" s="122"/>
-      <c r="AD51" s="122"/>
-      <c r="AE51" s="123"/>
-      <c r="AF51" s="115">
+      <c r="B51" s="101"/>
+      <c r="C51" s="101"/>
+      <c r="D51" s="101"/>
+      <c r="E51" s="101"/>
+      <c r="F51" s="101"/>
+      <c r="G51" s="101"/>
+      <c r="H51" s="101"/>
+      <c r="I51" s="101"/>
+      <c r="J51" s="101"/>
+      <c r="K51" s="101"/>
+      <c r="L51" s="101"/>
+      <c r="M51" s="101"/>
+      <c r="N51" s="101"/>
+      <c r="O51" s="101"/>
+      <c r="P51" s="101"/>
+      <c r="Q51" s="101"/>
+      <c r="R51" s="101"/>
+      <c r="S51" s="101"/>
+      <c r="T51" s="101"/>
+      <c r="U51" s="101"/>
+      <c r="V51" s="101"/>
+      <c r="W51" s="101"/>
+      <c r="X51" s="101"/>
+      <c r="Y51" s="101"/>
+      <c r="Z51" s="101"/>
+      <c r="AA51" s="101"/>
+      <c r="AB51" s="101"/>
+      <c r="AC51" s="101"/>
+      <c r="AD51" s="101"/>
+      <c r="AE51" s="102"/>
+      <c r="AF51" s="93">
         <f>AG50-AF50</f>
-        <v>16</v>
-      </c>
-      <c r="AG51" s="116"/>
+        <v>4</v>
+      </c>
+      <c r="AG51" s="94"/>
       <c r="AH51" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="A50:AE50"/>
+    <mergeCell ref="A51:AE51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -8705,33 +8723,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AD49:AE49"/>
-    <mergeCell ref="A50:AE50"/>
-    <mergeCell ref="A51:AE51"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="Z49:AA49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
@@ -1060,7 +1060,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="67">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1258,6 +1258,9 @@
   </si>
   <si>
     <t>Chị Thảo tp Việt Trì trả hàng</t>
+  </si>
+  <si>
+    <t>gộp về kho quỳnh trang</t>
   </si>
 </sst>
 </file>
@@ -1748,70 +1751,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1843,6 +1783,69 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2172,11 +2175,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
+      <c r="A1" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
       <c r="D1" s="75"/>
       <c r="E1" s="75"/>
       <c r="F1" s="75"/>
@@ -2212,11 +2215,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
       <c r="D2" s="76"/>
       <c r="E2" s="76"/>
       <c r="F2" s="76"/>
@@ -2252,235 +2255,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="117"/>
-      <c r="X3" s="117"/>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="117"/>
-      <c r="AA3" s="117"/>
-      <c r="AB3" s="117"/>
-      <c r="AC3" s="117"/>
-      <c r="AD3" s="117"/>
-      <c r="AE3" s="117"/>
-      <c r="AF3" s="117"/>
-      <c r="AG3" s="117"/>
-      <c r="AH3" s="117"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="96"/>
+      <c r="Y3" s="96"/>
+      <c r="Z3" s="96"/>
+      <c r="AA3" s="96"/>
+      <c r="AB3" s="96"/>
+      <c r="AC3" s="96"/>
+      <c r="AD3" s="96"/>
+      <c r="AE3" s="96"/>
+      <c r="AF3" s="96"/>
+      <c r="AG3" s="96"/>
+      <c r="AH3" s="96"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="117"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="117"/>
-      <c r="Z4" s="117"/>
-      <c r="AA4" s="117"/>
-      <c r="AB4" s="117"/>
-      <c r="AC4" s="117"/>
-      <c r="AD4" s="117"/>
-      <c r="AE4" s="117"/>
-      <c r="AF4" s="117"/>
-      <c r="AG4" s="117"/>
-      <c r="AH4" s="117"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="96"/>
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="96"/>
+      <c r="AD4" s="96"/>
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="117"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="117"/>
-      <c r="T5" s="117"/>
-      <c r="U5" s="117"/>
-      <c r="V5" s="117"/>
-      <c r="W5" s="117"/>
-      <c r="X5" s="117"/>
-      <c r="Y5" s="117"/>
-      <c r="Z5" s="117"/>
-      <c r="AA5" s="117"/>
-      <c r="AB5" s="117"/>
-      <c r="AC5" s="117"/>
-      <c r="AD5" s="117"/>
-      <c r="AE5" s="117"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="96"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
+      <c r="W5" s="96"/>
+      <c r="X5" s="96"/>
+      <c r="Y5" s="96"/>
+      <c r="Z5" s="96"/>
+      <c r="AA5" s="96"/>
+      <c r="AB5" s="96"/>
+      <c r="AC5" s="96"/>
+      <c r="AD5" s="96"/>
+      <c r="AE5" s="96"/>
       <c r="AF5" s="77"/>
       <c r="AG5" s="77"/>
       <c r="AH5" s="77"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120"/>
-      <c r="N6" s="120"/>
-      <c r="O6" s="120"/>
-      <c r="P6" s="120"/>
-      <c r="Q6" s="120"/>
-      <c r="R6" s="120"/>
-      <c r="S6" s="120"/>
-      <c r="T6" s="120"/>
-      <c r="U6" s="120"/>
-      <c r="V6" s="120"/>
-      <c r="W6" s="120"/>
-      <c r="X6" s="120"/>
-      <c r="Y6" s="120"/>
-      <c r="Z6" s="120"/>
-      <c r="AA6" s="120"/>
-      <c r="AB6" s="120"/>
-      <c r="AC6" s="120"/>
-      <c r="AD6" s="120"/>
-      <c r="AE6" s="120"/>
-      <c r="AF6" s="120"/>
-      <c r="AG6" s="121"/>
-      <c r="AH6" s="104" t="s">
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="99"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="99"/>
+      <c r="U6" s="99"/>
+      <c r="V6" s="99"/>
+      <c r="W6" s="99"/>
+      <c r="X6" s="99"/>
+      <c r="Y6" s="99"/>
+      <c r="Z6" s="99"/>
+      <c r="AA6" s="99"/>
+      <c r="AB6" s="99"/>
+      <c r="AC6" s="99"/>
+      <c r="AD6" s="99"/>
+      <c r="AE6" s="99"/>
+      <c r="AF6" s="99"/>
+      <c r="AG6" s="100"/>
+      <c r="AH6" s="93" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="104"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="122" t="s">
+      <c r="A7" s="93"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="122"/>
-      <c r="F7" s="104" t="s">
+      <c r="E7" s="101"/>
+      <c r="F7" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="104"/>
-      <c r="H7" s="123" t="s">
+      <c r="G7" s="93"/>
+      <c r="H7" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="123"/>
-      <c r="J7" s="104" t="s">
+      <c r="I7" s="102"/>
+      <c r="J7" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="104"/>
-      <c r="L7" s="124" t="s">
+      <c r="K7" s="93"/>
+      <c r="L7" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="124"/>
-      <c r="N7" s="104" t="s">
+      <c r="M7" s="103"/>
+      <c r="N7" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="104"/>
-      <c r="P7" s="112" t="s">
+      <c r="O7" s="93"/>
+      <c r="P7" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="104" t="s">
+      <c r="Q7" s="113"/>
+      <c r="R7" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="104"/>
-      <c r="T7" s="113" t="s">
+      <c r="S7" s="93"/>
+      <c r="T7" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="113"/>
-      <c r="V7" s="104" t="s">
+      <c r="U7" s="114"/>
+      <c r="V7" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="104"/>
-      <c r="X7" s="114" t="s">
+      <c r="W7" s="93"/>
+      <c r="X7" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="114"/>
-      <c r="Z7" s="104" t="s">
+      <c r="Y7" s="115"/>
+      <c r="Z7" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="104"/>
-      <c r="AB7" s="103" t="s">
+      <c r="AA7" s="93"/>
+      <c r="AB7" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="103"/>
-      <c r="AD7" s="104" t="s">
+      <c r="AC7" s="104"/>
+      <c r="AD7" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="104"/>
+      <c r="AE7" s="93"/>
       <c r="AF7" s="105" t="s">
         <v>24</v>
       </c>
       <c r="AG7" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="104"/>
+      <c r="AH7" s="93"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="118"/>
-      <c r="C8" s="104"/>
+      <c r="A8" s="93"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="93"/>
       <c r="D8" s="78" t="s">
         <v>26</v>
       </c>
@@ -2567,7 +2570,7 @@
       </c>
       <c r="AF8" s="106"/>
       <c r="AG8" s="106"/>
-      <c r="AH8" s="104"/>
+      <c r="AH8" s="93"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -3656,71 +3659,71 @@
         <v>0</v>
       </c>
       <c r="E30" s="109"/>
-      <c r="F30" s="95">
+      <c r="F30" s="110">
         <f>SUM(F9:F28)-SUM(G9:G28)</f>
         <v>4</v>
       </c>
-      <c r="G30" s="95"/>
-      <c r="H30" s="110">
+      <c r="G30" s="110"/>
+      <c r="H30" s="111">
         <f>SUM(H9:H28)-SUM(I9:I28)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="110"/>
-      <c r="J30" s="95">
+      <c r="I30" s="111"/>
+      <c r="J30" s="110">
         <f>SUM(J9:J28)-SUM(K9:K28)</f>
         <v>1</v>
       </c>
-      <c r="K30" s="95"/>
-      <c r="L30" s="111">
+      <c r="K30" s="110"/>
+      <c r="L30" s="112">
         <f>SUM(L9:L28)-SUM(M9:M28)</f>
         <v>0</v>
       </c>
-      <c r="M30" s="111"/>
-      <c r="N30" s="95">
+      <c r="M30" s="112"/>
+      <c r="N30" s="110">
         <f>SUM(N9:N28)-SUM(O9:O28)</f>
         <v>2</v>
       </c>
-      <c r="O30" s="95"/>
-      <c r="P30" s="96">
+      <c r="O30" s="110"/>
+      <c r="P30" s="118">
         <f>SUM(P9:P28)-SUM(Q9:Q28)</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="96"/>
-      <c r="R30" s="95">
+      <c r="Q30" s="118"/>
+      <c r="R30" s="110">
         <f>SUM(R9:R28)-SUM(S9:S28)</f>
         <v>2</v>
       </c>
-      <c r="S30" s="95"/>
-      <c r="T30" s="97">
+      <c r="S30" s="110"/>
+      <c r="T30" s="119">
         <f>SUM(T9:T28)-SUM(U9:U28)</f>
         <v>0</v>
       </c>
-      <c r="U30" s="97"/>
-      <c r="V30" s="95">
+      <c r="U30" s="119"/>
+      <c r="V30" s="110">
         <f>SUM(V9:V28)-SUM(W9:W28)</f>
         <v>0</v>
       </c>
-      <c r="W30" s="95"/>
-      <c r="X30" s="98">
+      <c r="W30" s="110"/>
+      <c r="X30" s="120">
         <f>SUM(X9:X28)-SUM(Y9:Y28)</f>
         <v>5</v>
       </c>
-      <c r="Y30" s="98"/>
-      <c r="Z30" s="95">
+      <c r="Y30" s="120"/>
+      <c r="Z30" s="110">
         <f>SUM(Z9:Z28)-SUM(AA9:AA28)</f>
         <v>0</v>
       </c>
-      <c r="AA30" s="95"/>
-      <c r="AB30" s="99">
+      <c r="AA30" s="110"/>
+      <c r="AB30" s="121">
         <f>SUM(AB9:AB28)-SUM(AC9:AC28)</f>
         <v>3</v>
       </c>
-      <c r="AC30" s="99"/>
-      <c r="AD30" s="95">
+      <c r="AC30" s="121"/>
+      <c r="AD30" s="110">
         <f>SUM(AD9:AD28)-SUM(AE9:AE28)</f>
         <v>0</v>
       </c>
-      <c r="AE30" s="95"/>
+      <c r="AE30" s="110"/>
       <c r="AF30" s="20"/>
       <c r="AG30" s="9">
         <f t="shared" si="1"/>
@@ -3729,39 +3732,39 @@
       <c r="AH30" s="21"/>
     </row>
     <row r="31" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="100" t="s">
+      <c r="A31" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="101"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="101"/>
-      <c r="O31" s="101"/>
-      <c r="P31" s="101"/>
-      <c r="Q31" s="101"/>
-      <c r="R31" s="101"/>
-      <c r="S31" s="101"/>
-      <c r="T31" s="101"/>
-      <c r="U31" s="101"/>
-      <c r="V31" s="101"/>
-      <c r="W31" s="101"/>
-      <c r="X31" s="101"/>
-      <c r="Y31" s="101"/>
-      <c r="Z31" s="101"/>
-      <c r="AA31" s="101"/>
-      <c r="AB31" s="101"/>
-      <c r="AC31" s="101"/>
-      <c r="AD31" s="101"/>
-      <c r="AE31" s="102"/>
+      <c r="B31" s="123"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="123"/>
+      <c r="K31" s="123"/>
+      <c r="L31" s="123"/>
+      <c r="M31" s="123"/>
+      <c r="N31" s="123"/>
+      <c r="O31" s="123"/>
+      <c r="P31" s="123"/>
+      <c r="Q31" s="123"/>
+      <c r="R31" s="123"/>
+      <c r="S31" s="123"/>
+      <c r="T31" s="123"/>
+      <c r="U31" s="123"/>
+      <c r="V31" s="123"/>
+      <c r="W31" s="123"/>
+      <c r="X31" s="123"/>
+      <c r="Y31" s="123"/>
+      <c r="Z31" s="123"/>
+      <c r="AA31" s="123"/>
+      <c r="AB31" s="123"/>
+      <c r="AC31" s="123"/>
+      <c r="AD31" s="123"/>
+      <c r="AE31" s="124"/>
       <c r="AF31" s="22">
         <f>SUM(AF9:AF28)</f>
         <v>79</v>
@@ -3773,48 +3776,76 @@
       <c r="AH31" s="23"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="100" t="s">
+      <c r="A32" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="101"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="101"/>
-      <c r="K32" s="101"/>
-      <c r="L32" s="101"/>
-      <c r="M32" s="101"/>
-      <c r="N32" s="101"/>
-      <c r="O32" s="101"/>
-      <c r="P32" s="101"/>
-      <c r="Q32" s="101"/>
-      <c r="R32" s="101"/>
-      <c r="S32" s="101"/>
-      <c r="T32" s="101"/>
-      <c r="U32" s="101"/>
-      <c r="V32" s="101"/>
-      <c r="W32" s="101"/>
-      <c r="X32" s="101"/>
-      <c r="Y32" s="101"/>
-      <c r="Z32" s="101"/>
-      <c r="AA32" s="101"/>
-      <c r="AB32" s="101"/>
-      <c r="AC32" s="101"/>
-      <c r="AD32" s="101"/>
-      <c r="AE32" s="102"/>
-      <c r="AF32" s="93">
+      <c r="B32" s="123"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="123"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="123"/>
+      <c r="N32" s="123"/>
+      <c r="O32" s="123"/>
+      <c r="P32" s="123"/>
+      <c r="Q32" s="123"/>
+      <c r="R32" s="123"/>
+      <c r="S32" s="123"/>
+      <c r="T32" s="123"/>
+      <c r="U32" s="123"/>
+      <c r="V32" s="123"/>
+      <c r="W32" s="123"/>
+      <c r="X32" s="123"/>
+      <c r="Y32" s="123"/>
+      <c r="Z32" s="123"/>
+      <c r="AA32" s="123"/>
+      <c r="AB32" s="123"/>
+      <c r="AC32" s="123"/>
+      <c r="AD32" s="123"/>
+      <c r="AE32" s="124"/>
+      <c r="AF32" s="116">
         <f>AG31-AF31</f>
         <v>17</v>
       </c>
-      <c r="AG32" s="94"/>
+      <c r="AG32" s="117"/>
       <c r="AH32" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="A31:AE31"/>
+    <mergeCell ref="A32:AE32"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -3831,34 +3862,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="A31:AE31"/>
-    <mergeCell ref="A32:AE32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3888,11 +3891,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
+      <c r="A1" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
       <c r="D1" s="54"/>
       <c r="E1" s="54"/>
       <c r="F1" s="54"/>
@@ -3928,11 +3931,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
       <c r="F2" s="55"/>
@@ -3968,235 +3971,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="117"/>
-      <c r="X3" s="117"/>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="117"/>
-      <c r="AA3" s="117"/>
-      <c r="AB3" s="117"/>
-      <c r="AC3" s="117"/>
-      <c r="AD3" s="117"/>
-      <c r="AE3" s="117"/>
-      <c r="AF3" s="117"/>
-      <c r="AG3" s="117"/>
-      <c r="AH3" s="117"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="96"/>
+      <c r="Y3" s="96"/>
+      <c r="Z3" s="96"/>
+      <c r="AA3" s="96"/>
+      <c r="AB3" s="96"/>
+      <c r="AC3" s="96"/>
+      <c r="AD3" s="96"/>
+      <c r="AE3" s="96"/>
+      <c r="AF3" s="96"/>
+      <c r="AG3" s="96"/>
+      <c r="AH3" s="96"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="117"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="117"/>
-      <c r="Z4" s="117"/>
-      <c r="AA4" s="117"/>
-      <c r="AB4" s="117"/>
-      <c r="AC4" s="117"/>
-      <c r="AD4" s="117"/>
-      <c r="AE4" s="117"/>
-      <c r="AF4" s="117"/>
-      <c r="AG4" s="117"/>
-      <c r="AH4" s="117"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="96"/>
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="96"/>
+      <c r="AD4" s="96"/>
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="117"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="117"/>
-      <c r="T5" s="117"/>
-      <c r="U5" s="117"/>
-      <c r="V5" s="117"/>
-      <c r="W5" s="117"/>
-      <c r="X5" s="117"/>
-      <c r="Y5" s="117"/>
-      <c r="Z5" s="117"/>
-      <c r="AA5" s="117"/>
-      <c r="AB5" s="117"/>
-      <c r="AC5" s="117"/>
-      <c r="AD5" s="117"/>
-      <c r="AE5" s="117"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="96"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
+      <c r="W5" s="96"/>
+      <c r="X5" s="96"/>
+      <c r="Y5" s="96"/>
+      <c r="Z5" s="96"/>
+      <c r="AA5" s="96"/>
+      <c r="AB5" s="96"/>
+      <c r="AC5" s="96"/>
+      <c r="AD5" s="96"/>
+      <c r="AE5" s="96"/>
       <c r="AF5" s="56"/>
       <c r="AG5" s="56"/>
       <c r="AH5" s="56"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120"/>
-      <c r="N6" s="120"/>
-      <c r="O6" s="120"/>
-      <c r="P6" s="120"/>
-      <c r="Q6" s="120"/>
-      <c r="R6" s="120"/>
-      <c r="S6" s="120"/>
-      <c r="T6" s="120"/>
-      <c r="U6" s="120"/>
-      <c r="V6" s="120"/>
-      <c r="W6" s="120"/>
-      <c r="X6" s="120"/>
-      <c r="Y6" s="120"/>
-      <c r="Z6" s="120"/>
-      <c r="AA6" s="120"/>
-      <c r="AB6" s="120"/>
-      <c r="AC6" s="120"/>
-      <c r="AD6" s="120"/>
-      <c r="AE6" s="120"/>
-      <c r="AF6" s="120"/>
-      <c r="AG6" s="121"/>
-      <c r="AH6" s="104" t="s">
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="99"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="99"/>
+      <c r="U6" s="99"/>
+      <c r="V6" s="99"/>
+      <c r="W6" s="99"/>
+      <c r="X6" s="99"/>
+      <c r="Y6" s="99"/>
+      <c r="Z6" s="99"/>
+      <c r="AA6" s="99"/>
+      <c r="AB6" s="99"/>
+      <c r="AC6" s="99"/>
+      <c r="AD6" s="99"/>
+      <c r="AE6" s="99"/>
+      <c r="AF6" s="99"/>
+      <c r="AG6" s="100"/>
+      <c r="AH6" s="93" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="104"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="122" t="s">
+      <c r="A7" s="93"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="122"/>
-      <c r="F7" s="104" t="s">
+      <c r="E7" s="101"/>
+      <c r="F7" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="104"/>
-      <c r="H7" s="123" t="s">
+      <c r="G7" s="93"/>
+      <c r="H7" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="123"/>
-      <c r="J7" s="104" t="s">
+      <c r="I7" s="102"/>
+      <c r="J7" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="104"/>
-      <c r="L7" s="124" t="s">
+      <c r="K7" s="93"/>
+      <c r="L7" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="124"/>
-      <c r="N7" s="104" t="s">
+      <c r="M7" s="103"/>
+      <c r="N7" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="104"/>
-      <c r="P7" s="112" t="s">
+      <c r="O7" s="93"/>
+      <c r="P7" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="104" t="s">
+      <c r="Q7" s="113"/>
+      <c r="R7" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="104"/>
-      <c r="T7" s="113" t="s">
+      <c r="S7" s="93"/>
+      <c r="T7" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="113"/>
-      <c r="V7" s="104" t="s">
+      <c r="U7" s="114"/>
+      <c r="V7" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="104"/>
-      <c r="X7" s="114" t="s">
+      <c r="W7" s="93"/>
+      <c r="X7" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="114"/>
-      <c r="Z7" s="104" t="s">
+      <c r="Y7" s="115"/>
+      <c r="Z7" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="104"/>
-      <c r="AB7" s="103" t="s">
+      <c r="AA7" s="93"/>
+      <c r="AB7" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="103"/>
-      <c r="AD7" s="104" t="s">
+      <c r="AC7" s="104"/>
+      <c r="AD7" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="104"/>
+      <c r="AE7" s="93"/>
       <c r="AF7" s="105" t="s">
         <v>24</v>
       </c>
       <c r="AG7" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="104"/>
+      <c r="AH7" s="93"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="118"/>
-      <c r="C8" s="104"/>
+      <c r="A8" s="93"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="93"/>
       <c r="D8" s="57" t="s">
         <v>26</v>
       </c>
@@ -4283,7 +4286,7 @@
       </c>
       <c r="AF8" s="125"/>
       <c r="AG8" s="125"/>
-      <c r="AH8" s="104"/>
+      <c r="AH8" s="93"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -6110,71 +6113,71 @@
         <v>3</v>
       </c>
       <c r="E49" s="109"/>
-      <c r="F49" s="95">
+      <c r="F49" s="110">
         <f>SUM(F9:F48)-SUM(G9:G48)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="95"/>
-      <c r="H49" s="110">
+      <c r="G49" s="110"/>
+      <c r="H49" s="111">
         <f>SUM(H9:H48)-SUM(I9:I48)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="110"/>
-      <c r="J49" s="95">
+      <c r="I49" s="111"/>
+      <c r="J49" s="110">
         <f>SUM(J9:J48)-SUM(K9:K48)</f>
         <v>0</v>
       </c>
-      <c r="K49" s="95"/>
-      <c r="L49" s="111">
+      <c r="K49" s="110"/>
+      <c r="L49" s="112">
         <f>SUM(L9:L48)-SUM(M9:M48)</f>
         <v>0</v>
       </c>
-      <c r="M49" s="111"/>
-      <c r="N49" s="95">
+      <c r="M49" s="112"/>
+      <c r="N49" s="110">
         <f>SUM(N9:N48)-SUM(O9:O48)</f>
         <v>1</v>
       </c>
-      <c r="O49" s="95"/>
-      <c r="P49" s="96">
+      <c r="O49" s="110"/>
+      <c r="P49" s="118">
         <f>SUM(P9:P48)-SUM(Q9:Q48)</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="96"/>
-      <c r="R49" s="95">
+      <c r="Q49" s="118"/>
+      <c r="R49" s="110">
         <f>SUM(R9:R48)-SUM(S9:S48)</f>
         <v>2</v>
       </c>
-      <c r="S49" s="95"/>
-      <c r="T49" s="97">
+      <c r="S49" s="110"/>
+      <c r="T49" s="119">
         <f>SUM(T9:T48)-SUM(U9:U48)</f>
         <v>0</v>
       </c>
-      <c r="U49" s="97"/>
-      <c r="V49" s="95">
+      <c r="U49" s="119"/>
+      <c r="V49" s="110">
         <f>SUM(V9:V48)-SUM(W9:W48)</f>
         <v>0</v>
       </c>
-      <c r="W49" s="95"/>
-      <c r="X49" s="98">
+      <c r="W49" s="110"/>
+      <c r="X49" s="120">
         <f>SUM(X9:X48)-SUM(Y9:Y48)</f>
         <v>4</v>
       </c>
-      <c r="Y49" s="98"/>
-      <c r="Z49" s="95">
+      <c r="Y49" s="120"/>
+      <c r="Z49" s="110">
         <f>SUM(Z9:Z48)-SUM(AA9:AA48)</f>
         <v>3</v>
       </c>
-      <c r="AA49" s="95"/>
-      <c r="AB49" s="99">
+      <c r="AA49" s="110"/>
+      <c r="AB49" s="121">
         <f>SUM(AB9:AB48)-SUM(AC9:AC48)</f>
         <v>3</v>
       </c>
-      <c r="AC49" s="99"/>
-      <c r="AD49" s="95">
+      <c r="AC49" s="121"/>
+      <c r="AD49" s="110">
         <f>SUM(AD9:AD48)-SUM(AE9:AE48)</f>
         <v>0</v>
       </c>
-      <c r="AE49" s="95"/>
+      <c r="AE49" s="110"/>
       <c r="AF49" s="20"/>
       <c r="AG49" s="9">
         <f>D49+F49+H49+J49+L49+N49+P49+R49+T49+V49+X49+Z49+AB49+AD49</f>
@@ -6183,39 +6186,39 @@
       <c r="AH49" s="21"/>
     </row>
     <row r="50" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="100" t="s">
+      <c r="A50" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="101"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="101"/>
-      <c r="E50" s="101"/>
-      <c r="F50" s="101"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="101"/>
-      <c r="I50" s="101"/>
-      <c r="J50" s="101"/>
-      <c r="K50" s="101"/>
-      <c r="L50" s="101"/>
-      <c r="M50" s="101"/>
-      <c r="N50" s="101"/>
-      <c r="O50" s="101"/>
-      <c r="P50" s="101"/>
-      <c r="Q50" s="101"/>
-      <c r="R50" s="101"/>
-      <c r="S50" s="101"/>
-      <c r="T50" s="101"/>
-      <c r="U50" s="101"/>
-      <c r="V50" s="101"/>
-      <c r="W50" s="101"/>
-      <c r="X50" s="101"/>
-      <c r="Y50" s="101"/>
-      <c r="Z50" s="101"/>
-      <c r="AA50" s="101"/>
-      <c r="AB50" s="101"/>
-      <c r="AC50" s="101"/>
-      <c r="AD50" s="101"/>
-      <c r="AE50" s="102"/>
+      <c r="B50" s="123"/>
+      <c r="C50" s="123"/>
+      <c r="D50" s="123"/>
+      <c r="E50" s="123"/>
+      <c r="F50" s="123"/>
+      <c r="G50" s="123"/>
+      <c r="H50" s="123"/>
+      <c r="I50" s="123"/>
+      <c r="J50" s="123"/>
+      <c r="K50" s="123"/>
+      <c r="L50" s="123"/>
+      <c r="M50" s="123"/>
+      <c r="N50" s="123"/>
+      <c r="O50" s="123"/>
+      <c r="P50" s="123"/>
+      <c r="Q50" s="123"/>
+      <c r="R50" s="123"/>
+      <c r="S50" s="123"/>
+      <c r="T50" s="123"/>
+      <c r="U50" s="123"/>
+      <c r="V50" s="123"/>
+      <c r="W50" s="123"/>
+      <c r="X50" s="123"/>
+      <c r="Y50" s="123"/>
+      <c r="Z50" s="123"/>
+      <c r="AA50" s="123"/>
+      <c r="AB50" s="123"/>
+      <c r="AC50" s="123"/>
+      <c r="AD50" s="123"/>
+      <c r="AE50" s="124"/>
       <c r="AF50" s="22">
         <f>SUM(AF9:AF48)</f>
         <v>18</v>
@@ -6227,59 +6230,64 @@
       <c r="AH50" s="23"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="100" t="s">
+      <c r="A51" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="101"/>
-      <c r="C51" s="101"/>
-      <c r="D51" s="101"/>
-      <c r="E51" s="101"/>
-      <c r="F51" s="101"/>
-      <c r="G51" s="101"/>
-      <c r="H51" s="101"/>
-      <c r="I51" s="101"/>
-      <c r="J51" s="101"/>
-      <c r="K51" s="101"/>
-      <c r="L51" s="101"/>
-      <c r="M51" s="101"/>
-      <c r="N51" s="101"/>
-      <c r="O51" s="101"/>
-      <c r="P51" s="101"/>
-      <c r="Q51" s="101"/>
-      <c r="R51" s="101"/>
-      <c r="S51" s="101"/>
-      <c r="T51" s="101"/>
-      <c r="U51" s="101"/>
-      <c r="V51" s="101"/>
-      <c r="W51" s="101"/>
-      <c r="X51" s="101"/>
-      <c r="Y51" s="101"/>
-      <c r="Z51" s="101"/>
-      <c r="AA51" s="101"/>
-      <c r="AB51" s="101"/>
-      <c r="AC51" s="101"/>
-      <c r="AD51" s="101"/>
-      <c r="AE51" s="102"/>
-      <c r="AF51" s="93">
+      <c r="B51" s="123"/>
+      <c r="C51" s="123"/>
+      <c r="D51" s="123"/>
+      <c r="E51" s="123"/>
+      <c r="F51" s="123"/>
+      <c r="G51" s="123"/>
+      <c r="H51" s="123"/>
+      <c r="I51" s="123"/>
+      <c r="J51" s="123"/>
+      <c r="K51" s="123"/>
+      <c r="L51" s="123"/>
+      <c r="M51" s="123"/>
+      <c r="N51" s="123"/>
+      <c r="O51" s="123"/>
+      <c r="P51" s="123"/>
+      <c r="Q51" s="123"/>
+      <c r="R51" s="123"/>
+      <c r="S51" s="123"/>
+      <c r="T51" s="123"/>
+      <c r="U51" s="123"/>
+      <c r="V51" s="123"/>
+      <c r="W51" s="123"/>
+      <c r="X51" s="123"/>
+      <c r="Y51" s="123"/>
+      <c r="Z51" s="123"/>
+      <c r="AA51" s="123"/>
+      <c r="AB51" s="123"/>
+      <c r="AC51" s="123"/>
+      <c r="AD51" s="123"/>
+      <c r="AE51" s="124"/>
+      <c r="AF51" s="116">
         <f>AG50-AF50</f>
         <v>16</v>
       </c>
-      <c r="AG51" s="94"/>
+      <c r="AG51" s="117"/>
       <c r="AH51" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AD49:AE49"/>
-    <mergeCell ref="A50:AE50"/>
-    <mergeCell ref="A51:AE51"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AF8"/>
@@ -6296,22 +6304,17 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="A50:AE50"/>
+    <mergeCell ref="A51:AE51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="Z49:AA49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6320,10 +6323,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH51"/>
+  <dimension ref="A1:AH46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+      <selection activeCell="AB50" sqref="AB50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6339,11 +6342,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
+      <c r="A1" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
       <c r="D1" s="82"/>
       <c r="E1" s="82"/>
       <c r="F1" s="82"/>
@@ -6379,11 +6382,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
       <c r="D2" s="83"/>
       <c r="E2" s="83"/>
       <c r="F2" s="83"/>
@@ -6419,235 +6422,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="117"/>
-      <c r="X3" s="117"/>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="117"/>
-      <c r="AA3" s="117"/>
-      <c r="AB3" s="117"/>
-      <c r="AC3" s="117"/>
-      <c r="AD3" s="117"/>
-      <c r="AE3" s="117"/>
-      <c r="AF3" s="117"/>
-      <c r="AG3" s="117"/>
-      <c r="AH3" s="117"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="96"/>
+      <c r="Y3" s="96"/>
+      <c r="Z3" s="96"/>
+      <c r="AA3" s="96"/>
+      <c r="AB3" s="96"/>
+      <c r="AC3" s="96"/>
+      <c r="AD3" s="96"/>
+      <c r="AE3" s="96"/>
+      <c r="AF3" s="96"/>
+      <c r="AG3" s="96"/>
+      <c r="AH3" s="96"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="117"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="117"/>
-      <c r="Z4" s="117"/>
-      <c r="AA4" s="117"/>
-      <c r="AB4" s="117"/>
-      <c r="AC4" s="117"/>
-      <c r="AD4" s="117"/>
-      <c r="AE4" s="117"/>
-      <c r="AF4" s="117"/>
-      <c r="AG4" s="117"/>
-      <c r="AH4" s="117"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="96"/>
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="96"/>
+      <c r="AD4" s="96"/>
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="117"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="117"/>
-      <c r="T5" s="117"/>
-      <c r="U5" s="117"/>
-      <c r="V5" s="117"/>
-      <c r="W5" s="117"/>
-      <c r="X5" s="117"/>
-      <c r="Y5" s="117"/>
-      <c r="Z5" s="117"/>
-      <c r="AA5" s="117"/>
-      <c r="AB5" s="117"/>
-      <c r="AC5" s="117"/>
-      <c r="AD5" s="117"/>
-      <c r="AE5" s="117"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="96"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
+      <c r="W5" s="96"/>
+      <c r="X5" s="96"/>
+      <c r="Y5" s="96"/>
+      <c r="Z5" s="96"/>
+      <c r="AA5" s="96"/>
+      <c r="AB5" s="96"/>
+      <c r="AC5" s="96"/>
+      <c r="AD5" s="96"/>
+      <c r="AE5" s="96"/>
       <c r="AF5" s="84"/>
       <c r="AG5" s="84"/>
       <c r="AH5" s="84"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120"/>
-      <c r="N6" s="120"/>
-      <c r="O6" s="120"/>
-      <c r="P6" s="120"/>
-      <c r="Q6" s="120"/>
-      <c r="R6" s="120"/>
-      <c r="S6" s="120"/>
-      <c r="T6" s="120"/>
-      <c r="U6" s="120"/>
-      <c r="V6" s="120"/>
-      <c r="W6" s="120"/>
-      <c r="X6" s="120"/>
-      <c r="Y6" s="120"/>
-      <c r="Z6" s="120"/>
-      <c r="AA6" s="120"/>
-      <c r="AB6" s="120"/>
-      <c r="AC6" s="120"/>
-      <c r="AD6" s="120"/>
-      <c r="AE6" s="120"/>
-      <c r="AF6" s="120"/>
-      <c r="AG6" s="121"/>
-      <c r="AH6" s="104" t="s">
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="99"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="99"/>
+      <c r="U6" s="99"/>
+      <c r="V6" s="99"/>
+      <c r="W6" s="99"/>
+      <c r="X6" s="99"/>
+      <c r="Y6" s="99"/>
+      <c r="Z6" s="99"/>
+      <c r="AA6" s="99"/>
+      <c r="AB6" s="99"/>
+      <c r="AC6" s="99"/>
+      <c r="AD6" s="99"/>
+      <c r="AE6" s="99"/>
+      <c r="AF6" s="99"/>
+      <c r="AG6" s="100"/>
+      <c r="AH6" s="93" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="104"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="122" t="s">
+      <c r="A7" s="93"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="122"/>
-      <c r="F7" s="104" t="s">
+      <c r="E7" s="101"/>
+      <c r="F7" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="104"/>
-      <c r="H7" s="123" t="s">
+      <c r="G7" s="93"/>
+      <c r="H7" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="123"/>
-      <c r="J7" s="104" t="s">
+      <c r="I7" s="102"/>
+      <c r="J7" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="104"/>
-      <c r="L7" s="124" t="s">
+      <c r="K7" s="93"/>
+      <c r="L7" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="124"/>
-      <c r="N7" s="104" t="s">
+      <c r="M7" s="103"/>
+      <c r="N7" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="104"/>
-      <c r="P7" s="112" t="s">
+      <c r="O7" s="93"/>
+      <c r="P7" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="104" t="s">
+      <c r="Q7" s="113"/>
+      <c r="R7" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="104"/>
-      <c r="T7" s="113" t="s">
+      <c r="S7" s="93"/>
+      <c r="T7" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="113"/>
-      <c r="V7" s="104" t="s">
+      <c r="U7" s="114"/>
+      <c r="V7" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="104"/>
-      <c r="X7" s="114" t="s">
+      <c r="W7" s="93"/>
+      <c r="X7" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="114"/>
-      <c r="Z7" s="104" t="s">
+      <c r="Y7" s="115"/>
+      <c r="Z7" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="104"/>
-      <c r="AB7" s="103" t="s">
+      <c r="AA7" s="93"/>
+      <c r="AB7" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="103"/>
-      <c r="AD7" s="104" t="s">
+      <c r="AC7" s="104"/>
+      <c r="AD7" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="104"/>
+      <c r="AE7" s="93"/>
       <c r="AF7" s="105" t="s">
         <v>24</v>
       </c>
       <c r="AG7" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="104"/>
+      <c r="AH7" s="93"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="118"/>
-      <c r="C8" s="104"/>
+      <c r="A8" s="93"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="93"/>
       <c r="D8" s="85" t="s">
         <v>26</v>
       </c>
@@ -6734,7 +6737,7 @@
       </c>
       <c r="AF8" s="125"/>
       <c r="AG8" s="125"/>
-      <c r="AH8" s="104"/>
+      <c r="AH8" s="93"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
@@ -6837,11 +6840,11 @@
       <c r="AD10" s="14"/>
       <c r="AE10" s="14"/>
       <c r="AF10" s="14">
-        <f t="shared" ref="AF10:AF48" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
+        <f t="shared" ref="AF10:AF43" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
         <v>3</v>
       </c>
       <c r="AG10" s="14">
-        <f t="shared" ref="AG10:AG48" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
+        <f t="shared" ref="AG10:AG43" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
         <v>0</v>
       </c>
       <c r="AH10" s="14"/>
@@ -7090,8 +7093,12 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
+      <c r="B16" s="15">
+        <v>44105</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="16"/>
@@ -7107,7 +7114,9 @@
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
+      <c r="S16" s="16">
+        <v>1</v>
+      </c>
       <c r="T16" s="48"/>
       <c r="U16" s="48"/>
       <c r="V16" s="16"/>
@@ -7115,14 +7124,16 @@
       <c r="X16" s="52"/>
       <c r="Y16" s="52"/>
       <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
+      <c r="AA16" s="16">
+        <v>3</v>
+      </c>
       <c r="AB16" s="36"/>
       <c r="AC16" s="36"/>
       <c r="AD16" s="16"/>
       <c r="AE16" s="16"/>
       <c r="AF16" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG16" s="14">
         <f t="shared" si="1"/>
@@ -7130,218 +7141,218 @@
       </c>
       <c r="AH16" s="14"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="14">
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG17" s="14">
+      <c r="AG17" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH17" s="14"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="52"/>
-      <c r="Y18" s="52"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="36"/>
-      <c r="AC18" s="36"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="14">
+    <row r="18" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG18" s="14">
+      <c r="AG18" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH18" s="14"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="52"/>
-      <c r="Y19" s="52"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="36"/>
-      <c r="AC19" s="36"/>
-      <c r="AD19" s="16"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="14">
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG19" s="14">
+      <c r="AG19" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH19" s="14"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="36"/>
-      <c r="AC20" s="36"/>
-      <c r="AD20" s="16"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="14">
+    <row r="20" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG20" s="14">
+      <c r="AG20" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH20" s="14"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="36"/>
-      <c r="AC21" s="36"/>
-      <c r="AD21" s="16"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="14">
+    <row r="21" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="51"/>
+      <c r="Y21" s="51"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG21" s="14">
+      <c r="AG21" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH21" s="14"/>
     </row>
     <row r="22" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
       <c r="D22" s="27"/>
@@ -7383,7 +7394,7 @@
       <c r="AH22" s="14"/>
     </row>
     <row r="23" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
       <c r="D23" s="27"/>
@@ -7425,7 +7436,7 @@
       <c r="AH23" s="14"/>
     </row>
     <row r="24" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
       <c r="D24" s="27"/>
@@ -7467,7 +7478,9 @@
       <c r="AH24" s="14"/>
     </row>
     <row r="25" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="11">
+        <v>16</v>
+      </c>
       <c r="B25" s="13"/>
       <c r="C25" s="14"/>
       <c r="D25" s="27"/>
@@ -7509,7 +7522,9 @@
       <c r="AH25" s="14"/>
     </row>
     <row r="26" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
+      <c r="A26" s="9">
+        <v>17</v>
+      </c>
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
       <c r="D26" s="27"/>
@@ -7551,7 +7566,9 @@
       <c r="AH26" s="14"/>
     </row>
     <row r="27" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
+      <c r="A27" s="11">
+        <v>18</v>
+      </c>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
       <c r="D27" s="27"/>
@@ -7593,7 +7610,9 @@
       <c r="AH27" s="14"/>
     </row>
     <row r="28" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
+      <c r="A28" s="9">
+        <v>19</v>
+      </c>
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
       <c r="D28" s="27"/>
@@ -7635,7 +7654,9 @@
       <c r="AH28" s="14"/>
     </row>
     <row r="29" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
+      <c r="A29" s="11">
+        <v>20</v>
+      </c>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
       <c r="D29" s="27"/>
@@ -7677,8 +7698,8 @@
       <c r="AH29" s="14"/>
     </row>
     <row r="30" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
-        <v>16</v>
+      <c r="A30" s="9">
+        <v>21</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
@@ -7721,8 +7742,8 @@
       <c r="AH30" s="14"/>
     </row>
     <row r="31" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
-        <v>17</v>
+      <c r="A31" s="11">
+        <v>22</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
@@ -7765,8 +7786,8 @@
       <c r="AH31" s="14"/>
     </row>
     <row r="32" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
-        <v>18</v>
+      <c r="A32" s="9">
+        <v>23</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
@@ -7809,8 +7830,8 @@
       <c r="AH32" s="14"/>
     </row>
     <row r="33" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
-        <v>19</v>
+      <c r="A33" s="11">
+        <v>24</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
@@ -7853,8 +7874,8 @@
       <c r="AH33" s="14"/>
     </row>
     <row r="34" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
-        <v>20</v>
+      <c r="A34" s="9">
+        <v>25</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
@@ -7897,8 +7918,8 @@
       <c r="AH34" s="14"/>
     </row>
     <row r="35" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <v>21</v>
+      <c r="A35" s="11">
+        <v>26</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
@@ -7941,8 +7962,8 @@
       <c r="AH35" s="14"/>
     </row>
     <row r="36" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
-        <v>22</v>
+      <c r="A36" s="9">
+        <v>27</v>
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
@@ -7985,8 +8006,8 @@
       <c r="AH36" s="14"/>
     </row>
     <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
-        <v>23</v>
+      <c r="A37" s="11">
+        <v>28</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
@@ -8029,8 +8050,8 @@
       <c r="AH37" s="14"/>
     </row>
     <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
-        <v>24</v>
+      <c r="A38" s="9">
+        <v>29</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
@@ -8073,8 +8094,8 @@
       <c r="AH38" s="14"/>
     </row>
     <row r="39" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
-        <v>25</v>
+      <c r="A39" s="11">
+        <v>30</v>
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="14"/>
@@ -8117,8 +8138,8 @@
       <c r="AH39" s="14"/>
     </row>
     <row r="40" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
-        <v>26</v>
+      <c r="A40" s="9">
+        <v>31</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
@@ -8161,39 +8182,39 @@
       <c r="AH40" s="14"/>
     </row>
     <row r="41" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
-        <v>27</v>
-      </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
-      <c r="T41" s="47"/>
-      <c r="U41" s="47"/>
-      <c r="V41" s="14"/>
-      <c r="W41" s="14"/>
-      <c r="X41" s="51"/>
-      <c r="Y41" s="51"/>
-      <c r="Z41" s="14"/>
-      <c r="AA41" s="14"/>
-      <c r="AB41" s="35"/>
-      <c r="AC41" s="35"/>
-      <c r="AD41" s="14"/>
-      <c r="AE41" s="14"/>
+      <c r="A41" s="11">
+        <v>32</v>
+      </c>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="48"/>
+      <c r="U41" s="48"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="52"/>
+      <c r="Y41" s="52"/>
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="36"/>
+      <c r="AC41" s="36"/>
+      <c r="AD41" s="16"/>
+      <c r="AE41" s="16"/>
       <c r="AF41" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8202,42 +8223,42 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AH41" s="14"/>
+      <c r="AH41" s="16"/>
     </row>
     <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
-        <v>28</v>
-      </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="43"/>
-      <c r="Q42" s="43"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="47"/>
-      <c r="U42" s="47"/>
-      <c r="V42" s="14"/>
-      <c r="W42" s="14"/>
-      <c r="X42" s="51"/>
-      <c r="Y42" s="51"/>
-      <c r="Z42" s="14"/>
-      <c r="AA42" s="14"/>
-      <c r="AB42" s="35"/>
-      <c r="AC42" s="35"/>
-      <c r="AD42" s="14"/>
-      <c r="AE42" s="14"/>
+      <c r="A42" s="9">
+        <v>33</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="44"/>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="48"/>
+      <c r="U42" s="48"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="52"/>
+      <c r="Y42" s="52"/>
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="36"/>
+      <c r="AC42" s="36"/>
+      <c r="AD42" s="16"/>
+      <c r="AE42" s="16"/>
       <c r="AF42" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8246,42 +8267,42 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AH42" s="14"/>
+      <c r="AH42" s="16"/>
     </row>
     <row r="43" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
-        <v>29</v>
-      </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="47"/>
-      <c r="U43" s="47"/>
-      <c r="V43" s="14"/>
-      <c r="W43" s="14"/>
-      <c r="X43" s="51"/>
-      <c r="Y43" s="51"/>
-      <c r="Z43" s="14"/>
-      <c r="AA43" s="14"/>
-      <c r="AB43" s="35"/>
-      <c r="AC43" s="35"/>
-      <c r="AD43" s="14"/>
-      <c r="AE43" s="14"/>
+      <c r="A43" s="11">
+        <v>34</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="48"/>
+      <c r="U43" s="48"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="52"/>
+      <c r="Y43" s="52"/>
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="36"/>
+      <c r="AC43" s="36"/>
+      <c r="AD43" s="16"/>
+      <c r="AE43" s="16"/>
       <c r="AF43" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8290,423 +8311,176 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AH43" s="14"/>
-    </row>
-    <row r="44" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
-        <v>30</v>
-      </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="43"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
-      <c r="T44" s="47"/>
-      <c r="U44" s="47"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="51"/>
-      <c r="Y44" s="51"/>
-      <c r="Z44" s="14"/>
-      <c r="AA44" s="14"/>
-      <c r="AB44" s="35"/>
-      <c r="AC44" s="35"/>
-      <c r="AD44" s="14"/>
-      <c r="AE44" s="14"/>
-      <c r="AF44" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AH43" s="16"/>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A44" s="17"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="109">
+        <f>SUM(D9:D43)-SUM(E9:E43)</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="109"/>
+      <c r="F44" s="110">
+        <f>SUM(F9:F43)-SUM(G9:G43)</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="110"/>
+      <c r="H44" s="111">
+        <f>SUM(H9:H43)-SUM(I9:I43)</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="111"/>
+      <c r="J44" s="110">
+        <f>SUM(J9:J43)-SUM(K9:K43)</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="110"/>
+      <c r="L44" s="112">
+        <f>SUM(L9:L43)-SUM(M9:M43)</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="112"/>
+      <c r="N44" s="110">
+        <f>SUM(N9:N43)-SUM(O9:O43)</f>
+        <v>0</v>
+      </c>
+      <c r="O44" s="110"/>
+      <c r="P44" s="118">
+        <f>SUM(P9:P43)-SUM(Q9:Q43)</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="118"/>
+      <c r="R44" s="110">
+        <f>SUM(R9:R43)-SUM(S9:S43)</f>
+        <v>0</v>
+      </c>
+      <c r="S44" s="110"/>
+      <c r="T44" s="119">
+        <f>SUM(T9:T43)-SUM(U9:U43)</f>
+        <v>0</v>
+      </c>
+      <c r="U44" s="119"/>
+      <c r="V44" s="110">
+        <f>SUM(V9:V43)-SUM(W9:W43)</f>
+        <v>0</v>
+      </c>
+      <c r="W44" s="110"/>
+      <c r="X44" s="120">
+        <f>SUM(X9:X43)-SUM(Y9:Y43)</f>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="120"/>
+      <c r="Z44" s="110">
+        <f>SUM(Z9:Z43)-SUM(AA9:AA43)</f>
+        <v>0</v>
+      </c>
+      <c r="AA44" s="110"/>
+      <c r="AB44" s="121">
+        <f>SUM(AB9:AB43)-SUM(AC9:AC43)</f>
+        <v>0</v>
+      </c>
+      <c r="AC44" s="121"/>
+      <c r="AD44" s="110">
+        <f>SUM(AD9:AD43)-SUM(AE9:AE43)</f>
+        <v>0</v>
+      </c>
+      <c r="AE44" s="110"/>
+      <c r="AF44" s="20"/>
       <c r="AG44" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH44" s="14"/>
-    </row>
-    <row r="45" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
-        <v>31</v>
-      </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="43"/>
-      <c r="Q45" s="43"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="14"/>
-      <c r="T45" s="47"/>
-      <c r="U45" s="47"/>
-      <c r="V45" s="14"/>
-      <c r="W45" s="14"/>
-      <c r="X45" s="51"/>
-      <c r="Y45" s="51"/>
-      <c r="Z45" s="14"/>
-      <c r="AA45" s="14"/>
-      <c r="AB45" s="35"/>
-      <c r="AC45" s="35"/>
-      <c r="AD45" s="14"/>
-      <c r="AE45" s="14"/>
-      <c r="AF45" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG45" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH45" s="14"/>
-    </row>
-    <row r="46" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
-        <v>32</v>
-      </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="44"/>
-      <c r="Q46" s="44"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="16"/>
-      <c r="T46" s="48"/>
-      <c r="U46" s="48"/>
-      <c r="V46" s="16"/>
-      <c r="W46" s="16"/>
-      <c r="X46" s="52"/>
-      <c r="Y46" s="52"/>
-      <c r="Z46" s="16"/>
-      <c r="AA46" s="16"/>
-      <c r="AB46" s="36"/>
-      <c r="AC46" s="36"/>
-      <c r="AD46" s="16"/>
-      <c r="AE46" s="16"/>
-      <c r="AF46" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG46" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH46" s="16"/>
-    </row>
-    <row r="47" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
-        <v>33</v>
-      </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="44"/>
-      <c r="Q47" s="44"/>
-      <c r="R47" s="16"/>
-      <c r="S47" s="16"/>
-      <c r="T47" s="48"/>
-      <c r="U47" s="48"/>
-      <c r="V47" s="16"/>
-      <c r="W47" s="16"/>
-      <c r="X47" s="52"/>
-      <c r="Y47" s="52"/>
-      <c r="Z47" s="16"/>
-      <c r="AA47" s="16"/>
-      <c r="AB47" s="36"/>
-      <c r="AC47" s="36"/>
-      <c r="AD47" s="16"/>
-      <c r="AE47" s="16"/>
-      <c r="AF47" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG47" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH47" s="16"/>
-    </row>
-    <row r="48" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
-        <v>34</v>
-      </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="44"/>
-      <c r="Q48" s="44"/>
-      <c r="R48" s="16"/>
-      <c r="S48" s="16"/>
-      <c r="T48" s="48"/>
-      <c r="U48" s="48"/>
-      <c r="V48" s="16"/>
-      <c r="W48" s="16"/>
-      <c r="X48" s="52"/>
-      <c r="Y48" s="52"/>
-      <c r="Z48" s="16"/>
-      <c r="AA48" s="16"/>
-      <c r="AB48" s="36"/>
-      <c r="AC48" s="36"/>
-      <c r="AD48" s="16"/>
-      <c r="AE48" s="16"/>
-      <c r="AF48" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG48" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH48" s="16"/>
-    </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="109">
-        <f>SUM(D9:D48)-SUM(E9:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="109"/>
-      <c r="F49" s="95">
-        <f>SUM(F9:F48)-SUM(G9:G48)</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="95"/>
-      <c r="H49" s="110">
-        <f>SUM(H9:H48)-SUM(I9:I48)</f>
-        <v>0</v>
-      </c>
-      <c r="I49" s="110"/>
-      <c r="J49" s="95">
-        <f>SUM(J9:J48)-SUM(K9:K48)</f>
-        <v>0</v>
-      </c>
-      <c r="K49" s="95"/>
-      <c r="L49" s="111">
-        <f>SUM(L9:L48)-SUM(M9:M48)</f>
-        <v>0</v>
-      </c>
-      <c r="M49" s="111"/>
-      <c r="N49" s="95">
-        <f>SUM(N9:N48)-SUM(O9:O48)</f>
-        <v>0</v>
-      </c>
-      <c r="O49" s="95"/>
-      <c r="P49" s="96">
-        <f>SUM(P9:P48)-SUM(Q9:Q48)</f>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="96"/>
-      <c r="R49" s="95">
-        <f>SUM(R9:R48)-SUM(S9:S48)</f>
-        <v>1</v>
-      </c>
-      <c r="S49" s="95"/>
-      <c r="T49" s="97">
-        <f>SUM(T9:T48)-SUM(U9:U48)</f>
-        <v>0</v>
-      </c>
-      <c r="U49" s="97"/>
-      <c r="V49" s="95">
-        <f>SUM(V9:V48)-SUM(W9:W48)</f>
-        <v>0</v>
-      </c>
-      <c r="W49" s="95"/>
-      <c r="X49" s="98">
-        <f>SUM(X9:X48)-SUM(Y9:Y48)</f>
-        <v>0</v>
-      </c>
-      <c r="Y49" s="98"/>
-      <c r="Z49" s="95">
-        <f>SUM(Z9:Z48)-SUM(AA9:AA48)</f>
-        <v>3</v>
-      </c>
-      <c r="AA49" s="95"/>
-      <c r="AB49" s="99">
-        <f>SUM(AB9:AB48)-SUM(AC9:AC48)</f>
-        <v>0</v>
-      </c>
-      <c r="AC49" s="99"/>
-      <c r="AD49" s="95">
-        <f>SUM(AD9:AD48)-SUM(AE9:AE48)</f>
-        <v>0</v>
-      </c>
-      <c r="AE49" s="95"/>
-      <c r="AF49" s="20"/>
-      <c r="AG49" s="9">
-        <f>D49+F49+H49+J49+L49+N49+P49+R49+T49+V49+X49+Z49+AB49+AD49</f>
-        <v>4</v>
-      </c>
-      <c r="AH49" s="21"/>
-    </row>
-    <row r="50" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="100" t="s">
+        <f>D44+F44+H44+J44+L44+N44+P44+R44+T44+V44+X44+Z44+AB44+AD44</f>
+        <v>0</v>
+      </c>
+      <c r="AH44" s="21"/>
+    </row>
+    <row r="45" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="101"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="101"/>
-      <c r="E50" s="101"/>
-      <c r="F50" s="101"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="101"/>
-      <c r="I50" s="101"/>
-      <c r="J50" s="101"/>
-      <c r="K50" s="101"/>
-      <c r="L50" s="101"/>
-      <c r="M50" s="101"/>
-      <c r="N50" s="101"/>
-      <c r="O50" s="101"/>
-      <c r="P50" s="101"/>
-      <c r="Q50" s="101"/>
-      <c r="R50" s="101"/>
-      <c r="S50" s="101"/>
-      <c r="T50" s="101"/>
-      <c r="U50" s="101"/>
-      <c r="V50" s="101"/>
-      <c r="W50" s="101"/>
-      <c r="X50" s="101"/>
-      <c r="Y50" s="101"/>
-      <c r="Z50" s="101"/>
-      <c r="AA50" s="101"/>
-      <c r="AB50" s="101"/>
-      <c r="AC50" s="101"/>
-      <c r="AD50" s="101"/>
-      <c r="AE50" s="102"/>
-      <c r="AF50" s="22">
-        <f>SUM(AF9:AF48)</f>
-        <v>34</v>
-      </c>
-      <c r="AG50" s="22">
-        <f>SUM(AG9:AG48)</f>
+      <c r="B45" s="123"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="123"/>
+      <c r="F45" s="123"/>
+      <c r="G45" s="123"/>
+      <c r="H45" s="123"/>
+      <c r="I45" s="123"/>
+      <c r="J45" s="123"/>
+      <c r="K45" s="123"/>
+      <c r="L45" s="123"/>
+      <c r="M45" s="123"/>
+      <c r="N45" s="123"/>
+      <c r="O45" s="123"/>
+      <c r="P45" s="123"/>
+      <c r="Q45" s="123"/>
+      <c r="R45" s="123"/>
+      <c r="S45" s="123"/>
+      <c r="T45" s="123"/>
+      <c r="U45" s="123"/>
+      <c r="V45" s="123"/>
+      <c r="W45" s="123"/>
+      <c r="X45" s="123"/>
+      <c r="Y45" s="123"/>
+      <c r="Z45" s="123"/>
+      <c r="AA45" s="123"/>
+      <c r="AB45" s="123"/>
+      <c r="AC45" s="123"/>
+      <c r="AD45" s="123"/>
+      <c r="AE45" s="124"/>
+      <c r="AF45" s="22">
+        <f>SUM(AF9:AF43)</f>
         <v>38</v>
       </c>
-      <c r="AH50" s="23"/>
-    </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="100" t="s">
+      <c r="AG45" s="22">
+        <f>SUM(AG9:AG43)</f>
+        <v>38</v>
+      </c>
+      <c r="AH45" s="23"/>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A46" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="101"/>
-      <c r="C51" s="101"/>
-      <c r="D51" s="101"/>
-      <c r="E51" s="101"/>
-      <c r="F51" s="101"/>
-      <c r="G51" s="101"/>
-      <c r="H51" s="101"/>
-      <c r="I51" s="101"/>
-      <c r="J51" s="101"/>
-      <c r="K51" s="101"/>
-      <c r="L51" s="101"/>
-      <c r="M51" s="101"/>
-      <c r="N51" s="101"/>
-      <c r="O51" s="101"/>
-      <c r="P51" s="101"/>
-      <c r="Q51" s="101"/>
-      <c r="R51" s="101"/>
-      <c r="S51" s="101"/>
-      <c r="T51" s="101"/>
-      <c r="U51" s="101"/>
-      <c r="V51" s="101"/>
-      <c r="W51" s="101"/>
-      <c r="X51" s="101"/>
-      <c r="Y51" s="101"/>
-      <c r="Z51" s="101"/>
-      <c r="AA51" s="101"/>
-      <c r="AB51" s="101"/>
-      <c r="AC51" s="101"/>
-      <c r="AD51" s="101"/>
-      <c r="AE51" s="102"/>
-      <c r="AF51" s="93">
-        <f>AG50-AF50</f>
-        <v>4</v>
-      </c>
-      <c r="AG51" s="94"/>
-      <c r="AH51" s="23"/>
+      <c r="B46" s="123"/>
+      <c r="C46" s="123"/>
+      <c r="D46" s="123"/>
+      <c r="E46" s="123"/>
+      <c r="F46" s="123"/>
+      <c r="G46" s="123"/>
+      <c r="H46" s="123"/>
+      <c r="I46" s="123"/>
+      <c r="J46" s="123"/>
+      <c r="K46" s="123"/>
+      <c r="L46" s="123"/>
+      <c r="M46" s="123"/>
+      <c r="N46" s="123"/>
+      <c r="O46" s="123"/>
+      <c r="P46" s="123"/>
+      <c r="Q46" s="123"/>
+      <c r="R46" s="123"/>
+      <c r="S46" s="123"/>
+      <c r="T46" s="123"/>
+      <c r="U46" s="123"/>
+      <c r="V46" s="123"/>
+      <c r="W46" s="123"/>
+      <c r="X46" s="123"/>
+      <c r="Y46" s="123"/>
+      <c r="Z46" s="123"/>
+      <c r="AA46" s="123"/>
+      <c r="AB46" s="123"/>
+      <c r="AC46" s="123"/>
+      <c r="AD46" s="123"/>
+      <c r="AE46" s="124"/>
+      <c r="AF46" s="116">
+        <f>AG45-AF45</f>
+        <v>0</v>
+      </c>
+      <c r="AG46" s="117"/>
+      <c r="AH46" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AD49:AE49"/>
-    <mergeCell ref="A50:AE50"/>
-    <mergeCell ref="A51:AE51"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -8723,6 +8497,33 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="AD44:AE44"/>
+    <mergeCell ref="A45:AE45"/>
+    <mergeCell ref="A46:AE46"/>
+    <mergeCell ref="AF46:AG46"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="Z44:AA44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="T5" sheetId="4" r:id="rId1"/>
     <sheet name="T6" sheetId="3" r:id="rId2"/>
     <sheet name="T7" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -1059,8 +1060,380 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ dưới 3 tuổi 450gr
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ dưới 3 tuổi 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ từi 3-12 tuổi 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ dưới 3 tuổi 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ trên 13 tuổi 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ trên 13 tuổi 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi người già 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi người giài 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi bà bầu 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk canxi bà bầu 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk giảm cân 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk tiểu đường tim mạch 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+sữa non, sữa kháng thể 450gr
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+viên soy, collagen nội tiết tố 60v</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+viên soy, collagen nội tiết tố 60v</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="70">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1261,6 +1634,15 @@
   </si>
   <si>
     <t>gộp về kho quỳnh trang</t>
+  </si>
+  <si>
+    <t>TỪ NGÀY…………..ĐẾN NGÀY ……………</t>
+  </si>
+  <si>
+    <t>Sữa N</t>
+  </si>
+  <si>
+    <t>SỔ THEO DÕI KHO ………………..</t>
   </si>
 </sst>
 </file>
@@ -1579,7 +1961,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1763,18 +2145,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1786,30 +2156,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1824,6 +2170,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1847,8 +2196,77 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2175,11 +2593,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
+      <c r="A1" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
       <c r="D1" s="75"/>
       <c r="E1" s="75"/>
       <c r="F1" s="75"/>
@@ -2215,11 +2633,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
       <c r="D2" s="76"/>
       <c r="E2" s="76"/>
       <c r="F2" s="76"/>
@@ -2255,235 +2673,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="96"/>
-      <c r="Z3" s="96"/>
-      <c r="AA3" s="96"/>
-      <c r="AB3" s="96"/>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="96"/>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="96"/>
-      <c r="AG3" s="96"/>
-      <c r="AH3" s="96"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="128"/>
+      <c r="U3" s="128"/>
+      <c r="V3" s="128"/>
+      <c r="W3" s="128"/>
+      <c r="X3" s="128"/>
+      <c r="Y3" s="128"/>
+      <c r="Z3" s="128"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="128"/>
+      <c r="AH3" s="128"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="96"/>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="96"/>
-      <c r="AD4" s="96"/>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="96"/>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="128"/>
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="128"/>
+      <c r="AG4" s="128"/>
+      <c r="AH4" s="128"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="96"/>
-      <c r="T5" s="96"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
-      <c r="W5" s="96"/>
-      <c r="X5" s="96"/>
-      <c r="Y5" s="96"/>
-      <c r="Z5" s="96"/>
-      <c r="AA5" s="96"/>
-      <c r="AB5" s="96"/>
-      <c r="AC5" s="96"/>
-      <c r="AD5" s="96"/>
-      <c r="AE5" s="96"/>
+      <c r="A5" s="128"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="128"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="128"/>
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="128"/>
+      <c r="AA5" s="128"/>
+      <c r="AB5" s="128"/>
+      <c r="AC5" s="128"/>
+      <c r="AD5" s="128"/>
+      <c r="AE5" s="128"/>
       <c r="AF5" s="77"/>
       <c r="AG5" s="77"/>
       <c r="AH5" s="77"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98" t="s">
+      <c r="D6" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="99"/>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="99"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="99"/>
-      <c r="U6" s="99"/>
-      <c r="V6" s="99"/>
-      <c r="W6" s="99"/>
-      <c r="X6" s="99"/>
-      <c r="Y6" s="99"/>
-      <c r="Z6" s="99"/>
-      <c r="AA6" s="99"/>
-      <c r="AB6" s="99"/>
-      <c r="AC6" s="99"/>
-      <c r="AD6" s="99"/>
-      <c r="AE6" s="99"/>
-      <c r="AF6" s="99"/>
-      <c r="AG6" s="100"/>
-      <c r="AH6" s="93" t="s">
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="131"/>
+      <c r="P6" s="131"/>
+      <c r="Q6" s="131"/>
+      <c r="R6" s="131"/>
+      <c r="S6" s="131"/>
+      <c r="T6" s="131"/>
+      <c r="U6" s="131"/>
+      <c r="V6" s="131"/>
+      <c r="W6" s="131"/>
+      <c r="X6" s="131"/>
+      <c r="Y6" s="131"/>
+      <c r="Z6" s="131"/>
+      <c r="AA6" s="131"/>
+      <c r="AB6" s="131"/>
+      <c r="AC6" s="131"/>
+      <c r="AD6" s="131"/>
+      <c r="AE6" s="131"/>
+      <c r="AF6" s="131"/>
+      <c r="AG6" s="132"/>
+      <c r="AH6" s="115" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="93"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="101" t="s">
+      <c r="A7" s="115"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="101"/>
-      <c r="F7" s="93" t="s">
+      <c r="E7" s="133"/>
+      <c r="F7" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="93"/>
-      <c r="H7" s="102" t="s">
+      <c r="G7" s="115"/>
+      <c r="H7" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="102"/>
-      <c r="J7" s="93" t="s">
+      <c r="I7" s="134"/>
+      <c r="J7" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="93"/>
-      <c r="L7" s="103" t="s">
+      <c r="K7" s="115"/>
+      <c r="L7" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="103"/>
-      <c r="N7" s="93" t="s">
+      <c r="M7" s="135"/>
+      <c r="N7" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="93"/>
-      <c r="P7" s="113" t="s">
+      <c r="O7" s="115"/>
+      <c r="P7" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="113"/>
-      <c r="R7" s="93" t="s">
+      <c r="Q7" s="123"/>
+      <c r="R7" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="93"/>
-      <c r="T7" s="114" t="s">
+      <c r="S7" s="115"/>
+      <c r="T7" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="114"/>
-      <c r="V7" s="93" t="s">
+      <c r="U7" s="124"/>
+      <c r="V7" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="93"/>
-      <c r="X7" s="115" t="s">
+      <c r="W7" s="115"/>
+      <c r="X7" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="115"/>
-      <c r="Z7" s="93" t="s">
+      <c r="Y7" s="125"/>
+      <c r="Z7" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="104" t="s">
+      <c r="AA7" s="115"/>
+      <c r="AB7" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="104"/>
-      <c r="AD7" s="93" t="s">
+      <c r="AC7" s="114"/>
+      <c r="AD7" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="93"/>
-      <c r="AF7" s="105" t="s">
+      <c r="AE7" s="115"/>
+      <c r="AF7" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="105" t="s">
+      <c r="AG7" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="93"/>
+      <c r="AH7" s="115"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="93"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="93"/>
+      <c r="A8" s="115"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="115"/>
       <c r="D8" s="78" t="s">
         <v>26</v>
       </c>
@@ -2568,9 +2986,9 @@
       <c r="AE8" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="AF8" s="106"/>
-      <c r="AG8" s="106"/>
-      <c r="AH8" s="93"/>
+      <c r="AF8" s="117"/>
+      <c r="AG8" s="117"/>
+      <c r="AH8" s="115"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -3652,78 +4070,78 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
-      <c r="B30" s="107"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="109">
+      <c r="B30" s="118"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="120">
         <f>SUM(D9:D28)-SUM(E9:E28)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="109"/>
-      <c r="F30" s="110">
+      <c r="E30" s="120"/>
+      <c r="F30" s="106">
         <f>SUM(F9:F28)-SUM(G9:G28)</f>
         <v>4</v>
       </c>
-      <c r="G30" s="110"/>
-      <c r="H30" s="111">
+      <c r="G30" s="106"/>
+      <c r="H30" s="121">
         <f>SUM(H9:H28)-SUM(I9:I28)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="111"/>
-      <c r="J30" s="110">
+      <c r="I30" s="121"/>
+      <c r="J30" s="106">
         <f>SUM(J9:J28)-SUM(K9:K28)</f>
         <v>1</v>
       </c>
-      <c r="K30" s="110"/>
-      <c r="L30" s="112">
+      <c r="K30" s="106"/>
+      <c r="L30" s="122">
         <f>SUM(L9:L28)-SUM(M9:M28)</f>
         <v>0</v>
       </c>
-      <c r="M30" s="112"/>
-      <c r="N30" s="110">
+      <c r="M30" s="122"/>
+      <c r="N30" s="106">
         <f>SUM(N9:N28)-SUM(O9:O28)</f>
         <v>2</v>
       </c>
-      <c r="O30" s="110"/>
-      <c r="P30" s="118">
+      <c r="O30" s="106"/>
+      <c r="P30" s="107">
         <f>SUM(P9:P28)-SUM(Q9:Q28)</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="118"/>
-      <c r="R30" s="110">
+      <c r="Q30" s="107"/>
+      <c r="R30" s="106">
         <f>SUM(R9:R28)-SUM(S9:S28)</f>
         <v>2</v>
       </c>
-      <c r="S30" s="110"/>
-      <c r="T30" s="119">
+      <c r="S30" s="106"/>
+      <c r="T30" s="108">
         <f>SUM(T9:T28)-SUM(U9:U28)</f>
         <v>0</v>
       </c>
-      <c r="U30" s="119"/>
-      <c r="V30" s="110">
+      <c r="U30" s="108"/>
+      <c r="V30" s="106">
         <f>SUM(V9:V28)-SUM(W9:W28)</f>
         <v>0</v>
       </c>
-      <c r="W30" s="110"/>
-      <c r="X30" s="120">
+      <c r="W30" s="106"/>
+      <c r="X30" s="109">
         <f>SUM(X9:X28)-SUM(Y9:Y28)</f>
         <v>5</v>
       </c>
-      <c r="Y30" s="120"/>
-      <c r="Z30" s="110">
+      <c r="Y30" s="109"/>
+      <c r="Z30" s="106">
         <f>SUM(Z9:Z28)-SUM(AA9:AA28)</f>
         <v>0</v>
       </c>
-      <c r="AA30" s="110"/>
-      <c r="AB30" s="121">
+      <c r="AA30" s="106"/>
+      <c r="AB30" s="110">
         <f>SUM(AB9:AB28)-SUM(AC9:AC28)</f>
         <v>3</v>
       </c>
-      <c r="AC30" s="121"/>
-      <c r="AD30" s="110">
+      <c r="AC30" s="110"/>
+      <c r="AD30" s="106">
         <f>SUM(AD9:AD28)-SUM(AE9:AE28)</f>
         <v>0</v>
       </c>
-      <c r="AE30" s="110"/>
+      <c r="AE30" s="106"/>
       <c r="AF30" s="20"/>
       <c r="AG30" s="9">
         <f t="shared" si="1"/>
@@ -3732,39 +4150,39 @@
       <c r="AH30" s="21"/>
     </row>
     <row r="31" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="122" t="s">
+      <c r="A31" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="123"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="123"/>
-      <c r="K31" s="123"/>
-      <c r="L31" s="123"/>
-      <c r="M31" s="123"/>
-      <c r="N31" s="123"/>
-      <c r="O31" s="123"/>
-      <c r="P31" s="123"/>
-      <c r="Q31" s="123"/>
-      <c r="R31" s="123"/>
-      <c r="S31" s="123"/>
-      <c r="T31" s="123"/>
-      <c r="U31" s="123"/>
-      <c r="V31" s="123"/>
-      <c r="W31" s="123"/>
-      <c r="X31" s="123"/>
-      <c r="Y31" s="123"/>
-      <c r="Z31" s="123"/>
-      <c r="AA31" s="123"/>
-      <c r="AB31" s="123"/>
-      <c r="AC31" s="123"/>
-      <c r="AD31" s="123"/>
-      <c r="AE31" s="124"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="112"/>
+      <c r="L31" s="112"/>
+      <c r="M31" s="112"/>
+      <c r="N31" s="112"/>
+      <c r="O31" s="112"/>
+      <c r="P31" s="112"/>
+      <c r="Q31" s="112"/>
+      <c r="R31" s="112"/>
+      <c r="S31" s="112"/>
+      <c r="T31" s="112"/>
+      <c r="U31" s="112"/>
+      <c r="V31" s="112"/>
+      <c r="W31" s="112"/>
+      <c r="X31" s="112"/>
+      <c r="Y31" s="112"/>
+      <c r="Z31" s="112"/>
+      <c r="AA31" s="112"/>
+      <c r="AB31" s="112"/>
+      <c r="AC31" s="112"/>
+      <c r="AD31" s="112"/>
+      <c r="AE31" s="113"/>
       <c r="AF31" s="22">
         <f>SUM(AF9:AF28)</f>
         <v>79</v>
@@ -3776,60 +4194,64 @@
       <c r="AH31" s="23"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="122" t="s">
+      <c r="A32" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="123"/>
-      <c r="C32" s="123"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="123"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="123"/>
-      <c r="K32" s="123"/>
-      <c r="L32" s="123"/>
-      <c r="M32" s="123"/>
-      <c r="N32" s="123"/>
-      <c r="O32" s="123"/>
-      <c r="P32" s="123"/>
-      <c r="Q32" s="123"/>
-      <c r="R32" s="123"/>
-      <c r="S32" s="123"/>
-      <c r="T32" s="123"/>
-      <c r="U32" s="123"/>
-      <c r="V32" s="123"/>
-      <c r="W32" s="123"/>
-      <c r="X32" s="123"/>
-      <c r="Y32" s="123"/>
-      <c r="Z32" s="123"/>
-      <c r="AA32" s="123"/>
-      <c r="AB32" s="123"/>
-      <c r="AC32" s="123"/>
-      <c r="AD32" s="123"/>
-      <c r="AE32" s="124"/>
-      <c r="AF32" s="116">
+      <c r="B32" s="112"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="112"/>
+      <c r="H32" s="112"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="112"/>
+      <c r="L32" s="112"/>
+      <c r="M32" s="112"/>
+      <c r="N32" s="112"/>
+      <c r="O32" s="112"/>
+      <c r="P32" s="112"/>
+      <c r="Q32" s="112"/>
+      <c r="R32" s="112"/>
+      <c r="S32" s="112"/>
+      <c r="T32" s="112"/>
+      <c r="U32" s="112"/>
+      <c r="V32" s="112"/>
+      <c r="W32" s="112"/>
+      <c r="X32" s="112"/>
+      <c r="Y32" s="112"/>
+      <c r="Z32" s="112"/>
+      <c r="AA32" s="112"/>
+      <c r="AB32" s="112"/>
+      <c r="AC32" s="112"/>
+      <c r="AD32" s="112"/>
+      <c r="AE32" s="113"/>
+      <c r="AF32" s="104">
         <f>AG31-AF31</f>
         <v>17</v>
       </c>
-      <c r="AG32" s="117"/>
+      <c r="AG32" s="105"/>
       <c r="AH32" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="A31:AE31"/>
-    <mergeCell ref="A32:AE32"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AF8"/>
@@ -3846,22 +4268,18 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="A31:AE31"/>
+    <mergeCell ref="A32:AE32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3891,11 +4309,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
+      <c r="A1" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
       <c r="D1" s="54"/>
       <c r="E1" s="54"/>
       <c r="F1" s="54"/>
@@ -3931,11 +4349,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
       <c r="F2" s="55"/>
@@ -3971,235 +4389,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="96"/>
-      <c r="Z3" s="96"/>
-      <c r="AA3" s="96"/>
-      <c r="AB3" s="96"/>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="96"/>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="96"/>
-      <c r="AG3" s="96"/>
-      <c r="AH3" s="96"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="128"/>
+      <c r="U3" s="128"/>
+      <c r="V3" s="128"/>
+      <c r="W3" s="128"/>
+      <c r="X3" s="128"/>
+      <c r="Y3" s="128"/>
+      <c r="Z3" s="128"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="128"/>
+      <c r="AH3" s="128"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="96"/>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="96"/>
-      <c r="AD4" s="96"/>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="96"/>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="128"/>
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="128"/>
+      <c r="AG4" s="128"/>
+      <c r="AH4" s="128"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="96"/>
-      <c r="T5" s="96"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
-      <c r="W5" s="96"/>
-      <c r="X5" s="96"/>
-      <c r="Y5" s="96"/>
-      <c r="Z5" s="96"/>
-      <c r="AA5" s="96"/>
-      <c r="AB5" s="96"/>
-      <c r="AC5" s="96"/>
-      <c r="AD5" s="96"/>
-      <c r="AE5" s="96"/>
+      <c r="A5" s="128"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="128"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="128"/>
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="128"/>
+      <c r="AA5" s="128"/>
+      <c r="AB5" s="128"/>
+      <c r="AC5" s="128"/>
+      <c r="AD5" s="128"/>
+      <c r="AE5" s="128"/>
       <c r="AF5" s="56"/>
       <c r="AG5" s="56"/>
       <c r="AH5" s="56"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98" t="s">
+      <c r="D6" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="99"/>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="99"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="99"/>
-      <c r="U6" s="99"/>
-      <c r="V6" s="99"/>
-      <c r="W6" s="99"/>
-      <c r="X6" s="99"/>
-      <c r="Y6" s="99"/>
-      <c r="Z6" s="99"/>
-      <c r="AA6" s="99"/>
-      <c r="AB6" s="99"/>
-      <c r="AC6" s="99"/>
-      <c r="AD6" s="99"/>
-      <c r="AE6" s="99"/>
-      <c r="AF6" s="99"/>
-      <c r="AG6" s="100"/>
-      <c r="AH6" s="93" t="s">
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="131"/>
+      <c r="P6" s="131"/>
+      <c r="Q6" s="131"/>
+      <c r="R6" s="131"/>
+      <c r="S6" s="131"/>
+      <c r="T6" s="131"/>
+      <c r="U6" s="131"/>
+      <c r="V6" s="131"/>
+      <c r="W6" s="131"/>
+      <c r="X6" s="131"/>
+      <c r="Y6" s="131"/>
+      <c r="Z6" s="131"/>
+      <c r="AA6" s="131"/>
+      <c r="AB6" s="131"/>
+      <c r="AC6" s="131"/>
+      <c r="AD6" s="131"/>
+      <c r="AE6" s="131"/>
+      <c r="AF6" s="131"/>
+      <c r="AG6" s="132"/>
+      <c r="AH6" s="115" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="93"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="101" t="s">
+      <c r="A7" s="115"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="101"/>
-      <c r="F7" s="93" t="s">
+      <c r="E7" s="133"/>
+      <c r="F7" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="93"/>
-      <c r="H7" s="102" t="s">
+      <c r="G7" s="115"/>
+      <c r="H7" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="102"/>
-      <c r="J7" s="93" t="s">
+      <c r="I7" s="134"/>
+      <c r="J7" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="93"/>
-      <c r="L7" s="103" t="s">
+      <c r="K7" s="115"/>
+      <c r="L7" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="103"/>
-      <c r="N7" s="93" t="s">
+      <c r="M7" s="135"/>
+      <c r="N7" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="93"/>
-      <c r="P7" s="113" t="s">
+      <c r="O7" s="115"/>
+      <c r="P7" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="113"/>
-      <c r="R7" s="93" t="s">
+      <c r="Q7" s="123"/>
+      <c r="R7" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="93"/>
-      <c r="T7" s="114" t="s">
+      <c r="S7" s="115"/>
+      <c r="T7" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="114"/>
-      <c r="V7" s="93" t="s">
+      <c r="U7" s="124"/>
+      <c r="V7" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="93"/>
-      <c r="X7" s="115" t="s">
+      <c r="W7" s="115"/>
+      <c r="X7" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="115"/>
-      <c r="Z7" s="93" t="s">
+      <c r="Y7" s="125"/>
+      <c r="Z7" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="104" t="s">
+      <c r="AA7" s="115"/>
+      <c r="AB7" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="104"/>
-      <c r="AD7" s="93" t="s">
+      <c r="AC7" s="114"/>
+      <c r="AD7" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="93"/>
-      <c r="AF7" s="105" t="s">
+      <c r="AE7" s="115"/>
+      <c r="AF7" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="105" t="s">
+      <c r="AG7" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="93"/>
+      <c r="AH7" s="115"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="93"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="93"/>
+      <c r="A8" s="115"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="115"/>
       <c r="D8" s="57" t="s">
         <v>26</v>
       </c>
@@ -4284,9 +4702,9 @@
       <c r="AE8" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AF8" s="125"/>
-      <c r="AG8" s="125"/>
-      <c r="AH8" s="93"/>
+      <c r="AF8" s="136"/>
+      <c r="AG8" s="136"/>
+      <c r="AH8" s="115"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -6108,76 +6526,76 @@
       <c r="A49" s="17"/>
       <c r="B49" s="18"/>
       <c r="C49" s="19"/>
-      <c r="D49" s="109">
+      <c r="D49" s="120">
         <f>SUM(D9:D48)-SUM(E9:E48)</f>
         <v>3</v>
       </c>
-      <c r="E49" s="109"/>
-      <c r="F49" s="110">
+      <c r="E49" s="120"/>
+      <c r="F49" s="106">
         <f>SUM(F9:F48)-SUM(G9:G48)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="110"/>
-      <c r="H49" s="111">
+      <c r="G49" s="106"/>
+      <c r="H49" s="121">
         <f>SUM(H9:H48)-SUM(I9:I48)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="111"/>
-      <c r="J49" s="110">
+      <c r="I49" s="121"/>
+      <c r="J49" s="106">
         <f>SUM(J9:J48)-SUM(K9:K48)</f>
         <v>0</v>
       </c>
-      <c r="K49" s="110"/>
-      <c r="L49" s="112">
+      <c r="K49" s="106"/>
+      <c r="L49" s="122">
         <f>SUM(L9:L48)-SUM(M9:M48)</f>
         <v>0</v>
       </c>
-      <c r="M49" s="112"/>
-      <c r="N49" s="110">
+      <c r="M49" s="122"/>
+      <c r="N49" s="106">
         <f>SUM(N9:N48)-SUM(O9:O48)</f>
         <v>1</v>
       </c>
-      <c r="O49" s="110"/>
-      <c r="P49" s="118">
+      <c r="O49" s="106"/>
+      <c r="P49" s="107">
         <f>SUM(P9:P48)-SUM(Q9:Q48)</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="118"/>
-      <c r="R49" s="110">
+      <c r="Q49" s="107"/>
+      <c r="R49" s="106">
         <f>SUM(R9:R48)-SUM(S9:S48)</f>
         <v>2</v>
       </c>
-      <c r="S49" s="110"/>
-      <c r="T49" s="119">
+      <c r="S49" s="106"/>
+      <c r="T49" s="108">
         <f>SUM(T9:T48)-SUM(U9:U48)</f>
         <v>0</v>
       </c>
-      <c r="U49" s="119"/>
-      <c r="V49" s="110">
+      <c r="U49" s="108"/>
+      <c r="V49" s="106">
         <f>SUM(V9:V48)-SUM(W9:W48)</f>
         <v>0</v>
       </c>
-      <c r="W49" s="110"/>
-      <c r="X49" s="120">
+      <c r="W49" s="106"/>
+      <c r="X49" s="109">
         <f>SUM(X9:X48)-SUM(Y9:Y48)</f>
         <v>4</v>
       </c>
-      <c r="Y49" s="120"/>
-      <c r="Z49" s="110">
+      <c r="Y49" s="109"/>
+      <c r="Z49" s="106">
         <f>SUM(Z9:Z48)-SUM(AA9:AA48)</f>
         <v>3</v>
       </c>
-      <c r="AA49" s="110"/>
-      <c r="AB49" s="121">
+      <c r="AA49" s="106"/>
+      <c r="AB49" s="110">
         <f>SUM(AB9:AB48)-SUM(AC9:AC48)</f>
         <v>3</v>
       </c>
-      <c r="AC49" s="121"/>
-      <c r="AD49" s="110">
+      <c r="AC49" s="110"/>
+      <c r="AD49" s="106">
         <f>SUM(AD9:AD48)-SUM(AE9:AE48)</f>
         <v>0</v>
       </c>
-      <c r="AE49" s="110"/>
+      <c r="AE49" s="106"/>
       <c r="AF49" s="20"/>
       <c r="AG49" s="9">
         <f>D49+F49+H49+J49+L49+N49+P49+R49+T49+V49+X49+Z49+AB49+AD49</f>
@@ -6186,39 +6604,39 @@
       <c r="AH49" s="21"/>
     </row>
     <row r="50" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="122" t="s">
+      <c r="A50" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="123"/>
-      <c r="C50" s="123"/>
-      <c r="D50" s="123"/>
-      <c r="E50" s="123"/>
-      <c r="F50" s="123"/>
-      <c r="G50" s="123"/>
-      <c r="H50" s="123"/>
-      <c r="I50" s="123"/>
-      <c r="J50" s="123"/>
-      <c r="K50" s="123"/>
-      <c r="L50" s="123"/>
-      <c r="M50" s="123"/>
-      <c r="N50" s="123"/>
-      <c r="O50" s="123"/>
-      <c r="P50" s="123"/>
-      <c r="Q50" s="123"/>
-      <c r="R50" s="123"/>
-      <c r="S50" s="123"/>
-      <c r="T50" s="123"/>
-      <c r="U50" s="123"/>
-      <c r="V50" s="123"/>
-      <c r="W50" s="123"/>
-      <c r="X50" s="123"/>
-      <c r="Y50" s="123"/>
-      <c r="Z50" s="123"/>
-      <c r="AA50" s="123"/>
-      <c r="AB50" s="123"/>
-      <c r="AC50" s="123"/>
-      <c r="AD50" s="123"/>
-      <c r="AE50" s="124"/>
+      <c r="B50" s="112"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="112"/>
+      <c r="E50" s="112"/>
+      <c r="F50" s="112"/>
+      <c r="G50" s="112"/>
+      <c r="H50" s="112"/>
+      <c r="I50" s="112"/>
+      <c r="J50" s="112"/>
+      <c r="K50" s="112"/>
+      <c r="L50" s="112"/>
+      <c r="M50" s="112"/>
+      <c r="N50" s="112"/>
+      <c r="O50" s="112"/>
+      <c r="P50" s="112"/>
+      <c r="Q50" s="112"/>
+      <c r="R50" s="112"/>
+      <c r="S50" s="112"/>
+      <c r="T50" s="112"/>
+      <c r="U50" s="112"/>
+      <c r="V50" s="112"/>
+      <c r="W50" s="112"/>
+      <c r="X50" s="112"/>
+      <c r="Y50" s="112"/>
+      <c r="Z50" s="112"/>
+      <c r="AA50" s="112"/>
+      <c r="AB50" s="112"/>
+      <c r="AC50" s="112"/>
+      <c r="AD50" s="112"/>
+      <c r="AE50" s="113"/>
       <c r="AF50" s="22">
         <f>SUM(AF9:AF48)</f>
         <v>18</v>
@@ -6230,48 +6648,75 @@
       <c r="AH50" s="23"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="122" t="s">
+      <c r="A51" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="123"/>
-      <c r="C51" s="123"/>
-      <c r="D51" s="123"/>
-      <c r="E51" s="123"/>
-      <c r="F51" s="123"/>
-      <c r="G51" s="123"/>
-      <c r="H51" s="123"/>
-      <c r="I51" s="123"/>
-      <c r="J51" s="123"/>
-      <c r="K51" s="123"/>
-      <c r="L51" s="123"/>
-      <c r="M51" s="123"/>
-      <c r="N51" s="123"/>
-      <c r="O51" s="123"/>
-      <c r="P51" s="123"/>
-      <c r="Q51" s="123"/>
-      <c r="R51" s="123"/>
-      <c r="S51" s="123"/>
-      <c r="T51" s="123"/>
-      <c r="U51" s="123"/>
-      <c r="V51" s="123"/>
-      <c r="W51" s="123"/>
-      <c r="X51" s="123"/>
-      <c r="Y51" s="123"/>
-      <c r="Z51" s="123"/>
-      <c r="AA51" s="123"/>
-      <c r="AB51" s="123"/>
-      <c r="AC51" s="123"/>
-      <c r="AD51" s="123"/>
-      <c r="AE51" s="124"/>
-      <c r="AF51" s="116">
+      <c r="B51" s="112"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="112"/>
+      <c r="E51" s="112"/>
+      <c r="F51" s="112"/>
+      <c r="G51" s="112"/>
+      <c r="H51" s="112"/>
+      <c r="I51" s="112"/>
+      <c r="J51" s="112"/>
+      <c r="K51" s="112"/>
+      <c r="L51" s="112"/>
+      <c r="M51" s="112"/>
+      <c r="N51" s="112"/>
+      <c r="O51" s="112"/>
+      <c r="P51" s="112"/>
+      <c r="Q51" s="112"/>
+      <c r="R51" s="112"/>
+      <c r="S51" s="112"/>
+      <c r="T51" s="112"/>
+      <c r="U51" s="112"/>
+      <c r="V51" s="112"/>
+      <c r="W51" s="112"/>
+      <c r="X51" s="112"/>
+      <c r="Y51" s="112"/>
+      <c r="Z51" s="112"/>
+      <c r="AA51" s="112"/>
+      <c r="AB51" s="112"/>
+      <c r="AC51" s="112"/>
+      <c r="AD51" s="112"/>
+      <c r="AE51" s="113"/>
+      <c r="AF51" s="104">
         <f>AG50-AF50</f>
         <v>16</v>
       </c>
-      <c r="AG51" s="117"/>
+      <c r="AG51" s="105"/>
       <c r="AH51" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="A50:AE50"/>
+    <mergeCell ref="A51:AE51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -6288,33 +6733,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AD49:AE49"/>
-    <mergeCell ref="A50:AE50"/>
-    <mergeCell ref="A51:AE51"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="Z49:AA49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6325,8 +6743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB50" sqref="AB50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB50" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6342,11 +6760,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
+      <c r="A1" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
       <c r="D1" s="82"/>
       <c r="E1" s="82"/>
       <c r="F1" s="82"/>
@@ -6382,11 +6800,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
       <c r="D2" s="83"/>
       <c r="E2" s="83"/>
       <c r="F2" s="83"/>
@@ -6422,235 +6840,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="96"/>
-      <c r="Z3" s="96"/>
-      <c r="AA3" s="96"/>
-      <c r="AB3" s="96"/>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="96"/>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="96"/>
-      <c r="AG3" s="96"/>
-      <c r="AH3" s="96"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="128"/>
+      <c r="U3" s="128"/>
+      <c r="V3" s="128"/>
+      <c r="W3" s="128"/>
+      <c r="X3" s="128"/>
+      <c r="Y3" s="128"/>
+      <c r="Z3" s="128"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="128"/>
+      <c r="AH3" s="128"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="96"/>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="96"/>
-      <c r="AD4" s="96"/>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="96"/>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="128"/>
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="128"/>
+      <c r="AG4" s="128"/>
+      <c r="AH4" s="128"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="96"/>
-      <c r="T5" s="96"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
-      <c r="W5" s="96"/>
-      <c r="X5" s="96"/>
-      <c r="Y5" s="96"/>
-      <c r="Z5" s="96"/>
-      <c r="AA5" s="96"/>
-      <c r="AB5" s="96"/>
-      <c r="AC5" s="96"/>
-      <c r="AD5" s="96"/>
-      <c r="AE5" s="96"/>
+      <c r="A5" s="128"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="128"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="128"/>
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="128"/>
+      <c r="AA5" s="128"/>
+      <c r="AB5" s="128"/>
+      <c r="AC5" s="128"/>
+      <c r="AD5" s="128"/>
+      <c r="AE5" s="128"/>
       <c r="AF5" s="84"/>
       <c r="AG5" s="84"/>
       <c r="AH5" s="84"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98" t="s">
+      <c r="D6" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="99"/>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="99"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="99"/>
-      <c r="U6" s="99"/>
-      <c r="V6" s="99"/>
-      <c r="W6" s="99"/>
-      <c r="X6" s="99"/>
-      <c r="Y6" s="99"/>
-      <c r="Z6" s="99"/>
-      <c r="AA6" s="99"/>
-      <c r="AB6" s="99"/>
-      <c r="AC6" s="99"/>
-      <c r="AD6" s="99"/>
-      <c r="AE6" s="99"/>
-      <c r="AF6" s="99"/>
-      <c r="AG6" s="100"/>
-      <c r="AH6" s="93" t="s">
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="131"/>
+      <c r="P6" s="131"/>
+      <c r="Q6" s="131"/>
+      <c r="R6" s="131"/>
+      <c r="S6" s="131"/>
+      <c r="T6" s="131"/>
+      <c r="U6" s="131"/>
+      <c r="V6" s="131"/>
+      <c r="W6" s="131"/>
+      <c r="X6" s="131"/>
+      <c r="Y6" s="131"/>
+      <c r="Z6" s="131"/>
+      <c r="AA6" s="131"/>
+      <c r="AB6" s="131"/>
+      <c r="AC6" s="131"/>
+      <c r="AD6" s="131"/>
+      <c r="AE6" s="131"/>
+      <c r="AF6" s="131"/>
+      <c r="AG6" s="132"/>
+      <c r="AH6" s="115" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="93"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="101" t="s">
+      <c r="A7" s="115"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="101"/>
-      <c r="F7" s="93" t="s">
+      <c r="E7" s="133"/>
+      <c r="F7" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="93"/>
-      <c r="H7" s="102" t="s">
+      <c r="G7" s="115"/>
+      <c r="H7" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="102"/>
-      <c r="J7" s="93" t="s">
+      <c r="I7" s="134"/>
+      <c r="J7" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="93"/>
-      <c r="L7" s="103" t="s">
+      <c r="K7" s="115"/>
+      <c r="L7" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="103"/>
-      <c r="N7" s="93" t="s">
+      <c r="M7" s="135"/>
+      <c r="N7" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="93"/>
-      <c r="P7" s="113" t="s">
+      <c r="O7" s="115"/>
+      <c r="P7" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="113"/>
-      <c r="R7" s="93" t="s">
+      <c r="Q7" s="123"/>
+      <c r="R7" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="93"/>
-      <c r="T7" s="114" t="s">
+      <c r="S7" s="115"/>
+      <c r="T7" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="114"/>
-      <c r="V7" s="93" t="s">
+      <c r="U7" s="124"/>
+      <c r="V7" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="93"/>
-      <c r="X7" s="115" t="s">
+      <c r="W7" s="115"/>
+      <c r="X7" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="115"/>
-      <c r="Z7" s="93" t="s">
+      <c r="Y7" s="125"/>
+      <c r="Z7" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="104" t="s">
+      <c r="AA7" s="115"/>
+      <c r="AB7" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="104"/>
-      <c r="AD7" s="93" t="s">
+      <c r="AC7" s="114"/>
+      <c r="AD7" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="93"/>
-      <c r="AF7" s="105" t="s">
+      <c r="AE7" s="115"/>
+      <c r="AF7" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="105" t="s">
+      <c r="AG7" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="93"/>
+      <c r="AH7" s="115"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="93"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="93"/>
+      <c r="A8" s="115"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="115"/>
       <c r="D8" s="85" t="s">
         <v>26</v>
       </c>
@@ -6735,9 +7153,9 @@
       <c r="AE8" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="AF8" s="125"/>
-      <c r="AG8" s="125"/>
-      <c r="AH8" s="93"/>
+      <c r="AF8" s="136"/>
+      <c r="AG8" s="136"/>
+      <c r="AH8" s="115"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
@@ -8317,76 +8735,76 @@
       <c r="A44" s="17"/>
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
-      <c r="D44" s="109">
+      <c r="D44" s="120">
         <f>SUM(D9:D43)-SUM(E9:E43)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="109"/>
-      <c r="F44" s="110">
+      <c r="E44" s="120"/>
+      <c r="F44" s="106">
         <f>SUM(F9:F43)-SUM(G9:G43)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="110"/>
-      <c r="H44" s="111">
+      <c r="G44" s="106"/>
+      <c r="H44" s="121">
         <f>SUM(H9:H43)-SUM(I9:I43)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="111"/>
-      <c r="J44" s="110">
+      <c r="I44" s="121"/>
+      <c r="J44" s="106">
         <f>SUM(J9:J43)-SUM(K9:K43)</f>
         <v>0</v>
       </c>
-      <c r="K44" s="110"/>
-      <c r="L44" s="112">
+      <c r="K44" s="106"/>
+      <c r="L44" s="122">
         <f>SUM(L9:L43)-SUM(M9:M43)</f>
         <v>0</v>
       </c>
-      <c r="M44" s="112"/>
-      <c r="N44" s="110">
+      <c r="M44" s="122"/>
+      <c r="N44" s="106">
         <f>SUM(N9:N43)-SUM(O9:O43)</f>
         <v>0</v>
       </c>
-      <c r="O44" s="110"/>
-      <c r="P44" s="118">
+      <c r="O44" s="106"/>
+      <c r="P44" s="107">
         <f>SUM(P9:P43)-SUM(Q9:Q43)</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="118"/>
-      <c r="R44" s="110">
+      <c r="Q44" s="107"/>
+      <c r="R44" s="106">
         <f>SUM(R9:R43)-SUM(S9:S43)</f>
         <v>0</v>
       </c>
-      <c r="S44" s="110"/>
-      <c r="T44" s="119">
+      <c r="S44" s="106"/>
+      <c r="T44" s="108">
         <f>SUM(T9:T43)-SUM(U9:U43)</f>
         <v>0</v>
       </c>
-      <c r="U44" s="119"/>
-      <c r="V44" s="110">
+      <c r="U44" s="108"/>
+      <c r="V44" s="106">
         <f>SUM(V9:V43)-SUM(W9:W43)</f>
         <v>0</v>
       </c>
-      <c r="W44" s="110"/>
-      <c r="X44" s="120">
+      <c r="W44" s="106"/>
+      <c r="X44" s="109">
         <f>SUM(X9:X43)-SUM(Y9:Y43)</f>
         <v>0</v>
       </c>
-      <c r="Y44" s="120"/>
-      <c r="Z44" s="110">
+      <c r="Y44" s="109"/>
+      <c r="Z44" s="106">
         <f>SUM(Z9:Z43)-SUM(AA9:AA43)</f>
         <v>0</v>
       </c>
-      <c r="AA44" s="110"/>
-      <c r="AB44" s="121">
+      <c r="AA44" s="106"/>
+      <c r="AB44" s="110">
         <f>SUM(AB9:AB43)-SUM(AC9:AC43)</f>
         <v>0</v>
       </c>
-      <c r="AC44" s="121"/>
-      <c r="AD44" s="110">
+      <c r="AC44" s="110"/>
+      <c r="AD44" s="106">
         <f>SUM(AD9:AD43)-SUM(AE9:AE43)</f>
         <v>0</v>
       </c>
-      <c r="AE44" s="110"/>
+      <c r="AE44" s="106"/>
       <c r="AF44" s="20"/>
       <c r="AG44" s="9">
         <f>D44+F44+H44+J44+L44+N44+P44+R44+T44+V44+X44+Z44+AB44+AD44</f>
@@ -8395,39 +8813,39 @@
       <c r="AH44" s="21"/>
     </row>
     <row r="45" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="122" t="s">
+      <c r="A45" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="123"/>
-      <c r="C45" s="123"/>
-      <c r="D45" s="123"/>
-      <c r="E45" s="123"/>
-      <c r="F45" s="123"/>
-      <c r="G45" s="123"/>
-      <c r="H45" s="123"/>
-      <c r="I45" s="123"/>
-      <c r="J45" s="123"/>
-      <c r="K45" s="123"/>
-      <c r="L45" s="123"/>
-      <c r="M45" s="123"/>
-      <c r="N45" s="123"/>
-      <c r="O45" s="123"/>
-      <c r="P45" s="123"/>
-      <c r="Q45" s="123"/>
-      <c r="R45" s="123"/>
-      <c r="S45" s="123"/>
-      <c r="T45" s="123"/>
-      <c r="U45" s="123"/>
-      <c r="V45" s="123"/>
-      <c r="W45" s="123"/>
-      <c r="X45" s="123"/>
-      <c r="Y45" s="123"/>
-      <c r="Z45" s="123"/>
-      <c r="AA45" s="123"/>
-      <c r="AB45" s="123"/>
-      <c r="AC45" s="123"/>
-      <c r="AD45" s="123"/>
-      <c r="AE45" s="124"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="112"/>
+      <c r="H45" s="112"/>
+      <c r="I45" s="112"/>
+      <c r="J45" s="112"/>
+      <c r="K45" s="112"/>
+      <c r="L45" s="112"/>
+      <c r="M45" s="112"/>
+      <c r="N45" s="112"/>
+      <c r="O45" s="112"/>
+      <c r="P45" s="112"/>
+      <c r="Q45" s="112"/>
+      <c r="R45" s="112"/>
+      <c r="S45" s="112"/>
+      <c r="T45" s="112"/>
+      <c r="U45" s="112"/>
+      <c r="V45" s="112"/>
+      <c r="W45" s="112"/>
+      <c r="X45" s="112"/>
+      <c r="Y45" s="112"/>
+      <c r="Z45" s="112"/>
+      <c r="AA45" s="112"/>
+      <c r="AB45" s="112"/>
+      <c r="AC45" s="112"/>
+      <c r="AD45" s="112"/>
+      <c r="AE45" s="113"/>
       <c r="AF45" s="22">
         <f>SUM(AF9:AF43)</f>
         <v>38</v>
@@ -8439,48 +8857,75 @@
       <c r="AH45" s="23"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="122" t="s">
+      <c r="A46" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="123"/>
-      <c r="C46" s="123"/>
-      <c r="D46" s="123"/>
-      <c r="E46" s="123"/>
-      <c r="F46" s="123"/>
-      <c r="G46" s="123"/>
-      <c r="H46" s="123"/>
-      <c r="I46" s="123"/>
-      <c r="J46" s="123"/>
-      <c r="K46" s="123"/>
-      <c r="L46" s="123"/>
-      <c r="M46" s="123"/>
-      <c r="N46" s="123"/>
-      <c r="O46" s="123"/>
-      <c r="P46" s="123"/>
-      <c r="Q46" s="123"/>
-      <c r="R46" s="123"/>
-      <c r="S46" s="123"/>
-      <c r="T46" s="123"/>
-      <c r="U46" s="123"/>
-      <c r="V46" s="123"/>
-      <c r="W46" s="123"/>
-      <c r="X46" s="123"/>
-      <c r="Y46" s="123"/>
-      <c r="Z46" s="123"/>
-      <c r="AA46" s="123"/>
-      <c r="AB46" s="123"/>
-      <c r="AC46" s="123"/>
-      <c r="AD46" s="123"/>
-      <c r="AE46" s="124"/>
-      <c r="AF46" s="116">
+      <c r="B46" s="112"/>
+      <c r="C46" s="112"/>
+      <c r="D46" s="112"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="112"/>
+      <c r="H46" s="112"/>
+      <c r="I46" s="112"/>
+      <c r="J46" s="112"/>
+      <c r="K46" s="112"/>
+      <c r="L46" s="112"/>
+      <c r="M46" s="112"/>
+      <c r="N46" s="112"/>
+      <c r="O46" s="112"/>
+      <c r="P46" s="112"/>
+      <c r="Q46" s="112"/>
+      <c r="R46" s="112"/>
+      <c r="S46" s="112"/>
+      <c r="T46" s="112"/>
+      <c r="U46" s="112"/>
+      <c r="V46" s="112"/>
+      <c r="W46" s="112"/>
+      <c r="X46" s="112"/>
+      <c r="Y46" s="112"/>
+      <c r="Z46" s="112"/>
+      <c r="AA46" s="112"/>
+      <c r="AB46" s="112"/>
+      <c r="AC46" s="112"/>
+      <c r="AD46" s="112"/>
+      <c r="AE46" s="113"/>
+      <c r="AF46" s="104">
         <f>AG45-AF45</f>
         <v>0</v>
       </c>
-      <c r="AG46" s="117"/>
+      <c r="AG46" s="105"/>
       <c r="AH46" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="AD44:AE44"/>
+    <mergeCell ref="A45:AE45"/>
+    <mergeCell ref="A46:AE46"/>
+    <mergeCell ref="AF46:AG46"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -8497,35 +8942,1774 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="5" customWidth="1"/>
+    <col min="4" max="33" width="3.28515625" style="5" customWidth="1"/>
+    <col min="34" max="34" width="11.5703125" style="5" customWidth="1"/>
+    <col min="35" max="35" width="12.7109375" style="5" customWidth="1"/>
+    <col min="36" max="36" width="9.7109375" style="5" customWidth="1"/>
+    <col min="37" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="95"/>
+      <c r="Y2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" s="128" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="128"/>
+      <c r="U3" s="128"/>
+      <c r="V3" s="128"/>
+      <c r="W3" s="128"/>
+      <c r="X3" s="128"/>
+      <c r="Y3" s="128"/>
+      <c r="Z3" s="128"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="128"/>
+      <c r="AH3" s="128"/>
+      <c r="AI3" s="128"/>
+      <c r="AJ3" s="128"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="128" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="128"/>
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="128"/>
+      <c r="AG4" s="128"/>
+      <c r="AH4" s="128"/>
+      <c r="AI4" s="128"/>
+      <c r="AJ4" s="128"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" s="128"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="128"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="128"/>
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="128"/>
+      <c r="AA5" s="128"/>
+      <c r="AB5" s="128"/>
+      <c r="AC5" s="128"/>
+      <c r="AD5" s="128"/>
+      <c r="AE5" s="128"/>
+      <c r="AF5" s="96"/>
+      <c r="AG5" s="96"/>
+      <c r="AH5" s="96"/>
+      <c r="AI5" s="96"/>
+      <c r="AJ5" s="96"/>
+    </row>
+    <row r="6" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="137" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="115" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="130" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="131"/>
+      <c r="P6" s="131"/>
+      <c r="Q6" s="131"/>
+      <c r="R6" s="131"/>
+      <c r="S6" s="131"/>
+      <c r="T6" s="131"/>
+      <c r="U6" s="131"/>
+      <c r="V6" s="131"/>
+      <c r="W6" s="131"/>
+      <c r="X6" s="131"/>
+      <c r="Y6" s="131"/>
+      <c r="Z6" s="131"/>
+      <c r="AA6" s="131"/>
+      <c r="AB6" s="131"/>
+      <c r="AC6" s="131"/>
+      <c r="AD6" s="131"/>
+      <c r="AE6" s="131"/>
+      <c r="AF6" s="131"/>
+      <c r="AG6" s="131"/>
+      <c r="AH6" s="131"/>
+      <c r="AI6" s="132"/>
+      <c r="AJ6" s="115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="117"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="133" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="133"/>
+      <c r="F7" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="115"/>
+      <c r="H7" s="134" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="134"/>
+      <c r="J7" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="115"/>
+      <c r="L7" s="135" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="135"/>
+      <c r="N7" s="115" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="115"/>
+      <c r="P7" s="123" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="115" t="s">
+        <v>17</v>
+      </c>
+      <c r="S7" s="115"/>
+      <c r="T7" s="124" t="s">
+        <v>18</v>
+      </c>
+      <c r="U7" s="124"/>
+      <c r="V7" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="W7" s="115"/>
+      <c r="X7" s="125" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y7" s="125"/>
+      <c r="Z7" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA7" s="115"/>
+      <c r="AB7" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC7" s="114"/>
+      <c r="AD7" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE7" s="115"/>
+      <c r="AF7" s="115" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG7" s="115"/>
+      <c r="AH7" s="116" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI7" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ7" s="115"/>
+    </row>
+    <row r="8" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="136"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="101" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="U8" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="W8" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="X8" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y8" s="103" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z8" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA8" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB8" s="100" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC8" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD8" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE8" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF8" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG8" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH8" s="136"/>
+      <c r="AI8" s="136"/>
+      <c r="AJ8" s="115"/>
+    </row>
+    <row r="9" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+    </row>
+    <row r="10" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+    </row>
+    <row r="11" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+    </row>
+    <row r="12" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+    </row>
+    <row r="13" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+    </row>
+    <row r="14" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+    </row>
+    <row r="15" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="16"/>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+    </row>
+    <row r="16" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="16"/>
+      <c r="AG16" s="16"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+    </row>
+    <row r="17" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="14"/>
+    </row>
+    <row r="18" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="14"/>
+    </row>
+    <row r="19" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="9"/>
+      <c r="AJ19" s="14"/>
+    </row>
+    <row r="20" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="14"/>
+    </row>
+    <row r="21" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="51"/>
+      <c r="Y21" s="51"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="14"/>
+    </row>
+    <row r="22" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="14"/>
+    </row>
+    <row r="23" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="14"/>
+    </row>
+    <row r="24" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="14"/>
+    </row>
+    <row r="25" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="35"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="9"/>
+      <c r="AJ25" s="14"/>
+    </row>
+    <row r="26" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="9"/>
+      <c r="AI26" s="9"/>
+      <c r="AJ26" s="14"/>
+    </row>
+    <row r="27" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="51"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="35"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="9"/>
+      <c r="AI27" s="9"/>
+      <c r="AJ27" s="14"/>
+    </row>
+    <row r="28" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="35"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="9"/>
+      <c r="AI28" s="9"/>
+      <c r="AJ28" s="14"/>
+    </row>
+    <row r="29" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="35"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="14"/>
+      <c r="AG29" s="14"/>
+      <c r="AH29" s="9"/>
+      <c r="AI29" s="9"/>
+      <c r="AJ29" s="14"/>
+    </row>
+    <row r="30" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="47"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="35"/>
+      <c r="AC30" s="35"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="9"/>
+      <c r="AI30" s="9"/>
+      <c r="AJ30" s="14"/>
+    </row>
+    <row r="31" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="35"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="9"/>
+      <c r="AI31" s="9"/>
+      <c r="AJ31" s="14"/>
+    </row>
+    <row r="32" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="35"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="9"/>
+      <c r="AI32" s="9"/>
+      <c r="AJ32" s="14"/>
+    </row>
+    <row r="33" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="47"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="35"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="14"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="9"/>
+      <c r="AI33" s="9"/>
+      <c r="AJ33" s="14"/>
+    </row>
+    <row r="34" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="47"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="51"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="35"/>
+      <c r="AC34" s="35"/>
+      <c r="AD34" s="14"/>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="14"/>
+      <c r="AG34" s="14"/>
+      <c r="AH34" s="9"/>
+      <c r="AI34" s="9"/>
+      <c r="AJ34" s="14"/>
+    </row>
+    <row r="35" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="47"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="35"/>
+      <c r="AC35" s="35"/>
+      <c r="AD35" s="14"/>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="14"/>
+      <c r="AG35" s="14"/>
+      <c r="AH35" s="9"/>
+      <c r="AI35" s="9"/>
+      <c r="AJ35" s="14"/>
+    </row>
+    <row r="36" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="47"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="51"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="35"/>
+      <c r="AD36" s="14"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="14"/>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="9"/>
+      <c r="AI36" s="9"/>
+      <c r="AJ36" s="14"/>
+    </row>
+    <row r="37" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="35"/>
+      <c r="AC37" s="35"/>
+      <c r="AD37" s="14"/>
+      <c r="AE37" s="14"/>
+      <c r="AF37" s="14"/>
+      <c r="AG37" s="14"/>
+      <c r="AH37" s="9"/>
+      <c r="AI37" s="9"/>
+      <c r="AJ37" s="14"/>
+    </row>
+    <row r="38" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="51"/>
+      <c r="Y38" s="51"/>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="35"/>
+      <c r="AC38" s="35"/>
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="14"/>
+      <c r="AF38" s="14"/>
+      <c r="AG38" s="14"/>
+      <c r="AH38" s="9"/>
+      <c r="AI38" s="9"/>
+      <c r="AJ38" s="14"/>
+    </row>
+    <row r="39" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="47"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="51"/>
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="14"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="35"/>
+      <c r="AC39" s="35"/>
+      <c r="AD39" s="14"/>
+      <c r="AE39" s="14"/>
+      <c r="AF39" s="14"/>
+      <c r="AG39" s="14"/>
+      <c r="AH39" s="9"/>
+      <c r="AI39" s="9"/>
+      <c r="AJ39" s="14"/>
+    </row>
+    <row r="40" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="47"/>
+      <c r="U40" s="47"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="51"/>
+      <c r="Y40" s="51"/>
+      <c r="Z40" s="14"/>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="35"/>
+      <c r="AC40" s="35"/>
+      <c r="AD40" s="14"/>
+      <c r="AE40" s="14"/>
+      <c r="AF40" s="14"/>
+      <c r="AG40" s="14"/>
+      <c r="AH40" s="9"/>
+      <c r="AI40" s="9"/>
+      <c r="AJ40" s="14"/>
+    </row>
+    <row r="41" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="48"/>
+      <c r="U41" s="48"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="52"/>
+      <c r="Y41" s="52"/>
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="36"/>
+      <c r="AC41" s="36"/>
+      <c r="AD41" s="16"/>
+      <c r="AE41" s="16"/>
+      <c r="AF41" s="16"/>
+      <c r="AG41" s="16"/>
+      <c r="AH41" s="9"/>
+      <c r="AI41" s="9"/>
+      <c r="AJ41" s="16"/>
+    </row>
+    <row r="42" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="44"/>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="48"/>
+      <c r="U42" s="48"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="52"/>
+      <c r="Y42" s="52"/>
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="36"/>
+      <c r="AC42" s="36"/>
+      <c r="AD42" s="16"/>
+      <c r="AE42" s="16"/>
+      <c r="AF42" s="16"/>
+      <c r="AG42" s="16"/>
+      <c r="AH42" s="9"/>
+      <c r="AI42" s="9"/>
+      <c r="AJ42" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="AF7:AG7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="AH7:AH8"/>
+    <mergeCell ref="AI7:AI8"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="R7:S7"/>
     <mergeCell ref="T7:U7"/>
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="AD44:AE44"/>
-    <mergeCell ref="A45:AE45"/>
-    <mergeCell ref="A46:AE46"/>
-    <mergeCell ref="AF46:AG46"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AJ3"/>
+    <mergeCell ref="A4:AJ4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AI6"/>
+    <mergeCell ref="AJ6:AJ8"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.27" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO MỞ.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="T5" sheetId="4" r:id="rId1"/>
     <sheet name="T6" sheetId="3" r:id="rId2"/>
     <sheet name="T7" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="Bổ sung" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -1432,8 +1434,728 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ dưới 3 tuổi 450gr
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ dưới 3 tuổi 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ từi 3-12 tuổi 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ dưới 3 tuổi 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ trên 13 tuổi 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ trên 13 tuổi 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi người già 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi người giài 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi bà bầu 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk canxi bà bầu 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk giảm cân 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk tiểu đường tim mạch 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+sữa non, sữa kháng thể 450gr
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+viên soy, collagen nội tiết tố 60v</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+viên soy, collagen nội tiết tố 60v</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ dưới 3 tuổi 450gr
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ dưới 3 tuổi 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ từi 3-12 tuổi 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ dưới 3 tuổi 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ trên 13 tuổi 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi trẻ trên 13 tuổi 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi người già 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi người giài 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk Canxi bà bầu 450gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk canxi bà bầu 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk giảm cân 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nanomilk tiểu đường tim mạch 900gr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+sữa non, sữa kháng thể 450gr
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+viên soy, collagen nội tiết tố 60v</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="107">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1644,6 +2366,117 @@
   <si>
     <t>SỔ THEO DÕI KHO ………………..</t>
   </si>
+  <si>
+    <t>Biên bản bàn giao</t>
+  </si>
+  <si>
+    <t>Kho=&gt;Anh Minh=&gt;Kho</t>
+  </si>
+  <si>
+    <t>Anh Minh trả</t>
+  </si>
+  <si>
+    <t>Thanh Hà</t>
+  </si>
+  <si>
+    <t>CF Mộc (AL)</t>
+  </si>
+  <si>
+    <t>CH=&gt; Kho</t>
+  </si>
+  <si>
+    <t>Kho=&gt;CH</t>
+  </si>
+  <si>
+    <t>Chị Thủy (AL)</t>
+  </si>
+  <si>
+    <t>Cường Milk HG</t>
+  </si>
+  <si>
+    <t>Thanh Hà trả</t>
+  </si>
+  <si>
+    <t>Khách lẻ AL</t>
+  </si>
+  <si>
+    <t>Chị Hồng Sơn La</t>
+  </si>
+  <si>
+    <t>Bán Hàng khách lẻ AL</t>
+  </si>
+  <si>
+    <t>Anh TÙng CTV</t>
+  </si>
+  <si>
+    <t>CH=&gt;Kho</t>
+  </si>
+  <si>
+    <t>Nhập Sữa Ngoài Thanh Hà</t>
+  </si>
+  <si>
+    <t>Bán khai trương</t>
+  </si>
+  <si>
+    <t>Chị Thơm bán</t>
+  </si>
+  <si>
+    <t>SỔ THEO DÕI KHO SHOWROOM</t>
+  </si>
+  <si>
+    <t>SỔ THEO DÕI KHO CÔNG TY</t>
+  </si>
+  <si>
+    <t>Nhập kho</t>
+  </si>
+  <si>
+    <t>Gộp đơn Cường Milk</t>
+  </si>
+  <si>
+    <t>Chị Huệ ĐB</t>
+  </si>
+  <si>
+    <t>ĐL 3S</t>
+  </si>
+  <si>
+    <t>Nhung TQ trả méo</t>
+  </si>
+  <si>
+    <t>Anh Minh gộp đơn</t>
+  </si>
+  <si>
+    <t>3S đổi hàng</t>
+  </si>
+  <si>
+    <t>Chị Phương YC</t>
+  </si>
+  <si>
+    <t>Anh Sơn</t>
+  </si>
+  <si>
+    <t>Chị Quân DVH</t>
+  </si>
+  <si>
+    <t>Chị Linh khách AL</t>
+  </si>
+  <si>
+    <t>Quỳnh Baby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tồn </t>
+  </si>
+  <si>
+    <t>Cô hàng xóm</t>
+  </si>
+  <si>
+    <t>Bán hàng chị thơm</t>
+  </si>
+  <si>
+    <t>Txuat</t>
+  </si>
+  <si>
+    <t>Tnhap</t>
+  </si>
 </sst>
 </file>
 
@@ -1774,7 +2607,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1956,12 +2789,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2166,62 +3014,14 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2230,6 +3030,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2262,11 +3083,192 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2593,11 +3595,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
+      <c r="A1" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
       <c r="D1" s="75"/>
       <c r="E1" s="75"/>
       <c r="F1" s="75"/>
@@ -2633,11 +3635,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
       <c r="D2" s="76"/>
       <c r="E2" s="76"/>
       <c r="F2" s="76"/>
@@ -2673,235 +3675,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="128"/>
-      <c r="T3" s="128"/>
-      <c r="U3" s="128"/>
-      <c r="V3" s="128"/>
-      <c r="W3" s="128"/>
-      <c r="X3" s="128"/>
-      <c r="Y3" s="128"/>
-      <c r="Z3" s="128"/>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="128"/>
-      <c r="AF3" s="128"/>
-      <c r="AG3" s="128"/>
-      <c r="AH3" s="128"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="119"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="119"/>
+      <c r="AB3" s="119"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="119"/>
+      <c r="AE3" s="119"/>
+      <c r="AF3" s="119"/>
+      <c r="AG3" s="119"/>
+      <c r="AH3" s="119"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="128"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="128"/>
-      <c r="X4" s="128"/>
-      <c r="Y4" s="128"/>
-      <c r="Z4" s="128"/>
-      <c r="AA4" s="128"/>
-      <c r="AB4" s="128"/>
-      <c r="AC4" s="128"/>
-      <c r="AD4" s="128"/>
-      <c r="AE4" s="128"/>
-      <c r="AF4" s="128"/>
-      <c r="AG4" s="128"/>
-      <c r="AH4" s="128"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="119"/>
+      <c r="W4" s="119"/>
+      <c r="X4" s="119"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="119"/>
+      <c r="AA4" s="119"/>
+      <c r="AB4" s="119"/>
+      <c r="AC4" s="119"/>
+      <c r="AD4" s="119"/>
+      <c r="AE4" s="119"/>
+      <c r="AF4" s="119"/>
+      <c r="AG4" s="119"/>
+      <c r="AH4" s="119"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="128"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="128"/>
-      <c r="R5" s="128"/>
-      <c r="S5" s="128"/>
-      <c r="T5" s="128"/>
-      <c r="U5" s="128"/>
-      <c r="V5" s="128"/>
-      <c r="W5" s="128"/>
-      <c r="X5" s="128"/>
-      <c r="Y5" s="128"/>
-      <c r="Z5" s="128"/>
-      <c r="AA5" s="128"/>
-      <c r="AB5" s="128"/>
-      <c r="AC5" s="128"/>
-      <c r="AD5" s="128"/>
-      <c r="AE5" s="128"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
+      <c r="X5" s="119"/>
+      <c r="Y5" s="119"/>
+      <c r="Z5" s="119"/>
+      <c r="AA5" s="119"/>
+      <c r="AB5" s="119"/>
+      <c r="AC5" s="119"/>
+      <c r="AD5" s="119"/>
+      <c r="AE5" s="119"/>
       <c r="AF5" s="77"/>
       <c r="AG5" s="77"/>
       <c r="AH5" s="77"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="130" t="s">
+      <c r="D6" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
-      <c r="N6" s="131"/>
-      <c r="O6" s="131"/>
-      <c r="P6" s="131"/>
-      <c r="Q6" s="131"/>
-      <c r="R6" s="131"/>
-      <c r="S6" s="131"/>
-      <c r="T6" s="131"/>
-      <c r="U6" s="131"/>
-      <c r="V6" s="131"/>
-      <c r="W6" s="131"/>
-      <c r="X6" s="131"/>
-      <c r="Y6" s="131"/>
-      <c r="Z6" s="131"/>
-      <c r="AA6" s="131"/>
-      <c r="AB6" s="131"/>
-      <c r="AC6" s="131"/>
-      <c r="AD6" s="131"/>
-      <c r="AE6" s="131"/>
-      <c r="AF6" s="131"/>
-      <c r="AG6" s="132"/>
-      <c r="AH6" s="115" t="s">
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="122"/>
+      <c r="N6" s="122"/>
+      <c r="O6" s="122"/>
+      <c r="P6" s="122"/>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="122"/>
+      <c r="S6" s="122"/>
+      <c r="T6" s="122"/>
+      <c r="U6" s="122"/>
+      <c r="V6" s="122"/>
+      <c r="W6" s="122"/>
+      <c r="X6" s="122"/>
+      <c r="Y6" s="122"/>
+      <c r="Z6" s="122"/>
+      <c r="AA6" s="122"/>
+      <c r="AB6" s="122"/>
+      <c r="AC6" s="122"/>
+      <c r="AD6" s="122"/>
+      <c r="AE6" s="122"/>
+      <c r="AF6" s="122"/>
+      <c r="AG6" s="123"/>
+      <c r="AH6" s="116" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="115"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="133" t="s">
+      <c r="A7" s="116"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="133"/>
-      <c r="F7" s="115" t="s">
+      <c r="E7" s="124"/>
+      <c r="F7" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="115"/>
-      <c r="H7" s="134" t="s">
+      <c r="G7" s="116"/>
+      <c r="H7" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="134"/>
-      <c r="J7" s="115" t="s">
+      <c r="I7" s="125"/>
+      <c r="J7" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="115"/>
-      <c r="L7" s="135" t="s">
+      <c r="K7" s="116"/>
+      <c r="L7" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="135"/>
-      <c r="N7" s="115" t="s">
+      <c r="M7" s="126"/>
+      <c r="N7" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="115"/>
-      <c r="P7" s="123" t="s">
+      <c r="O7" s="116"/>
+      <c r="P7" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="115" t="s">
+      <c r="Q7" s="136"/>
+      <c r="R7" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="115"/>
-      <c r="T7" s="124" t="s">
+      <c r="S7" s="116"/>
+      <c r="T7" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="124"/>
-      <c r="V7" s="115" t="s">
+      <c r="U7" s="137"/>
+      <c r="V7" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="115"/>
-      <c r="X7" s="125" t="s">
+      <c r="W7" s="116"/>
+      <c r="X7" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="125"/>
-      <c r="Z7" s="115" t="s">
+      <c r="Y7" s="138"/>
+      <c r="Z7" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="115"/>
-      <c r="AB7" s="114" t="s">
+      <c r="AA7" s="116"/>
+      <c r="AB7" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="114"/>
-      <c r="AD7" s="115" t="s">
+      <c r="AC7" s="127"/>
+      <c r="AD7" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="115"/>
-      <c r="AF7" s="116" t="s">
+      <c r="AE7" s="116"/>
+      <c r="AF7" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="116" t="s">
+      <c r="AG7" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="115"/>
+      <c r="AH7" s="116"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="115"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="115"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="116"/>
       <c r="D8" s="78" t="s">
         <v>26</v>
       </c>
@@ -2986,9 +3988,9 @@
       <c r="AE8" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="AF8" s="117"/>
-      <c r="AG8" s="117"/>
-      <c r="AH8" s="115"/>
+      <c r="AF8" s="129"/>
+      <c r="AG8" s="129"/>
+      <c r="AH8" s="116"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -4070,78 +5072,78 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
-      <c r="B30" s="118"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="120">
+      <c r="B30" s="130"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="132">
         <f>SUM(D9:D28)-SUM(E9:E28)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="120"/>
-      <c r="F30" s="106">
+      <c r="E30" s="132"/>
+      <c r="F30" s="133">
         <f>SUM(F9:F28)-SUM(G9:G28)</f>
         <v>4</v>
       </c>
-      <c r="G30" s="106"/>
-      <c r="H30" s="121">
+      <c r="G30" s="133"/>
+      <c r="H30" s="134">
         <f>SUM(H9:H28)-SUM(I9:I28)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="121"/>
-      <c r="J30" s="106">
+      <c r="I30" s="134"/>
+      <c r="J30" s="133">
         <f>SUM(J9:J28)-SUM(K9:K28)</f>
         <v>1</v>
       </c>
-      <c r="K30" s="106"/>
-      <c r="L30" s="122">
+      <c r="K30" s="133"/>
+      <c r="L30" s="135">
         <f>SUM(L9:L28)-SUM(M9:M28)</f>
         <v>0</v>
       </c>
-      <c r="M30" s="122"/>
-      <c r="N30" s="106">
+      <c r="M30" s="135"/>
+      <c r="N30" s="133">
         <f>SUM(N9:N28)-SUM(O9:O28)</f>
         <v>2</v>
       </c>
-      <c r="O30" s="106"/>
-      <c r="P30" s="107">
+      <c r="O30" s="133"/>
+      <c r="P30" s="141">
         <f>SUM(P9:P28)-SUM(Q9:Q28)</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="107"/>
-      <c r="R30" s="106">
+      <c r="Q30" s="141"/>
+      <c r="R30" s="133">
         <f>SUM(R9:R28)-SUM(S9:S28)</f>
         <v>2</v>
       </c>
-      <c r="S30" s="106"/>
-      <c r="T30" s="108">
+      <c r="S30" s="133"/>
+      <c r="T30" s="142">
         <f>SUM(T9:T28)-SUM(U9:U28)</f>
         <v>0</v>
       </c>
-      <c r="U30" s="108"/>
-      <c r="V30" s="106">
+      <c r="U30" s="142"/>
+      <c r="V30" s="133">
         <f>SUM(V9:V28)-SUM(W9:W28)</f>
         <v>0</v>
       </c>
-      <c r="W30" s="106"/>
-      <c r="X30" s="109">
+      <c r="W30" s="133"/>
+      <c r="X30" s="143">
         <f>SUM(X9:X28)-SUM(Y9:Y28)</f>
         <v>5</v>
       </c>
-      <c r="Y30" s="109"/>
-      <c r="Z30" s="106">
+      <c r="Y30" s="143"/>
+      <c r="Z30" s="133">
         <f>SUM(Z9:Z28)-SUM(AA9:AA28)</f>
         <v>0</v>
       </c>
-      <c r="AA30" s="106"/>
-      <c r="AB30" s="110">
+      <c r="AA30" s="133"/>
+      <c r="AB30" s="144">
         <f>SUM(AB9:AB28)-SUM(AC9:AC28)</f>
         <v>3</v>
       </c>
-      <c r="AC30" s="110"/>
-      <c r="AD30" s="106">
+      <c r="AC30" s="144"/>
+      <c r="AD30" s="133">
         <f>SUM(AD9:AD28)-SUM(AE9:AE28)</f>
         <v>0</v>
       </c>
-      <c r="AE30" s="106"/>
+      <c r="AE30" s="133"/>
       <c r="AF30" s="20"/>
       <c r="AG30" s="9">
         <f t="shared" si="1"/>
@@ -4150,39 +5152,39 @@
       <c r="AH30" s="21"/>
     </row>
     <row r="31" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="111" t="s">
+      <c r="A31" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="112"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="112"/>
-      <c r="L31" s="112"/>
-      <c r="M31" s="112"/>
-      <c r="N31" s="112"/>
-      <c r="O31" s="112"/>
-      <c r="P31" s="112"/>
-      <c r="Q31" s="112"/>
-      <c r="R31" s="112"/>
-      <c r="S31" s="112"/>
-      <c r="T31" s="112"/>
-      <c r="U31" s="112"/>
-      <c r="V31" s="112"/>
-      <c r="W31" s="112"/>
-      <c r="X31" s="112"/>
-      <c r="Y31" s="112"/>
-      <c r="Z31" s="112"/>
-      <c r="AA31" s="112"/>
-      <c r="AB31" s="112"/>
-      <c r="AC31" s="112"/>
-      <c r="AD31" s="112"/>
-      <c r="AE31" s="113"/>
+      <c r="B31" s="146"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="146"/>
+      <c r="K31" s="146"/>
+      <c r="L31" s="146"/>
+      <c r="M31" s="146"/>
+      <c r="N31" s="146"/>
+      <c r="O31" s="146"/>
+      <c r="P31" s="146"/>
+      <c r="Q31" s="146"/>
+      <c r="R31" s="146"/>
+      <c r="S31" s="146"/>
+      <c r="T31" s="146"/>
+      <c r="U31" s="146"/>
+      <c r="V31" s="146"/>
+      <c r="W31" s="146"/>
+      <c r="X31" s="146"/>
+      <c r="Y31" s="146"/>
+      <c r="Z31" s="146"/>
+      <c r="AA31" s="146"/>
+      <c r="AB31" s="146"/>
+      <c r="AC31" s="146"/>
+      <c r="AD31" s="146"/>
+      <c r="AE31" s="147"/>
       <c r="AF31" s="22">
         <f>SUM(AF9:AF28)</f>
         <v>79</v>
@@ -4194,48 +5196,76 @@
       <c r="AH31" s="23"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="111" t="s">
+      <c r="A32" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="112"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="112"/>
-      <c r="M32" s="112"/>
-      <c r="N32" s="112"/>
-      <c r="O32" s="112"/>
-      <c r="P32" s="112"/>
-      <c r="Q32" s="112"/>
-      <c r="R32" s="112"/>
-      <c r="S32" s="112"/>
-      <c r="T32" s="112"/>
-      <c r="U32" s="112"/>
-      <c r="V32" s="112"/>
-      <c r="W32" s="112"/>
-      <c r="X32" s="112"/>
-      <c r="Y32" s="112"/>
-      <c r="Z32" s="112"/>
-      <c r="AA32" s="112"/>
-      <c r="AB32" s="112"/>
-      <c r="AC32" s="112"/>
-      <c r="AD32" s="112"/>
-      <c r="AE32" s="113"/>
-      <c r="AF32" s="104">
+      <c r="B32" s="146"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="146"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="146"/>
+      <c r="O32" s="146"/>
+      <c r="P32" s="146"/>
+      <c r="Q32" s="146"/>
+      <c r="R32" s="146"/>
+      <c r="S32" s="146"/>
+      <c r="T32" s="146"/>
+      <c r="U32" s="146"/>
+      <c r="V32" s="146"/>
+      <c r="W32" s="146"/>
+      <c r="X32" s="146"/>
+      <c r="Y32" s="146"/>
+      <c r="Z32" s="146"/>
+      <c r="AA32" s="146"/>
+      <c r="AB32" s="146"/>
+      <c r="AC32" s="146"/>
+      <c r="AD32" s="146"/>
+      <c r="AE32" s="147"/>
+      <c r="AF32" s="139">
         <f>AG31-AF31</f>
         <v>17</v>
       </c>
-      <c r="AG32" s="105"/>
+      <c r="AG32" s="140"/>
       <c r="AH32" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="A31:AE31"/>
+    <mergeCell ref="A32:AE32"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -4252,34 +5282,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="A31:AE31"/>
-    <mergeCell ref="A32:AE32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -4309,11 +5311,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
+      <c r="A1" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
       <c r="D1" s="54"/>
       <c r="E1" s="54"/>
       <c r="F1" s="54"/>
@@ -4349,11 +5351,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
       <c r="F2" s="55"/>
@@ -4389,235 +5391,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="128"/>
-      <c r="T3" s="128"/>
-      <c r="U3" s="128"/>
-      <c r="V3" s="128"/>
-      <c r="W3" s="128"/>
-      <c r="X3" s="128"/>
-      <c r="Y3" s="128"/>
-      <c r="Z3" s="128"/>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="128"/>
-      <c r="AF3" s="128"/>
-      <c r="AG3" s="128"/>
-      <c r="AH3" s="128"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="119"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="119"/>
+      <c r="AB3" s="119"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="119"/>
+      <c r="AE3" s="119"/>
+      <c r="AF3" s="119"/>
+      <c r="AG3" s="119"/>
+      <c r="AH3" s="119"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="128"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="128"/>
-      <c r="X4" s="128"/>
-      <c r="Y4" s="128"/>
-      <c r="Z4" s="128"/>
-      <c r="AA4" s="128"/>
-      <c r="AB4" s="128"/>
-      <c r="AC4" s="128"/>
-      <c r="AD4" s="128"/>
-      <c r="AE4" s="128"/>
-      <c r="AF4" s="128"/>
-      <c r="AG4" s="128"/>
-      <c r="AH4" s="128"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="119"/>
+      <c r="W4" s="119"/>
+      <c r="X4" s="119"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="119"/>
+      <c r="AA4" s="119"/>
+      <c r="AB4" s="119"/>
+      <c r="AC4" s="119"/>
+      <c r="AD4" s="119"/>
+      <c r="AE4" s="119"/>
+      <c r="AF4" s="119"/>
+      <c r="AG4" s="119"/>
+      <c r="AH4" s="119"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="128"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="128"/>
-      <c r="R5" s="128"/>
-      <c r="S5" s="128"/>
-      <c r="T5" s="128"/>
-      <c r="U5" s="128"/>
-      <c r="V5" s="128"/>
-      <c r="W5" s="128"/>
-      <c r="X5" s="128"/>
-      <c r="Y5" s="128"/>
-      <c r="Z5" s="128"/>
-      <c r="AA5" s="128"/>
-      <c r="AB5" s="128"/>
-      <c r="AC5" s="128"/>
-      <c r="AD5" s="128"/>
-      <c r="AE5" s="128"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
+      <c r="X5" s="119"/>
+      <c r="Y5" s="119"/>
+      <c r="Z5" s="119"/>
+      <c r="AA5" s="119"/>
+      <c r="AB5" s="119"/>
+      <c r="AC5" s="119"/>
+      <c r="AD5" s="119"/>
+      <c r="AE5" s="119"/>
       <c r="AF5" s="56"/>
       <c r="AG5" s="56"/>
       <c r="AH5" s="56"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="130" t="s">
+      <c r="D6" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
-      <c r="N6" s="131"/>
-      <c r="O6" s="131"/>
-      <c r="P6" s="131"/>
-      <c r="Q6" s="131"/>
-      <c r="R6" s="131"/>
-      <c r="S6" s="131"/>
-      <c r="T6" s="131"/>
-      <c r="U6" s="131"/>
-      <c r="V6" s="131"/>
-      <c r="W6" s="131"/>
-      <c r="X6" s="131"/>
-      <c r="Y6" s="131"/>
-      <c r="Z6" s="131"/>
-      <c r="AA6" s="131"/>
-      <c r="AB6" s="131"/>
-      <c r="AC6" s="131"/>
-      <c r="AD6" s="131"/>
-      <c r="AE6" s="131"/>
-      <c r="AF6" s="131"/>
-      <c r="AG6" s="132"/>
-      <c r="AH6" s="115" t="s">
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="122"/>
+      <c r="N6" s="122"/>
+      <c r="O6" s="122"/>
+      <c r="P6" s="122"/>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="122"/>
+      <c r="S6" s="122"/>
+      <c r="T6" s="122"/>
+      <c r="U6" s="122"/>
+      <c r="V6" s="122"/>
+      <c r="W6" s="122"/>
+      <c r="X6" s="122"/>
+      <c r="Y6" s="122"/>
+      <c r="Z6" s="122"/>
+      <c r="AA6" s="122"/>
+      <c r="AB6" s="122"/>
+      <c r="AC6" s="122"/>
+      <c r="AD6" s="122"/>
+      <c r="AE6" s="122"/>
+      <c r="AF6" s="122"/>
+      <c r="AG6" s="123"/>
+      <c r="AH6" s="116" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="115"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="133" t="s">
+      <c r="A7" s="116"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="133"/>
-      <c r="F7" s="115" t="s">
+      <c r="E7" s="124"/>
+      <c r="F7" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="115"/>
-      <c r="H7" s="134" t="s">
+      <c r="G7" s="116"/>
+      <c r="H7" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="134"/>
-      <c r="J7" s="115" t="s">
+      <c r="I7" s="125"/>
+      <c r="J7" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="115"/>
-      <c r="L7" s="135" t="s">
+      <c r="K7" s="116"/>
+      <c r="L7" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="135"/>
-      <c r="N7" s="115" t="s">
+      <c r="M7" s="126"/>
+      <c r="N7" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="115"/>
-      <c r="P7" s="123" t="s">
+      <c r="O7" s="116"/>
+      <c r="P7" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="115" t="s">
+      <c r="Q7" s="136"/>
+      <c r="R7" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="115"/>
-      <c r="T7" s="124" t="s">
+      <c r="S7" s="116"/>
+      <c r="T7" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="124"/>
-      <c r="V7" s="115" t="s">
+      <c r="U7" s="137"/>
+      <c r="V7" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="115"/>
-      <c r="X7" s="125" t="s">
+      <c r="W7" s="116"/>
+      <c r="X7" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="125"/>
-      <c r="Z7" s="115" t="s">
+      <c r="Y7" s="138"/>
+      <c r="Z7" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="115"/>
-      <c r="AB7" s="114" t="s">
+      <c r="AA7" s="116"/>
+      <c r="AB7" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="114"/>
-      <c r="AD7" s="115" t="s">
+      <c r="AC7" s="127"/>
+      <c r="AD7" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="115"/>
-      <c r="AF7" s="116" t="s">
+      <c r="AE7" s="116"/>
+      <c r="AF7" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="116" t="s">
+      <c r="AG7" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="115"/>
+      <c r="AH7" s="116"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="115"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="115"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="116"/>
       <c r="D8" s="57" t="s">
         <v>26</v>
       </c>
@@ -4702,9 +5704,9 @@
       <c r="AE8" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AF8" s="136"/>
-      <c r="AG8" s="136"/>
-      <c r="AH8" s="115"/>
+      <c r="AF8" s="148"/>
+      <c r="AG8" s="148"/>
+      <c r="AH8" s="116"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -6526,76 +7528,76 @@
       <c r="A49" s="17"/>
       <c r="B49" s="18"/>
       <c r="C49" s="19"/>
-      <c r="D49" s="120">
+      <c r="D49" s="132">
         <f>SUM(D9:D48)-SUM(E9:E48)</f>
         <v>3</v>
       </c>
-      <c r="E49" s="120"/>
-      <c r="F49" s="106">
+      <c r="E49" s="132"/>
+      <c r="F49" s="133">
         <f>SUM(F9:F48)-SUM(G9:G48)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="106"/>
-      <c r="H49" s="121">
+      <c r="G49" s="133"/>
+      <c r="H49" s="134">
         <f>SUM(H9:H48)-SUM(I9:I48)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="121"/>
-      <c r="J49" s="106">
+      <c r="I49" s="134"/>
+      <c r="J49" s="133">
         <f>SUM(J9:J48)-SUM(K9:K48)</f>
         <v>0</v>
       </c>
-      <c r="K49" s="106"/>
-      <c r="L49" s="122">
+      <c r="K49" s="133"/>
+      <c r="L49" s="135">
         <f>SUM(L9:L48)-SUM(M9:M48)</f>
         <v>0</v>
       </c>
-      <c r="M49" s="122"/>
-      <c r="N49" s="106">
+      <c r="M49" s="135"/>
+      <c r="N49" s="133">
         <f>SUM(N9:N48)-SUM(O9:O48)</f>
         <v>1</v>
       </c>
-      <c r="O49" s="106"/>
-      <c r="P49" s="107">
+      <c r="O49" s="133"/>
+      <c r="P49" s="141">
         <f>SUM(P9:P48)-SUM(Q9:Q48)</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="107"/>
-      <c r="R49" s="106">
+      <c r="Q49" s="141"/>
+      <c r="R49" s="133">
         <f>SUM(R9:R48)-SUM(S9:S48)</f>
         <v>2</v>
       </c>
-      <c r="S49" s="106"/>
-      <c r="T49" s="108">
+      <c r="S49" s="133"/>
+      <c r="T49" s="142">
         <f>SUM(T9:T48)-SUM(U9:U48)</f>
         <v>0</v>
       </c>
-      <c r="U49" s="108"/>
-      <c r="V49" s="106">
+      <c r="U49" s="142"/>
+      <c r="V49" s="133">
         <f>SUM(V9:V48)-SUM(W9:W48)</f>
         <v>0</v>
       </c>
-      <c r="W49" s="106"/>
-      <c r="X49" s="109">
+      <c r="W49" s="133"/>
+      <c r="X49" s="143">
         <f>SUM(X9:X48)-SUM(Y9:Y48)</f>
         <v>4</v>
       </c>
-      <c r="Y49" s="109"/>
-      <c r="Z49" s="106">
+      <c r="Y49" s="143"/>
+      <c r="Z49" s="133">
         <f>SUM(Z9:Z48)-SUM(AA9:AA48)</f>
         <v>3</v>
       </c>
-      <c r="AA49" s="106"/>
-      <c r="AB49" s="110">
+      <c r="AA49" s="133"/>
+      <c r="AB49" s="144">
         <f>SUM(AB9:AB48)-SUM(AC9:AC48)</f>
         <v>3</v>
       </c>
-      <c r="AC49" s="110"/>
-      <c r="AD49" s="106">
+      <c r="AC49" s="144"/>
+      <c r="AD49" s="133">
         <f>SUM(AD9:AD48)-SUM(AE9:AE48)</f>
         <v>0</v>
       </c>
-      <c r="AE49" s="106"/>
+      <c r="AE49" s="133"/>
       <c r="AF49" s="20"/>
       <c r="AG49" s="9">
         <f>D49+F49+H49+J49+L49+N49+P49+R49+T49+V49+X49+Z49+AB49+AD49</f>
@@ -6604,39 +7606,39 @@
       <c r="AH49" s="21"/>
     </row>
     <row r="50" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="111" t="s">
+      <c r="A50" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="112"/>
-      <c r="C50" s="112"/>
-      <c r="D50" s="112"/>
-      <c r="E50" s="112"/>
-      <c r="F50" s="112"/>
-      <c r="G50" s="112"/>
-      <c r="H50" s="112"/>
-      <c r="I50" s="112"/>
-      <c r="J50" s="112"/>
-      <c r="K50" s="112"/>
-      <c r="L50" s="112"/>
-      <c r="M50" s="112"/>
-      <c r="N50" s="112"/>
-      <c r="O50" s="112"/>
-      <c r="P50" s="112"/>
-      <c r="Q50" s="112"/>
-      <c r="R50" s="112"/>
-      <c r="S50" s="112"/>
-      <c r="T50" s="112"/>
-      <c r="U50" s="112"/>
-      <c r="V50" s="112"/>
-      <c r="W50" s="112"/>
-      <c r="X50" s="112"/>
-      <c r="Y50" s="112"/>
-      <c r="Z50" s="112"/>
-      <c r="AA50" s="112"/>
-      <c r="AB50" s="112"/>
-      <c r="AC50" s="112"/>
-      <c r="AD50" s="112"/>
-      <c r="AE50" s="113"/>
+      <c r="B50" s="146"/>
+      <c r="C50" s="146"/>
+      <c r="D50" s="146"/>
+      <c r="E50" s="146"/>
+      <c r="F50" s="146"/>
+      <c r="G50" s="146"/>
+      <c r="H50" s="146"/>
+      <c r="I50" s="146"/>
+      <c r="J50" s="146"/>
+      <c r="K50" s="146"/>
+      <c r="L50" s="146"/>
+      <c r="M50" s="146"/>
+      <c r="N50" s="146"/>
+      <c r="O50" s="146"/>
+      <c r="P50" s="146"/>
+      <c r="Q50" s="146"/>
+      <c r="R50" s="146"/>
+      <c r="S50" s="146"/>
+      <c r="T50" s="146"/>
+      <c r="U50" s="146"/>
+      <c r="V50" s="146"/>
+      <c r="W50" s="146"/>
+      <c r="X50" s="146"/>
+      <c r="Y50" s="146"/>
+      <c r="Z50" s="146"/>
+      <c r="AA50" s="146"/>
+      <c r="AB50" s="146"/>
+      <c r="AC50" s="146"/>
+      <c r="AD50" s="146"/>
+      <c r="AE50" s="147"/>
       <c r="AF50" s="22">
         <f>SUM(AF9:AF48)</f>
         <v>18</v>
@@ -6648,59 +7650,64 @@
       <c r="AH50" s="23"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="111" t="s">
+      <c r="A51" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="112"/>
-      <c r="C51" s="112"/>
-      <c r="D51" s="112"/>
-      <c r="E51" s="112"/>
-      <c r="F51" s="112"/>
-      <c r="G51" s="112"/>
-      <c r="H51" s="112"/>
-      <c r="I51" s="112"/>
-      <c r="J51" s="112"/>
-      <c r="K51" s="112"/>
-      <c r="L51" s="112"/>
-      <c r="M51" s="112"/>
-      <c r="N51" s="112"/>
-      <c r="O51" s="112"/>
-      <c r="P51" s="112"/>
-      <c r="Q51" s="112"/>
-      <c r="R51" s="112"/>
-      <c r="S51" s="112"/>
-      <c r="T51" s="112"/>
-      <c r="U51" s="112"/>
-      <c r="V51" s="112"/>
-      <c r="W51" s="112"/>
-      <c r="X51" s="112"/>
-      <c r="Y51" s="112"/>
-      <c r="Z51" s="112"/>
-      <c r="AA51" s="112"/>
-      <c r="AB51" s="112"/>
-      <c r="AC51" s="112"/>
-      <c r="AD51" s="112"/>
-      <c r="AE51" s="113"/>
-      <c r="AF51" s="104">
+      <c r="B51" s="146"/>
+      <c r="C51" s="146"/>
+      <c r="D51" s="146"/>
+      <c r="E51" s="146"/>
+      <c r="F51" s="146"/>
+      <c r="G51" s="146"/>
+      <c r="H51" s="146"/>
+      <c r="I51" s="146"/>
+      <c r="J51" s="146"/>
+      <c r="K51" s="146"/>
+      <c r="L51" s="146"/>
+      <c r="M51" s="146"/>
+      <c r="N51" s="146"/>
+      <c r="O51" s="146"/>
+      <c r="P51" s="146"/>
+      <c r="Q51" s="146"/>
+      <c r="R51" s="146"/>
+      <c r="S51" s="146"/>
+      <c r="T51" s="146"/>
+      <c r="U51" s="146"/>
+      <c r="V51" s="146"/>
+      <c r="W51" s="146"/>
+      <c r="X51" s="146"/>
+      <c r="Y51" s="146"/>
+      <c r="Z51" s="146"/>
+      <c r="AA51" s="146"/>
+      <c r="AB51" s="146"/>
+      <c r="AC51" s="146"/>
+      <c r="AD51" s="146"/>
+      <c r="AE51" s="147"/>
+      <c r="AF51" s="139">
         <f>AG50-AF50</f>
         <v>16</v>
       </c>
-      <c r="AG51" s="105"/>
+      <c r="AG51" s="140"/>
       <c r="AH51" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AD49:AE49"/>
-    <mergeCell ref="A50:AE50"/>
-    <mergeCell ref="A51:AE51"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AF8"/>
@@ -6717,22 +7724,17 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="A50:AE50"/>
+    <mergeCell ref="A51:AE51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="Z49:AA49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6744,7 +7746,7 @@
   <dimension ref="A1:AH46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB50" sqref="A1:XFD1048576"/>
+      <selection activeCell="A44" sqref="A44:AH46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6760,11 +7762,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
+      <c r="A1" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
       <c r="D1" s="82"/>
       <c r="E1" s="82"/>
       <c r="F1" s="82"/>
@@ -6800,11 +7802,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
       <c r="D2" s="83"/>
       <c r="E2" s="83"/>
       <c r="F2" s="83"/>
@@ -6840,235 +7842,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="128"/>
-      <c r="T3" s="128"/>
-      <c r="U3" s="128"/>
-      <c r="V3" s="128"/>
-      <c r="W3" s="128"/>
-      <c r="X3" s="128"/>
-      <c r="Y3" s="128"/>
-      <c r="Z3" s="128"/>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="128"/>
-      <c r="AF3" s="128"/>
-      <c r="AG3" s="128"/>
-      <c r="AH3" s="128"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="119"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="119"/>
+      <c r="AB3" s="119"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="119"/>
+      <c r="AE3" s="119"/>
+      <c r="AF3" s="119"/>
+      <c r="AG3" s="119"/>
+      <c r="AH3" s="119"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="128"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="128"/>
-      <c r="X4" s="128"/>
-      <c r="Y4" s="128"/>
-      <c r="Z4" s="128"/>
-      <c r="AA4" s="128"/>
-      <c r="AB4" s="128"/>
-      <c r="AC4" s="128"/>
-      <c r="AD4" s="128"/>
-      <c r="AE4" s="128"/>
-      <c r="AF4" s="128"/>
-      <c r="AG4" s="128"/>
-      <c r="AH4" s="128"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="119"/>
+      <c r="W4" s="119"/>
+      <c r="X4" s="119"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="119"/>
+      <c r="AA4" s="119"/>
+      <c r="AB4" s="119"/>
+      <c r="AC4" s="119"/>
+      <c r="AD4" s="119"/>
+      <c r="AE4" s="119"/>
+      <c r="AF4" s="119"/>
+      <c r="AG4" s="119"/>
+      <c r="AH4" s="119"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="128"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="128"/>
-      <c r="R5" s="128"/>
-      <c r="S5" s="128"/>
-      <c r="T5" s="128"/>
-      <c r="U5" s="128"/>
-      <c r="V5" s="128"/>
-      <c r="W5" s="128"/>
-      <c r="X5" s="128"/>
-      <c r="Y5" s="128"/>
-      <c r="Z5" s="128"/>
-      <c r="AA5" s="128"/>
-      <c r="AB5" s="128"/>
-      <c r="AC5" s="128"/>
-      <c r="AD5" s="128"/>
-      <c r="AE5" s="128"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
+      <c r="X5" s="119"/>
+      <c r="Y5" s="119"/>
+      <c r="Z5" s="119"/>
+      <c r="AA5" s="119"/>
+      <c r="AB5" s="119"/>
+      <c r="AC5" s="119"/>
+      <c r="AD5" s="119"/>
+      <c r="AE5" s="119"/>
       <c r="AF5" s="84"/>
       <c r="AG5" s="84"/>
       <c r="AH5" s="84"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="130" t="s">
+      <c r="D6" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
-      <c r="N6" s="131"/>
-      <c r="O6" s="131"/>
-      <c r="P6" s="131"/>
-      <c r="Q6" s="131"/>
-      <c r="R6" s="131"/>
-      <c r="S6" s="131"/>
-      <c r="T6" s="131"/>
-      <c r="U6" s="131"/>
-      <c r="V6" s="131"/>
-      <c r="W6" s="131"/>
-      <c r="X6" s="131"/>
-      <c r="Y6" s="131"/>
-      <c r="Z6" s="131"/>
-      <c r="AA6" s="131"/>
-      <c r="AB6" s="131"/>
-      <c r="AC6" s="131"/>
-      <c r="AD6" s="131"/>
-      <c r="AE6" s="131"/>
-      <c r="AF6" s="131"/>
-      <c r="AG6" s="132"/>
-      <c r="AH6" s="115" t="s">
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="122"/>
+      <c r="N6" s="122"/>
+      <c r="O6" s="122"/>
+      <c r="P6" s="122"/>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="122"/>
+      <c r="S6" s="122"/>
+      <c r="T6" s="122"/>
+      <c r="U6" s="122"/>
+      <c r="V6" s="122"/>
+      <c r="W6" s="122"/>
+      <c r="X6" s="122"/>
+      <c r="Y6" s="122"/>
+      <c r="Z6" s="122"/>
+      <c r="AA6" s="122"/>
+      <c r="AB6" s="122"/>
+      <c r="AC6" s="122"/>
+      <c r="AD6" s="122"/>
+      <c r="AE6" s="122"/>
+      <c r="AF6" s="122"/>
+      <c r="AG6" s="123"/>
+      <c r="AH6" s="116" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="115"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="133" t="s">
+      <c r="A7" s="116"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="133"/>
-      <c r="F7" s="115" t="s">
+      <c r="E7" s="124"/>
+      <c r="F7" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="115"/>
-      <c r="H7" s="134" t="s">
+      <c r="G7" s="116"/>
+      <c r="H7" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="134"/>
-      <c r="J7" s="115" t="s">
+      <c r="I7" s="125"/>
+      <c r="J7" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="115"/>
-      <c r="L7" s="135" t="s">
+      <c r="K7" s="116"/>
+      <c r="L7" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="135"/>
-      <c r="N7" s="115" t="s">
+      <c r="M7" s="126"/>
+      <c r="N7" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="115"/>
-      <c r="P7" s="123" t="s">
+      <c r="O7" s="116"/>
+      <c r="P7" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="115" t="s">
+      <c r="Q7" s="136"/>
+      <c r="R7" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="115"/>
-      <c r="T7" s="124" t="s">
+      <c r="S7" s="116"/>
+      <c r="T7" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="124"/>
-      <c r="V7" s="115" t="s">
+      <c r="U7" s="137"/>
+      <c r="V7" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="115"/>
-      <c r="X7" s="125" t="s">
+      <c r="W7" s="116"/>
+      <c r="X7" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="125"/>
-      <c r="Z7" s="115" t="s">
+      <c r="Y7" s="138"/>
+      <c r="Z7" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="115"/>
-      <c r="AB7" s="114" t="s">
+      <c r="AA7" s="116"/>
+      <c r="AB7" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="114"/>
-      <c r="AD7" s="115" t="s">
+      <c r="AC7" s="127"/>
+      <c r="AD7" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="115"/>
-      <c r="AF7" s="116" t="s">
+      <c r="AE7" s="116"/>
+      <c r="AF7" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="116" t="s">
+      <c r="AG7" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="115"/>
+      <c r="AH7" s="116"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="115"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="115"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="116"/>
       <c r="D8" s="85" t="s">
         <v>26</v>
       </c>
@@ -7153,9 +8155,9 @@
       <c r="AE8" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="AF8" s="136"/>
-      <c r="AG8" s="136"/>
-      <c r="AH8" s="115"/>
+      <c r="AF8" s="148"/>
+      <c r="AG8" s="148"/>
+      <c r="AH8" s="116"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
@@ -8735,76 +9737,76 @@
       <c r="A44" s="17"/>
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
-      <c r="D44" s="120">
+      <c r="D44" s="132">
         <f>SUM(D9:D43)-SUM(E9:E43)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="120"/>
-      <c r="F44" s="106">
+      <c r="E44" s="132"/>
+      <c r="F44" s="133">
         <f>SUM(F9:F43)-SUM(G9:G43)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="106"/>
-      <c r="H44" s="121">
+      <c r="G44" s="133"/>
+      <c r="H44" s="134">
         <f>SUM(H9:H43)-SUM(I9:I43)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="121"/>
-      <c r="J44" s="106">
+      <c r="I44" s="134"/>
+      <c r="J44" s="133">
         <f>SUM(J9:J43)-SUM(K9:K43)</f>
         <v>0</v>
       </c>
-      <c r="K44" s="106"/>
-      <c r="L44" s="122">
+      <c r="K44" s="133"/>
+      <c r="L44" s="135">
         <f>SUM(L9:L43)-SUM(M9:M43)</f>
         <v>0</v>
       </c>
-      <c r="M44" s="122"/>
-      <c r="N44" s="106">
+      <c r="M44" s="135"/>
+      <c r="N44" s="133">
         <f>SUM(N9:N43)-SUM(O9:O43)</f>
         <v>0</v>
       </c>
-      <c r="O44" s="106"/>
-      <c r="P44" s="107">
+      <c r="O44" s="133"/>
+      <c r="P44" s="141">
         <f>SUM(P9:P43)-SUM(Q9:Q43)</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="107"/>
-      <c r="R44" s="106">
+      <c r="Q44" s="141"/>
+      <c r="R44" s="133">
         <f>SUM(R9:R43)-SUM(S9:S43)</f>
         <v>0</v>
       </c>
-      <c r="S44" s="106"/>
-      <c r="T44" s="108">
+      <c r="S44" s="133"/>
+      <c r="T44" s="142">
         <f>SUM(T9:T43)-SUM(U9:U43)</f>
         <v>0</v>
       </c>
-      <c r="U44" s="108"/>
-      <c r="V44" s="106">
+      <c r="U44" s="142"/>
+      <c r="V44" s="133">
         <f>SUM(V9:V43)-SUM(W9:W43)</f>
         <v>0</v>
       </c>
-      <c r="W44" s="106"/>
-      <c r="X44" s="109">
+      <c r="W44" s="133"/>
+      <c r="X44" s="143">
         <f>SUM(X9:X43)-SUM(Y9:Y43)</f>
         <v>0</v>
       </c>
-      <c r="Y44" s="109"/>
-      <c r="Z44" s="106">
+      <c r="Y44" s="143"/>
+      <c r="Z44" s="133">
         <f>SUM(Z9:Z43)-SUM(AA9:AA43)</f>
         <v>0</v>
       </c>
-      <c r="AA44" s="106"/>
-      <c r="AB44" s="110">
+      <c r="AA44" s="133"/>
+      <c r="AB44" s="144">
         <f>SUM(AB9:AB43)-SUM(AC9:AC43)</f>
         <v>0</v>
       </c>
-      <c r="AC44" s="110"/>
-      <c r="AD44" s="106">
+      <c r="AC44" s="144"/>
+      <c r="AD44" s="133">
         <f>SUM(AD9:AD43)-SUM(AE9:AE43)</f>
         <v>0</v>
       </c>
-      <c r="AE44" s="106"/>
+      <c r="AE44" s="133"/>
       <c r="AF44" s="20"/>
       <c r="AG44" s="9">
         <f>D44+F44+H44+J44+L44+N44+P44+R44+T44+V44+X44+Z44+AB44+AD44</f>
@@ -8813,39 +9815,39 @@
       <c r="AH44" s="21"/>
     </row>
     <row r="45" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="111" t="s">
+      <c r="A45" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="112"/>
-      <c r="C45" s="112"/>
-      <c r="D45" s="112"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="112"/>
-      <c r="H45" s="112"/>
-      <c r="I45" s="112"/>
-      <c r="J45" s="112"/>
-      <c r="K45" s="112"/>
-      <c r="L45" s="112"/>
-      <c r="M45" s="112"/>
-      <c r="N45" s="112"/>
-      <c r="O45" s="112"/>
-      <c r="P45" s="112"/>
-      <c r="Q45" s="112"/>
-      <c r="R45" s="112"/>
-      <c r="S45" s="112"/>
-      <c r="T45" s="112"/>
-      <c r="U45" s="112"/>
-      <c r="V45" s="112"/>
-      <c r="W45" s="112"/>
-      <c r="X45" s="112"/>
-      <c r="Y45" s="112"/>
-      <c r="Z45" s="112"/>
-      <c r="AA45" s="112"/>
-      <c r="AB45" s="112"/>
-      <c r="AC45" s="112"/>
-      <c r="AD45" s="112"/>
-      <c r="AE45" s="113"/>
+      <c r="B45" s="146"/>
+      <c r="C45" s="146"/>
+      <c r="D45" s="146"/>
+      <c r="E45" s="146"/>
+      <c r="F45" s="146"/>
+      <c r="G45" s="146"/>
+      <c r="H45" s="146"/>
+      <c r="I45" s="146"/>
+      <c r="J45" s="146"/>
+      <c r="K45" s="146"/>
+      <c r="L45" s="146"/>
+      <c r="M45" s="146"/>
+      <c r="N45" s="146"/>
+      <c r="O45" s="146"/>
+      <c r="P45" s="146"/>
+      <c r="Q45" s="146"/>
+      <c r="R45" s="146"/>
+      <c r="S45" s="146"/>
+      <c r="T45" s="146"/>
+      <c r="U45" s="146"/>
+      <c r="V45" s="146"/>
+      <c r="W45" s="146"/>
+      <c r="X45" s="146"/>
+      <c r="Y45" s="146"/>
+      <c r="Z45" s="146"/>
+      <c r="AA45" s="146"/>
+      <c r="AB45" s="146"/>
+      <c r="AC45" s="146"/>
+      <c r="AD45" s="146"/>
+      <c r="AE45" s="147"/>
       <c r="AF45" s="22">
         <f>SUM(AF9:AF43)</f>
         <v>38</v>
@@ -8857,59 +9859,64 @@
       <c r="AH45" s="23"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="111" t="s">
+      <c r="A46" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="112"/>
-      <c r="C46" s="112"/>
-      <c r="D46" s="112"/>
-      <c r="E46" s="112"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="112"/>
-      <c r="H46" s="112"/>
-      <c r="I46" s="112"/>
-      <c r="J46" s="112"/>
-      <c r="K46" s="112"/>
-      <c r="L46" s="112"/>
-      <c r="M46" s="112"/>
-      <c r="N46" s="112"/>
-      <c r="O46" s="112"/>
-      <c r="P46" s="112"/>
-      <c r="Q46" s="112"/>
-      <c r="R46" s="112"/>
-      <c r="S46" s="112"/>
-      <c r="T46" s="112"/>
-      <c r="U46" s="112"/>
-      <c r="V46" s="112"/>
-      <c r="W46" s="112"/>
-      <c r="X46" s="112"/>
-      <c r="Y46" s="112"/>
-      <c r="Z46" s="112"/>
-      <c r="AA46" s="112"/>
-      <c r="AB46" s="112"/>
-      <c r="AC46" s="112"/>
-      <c r="AD46" s="112"/>
-      <c r="AE46" s="113"/>
-      <c r="AF46" s="104">
+      <c r="B46" s="146"/>
+      <c r="C46" s="146"/>
+      <c r="D46" s="146"/>
+      <c r="E46" s="146"/>
+      <c r="F46" s="146"/>
+      <c r="G46" s="146"/>
+      <c r="H46" s="146"/>
+      <c r="I46" s="146"/>
+      <c r="J46" s="146"/>
+      <c r="K46" s="146"/>
+      <c r="L46" s="146"/>
+      <c r="M46" s="146"/>
+      <c r="N46" s="146"/>
+      <c r="O46" s="146"/>
+      <c r="P46" s="146"/>
+      <c r="Q46" s="146"/>
+      <c r="R46" s="146"/>
+      <c r="S46" s="146"/>
+      <c r="T46" s="146"/>
+      <c r="U46" s="146"/>
+      <c r="V46" s="146"/>
+      <c r="W46" s="146"/>
+      <c r="X46" s="146"/>
+      <c r="Y46" s="146"/>
+      <c r="Z46" s="146"/>
+      <c r="AA46" s="146"/>
+      <c r="AB46" s="146"/>
+      <c r="AC46" s="146"/>
+      <c r="AD46" s="146"/>
+      <c r="AE46" s="147"/>
+      <c r="AF46" s="139">
         <f>AG45-AF45</f>
         <v>0</v>
       </c>
-      <c r="AG46" s="105"/>
+      <c r="AG46" s="140"/>
       <c r="AH46" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="AD44:AE44"/>
-    <mergeCell ref="A45:AE45"/>
-    <mergeCell ref="A46:AE46"/>
-    <mergeCell ref="AF46:AG46"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AF8"/>
@@ -8926,22 +9933,17 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="AD44:AE44"/>
+    <mergeCell ref="A45:AE45"/>
+    <mergeCell ref="A46:AE46"/>
+    <mergeCell ref="AF46:AG46"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="Z44:AA44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8952,8 +9954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:AJ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8969,11 +9971,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
+      <c r="A1" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
       <c r="D1" s="94"/>
       <c r="E1" s="94"/>
       <c r="F1" s="94"/>
@@ -9010,11 +10012,11 @@
       <c r="AJ1" s="2"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
       <c r="D2" s="95"/>
       <c r="E2" s="95"/>
       <c r="F2" s="95"/>
@@ -9051,117 +10053,117 @@
       <c r="AJ2" s="2"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="128"/>
-      <c r="T3" s="128"/>
-      <c r="U3" s="128"/>
-      <c r="V3" s="128"/>
-      <c r="W3" s="128"/>
-      <c r="X3" s="128"/>
-      <c r="Y3" s="128"/>
-      <c r="Z3" s="128"/>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="128"/>
-      <c r="AF3" s="128"/>
-      <c r="AG3" s="128"/>
-      <c r="AH3" s="128"/>
-      <c r="AI3" s="128"/>
-      <c r="AJ3" s="128"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="119"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="119"/>
+      <c r="AB3" s="119"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="119"/>
+      <c r="AE3" s="119"/>
+      <c r="AF3" s="119"/>
+      <c r="AG3" s="119"/>
+      <c r="AH3" s="119"/>
+      <c r="AI3" s="119"/>
+      <c r="AJ3" s="119"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="128"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="128"/>
-      <c r="X4" s="128"/>
-      <c r="Y4" s="128"/>
-      <c r="Z4" s="128"/>
-      <c r="AA4" s="128"/>
-      <c r="AB4" s="128"/>
-      <c r="AC4" s="128"/>
-      <c r="AD4" s="128"/>
-      <c r="AE4" s="128"/>
-      <c r="AF4" s="128"/>
-      <c r="AG4" s="128"/>
-      <c r="AH4" s="128"/>
-      <c r="AI4" s="128"/>
-      <c r="AJ4" s="128"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="119"/>
+      <c r="W4" s="119"/>
+      <c r="X4" s="119"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="119"/>
+      <c r="AA4" s="119"/>
+      <c r="AB4" s="119"/>
+      <c r="AC4" s="119"/>
+      <c r="AD4" s="119"/>
+      <c r="AE4" s="119"/>
+      <c r="AF4" s="119"/>
+      <c r="AG4" s="119"/>
+      <c r="AH4" s="119"/>
+      <c r="AI4" s="119"/>
+      <c r="AJ4" s="119"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="128"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="128"/>
-      <c r="R5" s="128"/>
-      <c r="S5" s="128"/>
-      <c r="T5" s="128"/>
-      <c r="U5" s="128"/>
-      <c r="V5" s="128"/>
-      <c r="W5" s="128"/>
-      <c r="X5" s="128"/>
-      <c r="Y5" s="128"/>
-      <c r="Z5" s="128"/>
-      <c r="AA5" s="128"/>
-      <c r="AB5" s="128"/>
-      <c r="AC5" s="128"/>
-      <c r="AD5" s="128"/>
-      <c r="AE5" s="128"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
+      <c r="X5" s="119"/>
+      <c r="Y5" s="119"/>
+      <c r="Z5" s="119"/>
+      <c r="AA5" s="119"/>
+      <c r="AB5" s="119"/>
+      <c r="AC5" s="119"/>
+      <c r="AD5" s="119"/>
+      <c r="AE5" s="119"/>
       <c r="AF5" s="96"/>
       <c r="AG5" s="96"/>
       <c r="AH5" s="96"/>
@@ -9169,129 +10171,129 @@
       <c r="AJ5" s="96"/>
     </row>
     <row r="6" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="130" t="s">
+      <c r="D6" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
-      <c r="N6" s="131"/>
-      <c r="O6" s="131"/>
-      <c r="P6" s="131"/>
-      <c r="Q6" s="131"/>
-      <c r="R6" s="131"/>
-      <c r="S6" s="131"/>
-      <c r="T6" s="131"/>
-      <c r="U6" s="131"/>
-      <c r="V6" s="131"/>
-      <c r="W6" s="131"/>
-      <c r="X6" s="131"/>
-      <c r="Y6" s="131"/>
-      <c r="Z6" s="131"/>
-      <c r="AA6" s="131"/>
-      <c r="AB6" s="131"/>
-      <c r="AC6" s="131"/>
-      <c r="AD6" s="131"/>
-      <c r="AE6" s="131"/>
-      <c r="AF6" s="131"/>
-      <c r="AG6" s="131"/>
-      <c r="AH6" s="131"/>
-      <c r="AI6" s="132"/>
-      <c r="AJ6" s="115" t="s">
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="122"/>
+      <c r="N6" s="122"/>
+      <c r="O6" s="122"/>
+      <c r="P6" s="122"/>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="122"/>
+      <c r="S6" s="122"/>
+      <c r="T6" s="122"/>
+      <c r="U6" s="122"/>
+      <c r="V6" s="122"/>
+      <c r="W6" s="122"/>
+      <c r="X6" s="122"/>
+      <c r="Y6" s="122"/>
+      <c r="Z6" s="122"/>
+      <c r="AA6" s="122"/>
+      <c r="AB6" s="122"/>
+      <c r="AC6" s="122"/>
+      <c r="AD6" s="122"/>
+      <c r="AE6" s="122"/>
+      <c r="AF6" s="122"/>
+      <c r="AG6" s="122"/>
+      <c r="AH6" s="122"/>
+      <c r="AI6" s="123"/>
+      <c r="AJ6" s="116" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="117"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="133" t="s">
+      <c r="A7" s="129"/>
+      <c r="B7" s="149"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="133"/>
-      <c r="F7" s="115" t="s">
+      <c r="E7" s="124"/>
+      <c r="F7" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="115"/>
-      <c r="H7" s="134" t="s">
+      <c r="G7" s="116"/>
+      <c r="H7" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="134"/>
-      <c r="J7" s="115" t="s">
+      <c r="I7" s="125"/>
+      <c r="J7" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="115"/>
-      <c r="L7" s="135" t="s">
+      <c r="K7" s="116"/>
+      <c r="L7" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="135"/>
-      <c r="N7" s="115" t="s">
+      <c r="M7" s="126"/>
+      <c r="N7" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="115"/>
-      <c r="P7" s="123" t="s">
+      <c r="O7" s="116"/>
+      <c r="P7" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="115" t="s">
+      <c r="Q7" s="136"/>
+      <c r="R7" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="115"/>
-      <c r="T7" s="124" t="s">
+      <c r="S7" s="116"/>
+      <c r="T7" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="124"/>
-      <c r="V7" s="115" t="s">
+      <c r="U7" s="137"/>
+      <c r="V7" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="115"/>
-      <c r="X7" s="125" t="s">
+      <c r="W7" s="116"/>
+      <c r="X7" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="125"/>
-      <c r="Z7" s="115" t="s">
+      <c r="Y7" s="138"/>
+      <c r="Z7" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="115"/>
-      <c r="AB7" s="114" t="s">
+      <c r="AA7" s="116"/>
+      <c r="AB7" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="114"/>
-      <c r="AD7" s="115" t="s">
+      <c r="AC7" s="127"/>
+      <c r="AD7" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="115"/>
-      <c r="AF7" s="115" t="s">
+      <c r="AE7" s="116"/>
+      <c r="AF7" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="AG7" s="115"/>
-      <c r="AH7" s="116" t="s">
+      <c r="AG7" s="116"/>
+      <c r="AH7" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="AI7" s="116" t="s">
+      <c r="AI7" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="AJ7" s="115"/>
+      <c r="AJ7" s="116"/>
     </row>
     <row r="8" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="136"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="115"/>
+      <c r="A8" s="148"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="116"/>
       <c r="D8" s="97" t="s">
         <v>26</v>
       </c>
@@ -9382,9 +10384,9 @@
       <c r="AG8" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="AH8" s="136"/>
-      <c r="AI8" s="136"/>
-      <c r="AJ8" s="115"/>
+      <c r="AH8" s="148"/>
+      <c r="AI8" s="148"/>
+      <c r="AJ8" s="116"/>
     </row>
     <row r="9" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
@@ -10680,16 +11682,16 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AH7:AH8"/>
-    <mergeCell ref="AI7:AI8"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AI6"/>
+    <mergeCell ref="AJ6:AJ8"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AJ3"/>
+    <mergeCell ref="A4:AJ4"/>
+    <mergeCell ref="A5:AE5"/>
     <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
@@ -10697,19 +11699,4380 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AJ3"/>
-    <mergeCell ref="A4:AJ4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AI6"/>
-    <mergeCell ref="AJ6:AJ8"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AH7:AH8"/>
+    <mergeCell ref="AI7:AI8"/>
   </mergeCells>
   <pageMargins left="0.27" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AH7" sqref="AH7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="5" customWidth="1"/>
+    <col min="3" max="26" width="3.28515625" style="5" customWidth="1"/>
+    <col min="27" max="27" width="4.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="32" width="3.28515625" style="5" customWidth="1"/>
+    <col min="33" max="33" width="4.7109375" style="5" customWidth="1"/>
+    <col min="34" max="34" width="6" style="5" customWidth="1"/>
+    <col min="35" max="35" width="9.7109375" style="5" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="150"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="118"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" s="119" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="119"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="119"/>
+      <c r="AB3" s="119"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="119"/>
+      <c r="AE3" s="119"/>
+      <c r="AF3" s="119"/>
+      <c r="AG3" s="119"/>
+      <c r="AH3" s="119"/>
+      <c r="AI3" s="119"/>
+      <c r="AJ3" s="119"/>
+    </row>
+    <row r="4" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122"/>
+      <c r="R4" s="122"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="122"/>
+      <c r="U4" s="122"/>
+      <c r="V4" s="122"/>
+      <c r="W4" s="122"/>
+      <c r="X4" s="122"/>
+      <c r="Y4" s="122"/>
+      <c r="Z4" s="122"/>
+      <c r="AA4" s="122"/>
+      <c r="AB4" s="122"/>
+      <c r="AC4" s="122"/>
+      <c r="AD4" s="122"/>
+      <c r="AE4" s="122"/>
+      <c r="AF4" s="122"/>
+      <c r="AG4" s="122"/>
+      <c r="AH4" s="123"/>
+      <c r="AI4" s="116" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="149"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="124"/>
+      <c r="E5" s="116" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="116"/>
+      <c r="G5" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="125"/>
+      <c r="I5" s="116" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="116"/>
+      <c r="K5" s="126" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="126"/>
+      <c r="M5" s="116" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="116"/>
+      <c r="O5" s="136" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="116" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="116"/>
+      <c r="S5" s="137" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="137"/>
+      <c r="U5" s="116" t="s">
+        <v>19</v>
+      </c>
+      <c r="V5" s="116"/>
+      <c r="W5" s="138" t="s">
+        <v>20</v>
+      </c>
+      <c r="X5" s="138"/>
+      <c r="Y5" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="127" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB5" s="127"/>
+      <c r="AC5" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="116" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF5" s="116"/>
+      <c r="AG5" s="128" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH5" s="128" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI5" s="116"/>
+    </row>
+    <row r="6" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="149"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="113" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="113" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="115" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="115" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="107" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="108" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="V6" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="W6" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="X6" s="109" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z6" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA6" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB6" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC6" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD6" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE6" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF6" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG6" s="148"/>
+      <c r="AH6" s="148"/>
+      <c r="AI6" s="116"/>
+    </row>
+    <row r="7" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>44131</v>
+      </c>
+      <c r="B7" s="168" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="25">
+        <v>12</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="9">
+        <v>14</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="9">
+        <v>18</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="9">
+        <v>4</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="41">
+        <v>81</v>
+      </c>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="9">
+        <v>3</v>
+      </c>
+      <c r="R7" s="9"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="9">
+        <v>1</v>
+      </c>
+      <c r="V7" s="9"/>
+      <c r="W7" s="49">
+        <v>62</v>
+      </c>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="9">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="33">
+        <v>155</v>
+      </c>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="9">
+        <v>39</v>
+      </c>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9">
+        <v>15</v>
+      </c>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9">
+        <f>D7+F7+H7+J7+L7+N7+P7+R7+T7+V7+X7+Z7+AB7+AD7+AF7</f>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="9">
+        <f>C7+E7+G7+I7+K7+M7+O7+Q7+S7+U7+W7+Y7+AA7+AC7+AE7</f>
+        <v>410</v>
+      </c>
+      <c r="AI7" s="9"/>
+    </row>
+    <row r="8" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="169" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="35">
+        <v>24</v>
+      </c>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14">
+        <f t="shared" ref="AG8:AG40" si="0">D8+F8+H8+J8+L8+N8+P8+R8+T8+V8+X8+Z8+AB8+AD8+AF8</f>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="14">
+        <f t="shared" ref="AH8:AH40" si="1">C8+E8+G8+I8+K8+M8+O8+Q8+S8+U8+W8+Y8+AA8+AC8+AE8</f>
+        <v>24</v>
+      </c>
+      <c r="AI8" s="14"/>
+    </row>
+    <row r="9" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>44131</v>
+      </c>
+      <c r="B9" s="169" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="31">
+        <v>60</v>
+      </c>
+      <c r="H9" s="31"/>
+      <c r="I9" s="14">
+        <v>11</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="51">
+        <v>23</v>
+      </c>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="35">
+        <v>25</v>
+      </c>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="14">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="AI9" s="14"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>44132</v>
+      </c>
+      <c r="B10" s="169" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31">
+        <v>24</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AH10" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="14"/>
+    </row>
+    <row r="11" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="169" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AH11" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="14"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="170" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16">
+        <v>15</v>
+      </c>
+      <c r="AG12" s="14">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="AH12" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="14"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="171" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16">
+        <v>14</v>
+      </c>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="14">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="AI13" s="14"/>
+    </row>
+    <row r="14" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="171" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16">
+        <v>3</v>
+      </c>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AH14" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="14"/>
+    </row>
+    <row r="15" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>44134</v>
+      </c>
+      <c r="B15" s="169" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31">
+        <v>48</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43">
+        <v>48</v>
+      </c>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="AH15" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="14"/>
+    </row>
+    <row r="16" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="169" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="31">
+        <v>12</v>
+      </c>
+      <c r="H16" s="31"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="14">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="AI16" s="14"/>
+    </row>
+    <row r="17" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="169" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14">
+        <v>1</v>
+      </c>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AH17" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="14"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="169" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="14">
+        <v>35</v>
+      </c>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="14">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="AI18" s="14"/>
+    </row>
+    <row r="19" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>44137</v>
+      </c>
+      <c r="B19" s="169" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14">
+        <v>1</v>
+      </c>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="51"/>
+      <c r="X19" s="51">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AH19" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI19" s="14"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="169" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="14">
+        <v>12</v>
+      </c>
+      <c r="R20" s="14"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="14">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="AI20" s="14"/>
+    </row>
+    <row r="21" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>44138</v>
+      </c>
+      <c r="B21" s="169" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="51"/>
+      <c r="X21" s="51"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AH21" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI21" s="14"/>
+    </row>
+    <row r="22" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="169" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AH22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI22" s="14"/>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>44139</v>
+      </c>
+      <c r="B23" s="169" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27">
+        <v>4</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14">
+        <v>6</v>
+      </c>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14">
+        <v>12</v>
+      </c>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14">
+        <v>5</v>
+      </c>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14">
+        <v>1</v>
+      </c>
+      <c r="W23" s="51"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14">
+        <v>2</v>
+      </c>
+      <c r="AG23" s="14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AH23" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI23" s="14"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="169" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="27">
+        <v>24</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="14">
+        <v>12</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH24" s="14">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="AI24" s="14"/>
+    </row>
+    <row r="25" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>44141</v>
+      </c>
+      <c r="B25" s="169" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="35"/>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI25" s="14"/>
+    </row>
+    <row r="26" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>44142</v>
+      </c>
+      <c r="B26" s="169" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14">
+        <v>2</v>
+      </c>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14">
+        <v>2</v>
+      </c>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14">
+        <v>1</v>
+      </c>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AH26" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI26" s="14"/>
+    </row>
+    <row r="27" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="169" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="14">
+        <v>1</v>
+      </c>
+      <c r="V27" s="14"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH27" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AI27" s="14"/>
+    </row>
+    <row r="28" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>44143</v>
+      </c>
+      <c r="B28" s="169" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14">
+        <v>1</v>
+      </c>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AH28" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI28" s="14"/>
+    </row>
+    <row r="29" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="169" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14">
+        <v>2</v>
+      </c>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="14"/>
+      <c r="AG29" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AH29" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI29" s="14"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>44144</v>
+      </c>
+      <c r="B30" s="169" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="14">
+        <v>12</v>
+      </c>
+      <c r="R30" s="14"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="35"/>
+      <c r="AB30" s="35"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14"/>
+      <c r="AG30" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH30" s="14">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="AI30" s="14"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="169" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14">
+        <v>4</v>
+      </c>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51">
+        <v>2</v>
+      </c>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14"/>
+      <c r="AG31" s="14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AH31" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI31" s="14"/>
+    </row>
+    <row r="32" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="169" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14">
+        <v>1</v>
+      </c>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AH32" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI32" s="14"/>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>44146</v>
+      </c>
+      <c r="B33" s="169" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43">
+        <v>24</v>
+      </c>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51">
+        <v>36</v>
+      </c>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="14"/>
+      <c r="AG33" s="14">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="AH33" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI33" s="14"/>
+    </row>
+    <row r="34" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="169" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27">
+        <v>1</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="35"/>
+      <c r="AB34" s="35">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="14"/>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="14"/>
+      <c r="AG34" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AH34" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI34" s="14"/>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="169" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="14">
+        <v>12</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="14">
+        <v>12</v>
+      </c>
+      <c r="R35" s="14"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="35"/>
+      <c r="AB35" s="35"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="14"/>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="14"/>
+      <c r="AG35" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH35" s="14">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AI35" s="14"/>
+    </row>
+    <row r="36" spans="1:35" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="47"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="51"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="35"/>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="14"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="14"/>
+      <c r="AG36" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH36" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI36" s="14"/>
+    </row>
+    <row r="37" spans="1:35" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="47"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="51"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="35"/>
+      <c r="AB37" s="35"/>
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="14"/>
+      <c r="AE37" s="14"/>
+      <c r="AF37" s="14"/>
+      <c r="AG37" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH37" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI37" s="14"/>
+    </row>
+    <row r="38" spans="1:35" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="51"/>
+      <c r="X38" s="51"/>
+      <c r="Y38" s="14"/>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="35"/>
+      <c r="AB38" s="35"/>
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="14"/>
+      <c r="AF38" s="14"/>
+      <c r="AG38" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH38" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI38" s="14"/>
+    </row>
+    <row r="39" spans="1:35" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="52"/>
+      <c r="X39" s="52"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="36"/>
+      <c r="AB39" s="36"/>
+      <c r="AC39" s="16"/>
+      <c r="AD39" s="16"/>
+      <c r="AE39" s="16"/>
+      <c r="AF39" s="16"/>
+      <c r="AG39" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH39" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI39" s="16"/>
+    </row>
+    <row r="40" spans="1:35" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="48"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="52"/>
+      <c r="X40" s="52"/>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="16"/>
+      <c r="AA40" s="36"/>
+      <c r="AB40" s="36"/>
+      <c r="AC40" s="16"/>
+      <c r="AD40" s="16"/>
+      <c r="AE40" s="16"/>
+      <c r="AF40" s="16"/>
+      <c r="AG40" s="165">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH40" s="165">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI40" s="16"/>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A41" s="17"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="166">
+        <f>SUM(C6:C40)-SUM(D6:D40)</f>
+        <v>31</v>
+      </c>
+      <c r="D41" s="167"/>
+      <c r="E41" s="166">
+        <f t="shared" ref="E41" si="2">SUM(E6:E40)-SUM(F6:F40)</f>
+        <v>26</v>
+      </c>
+      <c r="F41" s="167"/>
+      <c r="G41" s="166">
+        <f t="shared" ref="G41" si="3">SUM(G6:G40)-SUM(H6:H40)</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="167"/>
+      <c r="I41" s="166">
+        <f t="shared" ref="I41" si="4">SUM(I6:I40)-SUM(J6:J40)</f>
+        <v>9</v>
+      </c>
+      <c r="J41" s="167"/>
+      <c r="K41" s="166">
+        <f t="shared" ref="K41" si="5">SUM(K6:K40)-SUM(L6:L40)</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="167"/>
+      <c r="M41" s="166">
+        <f t="shared" ref="M41" si="6">SUM(M6:M40)-SUM(N6:N40)</f>
+        <v>4</v>
+      </c>
+      <c r="N41" s="167"/>
+      <c r="O41" s="166">
+        <f t="shared" ref="O41" si="7">SUM(O6:O40)-SUM(P6:P40)</f>
+        <v>4</v>
+      </c>
+      <c r="P41" s="167"/>
+      <c r="Q41" s="166">
+        <f t="shared" ref="Q41" si="8">SUM(Q6:Q40)-SUM(R6:R40)</f>
+        <v>30</v>
+      </c>
+      <c r="R41" s="167"/>
+      <c r="S41" s="166">
+        <f t="shared" ref="S41" si="9">SUM(S6:S40)-SUM(T6:T40)</f>
+        <v>0</v>
+      </c>
+      <c r="T41" s="167"/>
+      <c r="U41" s="166">
+        <f t="shared" ref="U41" si="10">SUM(U6:U40)-SUM(V6:V40)</f>
+        <v>1</v>
+      </c>
+      <c r="V41" s="167"/>
+      <c r="W41" s="166">
+        <f t="shared" ref="W41" si="11">SUM(W6:W40)-SUM(X6:X40)</f>
+        <v>46</v>
+      </c>
+      <c r="X41" s="167"/>
+      <c r="Y41" s="166">
+        <f t="shared" ref="Y41" si="12">SUM(Y6:Y40)-SUM(Z6:Z40)</f>
+        <v>0</v>
+      </c>
+      <c r="Z41" s="167"/>
+      <c r="AA41" s="166">
+        <f t="shared" ref="AA41" si="13">SUM(AA6:AA40)-SUM(AB6:AB40)</f>
+        <v>201</v>
+      </c>
+      <c r="AB41" s="167"/>
+      <c r="AC41" s="166">
+        <f t="shared" ref="AC41" si="14">SUM(AC6:AC40)-SUM(AD6:AD40)</f>
+        <v>73</v>
+      </c>
+      <c r="AD41" s="167"/>
+      <c r="AE41" s="166">
+        <f t="shared" ref="AE41" si="15">SUM(AE6:AE40)-SUM(AF6:AF40)</f>
+        <v>12</v>
+      </c>
+      <c r="AF41" s="167"/>
+      <c r="AG41" s="9">
+        <f>SUM(AG7:AG40)</f>
+        <v>262</v>
+      </c>
+      <c r="AH41" s="9">
+        <f>SUM(AH7:AH40)</f>
+        <v>699</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A42" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="146"/>
+      <c r="C42" s="146"/>
+      <c r="D42" s="146"/>
+      <c r="E42" s="146"/>
+      <c r="F42" s="146"/>
+      <c r="G42" s="146"/>
+      <c r="H42" s="146"/>
+      <c r="I42" s="146"/>
+      <c r="J42" s="146"/>
+      <c r="K42" s="146"/>
+      <c r="L42" s="146"/>
+      <c r="M42" s="146"/>
+      <c r="N42" s="146"/>
+      <c r="O42" s="146"/>
+      <c r="P42" s="146"/>
+      <c r="Q42" s="146"/>
+      <c r="R42" s="146"/>
+      <c r="S42" s="146"/>
+      <c r="T42" s="146"/>
+      <c r="U42" s="146"/>
+      <c r="V42" s="146"/>
+      <c r="W42" s="146"/>
+      <c r="X42" s="146"/>
+      <c r="Y42" s="146"/>
+      <c r="Z42" s="146"/>
+      <c r="AA42" s="146"/>
+      <c r="AB42" s="146"/>
+      <c r="AC42" s="146"/>
+      <c r="AD42" s="146"/>
+      <c r="AE42" s="147"/>
+      <c r="AF42" s="139">
+        <f>AH41-AG41</f>
+        <v>437</v>
+      </c>
+      <c r="AG42" s="140"/>
+      <c r="AH42" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="AA41:AB41"/>
+    <mergeCell ref="AC41:AD41"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="A3:AJ3"/>
+    <mergeCell ref="A42:AE42"/>
+    <mergeCell ref="AF42:AG42"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:AH4"/>
+    <mergeCell ref="AI4:AI6"/>
+  </mergeCells>
+  <pageMargins left="0.21" right="0.2" top="0.4" bottom="0.37" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="5" customWidth="1"/>
+    <col min="3" max="6" width="4" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16" width="3.28515625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="4" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="26" width="3.28515625" style="5" customWidth="1"/>
+    <col min="27" max="27" width="4.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="3.28515625" style="5" customWidth="1"/>
+    <col min="31" max="31" width="5.7109375" style="5" customWidth="1"/>
+    <col min="32" max="32" width="4.5703125" style="5" customWidth="1"/>
+    <col min="33" max="33" width="9.7109375" style="5" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="119" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="119"/>
+      <c r="X1" s="119"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="119"/>
+      <c r="AA1" s="119"/>
+      <c r="AB1" s="119"/>
+      <c r="AC1" s="119"/>
+      <c r="AD1" s="119"/>
+      <c r="AE1" s="119"/>
+      <c r="AF1" s="119"/>
+      <c r="AG1" s="119"/>
+      <c r="AH1" s="119"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="189"/>
+      <c r="B2" s="189"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="189"/>
+      <c r="O2" s="189"/>
+      <c r="P2" s="189"/>
+      <c r="Q2" s="189"/>
+      <c r="R2" s="189"/>
+      <c r="S2" s="189"/>
+      <c r="T2" s="189"/>
+      <c r="U2" s="189"/>
+      <c r="V2" s="189"/>
+      <c r="W2" s="189"/>
+      <c r="X2" s="189"/>
+      <c r="Y2" s="189"/>
+      <c r="Z2" s="189"/>
+      <c r="AA2" s="189"/>
+      <c r="AB2" s="189"/>
+      <c r="AC2" s="189"/>
+      <c r="AD2" s="189"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="112"/>
+      <c r="AG2" s="112"/>
+    </row>
+    <row r="3" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="186" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="122"/>
+      <c r="AA3" s="122"/>
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="122"/>
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="123"/>
+      <c r="AG3" s="128" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="187"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="184" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="185"/>
+      <c r="E4" s="121" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="123"/>
+      <c r="G4" s="182" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="183"/>
+      <c r="I4" s="121" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="123"/>
+      <c r="K4" s="180" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="181"/>
+      <c r="M4" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="123"/>
+      <c r="O4" s="178" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="179"/>
+      <c r="Q4" s="121" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="123"/>
+      <c r="S4" s="176" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" s="177"/>
+      <c r="U4" s="121" t="s">
+        <v>19</v>
+      </c>
+      <c r="V4" s="123"/>
+      <c r="W4" s="174" t="s">
+        <v>20</v>
+      </c>
+      <c r="X4" s="175"/>
+      <c r="Y4" s="121" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="172" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB4" s="173"/>
+      <c r="AC4" s="121" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD4" s="123"/>
+      <c r="AE4" s="128" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF4" s="128" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG4" s="129"/>
+    </row>
+    <row r="5" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="188"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="113" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="113" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="115" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="115" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="107" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="108" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="V5" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="X5" s="109" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z5" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA5" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB5" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC5" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD5" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE5" s="148"/>
+      <c r="AF5" s="148"/>
+      <c r="AG5" s="148"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>44125</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="33">
+        <v>48</v>
+      </c>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9">
+        <f>D6+F6+H6+J6+L6+N6+P6+R6+T6+V6+X6+Z6+AB6+AD6</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="9">
+        <f>C6+E6+G6+I6+K6+M6+O6+Q6+S6+U6+W6+Y6+AA6+AC6</f>
+        <v>48</v>
+      </c>
+      <c r="AG6" s="9"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>44125</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="27">
+        <v>480</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="14">
+        <v>600</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="14">
+        <v>240</v>
+      </c>
+      <c r="R7" s="14"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="9">
+        <f t="shared" ref="AE7:AE41" si="0">D7+F7+H7+J7+L7+N7+P7+R7+T7+V7+X7+Z7+AB7+AD7</f>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="9">
+        <f t="shared" ref="AF7:AF41" si="1">C7+E7+G7+I7+K7+M7+O7+Q7+S7+U7+W7+Y7+AA7+AC7</f>
+        <v>1320</v>
+      </c>
+      <c r="AG7" s="14"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14">
+        <v>24</v>
+      </c>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="9">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AF8" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="14"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27">
+        <v>48</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14">
+        <v>24</v>
+      </c>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14">
+        <v>12</v>
+      </c>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="9">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="AF9" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="14"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27">
+        <v>120</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14">
+        <v>120</v>
+      </c>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="9">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="AF10" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="14"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28">
+        <v>24</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="9">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AF11" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="14"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>44129</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28">
+        <v>12</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16">
+        <v>72</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="9">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="AF12" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="14"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28">
+        <v>12</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AF13" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="14"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>44127</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="14">
+        <v>1</v>
+      </c>
+      <c r="N14" s="14">
+        <v>1</v>
+      </c>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="14">
+        <v>1</v>
+      </c>
+      <c r="R14" s="14">
+        <v>1</v>
+      </c>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="14">
+        <v>1</v>
+      </c>
+      <c r="V14" s="14">
+        <v>1</v>
+      </c>
+      <c r="W14" s="51">
+        <v>1</v>
+      </c>
+      <c r="X14" s="51">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AF14" s="9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AG14" s="14"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>44129</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14">
+        <v>44</v>
+      </c>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="9">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="AF15" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="14"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14">
+        <v>4</v>
+      </c>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AF16" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="14"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>44130</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27">
+        <v>48</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14">
+        <v>60</v>
+      </c>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14">
+        <v>24</v>
+      </c>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="9">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="AF17" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="14"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>44130</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14">
+        <v>12</v>
+      </c>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AF18" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="14"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>44137</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14">
+        <v>12</v>
+      </c>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="51"/>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AF19" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="14"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>44139</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27">
+        <v>24</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14">
+        <v>12</v>
+      </c>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="9">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="AF20" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="14"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="27">
+        <v>4</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="14">
+        <v>6</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="14">
+        <v>12</v>
+      </c>
+      <c r="J21" s="14"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="14">
+        <v>5</v>
+      </c>
+      <c r="R21" s="14"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="14">
+        <v>1</v>
+      </c>
+      <c r="V21" s="14"/>
+      <c r="W21" s="51"/>
+      <c r="X21" s="51"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="9">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="AG21" s="14"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="31">
+        <v>3</v>
+      </c>
+      <c r="H22" s="31"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="14">
+        <v>2</v>
+      </c>
+      <c r="V22" s="14"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="14">
+        <v>12</v>
+      </c>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="9">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="AG22" s="14"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27">
+        <v>4</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14">
+        <v>6</v>
+      </c>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31">
+        <v>3</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14">
+        <v>5</v>
+      </c>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14">
+        <v>3</v>
+      </c>
+      <c r="W23" s="51"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="9">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="AF23" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="14"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14">
+        <v>24</v>
+      </c>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14">
+        <v>12</v>
+      </c>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14">
+        <v>12</v>
+      </c>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="9">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="AF24" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="14"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>44144</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14">
+        <v>12</v>
+      </c>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="35"/>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AF25" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="14"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="14">
+        <v>4</v>
+      </c>
+      <c r="J26" s="14"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="51">
+        <v>2</v>
+      </c>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AG26" s="14"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14">
+        <v>2</v>
+      </c>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AF27" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="14"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14">
+        <v>2</v>
+      </c>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AF28" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="14"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>44142</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14">
+        <v>12</v>
+      </c>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AF29" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="14"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14">
+        <f>10*12</f>
+        <v>120</v>
+      </c>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14">
+        <f>6*12</f>
+        <v>72</v>
+      </c>
+      <c r="S30" s="47"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="35"/>
+      <c r="AB30" s="35"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="9">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="AF30" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="14"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>44146</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="43">
+        <v>24</v>
+      </c>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="51">
+        <v>36</v>
+      </c>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="9">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="AG31" s="14"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27">
+        <v>120</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14">
+        <v>24</v>
+      </c>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14">
+        <v>48</v>
+      </c>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="51">
+        <v>36</v>
+      </c>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="35">
+        <v>48</v>
+      </c>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="9">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="AF32" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="14"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14">
+        <v>12</v>
+      </c>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14">
+        <v>12</v>
+      </c>
+      <c r="S33" s="47"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="9">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AF33" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="14"/>
+    </row>
+    <row r="34" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="35"/>
+      <c r="AB34" s="35"/>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="14"/>
+      <c r="AE34" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="14"/>
+    </row>
+    <row r="35" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="35"/>
+      <c r="AB35" s="35"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="14"/>
+      <c r="AE35" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="14"/>
+    </row>
+    <row r="36" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="47"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="51"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="35"/>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="14"/>
+      <c r="AE36" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="14"/>
+    </row>
+    <row r="37" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="47"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="51"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="35"/>
+      <c r="AB37" s="35"/>
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="14"/>
+      <c r="AE37" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF37" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="14"/>
+    </row>
+    <row r="38" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="51"/>
+      <c r="X38" s="51"/>
+      <c r="Y38" s="14"/>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="35"/>
+      <c r="AB38" s="35"/>
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF38" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG38" s="14"/>
+    </row>
+    <row r="39" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="47"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="51"/>
+      <c r="X39" s="51"/>
+      <c r="Y39" s="14"/>
+      <c r="Z39" s="14"/>
+      <c r="AA39" s="35"/>
+      <c r="AB39" s="35"/>
+      <c r="AC39" s="14"/>
+      <c r="AD39" s="14"/>
+      <c r="AE39" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF39" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG39" s="14"/>
+    </row>
+    <row r="40" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="48"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="52"/>
+      <c r="X40" s="52"/>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="16"/>
+      <c r="AA40" s="36"/>
+      <c r="AB40" s="36"/>
+      <c r="AC40" s="16"/>
+      <c r="AD40" s="16"/>
+      <c r="AE40" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF40" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="16"/>
+    </row>
+    <row r="41" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="48"/>
+      <c r="T41" s="48"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="52"/>
+      <c r="X41" s="52"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="36"/>
+      <c r="AB41" s="36"/>
+      <c r="AC41" s="16"/>
+      <c r="AD41" s="16"/>
+      <c r="AE41" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF41" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="16"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" s="17"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="151">
+        <f>SUM(C5:C41)-SUM(D5:D41)</f>
+        <v>72</v>
+      </c>
+      <c r="D42" s="152"/>
+      <c r="E42" s="139">
+        <f>SUM(E5:E41)-SUM(F5:F41)</f>
+        <v>60</v>
+      </c>
+      <c r="F42" s="140"/>
+      <c r="G42" s="153">
+        <f>SUM(G5:G41)-SUM(H5:H41)</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="154"/>
+      <c r="I42" s="139">
+        <f>SUM(I5:I41)-SUM(J6:J42)</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="140"/>
+      <c r="K42" s="155">
+        <f>SUM(K5:K41)-SUM(L5:L41)</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="156"/>
+      <c r="M42" s="139">
+        <f>SUM(M5:M41)-SUM(N5:N41)</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="140"/>
+      <c r="O42" s="157">
+        <f>SUM(O5:O41)-SUM(P5:P41)</f>
+        <v>0</v>
+      </c>
+      <c r="P42" s="158"/>
+      <c r="Q42" s="139">
+        <f>SUM(Q5:Q41)-SUM(R5:R41)</f>
+        <v>24</v>
+      </c>
+      <c r="R42" s="140"/>
+      <c r="S42" s="159">
+        <f>SUM(S5:S41)-SUM(T5:T41)</f>
+        <v>0</v>
+      </c>
+      <c r="T42" s="160"/>
+      <c r="U42" s="139">
+        <f>SUM(U5:U41)-SUM(V5:V41)</f>
+        <v>0</v>
+      </c>
+      <c r="V42" s="140"/>
+      <c r="W42" s="161">
+        <f>SUM(W5:W41)-SUM(X5:X41)</f>
+        <v>0</v>
+      </c>
+      <c r="X42" s="162"/>
+      <c r="Y42" s="139">
+        <f>SUM(Y5:Y41)-SUM(Z5:Z41)</f>
+        <v>0</v>
+      </c>
+      <c r="Z42" s="140"/>
+      <c r="AA42" s="163">
+        <f>SUM(AA5:AA41)-SUM(AB5:AB41)</f>
+        <v>0</v>
+      </c>
+      <c r="AB42" s="164"/>
+      <c r="AC42" s="139">
+        <f>SUM(AC5:AC41)-SUM(AD5:AD41)</f>
+        <v>0</v>
+      </c>
+      <c r="AD42" s="140"/>
+      <c r="AE42" s="9">
+        <f>SUM(AE6:AE41)</f>
+        <v>1331</v>
+      </c>
+      <c r="AF42" s="9">
+        <f>SUM(AF6:AF41)</f>
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="146"/>
+      <c r="C43" s="146"/>
+      <c r="D43" s="146"/>
+      <c r="E43" s="146"/>
+      <c r="F43" s="146"/>
+      <c r="G43" s="146"/>
+      <c r="H43" s="146"/>
+      <c r="I43" s="146"/>
+      <c r="J43" s="146"/>
+      <c r="K43" s="146"/>
+      <c r="L43" s="146"/>
+      <c r="M43" s="146"/>
+      <c r="N43" s="146"/>
+      <c r="O43" s="146"/>
+      <c r="P43" s="146"/>
+      <c r="Q43" s="146"/>
+      <c r="R43" s="146"/>
+      <c r="S43" s="146"/>
+      <c r="T43" s="146"/>
+      <c r="U43" s="146"/>
+      <c r="V43" s="146"/>
+      <c r="W43" s="146"/>
+      <c r="X43" s="146"/>
+      <c r="Y43" s="146"/>
+      <c r="Z43" s="146"/>
+      <c r="AA43" s="146"/>
+      <c r="AB43" s="146"/>
+      <c r="AC43" s="146"/>
+      <c r="AD43" s="146"/>
+      <c r="AE43" s="104"/>
+      <c r="AF43" s="23">
+        <f>AF42-AE42</f>
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="AC42:AD42"/>
+    <mergeCell ref="A43:AD43"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="A2:AD2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:AF3"/>
+    <mergeCell ref="AG3:AG5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+  </mergeCells>
+  <pageMargins left="0.3" right="0.2" top="0.41" bottom="0.41" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>